--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,335 +437,536 @@
       <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3196435793119958</v>
       </c>
+      <c r="B2" t="n">
+        <v>-0.3262056301079485</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>0.2130065476006842</v>
       </c>
+      <c r="B3" t="n">
+        <v>0.1973430043990916</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>0.1524408260306425</v>
       </c>
+      <c r="B4" t="n">
+        <v>0.1302510715930824</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>-0.05850261661895749</v>
       </c>
+      <c r="B5" t="n">
+        <v>-0.08662491400362807</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0.1392781044782666</v>
       </c>
+      <c r="B6" t="n">
+        <v>0.1267911413067892</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>-0.4439761727888896</v>
       </c>
+      <c r="B7" t="n">
+        <v>-0.4622718219935082</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>-0.3042368681041213</v>
       </c>
+      <c r="B8" t="n">
+        <v>-0.2721202125849562</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>-0.4096951266053405</v>
       </c>
+      <c r="B9" t="n">
+        <v>-0.4215539029919932</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>0.3104530236142112</v>
       </c>
+      <c r="B10" t="n">
+        <v>0.3433447984396565</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>-0.2094122046193624</v>
       </c>
+      <c r="B11" t="n">
+        <v>-0.2487543778038808</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>-0.1092472936749555</v>
       </c>
+      <c r="B12" t="n">
+        <v>-0.1097844704537383</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>0.001961338101021881</v>
       </c>
+      <c r="B13" t="n">
+        <v>-0.01171595900957665</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>-0.005838783256990734</v>
       </c>
+      <c r="B14" t="n">
+        <v>0.01149504879265671</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>-0.1346076660286505</v>
       </c>
+      <c r="B15" t="n">
+        <v>-0.05819741262321203</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>0.1951720505124546</v>
       </c>
+      <c r="B16" t="n">
+        <v>0.2858159185328134</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>0.5370164443025195</v>
       </c>
+      <c r="B17" t="n">
+        <v>0.563124343860992</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0.07606227590916192</v>
       </c>
+      <c r="B18" t="n">
+        <v>0.05151022774580531</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0.3871347601157085</v>
       </c>
+      <c r="B19" t="n">
+        <v>0.3801050985279987</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0.1741416729645838</v>
       </c>
+      <c r="B20" t="n">
+        <v>0.2354360921909205</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>0.3652836290686644</v>
       </c>
+      <c r="B21" t="n">
+        <v>0.4604852122243949</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>0.3064395748100527</v>
       </c>
+      <c r="B22" t="n">
+        <v>0.3407563088633724</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>-0.1063648293476759</v>
       </c>
+      <c r="B23" t="n">
+        <v>-0.09244117645539568</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4.409713341919858</v>
       </c>
+      <c r="B24" t="n">
+        <v>4.537685292080264</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>0.5608831722374112</v>
       </c>
+      <c r="B25" t="n">
+        <v>0.5276714520015621</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>0.3363488731712246</v>
       </c>
+      <c r="B26" t="n">
+        <v>0.3865084971551981</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>0.346798293593072</v>
       </c>
+      <c r="B27" t="n">
+        <v>0.3347112899583037</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1.083970905984162</v>
       </c>
+      <c r="B28" t="n">
+        <v>1.101682590302006</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6.285050208351628</v>
       </c>
+      <c r="B29" t="n">
+        <v>5.880675973654099</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1.05354695070231</v>
       </c>
+      <c r="B30" t="n">
+        <v>1.026257237776456</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>-0.07644150572777364</v>
       </c>
+      <c r="B31" t="n">
+        <v>-0.132021831180891</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>0.835820547463844</v>
       </c>
+      <c r="B32" t="n">
+        <v>0.8160840418720325</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>0.9373134557821473</v>
       </c>
+      <c r="B33" t="n">
+        <v>0.943321890479472</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>-0.5767574969448431</v>
       </c>
+      <c r="B34" t="n">
+        <v>-0.6225044766211654</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>0.8423559946706979</v>
       </c>
+      <c r="B35" t="n">
+        <v>0.8227091330419488</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>0.8029102190592571</v>
       </c>
+      <c r="B36" t="n">
+        <v>0.785324575538821</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>0.7918968820532399</v>
       </c>
+      <c r="B37" t="n">
+        <v>0.7616482074449005</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>0.7840273217834347</v>
       </c>
+      <c r="B38" t="n">
+        <v>0.7368169998210876</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>0.5857646904789711</v>
       </c>
+      <c r="B39" t="n">
+        <v>0.5852317773954258</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>0.7548829027362437</v>
       </c>
+      <c r="B40" t="n">
+        <v>0.7552084469826726</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>0.5827042941593981</v>
       </c>
+      <c r="B41" t="n">
+        <v>0.5626100458938021</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>0.7531292212847652</v>
       </c>
+      <c r="B42" t="n">
+        <v>0.7179076915742605</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>0.7505739106901089</v>
       </c>
+      <c r="B43" t="n">
+        <v>0.7241739736172695</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>0.6826875378525141</v>
       </c>
+      <c r="B44" t="n">
+        <v>0.6829084950922456</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>0.6806623429070084</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.6770882469038987</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>-1.246033568492073</v>
       </c>
+      <c r="B46" t="n">
+        <v>-1.259294341841793</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>-0.9621744951716042</v>
       </c>
+      <c r="B47" t="n">
+        <v>-0.9741234816865039</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>-0.8528148357393723</v>
       </c>
+      <c r="B48" t="n">
+        <v>-0.8669027100444782</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>-0.6255537795352007</v>
       </c>
+      <c r="B49" t="n">
+        <v>-0.6387071340702309</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>-0.04851057851748377</v>
       </c>
+      <c r="B50" t="n">
+        <v>-0.04734612250935647</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>-0.8439596336078585</v>
       </c>
+      <c r="B51" t="n">
+        <v>-0.8597814277296713</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>-0.8439596336078585</v>
       </c>
+      <c r="B52" t="n">
+        <v>-0.8597814277296713</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>-1.059576895117559</v>
       </c>
+      <c r="B53" t="n">
+        <v>-1.083552313285897</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>-0.1867859905688818</v>
       </c>
+      <c r="B54" t="n">
+        <v>-0.1874860143018053</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>-0.984780273914867</v>
       </c>
+      <c r="B55" t="n">
+        <v>-0.9947846777069013</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>-0.8986337458712885</v>
       </c>
+      <c r="B56" t="n">
+        <v>-0.8878718671948455</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>-0.9841332714965433</v>
       </c>
+      <c r="B57" t="n">
+        <v>-0.9468508169596056</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>-1.199317411903744</v>
       </c>
+      <c r="B58" t="n">
+        <v>-1.15126224138174</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>-0.8879527200678812</v>
       </c>
+      <c r="B59" t="n">
+        <v>-0.8600764908849532</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>-0.5491955170664152</v>
       </c>
+      <c r="B60" t="n">
+        <v>-0.5183189354500672</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>0.3641454521994543</v>
       </c>
+      <c r="B61" t="n">
+        <v>0.3693746975788355</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>-1.281533038769507</v>
       </c>
+      <c r="B62" t="n">
+        <v>-1.229297507291419</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>-0.7974107152600491</v>
       </c>
+      <c r="B63" t="n">
+        <v>-0.7657356006018912</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>-0.9064245938398733</v>
       </c>
+      <c r="B64" t="n">
+        <v>-0.9088214832527715</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>-0.1681597130261747</v>
       </c>
+      <c r="B65" t="n">
+        <v>-0.1312481098718712</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>-0.8694538336306682</v>
       </c>
+      <c r="B66" t="n">
+        <v>-0.8149438709111899</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>-0.8879584950286437</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.7951699883843418</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,9 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +451,9 @@
       <c r="B2" t="n">
         <v>-0.3262056301079485</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.3112980140467429</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +462,9 @@
       <c r="B3" t="n">
         <v>0.1973430043990916</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.2065416847512486</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +473,9 @@
       <c r="B4" t="n">
         <v>0.1302510715930824</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.1418205654855191</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +484,9 @@
       <c r="B5" t="n">
         <v>-0.08662491400362807</v>
       </c>
+      <c r="C5" t="n">
+        <v>-0.07704090021470952</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +495,9 @@
       <c r="B6" t="n">
         <v>0.1267911413067892</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.1425763902569039</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +506,9 @@
       <c r="B7" t="n">
         <v>-0.4622718219935082</v>
       </c>
+      <c r="C7" t="n">
+        <v>-0.4527558810974688</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +517,9 @@
       <c r="B8" t="n">
         <v>-0.2721202125849562</v>
       </c>
+      <c r="C8" t="n">
+        <v>-0.2603289572191466</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +528,9 @@
       <c r="B9" t="n">
         <v>-0.4215539029919932</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.4114738013147691</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +539,9 @@
       <c r="B10" t="n">
         <v>0.3433447984396565</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.3580686953613876</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +550,9 @@
       <c r="B11" t="n">
         <v>-0.2487543778038808</v>
       </c>
+      <c r="C11" t="n">
+        <v>-0.2399055122828032</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +561,9 @@
       <c r="B12" t="n">
         <v>-0.1097844704537383</v>
       </c>
+      <c r="C12" t="n">
+        <v>-0.0873066370082155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +572,9 @@
       <c r="B13" t="n">
         <v>-0.01171595900957665</v>
       </c>
+      <c r="C13" t="n">
+        <v>-0.01191385433495715</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +583,9 @@
       <c r="B14" t="n">
         <v>0.01149504879265671</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.05155802922678206</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +594,9 @@
       <c r="B15" t="n">
         <v>-0.05819741262321203</v>
       </c>
+      <c r="C15" t="n">
+        <v>-0.01369572637148195</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +605,9 @@
       <c r="B16" t="n">
         <v>0.2858159185328134</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.3472103327010492</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +616,9 @@
       <c r="B17" t="n">
         <v>0.563124343860992</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.598514994193861</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +627,9 @@
       <c r="B18" t="n">
         <v>0.05151022774580531</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.03878916555125164</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +638,9 @@
       <c r="B19" t="n">
         <v>0.3801050985279987</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.3958043559957307</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +649,9 @@
       <c r="B20" t="n">
         <v>0.2354360921909205</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.2934706472736356</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +660,9 @@
       <c r="B21" t="n">
         <v>0.4604852122243949</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.517878593557578</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +671,9 @@
       <c r="B22" t="n">
         <v>0.3407563088633724</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.377430769596674</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +682,9 @@
       <c r="B23" t="n">
         <v>-0.09244117645539568</v>
       </c>
+      <c r="C23" t="n">
+        <v>-0.0608179811506077</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +693,9 @@
       <c r="B24" t="n">
         <v>4.537685292080264</v>
       </c>
+      <c r="C24" t="n">
+        <v>4.579137554806769</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +704,9 @@
       <c r="B25" t="n">
         <v>0.5276714520015621</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.488382454367825</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +715,9 @@
       <c r="B26" t="n">
         <v>0.3865084971551981</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.3615177383265028</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +726,9 @@
       <c r="B27" t="n">
         <v>0.3347112899583037</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.303409187322828</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +737,9 @@
       <c r="B28" t="n">
         <v>1.101682590302006</v>
       </c>
+      <c r="C28" t="n">
+        <v>1.069211801959468</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +748,9 @@
       <c r="B29" t="n">
         <v>5.880675973654099</v>
       </c>
+      <c r="C29" t="n">
+        <v>5.465989120357457</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +759,9 @@
       <c r="B30" t="n">
         <v>1.026257237776456</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.9723697196820085</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +770,9 @@
       <c r="B31" t="n">
         <v>-0.132021831180891</v>
       </c>
+      <c r="C31" t="n">
+        <v>-0.1983294097244325</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +781,9 @@
       <c r="B32" t="n">
         <v>0.8160840418720325</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.7801612285857227</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +792,9 @@
       <c r="B33" t="n">
         <v>0.943321890479472</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.912811341700061</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +803,9 @@
       <c r="B34" t="n">
         <v>-0.6225044766211654</v>
       </c>
+      <c r="C34" t="n">
+        <v>-0.6563600928369668</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +814,9 @@
       <c r="B35" t="n">
         <v>0.8227091330419488</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.8136177197400545</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +825,9 @@
       <c r="B36" t="n">
         <v>0.785324575538821</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.7676957230286918</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +836,9 @@
       <c r="B37" t="n">
         <v>0.7616482074449005</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.7417196672734563</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +847,9 @@
       <c r="B38" t="n">
         <v>0.7368169998210876</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.7176524242778116</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +858,9 @@
       <c r="B39" t="n">
         <v>0.5852317773954258</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.580898655261708</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +869,9 @@
       <c r="B40" t="n">
         <v>0.7552084469826726</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.7521349625251679</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +880,9 @@
       <c r="B41" t="n">
         <v>0.5626100458938021</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5543715805352603</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +891,9 @@
       <c r="B42" t="n">
         <v>0.7179076915742605</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.6904290198476798</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +902,9 @@
       <c r="B43" t="n">
         <v>0.7241739736172695</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.7091434782750188</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +913,9 @@
       <c r="B44" t="n">
         <v>0.6829084950922456</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.674411792363956</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +924,9 @@
       <c r="B45" t="n">
         <v>0.6770882469038987</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.6580905976512383</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +935,9 @@
       <c r="B46" t="n">
         <v>-1.259294341841793</v>
       </c>
+      <c r="C46" t="n">
+        <v>-1.263811510086398</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +946,9 @@
       <c r="B47" t="n">
         <v>-0.9741234816865039</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.9795097922288276</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +957,9 @@
       <c r="B48" t="n">
         <v>-0.8669027100444782</v>
       </c>
+      <c r="C48" t="n">
+        <v>-0.8735394605770974</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +968,9 @@
       <c r="B49" t="n">
         <v>-0.6387071340702309</v>
       </c>
+      <c r="C49" t="n">
+        <v>-0.6425263145464726</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +979,9 @@
       <c r="B50" t="n">
         <v>-0.04734612250935647</v>
       </c>
+      <c r="C50" t="n">
+        <v>-0.0488315234424316</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +990,9 @@
       <c r="B51" t="n">
         <v>-0.8597814277296713</v>
       </c>
+      <c r="C51" t="n">
+        <v>-0.8654141101463644</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1001,9 @@
       <c r="B52" t="n">
         <v>-0.8597814277296713</v>
       </c>
+      <c r="C52" t="n">
+        <v>-0.8654141101463644</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1012,9 @@
       <c r="B53" t="n">
         <v>-1.083552313285897</v>
       </c>
+      <c r="C53" t="n">
+        <v>-1.097302253505303</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1023,9 @@
       <c r="B54" t="n">
         <v>-0.1874860143018053</v>
       </c>
+      <c r="C54" t="n">
+        <v>-0.1871342512186376</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1034,9 @@
       <c r="B55" t="n">
         <v>-0.9947846777069013</v>
       </c>
+      <c r="C55" t="n">
+        <v>-0.9993792754448271</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1045,9 @@
       <c r="B56" t="n">
         <v>-0.8878718671948455</v>
       </c>
+      <c r="C56" t="n">
+        <v>-0.8844730449215408</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1056,9 @@
       <c r="B57" t="n">
         <v>-0.9468508169596056</v>
       </c>
+      <c r="C57" t="n">
+        <v>-0.9341162932906286</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1067,9 @@
       <c r="B58" t="n">
         <v>-1.15126224138174</v>
       </c>
+      <c r="C58" t="n">
+        <v>-1.128542268251601</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1078,9 @@
       <c r="B59" t="n">
         <v>-0.8600764908849532</v>
       </c>
+      <c r="C59" t="n">
+        <v>-0.8483927370979433</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1089,9 @@
       <c r="B60" t="n">
         <v>-0.5183189354500672</v>
       </c>
+      <c r="C60" t="n">
+        <v>-0.4981670011442724</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1100,9 @@
       <c r="B61" t="n">
         <v>0.3693746975788355</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.3713187932361238</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1111,9 @@
       <c r="B62" t="n">
         <v>-1.229297507291419</v>
       </c>
+      <c r="C62" t="n">
+        <v>-1.209750680733107</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1122,9 @@
       <c r="B63" t="n">
         <v>-0.7657356006018912</v>
       </c>
+      <c r="C63" t="n">
+        <v>-0.7400286323080764</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1133,9 @@
       <c r="B64" t="n">
         <v>-0.9088214832527715</v>
       </c>
+      <c r="C64" t="n">
+        <v>-0.9027772512895821</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1144,9 @@
       <c r="B65" t="n">
         <v>-0.1312481098718712</v>
       </c>
+      <c r="C65" t="n">
+        <v>-0.1119708445767711</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1155,9 @@
       <c r="B66" t="n">
         <v>-0.8149438709111899</v>
       </c>
+      <c r="C66" t="n">
+        <v>-0.7911518241820487</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -967,6 +1165,9 @@
       </c>
       <c r="B67" t="n">
         <v>-0.7951699883843418</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.7628194820164587</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -449,10 +449,10 @@
         <v>-0.3196435793119958</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3262056301079485</v>
+        <v>-0.3014486003302357</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3112980140467429</v>
+        <v>-0.2836103601562896</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +460,10 @@
         <v>0.2130065476006842</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1973430043990916</v>
+        <v>0.2208790396742221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2065416847512486</v>
+        <v>0.2310613204452885</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +471,10 @@
         <v>0.1524408260306425</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1302510715930824</v>
+        <v>0.1629816387700927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1418205654855191</v>
+        <v>0.1755306681328835</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +482,10 @@
         <v>-0.05850261661895749</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08662491400362807</v>
+        <v>-0.05012634322047164</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.07704090021470952</v>
+        <v>-0.04056665752737425</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         <v>0.1392781044782666</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1267911413067892</v>
+        <v>0.1561968451442523</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1425763902569039</v>
+        <v>0.17212812949264</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +504,10 @@
         <v>-0.4439761727888896</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4622718219935082</v>
+        <v>-0.4370487854644528</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4527558810974688</v>
+        <v>-0.4265721493985016</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +515,10 @@
         <v>-0.3042368681041213</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2721202125849562</v>
+        <v>-0.2825953894762833</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2603289572191466</v>
+        <v>-0.2609341954564389</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +526,10 @@
         <v>-0.4096951266053405</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4215539029919932</v>
+        <v>-0.405010385582875</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4114738013147691</v>
+        <v>-0.3946392881059867</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +537,10 @@
         <v>0.3104530236142112</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3433447984396565</v>
+        <v>0.3284768669770559</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3580686953613876</v>
+        <v>0.345795008925863</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +548,10 @@
         <v>-0.2094122046193624</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2487543778038808</v>
+        <v>-0.2029198406968479</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2399055122828032</v>
+        <v>-0.1949870406157501</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +559,10 @@
         <v>-0.1092472936749555</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1097844704537383</v>
+        <v>-0.0829859070944069</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0873066370082155</v>
+        <v>-0.05739727746732613</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +570,10 @@
         <v>0.001961338101021881</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01171595900957665</v>
+        <v>0.001860657265781648</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01191385433495715</v>
+        <v>0.002311613583817898</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +581,10 @@
         <v>-0.005838783256990734</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01149504879265671</v>
+        <v>0.03690761557091227</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05155802922678206</v>
+        <v>0.07681899866205064</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +592,10 @@
         <v>-0.1346076660286505</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05819741262321203</v>
+        <v>-0.08004324378204768</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01369572637148195</v>
+        <v>-0.03093631638004116</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +603,10 @@
         <v>0.1951720505124546</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2858159185328134</v>
+        <v>0.265441533111786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3472103327010492</v>
+        <v>0.3314487172340432</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +614,10 @@
         <v>0.5370164443025195</v>
       </c>
       <c r="B17" t="n">
-        <v>0.563124343860992</v>
+        <v>0.5784939741767463</v>
       </c>
       <c r="C17" t="n">
-        <v>0.598514994193861</v>
+        <v>0.6110262923049181</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +625,10 @@
         <v>0.07606227590916192</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05151022774580531</v>
+        <v>0.0572461162532695</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03878916555125164</v>
+        <v>0.0388935416415849</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +636,10 @@
         <v>0.3871347601157085</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3801050985279987</v>
+        <v>0.3993796273122018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3958043559957307</v>
+        <v>0.4084822820252282</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +647,10 @@
         <v>0.1741416729645838</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2354360921909205</v>
+        <v>0.2392378157152579</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2934706472736356</v>
+        <v>0.2983112640309355</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +658,10 @@
         <v>0.3652836290686644</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4604852122243949</v>
+        <v>0.4409231861868707</v>
       </c>
       <c r="C21" t="n">
-        <v>0.517878593557578</v>
+        <v>0.5079155085024114</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +669,10 @@
         <v>0.3064395748100527</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3407563088633724</v>
+        <v>0.3489993189955894</v>
       </c>
       <c r="C22" t="n">
-        <v>0.377430769596674</v>
+        <v>0.3856127404050427</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +680,10 @@
         <v>-0.1063648293476759</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09244117645539568</v>
+        <v>-0.06826607600014872</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0608179811506077</v>
+        <v>-0.03634721152122115</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +691,10 @@
         <v>4.409713341919858</v>
       </c>
       <c r="B24" t="n">
-        <v>4.537685292080264</v>
+        <v>4.542957436487145</v>
       </c>
       <c r="C24" t="n">
-        <v>4.579137554806769</v>
+        <v>4.570757146750512</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +702,10 @@
         <v>0.5608831722374112</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5276714520015621</v>
+        <v>0.5297536296279391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.488382454367825</v>
+        <v>0.4912331328330304</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +713,10 @@
         <v>0.3363488731712246</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3865084971551981</v>
+        <v>0.389171018658315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3615177383265028</v>
+        <v>0.3684126309347704</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +724,10 @@
         <v>0.346798293593072</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3347112899583037</v>
+        <v>0.3409303774337827</v>
       </c>
       <c r="C27" t="n">
-        <v>0.303409187322828</v>
+        <v>0.3124607669649356</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +735,10 @@
         <v>1.083970905984162</v>
       </c>
       <c r="B28" t="n">
-        <v>1.101682590302006</v>
+        <v>1.103567232980138</v>
       </c>
       <c r="C28" t="n">
-        <v>1.069211801959468</v>
+        <v>1.071769410976996</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +746,10 @@
         <v>6.285050208351628</v>
       </c>
       <c r="B29" t="n">
-        <v>5.880675973654099</v>
+        <v>5.852343364666749</v>
       </c>
       <c r="C29" t="n">
-        <v>5.465989120357457</v>
+        <v>5.402542441936599</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +757,10 @@
         <v>1.05354695070231</v>
       </c>
       <c r="B30" t="n">
-        <v>1.026257237776456</v>
+        <v>1.034456036008815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9723697196820085</v>
+        <v>0.9825880294858924</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +768,10 @@
         <v>-0.07644150572777364</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.132021831180891</v>
+        <v>-0.1305243195791115</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1983294097244325</v>
+        <v>-0.1954689676156292</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +779,10 @@
         <v>0.835820547463844</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8160840418720325</v>
+        <v>0.8241433089858108</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7801612285857227</v>
+        <v>0.7863655111848381</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +790,10 @@
         <v>0.9373134557821473</v>
       </c>
       <c r="B33" t="n">
-        <v>0.943321890479472</v>
+        <v>0.9213854168362843</v>
       </c>
       <c r="C33" t="n">
-        <v>0.912811341700061</v>
+        <v>0.8944894956422242</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +801,10 @@
         <v>-0.5767574969448431</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6225044766211654</v>
+        <v>-0.6037134917095873</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.6563600928369668</v>
+        <v>-0.63624695351572</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +812,10 @@
         <v>0.8423559946706979</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8227091330419488</v>
+        <v>0.8322579948917794</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8136177197400545</v>
+        <v>0.8223535213348641</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +823,10 @@
         <v>0.8029102190592571</v>
       </c>
       <c r="B36" t="n">
-        <v>0.785324575538821</v>
+        <v>0.7860084475941813</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7676957230286918</v>
+        <v>0.7698895913431909</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +834,10 @@
         <v>0.7918968820532399</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7616482074449005</v>
+        <v>0.7681381328274761</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7417196672734563</v>
+        <v>0.7474376185359266</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +845,10 @@
         <v>0.7840273217834347</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7368169998210876</v>
+        <v>0.7602410526304069</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7176524242778116</v>
+        <v>0.7374706735306866</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +856,10 @@
         <v>0.5857646904789711</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5852317773954258</v>
+        <v>0.5828317397742391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.580898655261708</v>
+        <v>0.5804290068628625</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +867,10 @@
         <v>0.7548829027362437</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7552084469826726</v>
+        <v>0.7541647801922936</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7521349625251679</v>
+        <v>0.7528309752724952</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +878,10 @@
         <v>0.5827042941593981</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5626100458938021</v>
+        <v>0.5738368562037698</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5543715805352603</v>
+        <v>0.5660837628946727</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +889,10 @@
         <v>0.7531292212847652</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7179076915742605</v>
+        <v>0.7225480528620418</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6904290198476798</v>
+        <v>0.6931587004027192</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +900,10 @@
         <v>0.7505739106901089</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7241739736172695</v>
+        <v>0.7340831943415702</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7091434782750188</v>
+        <v>0.7184183177175822</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +911,10 @@
         <v>0.6826875378525141</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6829084950922456</v>
+        <v>0.674460994729557</v>
       </c>
       <c r="C44" t="n">
-        <v>0.674411792363956</v>
+        <v>0.6672824845645405</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +922,10 @@
         <v>0.6806623429070084</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6770882469038987</v>
+        <v>0.6605212839239608</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6580905976512383</v>
+        <v>0.6433336040147427</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +933,10 @@
         <v>-1.246033568492073</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.259294341841793</v>
+        <v>-1.252385680772581</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.263811510086398</v>
+        <v>-1.256773037854898</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +944,10 @@
         <v>-0.9621744951716042</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9741234816865039</v>
+        <v>-0.9696040711523473</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9795097922288276</v>
+        <v>-0.9747718144687532</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +955,10 @@
         <v>-0.8528148357393723</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8669027100444782</v>
+        <v>-0.8624287680479477</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8735394605770974</v>
+        <v>-0.8687396927531337</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +966,10 @@
         <v>-0.6255537795352007</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6387071340702309</v>
+        <v>-0.6314397035640043</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6425263145464726</v>
+        <v>-0.6349963409332019</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +977,10 @@
         <v>-0.04851057851748377</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04734612250935647</v>
+        <v>-0.04881614723499951</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.0488315234424316</v>
+        <v>-0.04925852735632676</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +988,10 @@
         <v>-0.8439596336078585</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8597814277296713</v>
+        <v>-0.8513797302704933</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8654141101463644</v>
+        <v>-0.8554818286696787</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +999,10 @@
         <v>-0.8439596336078585</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8597814277296713</v>
+        <v>-0.8513797302704933</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8654141101463644</v>
+        <v>-0.8554818286696787</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1010,10 @@
         <v>-1.059576895117559</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.083552313285897</v>
+        <v>-1.078713386057442</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.097302253505303</v>
+        <v>-1.093424245395886</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1021,10 @@
         <v>-0.1867859905688818</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1874860143018053</v>
+        <v>-0.1865630227146239</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1871342512186376</v>
+        <v>-0.1851023459123787</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1032,10 @@
         <v>-0.984780273914867</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9947846777069013</v>
+        <v>-0.9898708584296871</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9993792754448271</v>
+        <v>-0.9936145961238633</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1043,10 @@
         <v>-0.8986337458712885</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8878718671948455</v>
+        <v>-0.8922206499949255</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8844730449215408</v>
+        <v>-0.8864877234731758</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1054,10 @@
         <v>-0.9841332714965433</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9468508169596056</v>
+        <v>-0.9656975326397896</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9341162932906286</v>
+        <v>-0.9487388770193534</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1065,10 @@
         <v>-1.199317411903744</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.15126224138174</v>
+        <v>-1.167249448836082</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.128542268251601</v>
+        <v>-1.136821590379815</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1076,10 @@
         <v>-0.8879527200678812</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8600764908849532</v>
+        <v>-0.870412731334352</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8483927370979433</v>
+        <v>-0.8529240316513477</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1087,10 @@
         <v>-0.5491955170664152</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5183189354500672</v>
+        <v>-0.5226154975282774</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4981670011442724</v>
+        <v>-0.4968076412149591</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1098,10 @@
         <v>0.3641454521994543</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3693746975788355</v>
+        <v>0.3666051981124333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3713187932361238</v>
+        <v>0.3696770819872654</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1109,10 @@
         <v>-1.281533038769507</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.229297507291419</v>
+        <v>-1.256446171571648</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.209750680733107</v>
+        <v>-1.233318256826487</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1120,10 @@
         <v>-0.7974107152600491</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7657356006018912</v>
+        <v>-0.7646879888823394</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.7400286323080764</v>
+        <v>-0.72945411379562</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1131,10 @@
         <v>-0.9064245938398733</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9088214832527715</v>
+        <v>-0.9016649760301245</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.9027772512895821</v>
+        <v>-0.893155543773116</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1142,10 @@
         <v>-0.1681597130261747</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1312481098718712</v>
+        <v>-0.1412741075018785</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1119708445767711</v>
+        <v>-0.1157307761025997</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1153,10 @@
         <v>-0.8694538336306682</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8149438709111899</v>
+        <v>-0.8349009314063618</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.7911518241820487</v>
+        <v>-0.8041248071301309</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1164,10 @@
         <v>-0.8879584950286437</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7951699883843418</v>
+        <v>-0.8376161498186951</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7628194820164587</v>
+        <v>-0.7953707832833182</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,16 +443,28 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.3196435793119958</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3014486003302357</v>
+        <v>-0.3262056301079485</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2836103601562896</v>
+        <v>-0.3112980140467429</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.2968247675687409</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.2831294276583772</v>
       </c>
     </row>
     <row r="3">
@@ -460,10 +472,16 @@
         <v>0.2130065476006842</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2208790396742221</v>
+        <v>0.1973430043990916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2310613204452885</v>
+        <v>0.2065416847512486</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2166372530487319</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2267245108538933</v>
       </c>
     </row>
     <row r="4">
@@ -471,10 +489,16 @@
         <v>0.1524408260306425</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1629816387700927</v>
+        <v>0.1302510715930824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1755306681328835</v>
+        <v>0.1418205654855191</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1543698210598723</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1669317699465675</v>
       </c>
     </row>
     <row r="5">
@@ -482,10 +506,16 @@
         <v>-0.05850261661895749</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.05012634322047164</v>
+        <v>-0.08662491400362807</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04056665752737425</v>
+        <v>-0.07704090021470952</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06782744480529213</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.05947266192440955</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +523,16 @@
         <v>0.1392781044782666</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1561968451442523</v>
+        <v>0.1267911413067892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17212812949264</v>
+        <v>0.1425763902569039</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1577757995213483</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1716403738725467</v>
       </c>
     </row>
     <row r="7">
@@ -504,10 +540,16 @@
         <v>-0.4439761727888896</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4370487854644528</v>
+        <v>-0.4622718219935082</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4265721493985016</v>
+        <v>-0.4527558810974688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.4427275793353809</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4326515851592884</v>
       </c>
     </row>
     <row r="8">
@@ -515,10 +557,16 @@
         <v>-0.3042368681041213</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2825953894762833</v>
+        <v>-0.2721202125849562</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2609341954564389</v>
+        <v>-0.2603289572191466</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2477026304728691</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2349847685432591</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +574,16 @@
         <v>-0.4096951266053405</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.405010385582875</v>
+        <v>-0.4215539029919932</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3946392881059867</v>
+        <v>-0.4114738013147691</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.3991547334406629</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.385583653891701</v>
       </c>
     </row>
     <row r="10">
@@ -537,10 +591,16 @@
         <v>0.3104530236142112</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3284768669770559</v>
+        <v>0.3433447984396565</v>
       </c>
       <c r="C10" t="n">
-        <v>0.345795008925863</v>
+        <v>0.3580686953613876</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3719365335256363</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3843220301528791</v>
       </c>
     </row>
     <row r="11">
@@ -548,10 +608,16 @@
         <v>-0.2094122046193624</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2029198406968479</v>
+        <v>-0.2487543778038808</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1949870406157501</v>
+        <v>-0.2399055122828032</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.230912730326157</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.2222892167707231</v>
       </c>
     </row>
     <row r="12">
@@ -559,10 +625,16 @@
         <v>-0.1092472936749555</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0829859070944069</v>
+        <v>-0.1097844704537383</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05739727746732613</v>
+        <v>-0.0873066370082155</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.06702825810620978</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.04937651895594366</v>
       </c>
     </row>
     <row r="13">
@@ -570,10 +642,16 @@
         <v>0.001961338101021881</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001860657265781648</v>
+        <v>-0.01171595900957665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002311613583817898</v>
+        <v>-0.01191385433495715</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.01156541023472136</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.0112101582789857</v>
       </c>
     </row>
     <row r="14">
@@ -581,10 +659,16 @@
         <v>-0.005838783256990734</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03690761557091227</v>
+        <v>0.01149504879265671</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07681899866205064</v>
+        <v>0.05155802922678206</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.08801552103037588</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1200856704240608</v>
       </c>
     </row>
     <row r="15">
@@ -592,10 +676,16 @@
         <v>-0.1346076660286505</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.08004324378204768</v>
+        <v>-0.05819741262321203</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.03093631638004116</v>
+        <v>-0.01369572637148195</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.02558501525861567</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.05909453672944824</v>
       </c>
     </row>
     <row r="16">
@@ -603,10 +693,16 @@
         <v>0.1951720505124546</v>
       </c>
       <c r="B16" t="n">
-        <v>0.265441533111786</v>
+        <v>0.2858159185328134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3314487172340432</v>
+        <v>0.3472103327010492</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4022562303047558</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4500718595671089</v>
       </c>
     </row>
     <row r="17">
@@ -614,10 +710,16 @@
         <v>0.5370164443025195</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5784939741767463</v>
+        <v>0.563124343860992</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6110262923049181</v>
+        <v>0.598514994193861</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6285717138606319</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.652818407669788</v>
       </c>
     </row>
     <row r="18">
@@ -625,10 +727,16 @@
         <v>0.07606227590916192</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0572461162532695</v>
+        <v>0.05151022774580531</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0388935416415849</v>
+        <v>0.03878916555125164</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02770627094762623</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01770400497480018</v>
       </c>
     </row>
     <row r="19">
@@ -636,10 +744,16 @@
         <v>0.3871347601157085</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3993796273122018</v>
+        <v>0.3801050985279987</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4084822820252282</v>
+        <v>0.3958043559957307</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.409721124107925</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4211276169770829</v>
       </c>
     </row>
     <row r="20">
@@ -647,10 +761,16 @@
         <v>0.1741416729645838</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2392378157152579</v>
+        <v>0.2354360921909205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2983112640309355</v>
+        <v>0.2934706472736356</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3446824427181091</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3883515187112792</v>
       </c>
     </row>
     <row r="21">
@@ -658,10 +778,16 @@
         <v>0.3652836290686644</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4409231861868707</v>
+        <v>0.4604852122243949</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5079155085024114</v>
+        <v>0.517878593557578</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5671489504056036</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.608052850793377</v>
       </c>
     </row>
     <row r="22">
@@ -669,10 +795,16 @@
         <v>0.3064395748100527</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3489993189955894</v>
+        <v>0.3407563088633724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3856127404050427</v>
+        <v>0.377430769596674</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4090313796388642</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4350154813545994</v>
       </c>
     </row>
     <row r="23">
@@ -680,10 +812,16 @@
         <v>-0.1063648293476759</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.06826607600014872</v>
+        <v>-0.09244117645539568</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.03634721152122115</v>
+        <v>-0.0608179811506077</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03397398560891771</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01216876333360331</v>
       </c>
     </row>
     <row r="24">
@@ -691,10 +829,16 @@
         <v>4.409713341919858</v>
       </c>
       <c r="B24" t="n">
-        <v>4.542957436487145</v>
+        <v>4.537685292080264</v>
       </c>
       <c r="C24" t="n">
-        <v>4.570757146750512</v>
+        <v>4.579137554806769</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.537864491830653</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.429727826019735</v>
       </c>
     </row>
     <row r="25">
@@ -702,10 +846,16 @@
         <v>0.5608831722374112</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5297536296279391</v>
+        <v>0.5276714520015621</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4912331328330304</v>
+        <v>0.488382454367825</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4551840160358246</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4255583837517669</v>
       </c>
     </row>
     <row r="26">
@@ -713,10 +863,16 @@
         <v>0.3363488731712246</v>
       </c>
       <c r="B26" t="n">
-        <v>0.389171018658315</v>
+        <v>0.3865084971551981</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3684126309347704</v>
+        <v>0.3615177383265028</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3398179294592206</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3178135699851935</v>
       </c>
     </row>
     <row r="27">
@@ -724,10 +880,16 @@
         <v>0.346798293593072</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3409303774337827</v>
+        <v>0.3347112899583037</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3124607669649356</v>
+        <v>0.303409187322828</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2758292037665361</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.248481584850865</v>
       </c>
     </row>
     <row r="28">
@@ -735,10 +897,16 @@
         <v>1.083970905984162</v>
       </c>
       <c r="B28" t="n">
-        <v>1.103567232980138</v>
+        <v>1.101682590302006</v>
       </c>
       <c r="C28" t="n">
-        <v>1.071769410976996</v>
+        <v>1.069211801959468</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.037288312556877</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.005714189489717</v>
       </c>
     </row>
     <row r="29">
@@ -746,10 +914,16 @@
         <v>6.285050208351628</v>
       </c>
       <c r="B29" t="n">
-        <v>5.852343364666749</v>
+        <v>5.880675973654099</v>
       </c>
       <c r="C29" t="n">
-        <v>5.402542441936599</v>
+        <v>5.465989120357457</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5.057806472844939</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.661229097481694</v>
       </c>
     </row>
     <row r="30">
@@ -757,10 +931,16 @@
         <v>1.05354695070231</v>
       </c>
       <c r="B30" t="n">
-        <v>1.034456036008815</v>
+        <v>1.026257237776456</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9825880294858924</v>
+        <v>0.9723697196820085</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9242096999879832</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.879851145615141</v>
       </c>
     </row>
     <row r="31">
@@ -768,10 +948,16 @@
         <v>-0.07644150572777364</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1305243195791115</v>
+        <v>-0.132021831180891</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1954689676156292</v>
+        <v>-0.1983294097244325</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.2546211676007799</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.303876126658982</v>
       </c>
     </row>
     <row r="32">
@@ -779,10 +965,16 @@
         <v>0.835820547463844</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8241433089858108</v>
+        <v>0.8160840418720325</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7863655111848381</v>
+        <v>0.7801612285857227</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.748210789192325</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.717327399663262</v>
       </c>
     </row>
     <row r="33">
@@ -790,10 +982,16 @@
         <v>0.9373134557821473</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9213854168362843</v>
+        <v>0.943321890479472</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8944894956422242</v>
+        <v>0.912811341700061</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8868777381331967</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8628002275848395</v>
       </c>
     </row>
     <row r="34">
@@ -801,10 +999,16 @@
         <v>-0.5767574969448431</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6037134917095873</v>
+        <v>-0.6225044766211654</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.63624695351572</v>
+        <v>-0.6563600928369668</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.685891609971865</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.7133167669137845</v>
       </c>
     </row>
     <row r="35">
@@ -812,10 +1016,16 @@
         <v>0.8423559946706979</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8322579948917794</v>
+        <v>0.8227091330419488</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8223535213348641</v>
+        <v>0.8136177197400545</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8057086695402788</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.7983758155621118</v>
       </c>
     </row>
     <row r="36">
@@ -823,10 +1033,16 @@
         <v>0.8029102190592571</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7860084475941813</v>
+        <v>0.785324575538821</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7698895913431909</v>
+        <v>0.7676957230286918</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7527353103908232</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.739766476328692</v>
       </c>
     </row>
     <row r="37">
@@ -834,10 +1050,16 @@
         <v>0.7918968820532399</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7681381328274761</v>
+        <v>0.7616482074449005</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7474376185359266</v>
+        <v>0.7417196672734563</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7246931780510263</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7099087826312352</v>
       </c>
     </row>
     <row r="38">
@@ -845,10 +1067,16 @@
         <v>0.7840273217834347</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7602410526304069</v>
+        <v>0.7368169998210876</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7374706735306866</v>
+        <v>0.7176524242778116</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.700922380920297</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6859547615923561</v>
       </c>
     </row>
     <row r="39">
@@ -856,10 +1084,16 @@
         <v>0.5857646904789711</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5828317397742391</v>
+        <v>0.5852317773954258</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5804290068628625</v>
+        <v>0.580898655261708</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5776250229312484</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5747992602722133</v>
       </c>
     </row>
     <row r="40">
@@ -867,10 +1101,16 @@
         <v>0.7548829027362437</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7541647801922936</v>
+        <v>0.7552084469826726</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7528309752724952</v>
+        <v>0.7521349625251679</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7494396738585015</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7465407144997647</v>
       </c>
     </row>
     <row r="41">
@@ -878,10 +1118,16 @@
         <v>0.5827042941593981</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5738368562037698</v>
+        <v>0.5626100458938021</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5660837628946727</v>
+        <v>0.5543715805352603</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5483935439029464</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5438690680778824</v>
       </c>
     </row>
     <row r="42">
@@ -889,10 +1135,16 @@
         <v>0.7531292212847652</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7225480528620418</v>
+        <v>0.7179076915742605</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6931587004027192</v>
+        <v>0.6904290198476798</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6662060303902337</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6446789416152406</v>
       </c>
     </row>
     <row r="43">
@@ -900,10 +1152,16 @@
         <v>0.7505739106901089</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7340831943415702</v>
+        <v>0.7241739736172695</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7184183177175822</v>
+        <v>0.7091434782750188</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.6964702833621887</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6854170303110387</v>
       </c>
     </row>
     <row r="44">
@@ -911,10 +1169,16 @@
         <v>0.6826875378525141</v>
       </c>
       <c r="B44" t="n">
-        <v>0.674460994729557</v>
+        <v>0.6829084950922456</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6672824845645405</v>
+        <v>0.674411792363956</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6678673715680018</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6625382763182925</v>
       </c>
     </row>
     <row r="45">
@@ -922,10 +1186,16 @@
         <v>0.6806623429070084</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6605212839239608</v>
+        <v>0.6770882469038987</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6433336040147427</v>
+        <v>0.6580905976512383</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6422992906277425</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6290737183597467</v>
       </c>
     </row>
     <row r="46">
@@ -933,10 +1203,16 @@
         <v>-1.246033568492073</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.252385680772581</v>
+        <v>-1.259294341841793</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.256773037854898</v>
+        <v>-1.263811510086398</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1.267708564968823</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.270867090200296</v>
       </c>
     </row>
     <row r="47">
@@ -944,10 +1220,16 @@
         <v>-0.9621744951716042</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9696040711523473</v>
+        <v>-0.9741234816865039</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.9747718144687532</v>
+        <v>-0.9795097922288276</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.9841360423357495</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.9879821072228756</v>
       </c>
     </row>
     <row r="48">
@@ -955,10 +1237,16 @@
         <v>-0.8528148357393723</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8624287680479477</v>
+        <v>-0.8669027100444782</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8687396927531337</v>
+        <v>-0.8735394605770974</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.878526254468243</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.8820532658286647</v>
       </c>
     </row>
     <row r="49">
@@ -966,10 +1254,16 @@
         <v>-0.6255537795352007</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6314397035640043</v>
+        <v>-0.6387071340702309</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6349963409332019</v>
+        <v>-0.6425263145464726</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.6451204534471169</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.6467585949912471</v>
       </c>
     </row>
     <row r="50">
@@ -977,10 +1271,16 @@
         <v>-0.04851057851748377</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04881614723499951</v>
+        <v>-0.04734612250935647</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.04925852735632676</v>
+        <v>-0.0488315234424316</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.04986712173913663</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.05084090092411544</v>
       </c>
     </row>
     <row r="51">
@@ -988,10 +1288,16 @@
         <v>-0.8439596336078585</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8513797302704933</v>
+        <v>-0.8597814277296713</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.8554818286696787</v>
+        <v>-0.8654141101463644</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.8697001213243605</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.8727522574982215</v>
       </c>
     </row>
     <row r="52">
@@ -999,10 +1305,16 @@
         <v>-0.8439596336078585</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8513797302704933</v>
+        <v>-0.8597814277296713</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8554818286696787</v>
+        <v>-0.8654141101463644</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.8697001213243605</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.8727522574982215</v>
       </c>
     </row>
     <row r="53">
@@ -1010,10 +1322,16 @@
         <v>-1.059576895117559</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.078713386057442</v>
+        <v>-1.083552313285897</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.093424245395886</v>
+        <v>-1.097302253505303</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-1.108638927503274</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.117691261675691</v>
       </c>
     </row>
     <row r="54">
@@ -1021,10 +1339,16 @@
         <v>-0.1867859905688818</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1865630227146239</v>
+        <v>-0.1874860143018053</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.1851023459123787</v>
+        <v>-0.1871342512186376</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-0.1861820668096902</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.1850206658405746</v>
       </c>
     </row>
     <row r="55">
@@ -1032,10 +1356,16 @@
         <v>-0.984780273914867</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9898708584296871</v>
+        <v>-0.9947846777069013</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.9936145961238633</v>
+        <v>-0.9993792754448271</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-1.003344435830261</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.006677793986441</v>
       </c>
     </row>
     <row r="56">
@@ -1043,10 +1373,16 @@
         <v>-0.8986337458712885</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8922206499949255</v>
+        <v>-0.8878718671948455</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.8864877234731758</v>
+        <v>-0.8844730449215408</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.8820658690662952</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.8805137556689066</v>
       </c>
     </row>
     <row r="57">
@@ -1054,10 +1390,16 @@
         <v>-0.9841332714965433</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9656975326397896</v>
+        <v>-0.9468508169596056</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.9487388770193534</v>
+        <v>-0.9341162932906286</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.9228142763993664</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.9130028463906261</v>
       </c>
     </row>
     <row r="58">
@@ -1065,10 +1407,16 @@
         <v>-1.199317411903744</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.167249448836082</v>
+        <v>-1.15126224138174</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.136821590379815</v>
+        <v>-1.128542268251601</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-1.108593711885405</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.091286089897769</v>
       </c>
     </row>
     <row r="59">
@@ -1076,10 +1424,16 @@
         <v>-0.8879527200678812</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.870412731334352</v>
+        <v>-0.8600764908849532</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.8529240316513477</v>
+        <v>-0.8483927370979433</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.8373464950248912</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.8270450846581709</v>
       </c>
     </row>
     <row r="60">
@@ -1087,10 +1441,16 @@
         <v>-0.5491955170664152</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5226154975282774</v>
+        <v>-0.5183189354500672</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4968076412149591</v>
+        <v>-0.4981670011442724</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.4797639111915284</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0.4633679861010591</v>
       </c>
     </row>
     <row r="61">
@@ -1098,10 +1458,16 @@
         <v>0.3641454521994543</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3666051981124333</v>
+        <v>0.3693746975788355</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3696770819872654</v>
+        <v>0.3713187932361238</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.3738096984249569</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.3761934843145934</v>
       </c>
     </row>
     <row r="62">
@@ -1109,10 +1475,16 @@
         <v>-1.281533038769507</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.256446171571648</v>
+        <v>-1.229297507291419</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.233318256826487</v>
+        <v>-1.209750680733107</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-1.192594656859132</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.177787945402543</v>
       </c>
     </row>
     <row r="63">
@@ -1120,10 +1492,16 @@
         <v>-0.7974107152600491</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7646879888823394</v>
+        <v>-0.7657356006018912</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.72945411379562</v>
+        <v>-0.7400286323080764</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.7155447674589617</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.6925436139656344</v>
       </c>
     </row>
     <row r="64">
@@ -1131,10 +1509,16 @@
         <v>-0.9064245938398733</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9016649760301245</v>
+        <v>-0.9088214832527715</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.893155543773116</v>
+        <v>-0.9027772512895821</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8956121157317797</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.8877465956533145</v>
       </c>
     </row>
     <row r="65">
@@ -1142,10 +1526,16 @@
         <v>-0.1681597130261747</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1412741075018785</v>
+        <v>-0.1312481098718712</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.1157307761025997</v>
+        <v>-0.1119708445767711</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.09441090829008827</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.07892842271157849</v>
       </c>
     </row>
     <row r="66">
@@ -1153,10 +1543,16 @@
         <v>-0.8694538336306682</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8349009314063618</v>
+        <v>-0.8149438709111899</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.8041248071301309</v>
+        <v>-0.7911518241820487</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.7708609654517908</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.7540318667592777</v>
       </c>
     </row>
     <row r="67">
@@ -1164,10 +1560,16 @@
         <v>-0.8879584950286437</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.8376161498186951</v>
+        <v>-0.7951699883843418</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.7953707832833182</v>
+        <v>-0.7628194820164587</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.7361516981732094</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0.7148266051416914</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +469,9 @@
       <c r="E2" t="n">
         <v>-0.2831294276583772</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2704255194281483</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +489,9 @@
       <c r="E3" t="n">
         <v>0.2267245108538933</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2364371778335738</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +509,9 @@
       <c r="E4" t="n">
         <v>0.1669317699465675</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1791689759381423</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +529,9 @@
       <c r="E5" t="n">
         <v>-0.05947266192440955</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05208333570723714</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +549,9 @@
       <c r="E6" t="n">
         <v>0.1716403738725467</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.184029566554648</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +569,9 @@
       <c r="E7" t="n">
         <v>-0.4326515851592884</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4228230951106976</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +589,9 @@
       <c r="E8" t="n">
         <v>-0.2349847685432591</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.222426446066282</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +609,9 @@
       <c r="E9" t="n">
         <v>-0.385583653891701</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3714515234378659</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +629,9 @@
       <c r="E10" t="n">
         <v>0.3843220301528791</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.395158196517992</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +649,9 @@
       <c r="E11" t="n">
         <v>-0.2222892167707231</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2142005725939878</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +669,9 @@
       <c r="E12" t="n">
         <v>-0.04937651895594366</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03445392494040828</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +689,9 @@
       <c r="E13" t="n">
         <v>-0.0112101582789857</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01095789861858376</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +709,9 @@
       <c r="E14" t="n">
         <v>0.1200856704240608</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1474732781280668</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +729,9 @@
       <c r="E15" t="n">
         <v>0.05909453672944824</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08662962442043462</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +749,9 @@
       <c r="E16" t="n">
         <v>0.4500718595671089</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4903247001505312</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +769,9 @@
       <c r="E17" t="n">
         <v>0.652818407669788</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6712392186188219</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +789,9 @@
       <c r="E18" t="n">
         <v>0.01770400497480018</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.008408745075417515</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +809,9 @@
       <c r="E19" t="n">
         <v>0.4211276169770829</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.429920813439199</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +829,9 @@
       <c r="E20" t="n">
         <v>0.3883515187112792</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4242806826941915</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +849,9 @@
       <c r="E21" t="n">
         <v>0.608052850793377</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6409128928139449</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +869,9 @@
       <c r="E22" t="n">
         <v>0.4350154813545994</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4553804180577202</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +889,9 @@
       <c r="E23" t="n">
         <v>-0.01216876333360331</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.004675632240143834</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +909,9 @@
       <c r="E24" t="n">
         <v>4.429727826019735</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.268726588975109</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +929,9 @@
       <c r="E25" t="n">
         <v>0.4255583837517669</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3993705725706274</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +949,9 @@
       <c r="E26" t="n">
         <v>0.3178135699851935</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2958719685124704</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +969,9 @@
       <c r="E27" t="n">
         <v>0.248481584850865</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2217968977396655</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +989,9 @@
       <c r="E28" t="n">
         <v>1.005714189489717</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9749739854452215</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +1009,9 @@
       <c r="E29" t="n">
         <v>4.661229097481694</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.280610015399795</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +1029,9 @@
       <c r="E30" t="n">
         <v>0.879851145615141</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8391707463201397</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +1049,9 @@
       <c r="E31" t="n">
         <v>-0.303876126658982</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3464682995048806</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +1069,9 @@
       <c r="E32" t="n">
         <v>0.717327399663262</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6880012395170597</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +1089,9 @@
       <c r="E33" t="n">
         <v>0.8628002275848395</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8407428928712293</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +1109,9 @@
       <c r="E34" t="n">
         <v>-0.7133167669137845</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7384155516014332</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +1129,9 @@
       <c r="E35" t="n">
         <v>0.7983758155621118</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7918076825459993</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +1149,9 @@
       <c r="E36" t="n">
         <v>0.739766476328692</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7288905741129694</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +1169,9 @@
       <c r="E37" t="n">
         <v>0.7099087826312352</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6974602686825369</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +1189,9 @@
       <c r="E38" t="n">
         <v>0.6859547615923561</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6727833723154946</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +1209,9 @@
       <c r="E39" t="n">
         <v>0.5747992602722133</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5725168835076183</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +1229,9 @@
       <c r="E40" t="n">
         <v>0.7465407144997647</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.743706826886118</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +1249,9 @@
       <c r="E41" t="n">
         <v>0.5438690680778824</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5406752576629119</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +1269,9 @@
       <c r="E42" t="n">
         <v>0.6446789416152406</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6259734056348898</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +1289,9 @@
       <c r="E43" t="n">
         <v>0.6854170303110387</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6759820672695217</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +1309,9 @@
       <c r="E44" t="n">
         <v>0.6625382763182925</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6584361080661351</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +1329,9 @@
       <c r="E45" t="n">
         <v>0.6290737183597467</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6185075512614054</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +1349,9 @@
       <c r="E46" t="n">
         <v>-1.270867090200296</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.273445971233956</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +1369,9 @@
       <c r="E47" t="n">
         <v>-0.9879821072228756</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9911734919118209</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +1389,9 @@
       <c r="E48" t="n">
         <v>-0.8820532658286647</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8843518453038822</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +1409,9 @@
       <c r="E49" t="n">
         <v>-0.6467585949912471</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6476160385712562</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +1429,9 @@
       <c r="E50" t="n">
         <v>-0.05084090092411544</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05178413837529409</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +1449,9 @@
       <c r="E51" t="n">
         <v>-0.8727522574982215</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8747240363746321</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +1469,9 @@
       <c r="E52" t="n">
         <v>-0.8727522574982215</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8747240363746321</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +1489,9 @@
       <c r="E53" t="n">
         <v>-1.117691261675691</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.124774396324155</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +1509,9 @@
       <c r="E54" t="n">
         <v>-0.1850206658405746</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.183733357833923</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +1529,9 @@
       <c r="E55" t="n">
         <v>-1.006677793986441</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.0094937263216</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +1549,9 @@
       <c r="E56" t="n">
         <v>-0.8805137556689066</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8797307701340911</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +1569,9 @@
       <c r="E57" t="n">
         <v>-0.9130028463906261</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9048396042535117</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +1589,9 @@
       <c r="E58" t="n">
         <v>-1.091286089897769</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.07666297323806</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +1609,9 @@
       <c r="E59" t="n">
         <v>-0.8270450846581709</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8176347835290296</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +1629,9 @@
       <c r="E60" t="n">
         <v>-0.4633679861010591</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4490383474186962</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +1649,9 @@
       <c r="E61" t="n">
         <v>0.3761934843145934</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3784169326392131</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +1669,9 @@
       <c r="E62" t="n">
         <v>-1.177787945402543</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165443395887403</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +1689,9 @@
       <c r="E63" t="n">
         <v>-0.6925436139656344</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6711941922689275</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +1709,9 @@
       <c r="E64" t="n">
         <v>-0.8877465956533145</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8796383108436261</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +1729,9 @@
       <c r="E65" t="n">
         <v>-0.07892842271157849</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06550597743478268</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +1749,9 @@
       <c r="E66" t="n">
         <v>-0.7540318667592777</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7405381099950213</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +1768,9 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7148266051416914</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6984546960052931</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>-0.2704255194281483</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.2588606898515287</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0.2364371778335738</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.2454885827661253</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0.1791689759381423</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.1908090286336186</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>-0.05208333570723714</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.04572919709470721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0.184029566554648</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.1948607879157114</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>-0.4228230951106976</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.4134833301696564</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>-0.222426446066282</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.2102488110260745</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>-0.3714515234378659</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.3573360465207325</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0.395158196517992</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.4044261854342325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>-0.2142005725939878</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.2067768045687546</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>-0.03445392494040828</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.02227991520226121</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>-0.01095789861858376</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.01089327394062261</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0.1474732781280668</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1700711839172135</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0.08662962442043462</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.1082007279248585</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,9 @@
       <c r="F16" t="n">
         <v>0.4903247001505312</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.5229558664685769</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +820,9 @@
       <c r="F17" t="n">
         <v>0.6712392186188219</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.684013241898267</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +843,9 @@
       <c r="F18" t="n">
         <v>0.008408745075417515</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.0004482925075635497</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +866,9 @@
       <c r="F19" t="n">
         <v>0.429920813439199</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.4361030760257984</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +889,9 @@
       <c r="F20" t="n">
         <v>0.4242806826941915</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.4525275401085255</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +912,9 @@
       <c r="F21" t="n">
         <v>0.6409128928139449</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.6661865269483923</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +935,9 @@
       <c r="F22" t="n">
         <v>0.4553804180577202</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.4702872685934699</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +958,9 @@
       <c r="F23" t="n">
         <v>0.004675632240143834</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.0167639711506217</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +981,9 @@
       <c r="F24" t="n">
         <v>4.268726588975109</v>
       </c>
+      <c r="G24" t="n">
+        <v>4.067680920655509</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1004,9 @@
       <c r="F25" t="n">
         <v>0.3993705725706274</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.3765051780354097</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1027,9 @@
       <c r="F26" t="n">
         <v>0.2958719685124704</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.2744322663930871</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1050,9 @@
       <c r="F27" t="n">
         <v>0.2217968977396655</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.1961831673319429</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1073,9 @@
       <c r="F28" t="n">
         <v>0.9749739854452215</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.9456418002396225</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1096,9 @@
       <c r="F29" t="n">
         <v>4.280610015399795</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.919562312890903</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1119,9 @@
       <c r="F30" t="n">
         <v>0.8391707463201397</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.8023153117846755</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1142,9 @@
       <c r="F31" t="n">
         <v>-0.3464682995048806</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.3827122861192552</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1165,9 @@
       <c r="F32" t="n">
         <v>0.6880012395170597</v>
       </c>
+      <c r="G32" t="n">
+        <v>0.660624067564048</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1188,9 @@
       <c r="F33" t="n">
         <v>0.8407428928712293</v>
       </c>
+      <c r="G33" t="n">
+        <v>0.8208349567835619</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1211,9 @@
       <c r="F34" t="n">
         <v>-0.7384155516014332</v>
       </c>
+      <c r="G34" t="n">
+        <v>-0.7610579892433615</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1234,9 @@
       <c r="F35" t="n">
         <v>0.7918076825459993</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.7861346940536341</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1257,9 @@
       <c r="F36" t="n">
         <v>0.7288905741129694</v>
       </c>
+      <c r="G36" t="n">
+        <v>0.7201342226037812</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1280,9 @@
       <c r="F37" t="n">
         <v>0.6974602686825369</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.6873632392348819</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1303,9 @@
       <c r="F38" t="n">
         <v>0.6727833723154946</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.6614017922427848</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1326,9 @@
       <c r="F39" t="n">
         <v>0.5725168835076183</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.5708336041487821</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1349,9 @@
       <c r="F40" t="n">
         <v>0.743706826886118</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.7411394942473152</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1372,9 @@
       <c r="F41" t="n">
         <v>0.5406752576629119</v>
       </c>
+      <c r="G41" t="n">
+        <v>0.5386834627457514</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1395,9 @@
       <c r="F42" t="n">
         <v>0.6259734056348898</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.6101262641344793</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1418,9 @@
       <c r="F43" t="n">
         <v>0.6759820672695217</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.6681302480608425</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1441,9 @@
       <c r="F44" t="n">
         <v>0.6584361080661351</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.6555361875733022</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1464,9 @@
       <c r="F45" t="n">
         <v>0.6185075512614054</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.6105962317927788</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1487,9 @@
       <c r="F46" t="n">
         <v>-1.273445971233956</v>
       </c>
+      <c r="G46" t="n">
+        <v>-1.275587987498585</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1510,9 @@
       <c r="F47" t="n">
         <v>-0.9911734919118209</v>
       </c>
+      <c r="G47" t="n">
+        <v>-0.9938289468399968</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1533,9 @@
       <c r="F48" t="n">
         <v>-0.8843518453038822</v>
       </c>
+      <c r="G48" t="n">
+        <v>-0.8856434661662981</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1556,9 @@
       <c r="F49" t="n">
         <v>-0.6476160385712562</v>
       </c>
+      <c r="G49" t="n">
+        <v>-0.6478574936538006</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1579,9 @@
       <c r="F50" t="n">
         <v>-0.05178413837529409</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.0527206232527769</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1602,9 @@
       <c r="F51" t="n">
         <v>-0.8747240363746321</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.8757755160552152</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1625,9 @@
       <c r="F52" t="n">
         <v>-0.8747240363746321</v>
       </c>
+      <c r="G52" t="n">
+        <v>-0.8757755160552152</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1648,9 @@
       <c r="F53" t="n">
         <v>-1.124774396324155</v>
       </c>
+      <c r="G53" t="n">
+        <v>-1.13018930621998</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1671,9 @@
       <c r="F54" t="n">
         <v>-0.183733357833923</v>
       </c>
+      <c r="G54" t="n">
+        <v>-0.182393937289181</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1694,9 @@
       <c r="F55" t="n">
         <v>-1.0094937263216</v>
       </c>
+      <c r="G55" t="n">
+        <v>-1.011899233850498</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1717,9 @@
       <c r="F56" t="n">
         <v>-0.8797307701340911</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.87963400298825</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1740,9 @@
       <c r="F57" t="n">
         <v>-0.9048396042535117</v>
       </c>
+      <c r="G57" t="n">
+        <v>-0.8984073631006628</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1763,9 @@
       <c r="F58" t="n">
         <v>-1.07666297323806</v>
       </c>
+      <c r="G58" t="n">
+        <v>-1.064703446451772</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1786,9 @@
       <c r="F59" t="n">
         <v>-0.8176347835290296</v>
       </c>
+      <c r="G59" t="n">
+        <v>-0.8092202903110161</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1809,9 @@
       <c r="F60" t="n">
         <v>-0.4490383474186962</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.436786263012013</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1832,9 @@
       <c r="F61" t="n">
         <v>0.3784169326392131</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.3804398972791776</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1855,9 @@
       <c r="F62" t="n">
         <v>-1.165443395887403</v>
       </c>
+      <c r="G62" t="n">
+        <v>-1.155597718761055</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1878,9 @@
       <c r="F63" t="n">
         <v>-0.6711941922689275</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.6516291659963207</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1901,9 @@
       <c r="F64" t="n">
         <v>-0.8796383108436261</v>
       </c>
+      <c r="G64" t="n">
+        <v>-0.8716708004253559</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1924,9 @@
       <c r="F65" t="n">
         <v>-0.06550597743478268</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.05409358077405128</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1947,9 @@
       <c r="F66" t="n">
         <v>-0.7405381099950213</v>
       </c>
+      <c r="G66" t="n">
+        <v>-0.7302096364939387</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1771,6 +1969,9 @@
       </c>
       <c r="F67" t="n">
         <v>-0.6984546960052931</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6866085087355974</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,9 @@
       <c r="G1" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -478,6 +481,9 @@
       <c r="G2" t="n">
         <v>-0.2588606898515287</v>
       </c>
+      <c r="H2" t="n">
+        <v>-0.2485336804269276</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,6 +507,9 @@
       <c r="G3" t="n">
         <v>0.2454885827661253</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.253667317388912</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +533,9 @@
       <c r="G4" t="n">
         <v>0.1908090286336186</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.2016401551437302</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +559,9 @@
       <c r="G5" t="n">
         <v>-0.04572919709470721</v>
       </c>
+      <c r="H5" t="n">
+        <v>-0.04044163130284928</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +585,9 @@
       <c r="G6" t="n">
         <v>0.1948607879157114</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.2041039574976767</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +611,9 @@
       <c r="G7" t="n">
         <v>-0.4134833301696564</v>
       </c>
+      <c r="H7" t="n">
+        <v>-0.4048213167693912</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +637,9 @@
       <c r="G8" t="n">
         <v>-0.2102488110260745</v>
       </c>
+      <c r="H8" t="n">
+        <v>-0.1986361792668534</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +663,9 @@
       <c r="G9" t="n">
         <v>-0.3573360465207325</v>
       </c>
+      <c r="H9" t="n">
+        <v>-0.3437041291927277</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +689,9 @@
       <c r="G10" t="n">
         <v>0.4044261854342325</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.4121468983566298</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +715,9 @@
       <c r="G11" t="n">
         <v>-0.2067768045687546</v>
       </c>
+      <c r="H11" t="n">
+        <v>-0.2001125522140151</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +741,9 @@
       <c r="G12" t="n">
         <v>-0.02227991520226121</v>
       </c>
+      <c r="H12" t="n">
+        <v>-0.01279813598962612</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +767,9 @@
       <c r="G13" t="n">
         <v>-0.01089327394062261</v>
       </c>
+      <c r="H13" t="n">
+        <v>-0.01107464096732006</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +793,9 @@
       <c r="G14" t="n">
         <v>0.1700711839172135</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.1879259609374909</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +819,9 @@
       <c r="G15" t="n">
         <v>0.1082007279248585</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.1239884831571033</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +845,9 @@
       <c r="G16" t="n">
         <v>0.5229558664685769</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.5481314201069702</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +871,9 @@
       <c r="G17" t="n">
         <v>0.684013241898267</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.6914603892872216</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +897,9 @@
       <c r="G18" t="n">
         <v>-0.0004482925075635497</v>
       </c>
+      <c r="H18" t="n">
+        <v>-0.009059433729756178</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +923,9 @@
       <c r="G19" t="n">
         <v>0.4361030760257984</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.4397591979023047</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +949,9 @@
       <c r="G20" t="n">
         <v>0.4525275401085255</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.473358396566325</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +975,9 @@
       <c r="G21" t="n">
         <v>0.6661865269483923</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.684438707180642</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1001,9 @@
       <c r="G22" t="n">
         <v>0.4702872685934699</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.4800285166975318</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1027,9 @@
       <c r="G23" t="n">
         <v>0.0167639711506217</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.0243994674502476</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1053,9 @@
       <c r="G24" t="n">
         <v>4.067680920655509</v>
       </c>
+      <c r="H24" t="n">
+        <v>3.838152589697018</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1079,9 @@
       <c r="G25" t="n">
         <v>0.3765051780354097</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.3568149690858328</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1105,9 @@
       <c r="G26" t="n">
         <v>0.2744322663930871</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.2538667411733452</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1131,9 @@
       <c r="G27" t="n">
         <v>0.1961831673319429</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1719584953809194</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1157,9 @@
       <c r="G28" t="n">
         <v>0.9456418002396225</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.9181854519895453</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1183,9 @@
       <c r="G29" t="n">
         <v>3.919562312890903</v>
       </c>
+      <c r="H29" t="n">
+        <v>3.580968936294532</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1209,9 @@
       <c r="G30" t="n">
         <v>0.8023153117846755</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.7693473881601065</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1235,9 @@
       <c r="G31" t="n">
         <v>-0.3827122861192552</v>
       </c>
+      <c r="H31" t="n">
+        <v>-0.4130035705055407</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1261,9 @@
       <c r="G32" t="n">
         <v>0.660624067564048</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.6354795455788688</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1287,9 @@
       <c r="G33" t="n">
         <v>0.8208349567835619</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.8031387888465462</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1313,9 @@
       <c r="G34" t="n">
         <v>-0.7610579892433615</v>
       </c>
+      <c r="H34" t="n">
+        <v>-0.7811879336595298</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1339,9 @@
       <c r="G35" t="n">
         <v>0.7861346940536341</v>
       </c>
+      <c r="H35" t="n">
+        <v>0.7814337755749018</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1365,9 @@
       <c r="G36" t="n">
         <v>0.7201342226037812</v>
       </c>
+      <c r="H36" t="n">
+        <v>0.7134579539402401</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1391,9 @@
       <c r="G37" t="n">
         <v>0.6873632392348819</v>
       </c>
+      <c r="H37" t="n">
+        <v>0.679564384961951</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1417,9 @@
       <c r="G38" t="n">
         <v>0.6614017922427848</v>
       </c>
+      <c r="H38" t="n">
+        <v>0.6517662928556551</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1443,9 @@
       <c r="G39" t="n">
         <v>0.5708336041487821</v>
       </c>
+      <c r="H39" t="n">
+        <v>0.5697707062740898</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1469,9 @@
       <c r="G40" t="n">
         <v>0.7411394942473152</v>
       </c>
+      <c r="H40" t="n">
+        <v>0.7389837044192641</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1495,9 @@
       <c r="G41" t="n">
         <v>0.5386834627457514</v>
       </c>
+      <c r="H41" t="n">
+        <v>0.5377578670502975</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +1521,9 @@
       <c r="G42" t="n">
         <v>0.6101262641344793</v>
       </c>
+      <c r="H42" t="n">
+        <v>0.597095213629408</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +1547,9 @@
       <c r="G43" t="n">
         <v>0.6681302480608425</v>
       </c>
+      <c r="H43" t="n">
+        <v>0.6617949796750681</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +1573,9 @@
       <c r="G44" t="n">
         <v>0.6555361875733022</v>
       </c>
+      <c r="H44" t="n">
+        <v>0.6537808236363154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +1599,9 @@
       <c r="G45" t="n">
         <v>0.6105962317927788</v>
       </c>
+      <c r="H45" t="n">
+        <v>0.6052528055847544</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1490,6 +1625,9 @@
       <c r="G46" t="n">
         <v>-1.275587987498585</v>
       </c>
+      <c r="H46" t="n">
+        <v>-1.277420559223842</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1513,6 +1651,9 @@
       <c r="G47" t="n">
         <v>-0.9938289468399968</v>
       </c>
+      <c r="H47" t="n">
+        <v>-0.9960590196550823</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1536,6 +1677,9 @@
       <c r="G48" t="n">
         <v>-0.8856434661662981</v>
       </c>
+      <c r="H48" t="n">
+        <v>-0.8861368214781788</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1559,6 +1703,9 @@
       <c r="G49" t="n">
         <v>-0.6478574936538006</v>
       </c>
+      <c r="H49" t="n">
+        <v>-0.6476357483870134</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1582,6 +1729,9 @@
       <c r="G50" t="n">
         <v>-0.0527206232527769</v>
       </c>
+      <c r="H50" t="n">
+        <v>-0.05367026716253211</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1605,6 +1755,9 @@
       <c r="G51" t="n">
         <v>-0.8757755160552152</v>
       </c>
+      <c r="H51" t="n">
+        <v>-0.8760662721160053</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1628,6 +1781,9 @@
       <c r="G52" t="n">
         <v>-0.8757755160552152</v>
       </c>
+      <c r="H52" t="n">
+        <v>-0.8760662721160053</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1651,6 +1807,9 @@
       <c r="G53" t="n">
         <v>-1.13018930621998</v>
       </c>
+      <c r="H53" t="n">
+        <v>-1.134219549982454</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1674,6 +1833,9 @@
       <c r="G54" t="n">
         <v>-0.182393937289181</v>
       </c>
+      <c r="H54" t="n">
+        <v>-0.1810681981526394</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1697,6 +1859,9 @@
       <c r="G55" t="n">
         <v>-1.011899233850498</v>
       </c>
+      <c r="H55" t="n">
+        <v>-1.013992483394137</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1720,6 +1885,9 @@
       <c r="G56" t="n">
         <v>-0.87963400298825</v>
       </c>
+      <c r="H56" t="n">
+        <v>-0.8801439800105191</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1743,6 +1911,9 @@
       <c r="G57" t="n">
         <v>-0.8984073631006628</v>
       </c>
+      <c r="H57" t="n">
+        <v>-0.8937250997083165</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1766,6 +1937,9 @@
       <c r="G58" t="n">
         <v>-1.064703446451772</v>
       </c>
+      <c r="H58" t="n">
+        <v>-1.055328056719407</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1789,6 +1963,9 @@
       <c r="G59" t="n">
         <v>-0.8092202903110161</v>
       </c>
+      <c r="H59" t="n">
+        <v>-0.8018698895980897</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1812,6 +1989,9 @@
       <c r="G60" t="n">
         <v>-0.436786263012013</v>
       </c>
+      <c r="H60" t="n">
+        <v>-0.4265769294455311</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1835,6 +2015,9 @@
       <c r="G61" t="n">
         <v>0.3804398972791776</v>
       </c>
+      <c r="H61" t="n">
+        <v>0.3822331787551368</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1858,6 +2041,9 @@
       <c r="G62" t="n">
         <v>-1.155597718761055</v>
       </c>
+      <c r="H62" t="n">
+        <v>-1.148216896953778</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1881,6 +2067,9 @@
       <c r="G63" t="n">
         <v>-0.6516291659963207</v>
       </c>
+      <c r="H63" t="n">
+        <v>-0.6339345758571908</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1904,6 +2093,9 @@
       <c r="G64" t="n">
         <v>-0.8716708004253559</v>
       </c>
+      <c r="H64" t="n">
+        <v>-0.8641511560131919</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1927,6 +2119,9 @@
       <c r="G65" t="n">
         <v>-0.05409358077405128</v>
       </c>
+      <c r="H65" t="n">
+        <v>-0.044610828077666</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1950,6 +2145,9 @@
       <c r="G66" t="n">
         <v>-0.7302096364939387</v>
       </c>
+      <c r="H66" t="n">
+        <v>-0.7228323881227282</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1972,6 +2170,9 @@
       </c>
       <c r="G67" t="n">
         <v>-0.6866085087355974</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6788350095452043</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,9 @@
       <c r="H1" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,6 +487,9 @@
       <c r="H2" t="n">
         <v>-0.2485336804269276</v>
       </c>
+      <c r="I2" t="n">
+        <v>-0.2394999005619183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,6 +516,9 @@
       <c r="H3" t="n">
         <v>0.253667317388912</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.2608291085193909</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -536,6 +545,9 @@
       <c r="H4" t="n">
         <v>0.2016401551437302</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.2115067148274068</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -562,6 +574,9 @@
       <c r="H5" t="n">
         <v>-0.04044163130284928</v>
       </c>
+      <c r="I5" t="n">
+        <v>-0.03621878443742558</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -588,6 +603,9 @@
       <c r="H6" t="n">
         <v>0.2041039574976767</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.2117738094817893</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,6 +632,9 @@
       <c r="H7" t="n">
         <v>-0.4048213167693912</v>
       </c>
+      <c r="I7" t="n">
+        <v>-0.3969773394831755</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -640,6 +661,9 @@
       <c r="H8" t="n">
         <v>-0.1986361792668534</v>
       </c>
+      <c r="I8" t="n">
+        <v>-0.187735743107522</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -666,6 +690,9 @@
       <c r="H9" t="n">
         <v>-0.3437041291927277</v>
       </c>
+      <c r="I9" t="n">
+        <v>-0.3309198316822588</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -692,6 +719,9 @@
       <c r="H10" t="n">
         <v>0.4121468983566298</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.4183744314893407</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -718,6 +748,9 @@
       <c r="H11" t="n">
         <v>-0.2001125522140151</v>
       </c>
+      <c r="I11" t="n">
+        <v>-0.1942695656652519</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -744,6 +777,9 @@
       <c r="H12" t="n">
         <v>-0.01279813598962612</v>
       </c>
+      <c r="I12" t="n">
+        <v>-0.005889875164880071</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -770,6 +806,9 @@
       <c r="H13" t="n">
         <v>-0.01107464096732006</v>
       </c>
+      <c r="I13" t="n">
+        <v>-0.01153771751789272</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -796,6 +835,9 @@
       <c r="H14" t="n">
         <v>0.1879259609374909</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.2012093700260233</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -822,6 +864,9 @@
       <c r="H15" t="n">
         <v>0.1239884831571033</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.1343086685401373</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -848,6 +893,9 @@
       <c r="H16" t="n">
         <v>0.5481314201069702</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.5661990213229915</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -874,6 +922,9 @@
       <c r="H17" t="n">
         <v>0.6914603892872216</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.6940059249974573</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -900,6 +951,9 @@
       <c r="H18" t="n">
         <v>-0.009059433729756178</v>
       </c>
+      <c r="I18" t="n">
+        <v>-0.01755440282923344</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -926,6 +980,9 @@
       <c r="H19" t="n">
         <v>0.4397591979023047</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.441038269779354</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -952,6 +1009,9 @@
       <c r="H20" t="n">
         <v>0.473358396566325</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.4872038180250196</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -978,6 +1038,9 @@
       <c r="H21" t="n">
         <v>0.684438707180642</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.6963118866875442</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1004,6 +1067,9 @@
       <c r="H22" t="n">
         <v>0.4800285166975318</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.4849964115966661</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1030,6 +1096,9 @@
       <c r="H23" t="n">
         <v>0.0243994674502476</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.02795824415345291</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1056,6 +1125,9 @@
       <c r="H24" t="n">
         <v>3.838152589697018</v>
       </c>
+      <c r="I24" t="n">
+        <v>3.590382814142466</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1082,6 +1154,9 @@
       <c r="H25" t="n">
         <v>0.3568149690858328</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.3401194292362174</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1108,6 +1183,9 @@
       <c r="H26" t="n">
         <v>0.2538667411733452</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.2344683464743719</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1134,6 +1212,9 @@
       <c r="H27" t="n">
         <v>0.1719584953809194</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.1493681148138926</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1160,6 +1241,9 @@
       <c r="H28" t="n">
         <v>0.9181854519895453</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.8929517067998841</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1186,6 +1270,9 @@
       <c r="H29" t="n">
         <v>3.580968936294532</v>
       </c>
+      <c r="I29" t="n">
+        <v>3.266989646321224</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1212,6 +1299,9 @@
       <c r="H30" t="n">
         <v>0.7693473881601065</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7402499303429282</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1238,6 +1328,9 @@
       <c r="H31" t="n">
         <v>-0.4130035705055407</v>
       </c>
+      <c r="I31" t="n">
+        <v>-0.4377857800485315</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1264,6 +1357,9 @@
       <c r="H32" t="n">
         <v>0.6354795455788688</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6127549125693379</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1290,6 +1386,9 @@
       <c r="H33" t="n">
         <v>0.8031387888465462</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.7876604129541479</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,6 +1415,9 @@
       <c r="H34" t="n">
         <v>-0.7811879336595298</v>
       </c>
+      <c r="I34" t="n">
+        <v>-0.7988138792218789</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1342,6 +1444,9 @@
       <c r="H35" t="n">
         <v>0.7814337755749018</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.7777365296550725</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1368,6 +1473,9 @@
       <c r="H36" t="n">
         <v>0.7134579539402401</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.7087691443323312</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1394,6 +1502,9 @@
       <c r="H37" t="n">
         <v>0.679564384961951</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.6739554544447891</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1420,6 +1531,9 @@
       <c r="H38" t="n">
         <v>0.6517662928556551</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6438022038767023</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1446,6 +1560,9 @@
       <c r="H39" t="n">
         <v>0.5697707062740898</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.5693216374532827</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1472,6 +1589,9 @@
       <c r="H40" t="n">
         <v>0.7389837044192641</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.7373361897423716</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1498,6 +1618,9 @@
       <c r="H41" t="n">
         <v>0.5377578670502975</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.5377595773705097</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1524,6 +1647,9 @@
       <c r="H42" t="n">
         <v>0.597095213629408</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.5867730056236223</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1550,6 +1676,9 @@
       <c r="H43" t="n">
         <v>0.6617949796750681</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6568848406992662</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1576,6 +1705,9 @@
       <c r="H44" t="n">
         <v>0.6537808236363154</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.6530873163893416</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1602,6 +1734,9 @@
       <c r="H45" t="n">
         <v>0.6052528055847544</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.6023260367976645</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1628,6 +1763,9 @@
       <c r="H46" t="n">
         <v>-1.277420559223842</v>
       </c>
+      <c r="I46" t="n">
+        <v>-1.279054954058791</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1654,6 +1792,9 @@
       <c r="H47" t="n">
         <v>-0.9960590196550823</v>
       </c>
+      <c r="I47" t="n">
+        <v>-0.9979643506463532</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1680,6 +1821,9 @@
       <c r="H48" t="n">
         <v>-0.8861368214781788</v>
       </c>
+      <c r="I48" t="n">
+        <v>-0.8860243773189497</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1706,6 +1850,9 @@
       <c r="H49" t="n">
         <v>-0.6476357483870134</v>
       </c>
+      <c r="I49" t="n">
+        <v>-0.6470893688176043</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1732,6 +1879,9 @@
       <c r="H50" t="n">
         <v>-0.05367026716253211</v>
       </c>
+      <c r="I50" t="n">
+        <v>-0.05464905722466244</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1758,6 +1908,9 @@
       <c r="H51" t="n">
         <v>-0.8760662721160053</v>
       </c>
+      <c r="I51" t="n">
+        <v>-0.8757507329996649</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1784,6 +1937,9 @@
       <c r="H52" t="n">
         <v>-0.8760662721160053</v>
       </c>
+      <c r="I52" t="n">
+        <v>-0.8757507329996649</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1810,6 +1966,9 @@
       <c r="H53" t="n">
         <v>-1.134219549982454</v>
       </c>
+      <c r="I53" t="n">
+        <v>-1.137127849365767</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1836,6 +1995,9 @@
       <c r="H54" t="n">
         <v>-0.1810681981526394</v>
       </c>
+      <c r="I54" t="n">
+        <v>-0.1798129036069273</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1862,6 +2024,9 @@
       <c r="H55" t="n">
         <v>-1.013992483394137</v>
       </c>
+      <c r="I55" t="n">
+        <v>-1.015861463506009</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1888,6 +2053,9 @@
       <c r="H56" t="n">
         <v>-0.8801439800105191</v>
       </c>
+      <c r="I56" t="n">
+        <v>-0.8811844216018568</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1914,6 +2082,9 @@
       <c r="H57" t="n">
         <v>-0.8937250997083165</v>
       </c>
+      <c r="I57" t="n">
+        <v>-0.8907586128146043</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1940,6 +2111,9 @@
       <c r="H58" t="n">
         <v>-1.055328056719407</v>
       </c>
+      <c r="I58" t="n">
+        <v>-1.048409516539794</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1966,6 +2140,9 @@
       <c r="H59" t="n">
         <v>-0.8018698895980897</v>
       </c>
+      <c r="I59" t="n">
+        <v>-0.7956191270894265</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1992,6 +2169,9 @@
       <c r="H60" t="n">
         <v>-0.4265769294455311</v>
       </c>
+      <c r="I60" t="n">
+        <v>-0.4183367179251224</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2018,6 +2198,9 @@
       <c r="H61" t="n">
         <v>0.3822331787551368</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.3837778339405674</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2044,6 +2227,9 @@
       <c r="H62" t="n">
         <v>-1.148216896953778</v>
       </c>
+      <c r="I62" t="n">
+        <v>-1.143208371254143</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2070,6 +2256,9 @@
       <c r="H63" t="n">
         <v>-0.6339345758571908</v>
       </c>
+      <c r="I63" t="n">
+        <v>-0.618152956550422</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2096,6 +2285,9 @@
       <c r="H64" t="n">
         <v>-0.8641511560131919</v>
       </c>
+      <c r="I64" t="n">
+        <v>-0.8573161270016477</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2122,6 +2314,9 @@
       <c r="H65" t="n">
         <v>-0.044610828077666</v>
       </c>
+      <c r="I65" t="n">
+        <v>-0.03695201233099989</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2148,6 +2343,9 @@
       <c r="H66" t="n">
         <v>-0.7228323881227282</v>
       </c>
+      <c r="I66" t="n">
+        <v>-0.7181592218168852</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2173,6 +2371,9 @@
       </c>
       <c r="H67" t="n">
         <v>-0.6788350095452043</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6746681992093705</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,9 @@
       <c r="I1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +493,9 @@
       <c r="I2" t="n">
         <v>-0.2394999005619183</v>
       </c>
+      <c r="J2" t="n">
+        <v>-0.231776747971999</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -519,6 +525,9 @@
       <c r="I3" t="n">
         <v>0.2608291085193909</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.2668880087720504</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -548,6 +557,9 @@
       <c r="I4" t="n">
         <v>0.2115067148274068</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.2203037263315872</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -577,6 +589,9 @@
       <c r="I5" t="n">
         <v>-0.03621878443742558</v>
       </c>
+      <c r="J5" t="n">
+        <v>-0.03303123168874188</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -606,6 +621,9 @@
       <c r="I6" t="n">
         <v>0.2117738094817893</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.2179220029580361</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,6 +653,9 @@
       <c r="I7" t="n">
         <v>-0.3969773394831755</v>
       </c>
+      <c r="J7" t="n">
+        <v>-0.3900475283131328</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -664,6 +685,9 @@
       <c r="I8" t="n">
         <v>-0.187735743107522</v>
       </c>
+      <c r="J8" t="n">
+        <v>-0.1776591015729225</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -693,6 +717,9 @@
       <c r="I9" t="n">
         <v>-0.3309198316822588</v>
       </c>
+      <c r="J9" t="n">
+        <v>-0.3192540302124211</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -722,6 +749,9 @@
       <c r="I10" t="n">
         <v>0.4183744314893407</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.4231894926098013</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -751,6 +781,9 @@
       <c r="I11" t="n">
         <v>-0.1942695656652519</v>
       </c>
+      <c r="J11" t="n">
+        <v>-0.1892803793663719</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -780,6 +813,9 @@
       <c r="I12" t="n">
         <v>-0.005889875164880071</v>
       </c>
+      <c r="J12" t="n">
+        <v>-0.001387931552355066</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -809,6 +845,9 @@
       <c r="I13" t="n">
         <v>-0.01153771751789272</v>
       </c>
+      <c r="J13" t="n">
+        <v>-0.01229913656951402</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -838,6 +877,9 @@
       <c r="I14" t="n">
         <v>0.2012093700260233</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.2101913762361179</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -867,6 +909,9 @@
       <c r="I15" t="n">
         <v>0.1343086685401373</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.1395792349776059</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -896,6 +941,9 @@
       <c r="I16" t="n">
         <v>0.5661990213229915</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.5776460589672416</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,6 +973,9 @@
       <c r="I17" t="n">
         <v>0.6940059249974573</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.6921491513998246</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -954,6 +1005,9 @@
       <c r="I18" t="n">
         <v>-0.01755440282923344</v>
       </c>
+      <c r="J18" t="n">
+        <v>-0.02601200293771039</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -983,6 +1037,9 @@
       <c r="I19" t="n">
         <v>0.441038269779354</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.4401374879351518</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1012,6 +1069,9 @@
       <c r="I20" t="n">
         <v>0.4872038180250196</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.4946177023375641</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1041,6 +1101,9 @@
       <c r="I21" t="n">
         <v>0.6963118866875442</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.7024974996638369</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1070,6 +1133,9 @@
       <c r="I22" t="n">
         <v>0.4849964115966661</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.4856542057196684</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1099,6 +1165,9 @@
       <c r="I23" t="n">
         <v>0.02795824415345291</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.02786629244973488</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1128,6 +1197,9 @@
       <c r="I24" t="n">
         <v>3.590382814142466</v>
       </c>
+      <c r="J24" t="n">
+        <v>3.333271502660813</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1157,6 +1229,9 @@
       <c r="I25" t="n">
         <v>0.3401194292362174</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.3262139114466744</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1186,6 +1261,9 @@
       <c r="I26" t="n">
         <v>0.2344683464743719</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.2164567891774628</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1215,6 +1293,9 @@
       <c r="I27" t="n">
         <v>0.1493681148138926</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.1285882871619727</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1244,6 +1325,9 @@
       <c r="I28" t="n">
         <v>0.8929517067998841</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.8701779422002949</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1273,6 +1357,9 @@
       <c r="I29" t="n">
         <v>3.266989646321224</v>
       </c>
+      <c r="J29" t="n">
+        <v>2.979089906559825</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1302,6 +1389,9 @@
       <c r="I30" t="n">
         <v>0.7402499303429282</v>
       </c>
+      <c r="J30" t="n">
+        <v>0.7149363897629776</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1331,6 +1421,9 @@
       <c r="I31" t="n">
         <v>-0.4377857800485315</v>
       </c>
+      <c r="J31" t="n">
+        <v>-0.4575377490931984</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1360,6 +1453,9 @@
       <c r="I32" t="n">
         <v>0.6127549125693379</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.592552606470573</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1389,6 +1485,9 @@
       <c r="I33" t="n">
         <v>0.7876604129541479</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7743586215566826</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1418,6 +1517,9 @@
       <c r="I34" t="n">
         <v>-0.7988138792218789</v>
       </c>
+      <c r="J34" t="n">
+        <v>-0.8139972572787407</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1447,6 +1549,9 @@
       <c r="I35" t="n">
         <v>0.7777365296550725</v>
       </c>
+      <c r="J35" t="n">
+        <v>0.7750371115555877</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1476,6 +1581,9 @@
       <c r="I36" t="n">
         <v>0.7087691443323312</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.7059342664781889</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1505,6 +1613,9 @@
       <c r="I37" t="n">
         <v>0.6739554544447891</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.6703859860540606</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1534,6 +1645,9 @@
       <c r="I38" t="n">
         <v>0.6438022038767023</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.6374103902542644</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1563,6 +1677,9 @@
       <c r="I39" t="n">
         <v>0.5693216374532827</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.5694580064142635</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1592,6 +1709,9 @@
       <c r="I40" t="n">
         <v>0.7373361897423716</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.7362528621244744</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1621,6 +1741,9 @@
       <c r="I41" t="n">
         <v>0.5377595773705097</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.5385505312270705</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1650,6 +1773,9 @@
       <c r="I42" t="n">
         <v>0.5867730056236223</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.5790012796316987</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1679,6 +1805,9 @@
       <c r="I43" t="n">
         <v>0.6568848406992662</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.6532898589070116</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1708,6 +1837,9 @@
       <c r="I44" t="n">
         <v>0.6530873163893416</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.6533550049446388</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1737,6 +1869,9 @@
       <c r="I45" t="n">
         <v>0.6023260367976645</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.6016168261714637</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1766,6 +1901,9 @@
       <c r="I46" t="n">
         <v>-1.279054954058791</v>
       </c>
+      <c r="J46" t="n">
+        <v>-1.280586348182396</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1795,6 +1933,9 @@
       <c r="I47" t="n">
         <v>-0.9979643506463532</v>
       </c>
+      <c r="J47" t="n">
+        <v>-0.9996349211335684</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1824,6 +1965,9 @@
       <c r="I48" t="n">
         <v>-0.8860243773189497</v>
       </c>
+      <c r="J48" t="n">
+        <v>-0.8854802578370008</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1853,6 +1997,9 @@
       <c r="I49" t="n">
         <v>-0.6470893688176043</v>
       </c>
+      <c r="J49" t="n">
+        <v>-0.646341485114674</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1882,6 +2029,9 @@
       <c r="I50" t="n">
         <v>-0.05464905722466244</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.05566921141379633</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1911,6 +2061,9 @@
       <c r="I51" t="n">
         <v>-0.8757507329996649</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.8749747005714019</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1940,6 +2093,9 @@
       <c r="I52" t="n">
         <v>-0.8757507329996649</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.8749747005714019</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1969,6 +2125,9 @@
       <c r="I53" t="n">
         <v>-1.137127849365767</v>
       </c>
+      <c r="J53" t="n">
+        <v>-1.139153767687003</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1998,6 +2157,9 @@
       <c r="I54" t="n">
         <v>-0.1798129036069273</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.1786754347959559</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2027,6 +2189,9 @@
       <c r="I55" t="n">
         <v>-1.015861463506009</v>
       </c>
+      <c r="J55" t="n">
+        <v>-1.017583509471716</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2056,6 +2221,9 @@
       <c r="I56" t="n">
         <v>-0.8811844216018568</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.8826828859729222</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2085,6 +2253,9 @@
       <c r="I57" t="n">
         <v>-0.8907586128146043</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.8894308350909614</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2114,6 +2285,9 @@
       <c r="I58" t="n">
         <v>-1.048409516539794</v>
       </c>
+      <c r="J58" t="n">
+        <v>-1.043783292160161</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2143,6 +2317,9 @@
       <c r="I59" t="n">
         <v>-0.7956191270894265</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7904745585842602</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2172,6 +2349,9 @@
       <c r="I60" t="n">
         <v>-0.4183367179251224</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.4119605502109829</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2201,6 +2381,9 @@
       <c r="I61" t="n">
         <v>0.3837778339405674</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.3850640814205978</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2230,6 +2413,9 @@
       <c r="I62" t="n">
         <v>-1.143208371254143</v>
       </c>
+      <c r="J62" t="n">
+        <v>-1.140433242170463</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2259,6 +2445,9 @@
       <c r="I63" t="n">
         <v>-0.618152956550422</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.6042872257201615</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2288,6 +2477,9 @@
       <c r="I64" t="n">
         <v>-0.8573161270016477</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.8513386942116007</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2317,6 +2509,9 @@
       <c r="I65" t="n">
         <v>-0.03695201233099989</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.03099168987536506</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2346,6 +2541,9 @@
       <c r="I66" t="n">
         <v>-0.7181592218168852</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7159208140963962</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2374,6 +2572,9 @@
       </c>
       <c r="I67" t="n">
         <v>-0.6746681992093705</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6736411520770514</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,9 @@
       <c r="J1" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -496,6 +499,9 @@
       <c r="J2" t="n">
         <v>-0.231776747971999</v>
       </c>
+      <c r="K2" t="n">
+        <v>-0.2253491533950901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -528,6 +534,9 @@
       <c r="J3" t="n">
         <v>0.2668880087720504</v>
       </c>
+      <c r="K3" t="n">
+        <v>0.2718076081375163</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -560,6 +569,9 @@
       <c r="J4" t="n">
         <v>0.2203037263315872</v>
       </c>
+      <c r="K4" t="n">
+        <v>0.2279708687398022</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -592,6 +604,9 @@
       <c r="J5" t="n">
         <v>-0.03303123168874188</v>
       </c>
+      <c r="K5" t="n">
+        <v>-0.03082751614343425</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -624,6 +639,9 @@
       <c r="J6" t="n">
         <v>0.2179220029580361</v>
       </c>
+      <c r="K6" t="n">
+        <v>0.2226295543781714</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,6 +674,9 @@
       <c r="J7" t="n">
         <v>-0.3900475283131328</v>
       </c>
+      <c r="K7" t="n">
+        <v>-0.384088926526956</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -688,6 +709,9 @@
       <c r="J8" t="n">
         <v>-0.1776591015729225</v>
       </c>
+      <c r="K8" t="n">
+        <v>-0.168484686800396</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -720,6 +744,9 @@
       <c r="J9" t="n">
         <v>-0.3192540302124211</v>
       </c>
+      <c r="K9" t="n">
+        <v>-0.30889477938129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -752,6 +779,9 @@
       <c r="J10" t="n">
         <v>0.4231894926098013</v>
       </c>
+      <c r="K10" t="n">
+        <v>0.4266930839876241</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -784,6 +814,9 @@
       <c r="J11" t="n">
         <v>-0.1892803793663719</v>
       </c>
+      <c r="K11" t="n">
+        <v>-0.1851521972875924</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -816,6 +849,9 @@
       <c r="J12" t="n">
         <v>-0.001387931552355066</v>
       </c>
+      <c r="K12" t="n">
+        <v>0.000910506992342755</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -848,6 +884,9 @@
       <c r="J13" t="n">
         <v>-0.01229913656951402</v>
       </c>
+      <c r="K13" t="n">
+        <v>-0.0133599516517532</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -880,6 +919,9 @@
       <c r="J14" t="n">
         <v>0.2101913762361179</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2152151465510193</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -912,6 +954,9 @@
       <c r="J15" t="n">
         <v>0.1395792349776059</v>
       </c>
+      <c r="K15" t="n">
+        <v>0.1402902613156986</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -944,6 +989,9 @@
       <c r="J16" t="n">
         <v>0.5776460589672416</v>
       </c>
+      <c r="K16" t="n">
+        <v>0.5830612049732151</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -976,6 +1024,9 @@
       <c r="J17" t="n">
         <v>0.6921491513998246</v>
       </c>
+      <c r="K17" t="n">
+        <v>0.6864355981789967</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1008,6 +1059,9 @@
       <c r="J18" t="n">
         <v>-0.02601200293771039</v>
       </c>
+      <c r="K18" t="n">
+        <v>-0.03447056767876354</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1040,6 +1094,9 @@
       <c r="J19" t="n">
         <v>0.4401374879351518</v>
       </c>
+      <c r="K19" t="n">
+        <v>0.4372874798790941</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1072,6 +1129,9 @@
       <c r="J20" t="n">
         <v>0.4946177023375641</v>
       </c>
+      <c r="K20" t="n">
+        <v>0.4962398955340405</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1104,6 +1164,9 @@
       <c r="J21" t="n">
         <v>0.7024974996638369</v>
       </c>
+      <c r="K21" t="n">
+        <v>0.7037106284600082</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1136,6 +1199,9 @@
       <c r="J22" t="n">
         <v>0.4856542057196684</v>
       </c>
+      <c r="K22" t="n">
+        <v>0.4825103741793033</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1168,6 +1234,9 @@
       <c r="J23" t="n">
         <v>0.02786629244973488</v>
       </c>
+      <c r="K23" t="n">
+        <v>0.02457900882503761</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1200,6 +1269,9 @@
       <c r="J24" t="n">
         <v>3.333271502660813</v>
       </c>
+      <c r="K24" t="n">
+        <v>3.074392689158219</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1232,6 +1304,9 @@
       <c r="J25" t="n">
         <v>0.3262139114466744</v>
       </c>
+      <c r="K25" t="n">
+        <v>0.3148761949392657</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,6 +1339,9 @@
       <c r="J26" t="n">
         <v>0.2164567891774628</v>
       </c>
+      <c r="K26" t="n">
+        <v>0.1999850460446864</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1296,6 +1374,9 @@
       <c r="J27" t="n">
         <v>0.1285882871619727</v>
       </c>
+      <c r="K27" t="n">
+        <v>0.1097323643506363</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1328,6 +1409,9 @@
       <c r="J28" t="n">
         <v>0.8701779422002949</v>
       </c>
+      <c r="K28" t="n">
+        <v>0.8500044893265103</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1360,6 +1444,9 @@
       <c r="J29" t="n">
         <v>2.979089906559825</v>
       </c>
+      <c r="K29" t="n">
+        <v>2.718089301095806</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1392,6 +1479,9 @@
       <c r="J30" t="n">
         <v>0.7149363897629776</v>
       </c>
+      <c r="K30" t="n">
+        <v>0.6932621459701748</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1424,6 +1514,9 @@
       <c r="J31" t="n">
         <v>-0.4575377490931984</v>
       </c>
+      <c r="K31" t="n">
+        <v>-0.4727583706362831</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1456,6 +1549,9 @@
       <c r="J32" t="n">
         <v>0.592552606470573</v>
       </c>
+      <c r="K32" t="n">
+        <v>0.574901434022989</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1488,6 +1584,9 @@
       <c r="J33" t="n">
         <v>0.7743586215566826</v>
       </c>
+      <c r="K33" t="n">
+        <v>0.7631529835099737</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1520,6 +1619,9 @@
       <c r="J34" t="n">
         <v>-0.8139972572787407</v>
       </c>
+      <c r="K34" t="n">
+        <v>-0.8268429912322267</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1552,6 +1654,9 @@
       <c r="J35" t="n">
         <v>0.7750371115555877</v>
       </c>
+      <c r="K35" t="n">
+        <v>0.7732996421358714</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1584,6 +1689,9 @@
       <c r="J36" t="n">
         <v>0.7059342664781889</v>
       </c>
+      <c r="K36" t="n">
+        <v>0.7047900613119695</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1616,6 +1724,9 @@
       <c r="J37" t="n">
         <v>0.6703859860540606</v>
       </c>
+      <c r="K37" t="n">
+        <v>0.66867498922133</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1648,6 +1759,9 @@
       <c r="J38" t="n">
         <v>0.6374103902542644</v>
       </c>
+      <c r="K38" t="n">
+        <v>0.6324733919538663</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1680,6 +1794,9 @@
       <c r="J39" t="n">
         <v>0.5694580064142635</v>
       </c>
+      <c r="K39" t="n">
+        <v>0.5701349699066075</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1712,6 +1829,9 @@
       <c r="J40" t="n">
         <v>0.7362528621244744</v>
       </c>
+      <c r="K40" t="n">
+        <v>0.7357558181808114</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,6 +1864,9 @@
       <c r="J41" t="n">
         <v>0.5385505312270705</v>
       </c>
+      <c r="K41" t="n">
+        <v>0.5399967620845563</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1776,6 +1899,9 @@
       <c r="J42" t="n">
         <v>0.5790012796316987</v>
       </c>
+      <c r="K42" t="n">
+        <v>0.5735834831518221</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1808,6 +1934,9 @@
       <c r="J43" t="n">
         <v>0.6532898589070116</v>
       </c>
+      <c r="K43" t="n">
+        <v>0.6508872740249003</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1840,6 +1969,9 @@
       <c r="J44" t="n">
         <v>0.6533550049446388</v>
       </c>
+      <c r="K44" t="n">
+        <v>0.6544715281703647</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1872,6 +2004,9 @@
       <c r="J45" t="n">
         <v>0.6016168261714637</v>
       </c>
+      <c r="K45" t="n">
+        <v>0.6028929413399839</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1904,6 +2039,9 @@
       <c r="J46" t="n">
         <v>-1.280586348182396</v>
       </c>
+      <c r="K46" t="n">
+        <v>-1.282094312022011</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1936,6 +2074,9 @@
       <c r="J47" t="n">
         <v>-0.9996349211335684</v>
       </c>
+      <c r="K47" t="n">
+        <v>-1.001149704070384</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1968,6 +2109,9 @@
       <c r="J48" t="n">
         <v>-0.8854802578370008</v>
       </c>
+      <c r="K48" t="n">
+        <v>-0.8846590048104728</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2000,6 +2144,9 @@
       <c r="J49" t="n">
         <v>-0.646341485114674</v>
       </c>
+      <c r="K49" t="n">
+        <v>-0.6454992478030231</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2032,6 +2179,9 @@
       <c r="J50" t="n">
         <v>-0.05566921141379633</v>
       </c>
+      <c r="K50" t="n">
+        <v>-0.05673945489035456</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2064,6 +2214,9 @@
       <c r="J51" t="n">
         <v>-0.8749747005714019</v>
       </c>
+      <c r="K51" t="n">
+        <v>-0.8738727990110058</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2096,6 +2249,9 @@
       <c r="J52" t="n">
         <v>-0.8749747005714019</v>
       </c>
+      <c r="K52" t="n">
+        <v>-0.8738727990110058</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2128,6 +2284,9 @@
       <c r="J53" t="n">
         <v>-1.139153767687003</v>
       </c>
+      <c r="K53" t="n">
+        <v>-1.140512331821745</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2160,6 +2319,9 @@
       <c r="J54" t="n">
         <v>-0.1786754347959559</v>
       </c>
+      <c r="K54" t="n">
+        <v>-0.1776938700543611</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2192,6 +2354,9 @@
       <c r="J55" t="n">
         <v>-1.017583509471716</v>
       </c>
+      <c r="K55" t="n">
+        <v>-1.01922521207802</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2224,6 +2389,9 @@
       <c r="J56" t="n">
         <v>-0.8826828859729222</v>
       </c>
+      <c r="K56" t="n">
+        <v>-0.8845713032283902</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2256,6 +2424,9 @@
       <c r="J57" t="n">
         <v>-0.8894308350909614</v>
       </c>
+      <c r="K57" t="n">
+        <v>-0.8896316375740003</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2288,6 +2459,9 @@
       <c r="J58" t="n">
         <v>-1.043783292160161</v>
       </c>
+      <c r="K58" t="n">
+        <v>-1.041257663967172</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2320,6 +2494,9 @@
       <c r="J59" t="n">
         <v>-0.7904745585842602</v>
       </c>
+      <c r="K59" t="n">
+        <v>-0.7864179048988212</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2352,6 +2529,9 @@
       <c r="J60" t="n">
         <v>-0.4119605502109829</v>
       </c>
+      <c r="K60" t="n">
+        <v>-0.4073191955591128</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2384,6 +2564,9 @@
       <c r="J61" t="n">
         <v>0.3850640814205978</v>
       </c>
+      <c r="K61" t="n">
+        <v>0.38609007308521</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2416,6 +2599,9 @@
       <c r="J62" t="n">
         <v>-1.140433242170463</v>
       </c>
+      <c r="K62" t="n">
+        <v>-1.139717827210629</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2448,6 +2634,9 @@
       <c r="J63" t="n">
         <v>-0.6042872257201615</v>
       </c>
+      <c r="K63" t="n">
+        <v>-0.5923055216628451</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2480,6 +2669,9 @@
       <c r="J64" t="n">
         <v>-0.8513386942116007</v>
       </c>
+      <c r="K64" t="n">
+        <v>-0.8463353195977261</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2512,6 +2704,9 @@
       <c r="J65" t="n">
         <v>-0.03099168987536506</v>
       </c>
+      <c r="K65" t="n">
+        <v>-0.02659015987075166</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2544,6 +2739,9 @@
       <c r="J66" t="n">
         <v>-0.7159208140963962</v>
       </c>
+      <c r="K66" t="n">
+        <v>-0.7158356449206876</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2575,6 +2773,9 @@
       </c>
       <c r="J67" t="n">
         <v>-0.6736411520770514</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6752964745006286</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,9 @@
       <c r="K1" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -502,6 +505,9 @@
       <c r="K2" t="n">
         <v>-0.2253491533950901</v>
       </c>
+      <c r="L2" t="n">
+        <v>-0.2201751798927871</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -537,6 +543,9 @@
       <c r="K3" t="n">
         <v>0.2718076081375163</v>
       </c>
+      <c r="L3" t="n">
+        <v>0.2755925042353658</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -572,6 +581,9 @@
       <c r="K4" t="n">
         <v>0.2279708687398022</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.2344862631696897</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -607,6 +619,9 @@
       <c r="K5" t="n">
         <v>-0.03082751614343425</v>
       </c>
+      <c r="L5" t="n">
+        <v>-0.02953936476061915</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -642,6 +657,9 @@
       <c r="K6" t="n">
         <v>0.2226295543781714</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.2259997124554679</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +695,9 @@
       <c r="K7" t="n">
         <v>-0.384088926526956</v>
       </c>
+      <c r="L7" t="n">
+        <v>-0.3791247958795104</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -712,6 +733,9 @@
       <c r="K8" t="n">
         <v>-0.168484686800396</v>
       </c>
+      <c r="L8" t="n">
+        <v>-0.1602607913512193</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -747,6 +771,9 @@
       <c r="K9" t="n">
         <v>-0.30889477938129</v>
       </c>
+      <c r="L9" t="n">
+        <v>-0.2999579957330128</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -782,6 +809,9 @@
       <c r="K10" t="n">
         <v>0.4266930839876241</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.4290006309088032</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -817,6 +847,9 @@
       <c r="K11" t="n">
         <v>-0.1851521972875924</v>
       </c>
+      <c r="L11" t="n">
+        <v>-0.1818708894075526</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -852,6 +885,9 @@
       <c r="K12" t="n">
         <v>0.000910506992342755</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.001232185743753375</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -887,6 +923,9 @@
       <c r="K13" t="n">
         <v>-0.0133599516517532</v>
       </c>
+      <c r="L13" t="n">
+        <v>-0.01470889623491231</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -922,6 +961,9 @@
       <c r="K14" t="n">
         <v>0.2152151465510193</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.2166744097539678</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -957,6 +999,9 @@
       <c r="K15" t="n">
         <v>0.1402902613156986</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.1369772069811907</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -992,6 +1037,9 @@
       <c r="K16" t="n">
         <v>0.5830612049732151</v>
       </c>
+      <c r="L16" t="n">
+        <v>0.5830999234763594</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1027,6 +1075,9 @@
       <c r="K17" t="n">
         <v>0.6864355981789967</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.6774328962346929</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1062,6 +1113,9 @@
       <c r="K18" t="n">
         <v>-0.03447056767876354</v>
       </c>
+      <c r="L18" t="n">
+        <v>-0.04293727752864415</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1097,6 +1151,9 @@
       <c r="K19" t="n">
         <v>0.4372874798790941</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.4327393206190661</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1132,6 +1189,9 @@
       <c r="K20" t="n">
         <v>0.4962398955340405</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.4927630165040683</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1167,6 +1227,9 @@
       <c r="K21" t="n">
         <v>0.7037106284600082</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.7006681330069745</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1202,6 +1265,9 @@
       <c r="K22" t="n">
         <v>0.4825103741793033</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.4760961516365112</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1237,6 +1303,9 @@
       <c r="K23" t="n">
         <v>0.02457900882503761</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.01856347288938903</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1272,6 +1341,9 @@
       <c r="K24" t="n">
         <v>3.074392689158219</v>
       </c>
+      <c r="L24" t="n">
+        <v>2.820040849720064</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1307,6 +1379,9 @@
       <c r="K25" t="n">
         <v>0.3148761949392657</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.3058731135370994</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1342,6 +1417,9 @@
       <c r="K26" t="n">
         <v>0.1999850460446864</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.1851465408124328</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1377,6 +1455,9 @@
       <c r="K27" t="n">
         <v>0.1097323643506363</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.09285740850377958</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1412,6 +1493,9 @@
       <c r="K28" t="n">
         <v>0.8500044893265103</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.8324874602930046</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1447,6 +1531,9 @@
       <c r="K29" t="n">
         <v>2.718089301095806</v>
       </c>
+      <c r="L29" t="n">
+        <v>2.484223466340117</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1482,6 +1569,9 @@
       <c r="K30" t="n">
         <v>0.6932621459701748</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.6750356516922722</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1517,6 +1607,9 @@
       <c r="K31" t="n">
         <v>-0.4727583706362831</v>
       </c>
+      <c r="L31" t="n">
+        <v>-0.4839535410762526</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1552,6 +1645,9 @@
       <c r="K32" t="n">
         <v>0.574901434022989</v>
       </c>
+      <c r="L32" t="n">
+        <v>0.5597678952985906</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1587,6 +1683,9 @@
       <c r="K33" t="n">
         <v>0.7631529835099737</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.7539317585470993</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1622,6 +1721,9 @@
       <c r="K34" t="n">
         <v>-0.8268429912322267</v>
       </c>
+      <c r="L34" t="n">
+        <v>-0.837490085378123</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1657,6 +1759,9 @@
       <c r="K35" t="n">
         <v>0.7732996421358714</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.7724650541729661</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1692,6 +1797,9 @@
       <c r="K36" t="n">
         <v>0.7047900613119695</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.7051535233899289</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1727,6 +1835,9 @@
       <c r="K37" t="n">
         <v>0.66867498922133</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.6686213958224136</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1762,6 +1873,9 @@
       <c r="K38" t="n">
         <v>0.6324733919538663</v>
       </c>
+      <c r="L38" t="n">
+        <v>0.6288610882080794</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1797,6 +1911,9 @@
       <c r="K39" t="n">
         <v>0.5701349699066075</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.571296017758838</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1832,6 +1949,9 @@
       <c r="K40" t="n">
         <v>0.7357558181808114</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.7358398717797711</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1867,6 +1987,9 @@
       <c r="K41" t="n">
         <v>0.5399967620845563</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.5419710137732011</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1902,6 +2025,9 @@
       <c r="K42" t="n">
         <v>0.5735834831518221</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.5702966132223972</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1937,6 +2063,9 @@
       <c r="K43" t="n">
         <v>0.6508872740249003</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.6495466918702957</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1972,6 +2101,9 @@
       <c r="K44" t="n">
         <v>0.6544715281703647</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.6563182508852633</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2007,6 +2139,9 @@
       <c r="K45" t="n">
         <v>0.6028929413399839</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.6059019637749422</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2042,6 +2177,9 @@
       <c r="K46" t="n">
         <v>-1.282094312022011</v>
       </c>
+      <c r="L46" t="n">
+        <v>-1.283643677528688</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2077,6 +2215,9 @@
       <c r="K47" t="n">
         <v>-1.001149704070384</v>
       </c>
+      <c r="L47" t="n">
+        <v>-1.002576710320313</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2112,6 +2253,9 @@
       <c r="K48" t="n">
         <v>-0.8846590048104728</v>
       </c>
+      <c r="L48" t="n">
+        <v>-0.8836951194605951</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2147,6 +2291,9 @@
       <c r="K49" t="n">
         <v>-0.6454992478030231</v>
       </c>
+      <c r="L49" t="n">
+        <v>-0.6446538608461253</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2182,6 +2329,9 @@
       <c r="K50" t="n">
         <v>-0.05673945489035456</v>
       </c>
+      <c r="L50" t="n">
+        <v>-0.05786539864992163</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2217,6 +2367,9 @@
       <c r="K51" t="n">
         <v>-0.8738727990110058</v>
       </c>
+      <c r="L51" t="n">
+        <v>-0.8725667318377041</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2252,6 +2405,9 @@
       <c r="K52" t="n">
         <v>-0.8738727990110058</v>
       </c>
+      <c r="L52" t="n">
+        <v>-0.8725667318377041</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2287,6 +2443,9 @@
       <c r="K53" t="n">
         <v>-1.140512331821745</v>
       </c>
+      <c r="L53" t="n">
+        <v>-1.141393501974108</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2322,6 +2481,9 @@
       <c r="K54" t="n">
         <v>-0.1776938700543611</v>
       </c>
+      <c r="L54" t="n">
+        <v>-0.176897388302798</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2357,6 +2519,9 @@
       <c r="K55" t="n">
         <v>-1.01922521207802</v>
       </c>
+      <c r="L55" t="n">
+        <v>-1.020842685670773</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2392,6 +2557,9 @@
       <c r="K56" t="n">
         <v>-0.8845713032283902</v>
       </c>
+      <c r="L56" t="n">
+        <v>-0.8867864497973662</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2427,6 +2595,9 @@
       <c r="K57" t="n">
         <v>-0.8896316375740003</v>
       </c>
+      <c r="L57" t="n">
+        <v>-0.8912268650117195</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2462,6 +2633,9 @@
       <c r="K58" t="n">
         <v>-1.041257663967172</v>
       </c>
+      <c r="L58" t="n">
+        <v>-1.0406229390521</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2497,6 +2671,9 @@
       <c r="K59" t="n">
         <v>-0.7864179048988212</v>
       </c>
+      <c r="L59" t="n">
+        <v>-0.7834102985762037</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2532,6 +2709,9 @@
       <c r="K60" t="n">
         <v>-0.4073191955591128</v>
       </c>
+      <c r="L60" t="n">
+        <v>-0.4042661194958145</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2567,6 +2747,9 @@
       <c r="K61" t="n">
         <v>0.38609007308521</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.3868606191275005</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2602,6 +2785,9 @@
       <c r="K62" t="n">
         <v>-1.139717827210629</v>
       </c>
+      <c r="L62" t="n">
+        <v>-1.140864269565841</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2637,6 +2823,9 @@
       <c r="K63" t="n">
         <v>-0.5923055216628451</v>
       </c>
+      <c r="L63" t="n">
+        <v>-0.5821464091119231</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2672,6 +2861,9 @@
       <c r="K64" t="n">
         <v>-0.8463353195977261</v>
       </c>
+      <c r="L64" t="n">
+        <v>-0.8423734338234874</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2707,6 +2899,9 @@
       <c r="K65" t="n">
         <v>-0.02659015987075166</v>
       </c>
+      <c r="L65" t="n">
+        <v>-0.02359858898238142</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2742,6 +2937,9 @@
       <c r="K66" t="n">
         <v>-0.7158356449206876</v>
       </c>
+      <c r="L66" t="n">
+        <v>-0.7176187697411609</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2776,6 +2974,9 @@
       </c>
       <c r="K67" t="n">
         <v>-0.6752964745006286</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6791950340108306</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,9 @@
       <c r="L1" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -508,6 +511,9 @@
       <c r="L2" t="n">
         <v>-0.2201751798927871</v>
       </c>
+      <c r="M2" t="n">
+        <v>-0.2161914551681235</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -546,6 +552,9 @@
       <c r="L3" t="n">
         <v>0.2755925042353658</v>
       </c>
+      <c r="M3" t="n">
+        <v>0.2782802302395267</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -584,6 +593,9 @@
       <c r="L4" t="n">
         <v>0.2344862631696897</v>
       </c>
+      <c r="M4" t="n">
+        <v>0.2398602679151831</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -622,6 +634,9 @@
       <c r="L5" t="n">
         <v>-0.02953936476061915</v>
       </c>
+      <c r="M5" t="n">
+        <v>-0.02908647008738345</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -660,6 +675,9 @@
       <c r="L6" t="n">
         <v>0.2259997124554679</v>
       </c>
+      <c r="M6" t="n">
+        <v>0.2281514386954598</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -698,6 +716,9 @@
       <c r="L7" t="n">
         <v>-0.3791247958795104</v>
       </c>
+      <c r="M7" t="n">
+        <v>-0.3751499380691693</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -736,6 +757,9 @@
       <c r="L8" t="n">
         <v>-0.1602607913512193</v>
       </c>
+      <c r="M8" t="n">
+        <v>-0.1530089901440776</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -774,6 +798,9 @@
       <c r="L9" t="n">
         <v>-0.2999579957330128</v>
       </c>
+      <c r="M9" t="n">
+        <v>-0.292498109181922</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -812,6 +839,9 @@
       <c r="L10" t="n">
         <v>0.4290006309088032</v>
       </c>
+      <c r="M10" t="n">
+        <v>0.4302366750985392</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -850,6 +880,9 @@
       <c r="L11" t="n">
         <v>-0.1818708894075526</v>
       </c>
+      <c r="M11" t="n">
+        <v>-0.1794049208177042</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -888,6 +921,9 @@
       <c r="L12" t="n">
         <v>0.001232185743753375</v>
       </c>
+      <c r="M12" t="n">
+        <v>-0.000182520658899378</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -926,6 +962,9 @@
       <c r="L13" t="n">
         <v>-0.01470889623491231</v>
       </c>
+      <c r="M13" t="n">
+        <v>-0.01632535723086049</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -964,6 +1003,9 @@
       <c r="L14" t="n">
         <v>0.2166744097539678</v>
       </c>
+      <c r="M14" t="n">
+        <v>0.2149934642715848</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1002,6 +1044,9 @@
       <c r="L15" t="n">
         <v>0.1369772069811907</v>
       </c>
+      <c r="M15" t="n">
+        <v>0.1301977178475446</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1040,6 +1085,9 @@
       <c r="L16" t="n">
         <v>0.5830999234763594</v>
       </c>
+      <c r="M16" t="n">
+        <v>0.5784543005167456</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1078,6 +1126,9 @@
       <c r="L17" t="n">
         <v>0.6774328962346929</v>
       </c>
+      <c r="M17" t="n">
+        <v>0.6657104391034052</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1116,6 +1167,9 @@
       <c r="L18" t="n">
         <v>-0.04293727752864415</v>
       </c>
+      <c r="M18" t="n">
+        <v>-0.05139629523426256</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1154,6 +1208,9 @@
       <c r="L19" t="n">
         <v>0.4327393206190661</v>
       </c>
+      <c r="M19" t="n">
+        <v>0.4267533572323131</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1192,6 +1249,9 @@
       <c r="L20" t="n">
         <v>0.4927630165040683</v>
       </c>
+      <c r="M20" t="n">
+        <v>0.4849037503288621</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1230,6 +1290,9 @@
       <c r="L21" t="n">
         <v>0.7006681330069745</v>
       </c>
+      <c r="M21" t="n">
+        <v>0.6940703691740093</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1268,6 +1331,9 @@
       <c r="L22" t="n">
         <v>0.4760961516365112</v>
       </c>
+      <c r="M22" t="n">
+        <v>0.4669464857265116</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1306,6 +1372,9 @@
       <c r="L23" t="n">
         <v>0.01856347288938903</v>
       </c>
+      <c r="M23" t="n">
+        <v>0.01028355217577867</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1344,6 +1413,9 @@
       <c r="L24" t="n">
         <v>2.820040849720064</v>
       </c>
+      <c r="M24" t="n">
+        <v>2.575302120637588</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1382,6 +1454,9 @@
       <c r="L25" t="n">
         <v>0.3058731135370994</v>
       </c>
+      <c r="M25" t="n">
+        <v>0.2989665829236013</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1420,6 +1495,9 @@
       <c r="L26" t="n">
         <v>0.1851465408124328</v>
       </c>
+      <c r="M26" t="n">
+        <v>0.1719827539553055</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1458,6 +1536,9 @@
       <c r="L27" t="n">
         <v>0.09285740850377958</v>
       </c>
+      <c r="M27" t="n">
+        <v>0.07797143021035478</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1496,6 +1577,9 @@
       <c r="L28" t="n">
         <v>0.8324874602930046</v>
       </c>
+      <c r="M28" t="n">
+        <v>0.8176116796641083</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1534,6 +1618,9 @@
       <c r="L29" t="n">
         <v>2.484223466340117</v>
       </c>
+      <c r="M29" t="n">
+        <v>2.277214933776603</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1572,6 +1659,9 @@
       <c r="L30" t="n">
         <v>0.6750356516922722</v>
       </c>
+      <c r="M30" t="n">
+        <v>0.6600293283167703</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1610,6 +1700,9 @@
       <c r="L31" t="n">
         <v>-0.4839535410762526</v>
       </c>
+      <c r="M31" t="n">
+        <v>-0.4916245979046993</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1648,6 +1741,9 @@
       <c r="L32" t="n">
         <v>0.5597678952985906</v>
       </c>
+      <c r="M32" t="n">
+        <v>0.5470673148283213</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1686,6 +1782,9 @@
       <c r="L33" t="n">
         <v>0.7539317585470993</v>
       </c>
+      <c r="M33" t="n">
+        <v>0.7465593995742222</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1724,6 +1823,9 @@
       <c r="L34" t="n">
         <v>-0.837490085378123</v>
       </c>
+      <c r="M34" t="n">
+        <v>-0.8461028289310168</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1762,6 +1864,9 @@
       <c r="L35" t="n">
         <v>0.7724650541729661</v>
       </c>
+      <c r="M35" t="n">
+        <v>0.7724572804729058</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1800,6 +1905,9 @@
       <c r="L36" t="n">
         <v>0.7051535233899289</v>
       </c>
+      <c r="M36" t="n">
+        <v>0.7068306098108814</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,6 +1946,9 @@
       <c r="L37" t="n">
         <v>0.6686213958224136</v>
       </c>
+      <c r="M37" t="n">
+        <v>0.6700131844909643</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1876,6 +1987,9 @@
       <c r="L38" t="n">
         <v>0.6288610882080794</v>
       </c>
+      <c r="M38" t="n">
+        <v>0.6264357886529762</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1914,6 +2028,9 @@
       <c r="L39" t="n">
         <v>0.571296017758838</v>
       </c>
+      <c r="M39" t="n">
+        <v>0.5728771322217939</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1952,6 +2069,9 @@
       <c r="L40" t="n">
         <v>0.7358398717797711</v>
       </c>
+      <c r="M40" t="n">
+        <v>0.7364785232983441</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1990,6 +2110,9 @@
       <c r="L41" t="n">
         <v>0.5419710137732011</v>
       </c>
+      <c r="M41" t="n">
+        <v>0.5443547321668128</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2028,6 +2151,9 @@
       <c r="L42" t="n">
         <v>0.5702966132223972</v>
       </c>
+      <c r="M42" t="n">
+        <v>0.568901637133183</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2066,6 +2192,9 @@
       <c r="L43" t="n">
         <v>0.6495466918702957</v>
       </c>
+      <c r="M43" t="n">
+        <v>0.6491345758930631</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2104,6 +2233,9 @@
       <c r="L44" t="n">
         <v>0.6563182508852633</v>
       </c>
+      <c r="M44" t="n">
+        <v>0.6587748481793096</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2142,6 +2274,9 @@
       <c r="L45" t="n">
         <v>0.6059019637749422</v>
       </c>
+      <c r="M45" t="n">
+        <v>0.6103823845000723</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2180,6 +2315,9 @@
       <c r="L46" t="n">
         <v>-1.283643677528688</v>
       </c>
+      <c r="M46" t="n">
+        <v>-1.285285644019332</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2218,6 +2356,9 @@
       <c r="L47" t="n">
         <v>-1.002576710320313</v>
       </c>
+      <c r="M47" t="n">
+        <v>-1.003973316109823</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2256,6 +2397,9 @@
       <c r="L48" t="n">
         <v>-0.8836951194605951</v>
       </c>
+      <c r="M48" t="n">
+        <v>-0.8827032272000097</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2294,6 +2438,9 @@
       <c r="L49" t="n">
         <v>-0.6446538608461253</v>
       </c>
+      <c r="M49" t="n">
+        <v>-0.6438810557227099</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2332,6 +2479,9 @@
       <c r="L50" t="n">
         <v>-0.05786539864992163</v>
       </c>
+      <c r="M50" t="n">
+        <v>-0.05904995819123257</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2370,6 +2520,9 @@
       <c r="L51" t="n">
         <v>-0.8725667318377041</v>
       </c>
+      <c r="M51" t="n">
+        <v>-0.8711642311144283</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2408,6 +2561,9 @@
       <c r="L52" t="n">
         <v>-0.8725667318377041</v>
       </c>
+      <c r="M52" t="n">
+        <v>-0.8711642311144283</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2446,6 +2602,9 @@
       <c r="L53" t="n">
         <v>-1.141393501974108</v>
       </c>
+      <c r="M53" t="n">
+        <v>-1.141962331990535</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2484,6 +2643,9 @@
       <c r="L54" t="n">
         <v>-0.176897388302798</v>
       </c>
+      <c r="M54" t="n">
+        <v>-0.1763068958888526</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2522,6 +2684,9 @@
       <c r="L55" t="n">
         <v>-1.020842685670773</v>
       </c>
+      <c r="M55" t="n">
+        <v>-1.022482075547763</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2560,6 +2725,9 @@
       <c r="L56" t="n">
         <v>-0.8867864497973662</v>
       </c>
+      <c r="M56" t="n">
+        <v>-0.8892702919990938</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2598,6 +2766,9 @@
       <c r="L57" t="n">
         <v>-0.8912268650117195</v>
       </c>
+      <c r="M57" t="n">
+        <v>-0.8940664302816661</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2636,6 +2807,9 @@
       <c r="L58" t="n">
         <v>-1.0406229390521</v>
       </c>
+      <c r="M58" t="n">
+        <v>-1.041659642535884</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2674,6 +2848,9 @@
       <c r="L59" t="n">
         <v>-0.7834102985762037</v>
       </c>
+      <c r="M59" t="n">
+        <v>-0.7813964473020821</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2712,6 +2889,9 @@
       <c r="L60" t="n">
         <v>-0.4042661194958145</v>
       </c>
+      <c r="M60" t="n">
+        <v>-0.4026437315926048</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2750,6 +2930,9 @@
       <c r="L61" t="n">
         <v>0.3868606191275005</v>
       </c>
+      <c r="M61" t="n">
+        <v>0.3873859259810966</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2788,6 +2971,9 @@
       <c r="L62" t="n">
         <v>-1.140864269565841</v>
       </c>
+      <c r="M62" t="n">
+        <v>-1.143659989477108</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2826,6 +3012,9 @@
       <c r="L63" t="n">
         <v>-0.5821464091119231</v>
       </c>
+      <c r="M63" t="n">
+        <v>-0.5737242232785573</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2864,6 +3053,9 @@
       <c r="L64" t="n">
         <v>-0.8423734338234874</v>
       </c>
+      <c r="M64" t="n">
+        <v>-0.8394788965780818</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2902,6 +3094,9 @@
       <c r="L65" t="n">
         <v>-0.02359858898238142</v>
       </c>
+      <c r="M65" t="n">
+        <v>-0.02186365002861253</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2940,6 +3135,9 @@
       <c r="L66" t="n">
         <v>-0.7176187697411609</v>
       </c>
+      <c r="M66" t="n">
+        <v>-0.7209892780842259</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2977,6 +3175,9 @@
       </c>
       <c r="L67" t="n">
         <v>-0.6791950340108306</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6849229027221567</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,9 @@
       <c r="M1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -514,6 +517,9 @@
       <c r="M2" t="n">
         <v>-0.2161914551681235</v>
       </c>
+      <c r="N2" t="n">
+        <v>-0.2133182815533546</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -555,6 +561,9 @@
       <c r="M3" t="n">
         <v>0.2782802302395267</v>
       </c>
+      <c r="N3" t="n">
+        <v>0.2799337956004256</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -596,6 +605,9 @@
       <c r="M4" t="n">
         <v>0.2398602679151831</v>
       </c>
+      <c r="N4" t="n">
+        <v>0.2441294833550263</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,6 +649,9 @@
       <c r="M5" t="n">
         <v>-0.02908647008738345</v>
       </c>
+      <c r="N5" t="n">
+        <v>-0.02938075562979789</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -678,6 +693,9 @@
       <c r="M6" t="n">
         <v>0.2281514386954598</v>
       </c>
+      <c r="N6" t="n">
+        <v>0.2292135923449498</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -719,6 +737,9 @@
       <c r="M7" t="n">
         <v>-0.3751499380691693</v>
       </c>
+      <c r="N7" t="n">
+        <v>-0.3721358550879831</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -760,6 +781,9 @@
       <c r="M8" t="n">
         <v>-0.1530089901440776</v>
       </c>
+      <c r="N8" t="n">
+        <v>-0.1467277649244374</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -801,6 +825,9 @@
       <c r="M9" t="n">
         <v>-0.292498109181922</v>
       </c>
+      <c r="N9" t="n">
+        <v>-0.2865183840701719</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -842,6 +869,9 @@
       <c r="M10" t="n">
         <v>0.4302366750985392</v>
       </c>
+      <c r="N10" t="n">
+        <v>0.4305302140403074</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -883,6 +913,9 @@
       <c r="M11" t="n">
         <v>-0.1794049208177042</v>
       </c>
+      <c r="N11" t="n">
+        <v>-0.1777090901920442</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -924,6 +957,9 @@
       <c r="M12" t="n">
         <v>-0.000182520658899378</v>
       </c>
+      <c r="N12" t="n">
+        <v>-0.003088451154600651</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -965,6 +1001,9 @@
       <c r="M13" t="n">
         <v>-0.01632535723086049</v>
       </c>
+      <c r="N13" t="n">
+        <v>-0.0181820180564608</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1006,6 +1045,9 @@
       <c r="M14" t="n">
         <v>0.2149934642715848</v>
       </c>
+      <c r="N14" t="n">
+        <v>0.2106099744345458</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1047,6 +1089,9 @@
       <c r="M15" t="n">
         <v>0.1301977178475446</v>
       </c>
+      <c r="N15" t="n">
+        <v>0.1205120640223172</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1088,6 +1133,9 @@
       <c r="M16" t="n">
         <v>0.5784543005167456</v>
       </c>
+      <c r="N16" t="n">
+        <v>0.5698273472902188</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1129,6 +1177,9 @@
       <c r="M17" t="n">
         <v>0.6657104391034052</v>
       </c>
+      <c r="N17" t="n">
+        <v>0.6518227728484387</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1170,6 +1221,9 @@
       <c r="M18" t="n">
         <v>-0.05139629523426256</v>
       </c>
+      <c r="N18" t="n">
+        <v>-0.05981573714725474</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1211,6 +1265,9 @@
       <c r="M19" t="n">
         <v>0.4267533572323131</v>
       </c>
+      <c r="N19" t="n">
+        <v>0.4195898659096047</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1252,6 +1309,9 @@
       <c r="M20" t="n">
         <v>0.4849037503288621</v>
       </c>
+      <c r="N20" t="n">
+        <v>0.473378703491282</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1293,6 +1353,9 @@
       <c r="M21" t="n">
         <v>0.6940703691740093</v>
       </c>
+      <c r="N21" t="n">
+        <v>0.6845864683677628</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1334,6 +1397,9 @@
       <c r="M22" t="n">
         <v>0.4669464857265116</v>
       </c>
+      <c r="N22" t="n">
+        <v>0.4555843843713148</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1375,6 +1441,9 @@
       <c r="M23" t="n">
         <v>0.01028355217577867</v>
       </c>
+      <c r="N23" t="n">
+        <v>0.0001877967685391113</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1416,6 +1485,9 @@
       <c r="M24" t="n">
         <v>2.575302120637588</v>
       </c>
+      <c r="N24" t="n">
+        <v>2.344144439350988</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1457,6 +1529,9 @@
       <c r="M25" t="n">
         <v>0.2989665829236013</v>
       </c>
+      <c r="N25" t="n">
+        <v>0.2939189594636418</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1498,6 +1573,9 @@
       <c r="M26" t="n">
         <v>0.1719827539553055</v>
       </c>
+      <c r="N26" t="n">
+        <v>0.1604909494866479</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1539,6 +1617,9 @@
       <c r="M27" t="n">
         <v>0.07797143021035478</v>
       </c>
+      <c r="N27" t="n">
+        <v>0.06504081690360274</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1580,6 +1661,9 @@
       <c r="M28" t="n">
         <v>0.8176116796641083</v>
       </c>
+      <c r="N28" t="n">
+        <v>0.805303307312236</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1621,6 +1705,9 @@
       <c r="M29" t="n">
         <v>2.277214933776603</v>
       </c>
+      <c r="N29" t="n">
+        <v>2.096348653787645</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1662,6 +1749,9 @@
       <c r="M30" t="n">
         <v>0.6600293283167703</v>
       </c>
+      <c r="N30" t="n">
+        <v>0.6479897996568165</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1703,6 +1793,9 @@
       <c r="M31" t="n">
         <v>-0.4916245979046993</v>
       </c>
+      <c r="N31" t="n">
+        <v>-0.4962585674411418</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1744,6 +1837,9 @@
       <c r="M32" t="n">
         <v>0.5470673148283213</v>
       </c>
+      <c r="N32" t="n">
+        <v>0.5366744724143238</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1785,6 +1881,9 @@
       <c r="M33" t="n">
         <v>0.7465593995742222</v>
       </c>
+      <c r="N33" t="n">
+        <v>0.7408834821974858</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1826,6 +1925,9 @@
       <c r="M34" t="n">
         <v>-0.8461028289310168</v>
       </c>
+      <c r="N34" t="n">
+        <v>-0.8528627429560246</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1867,6 +1969,9 @@
       <c r="M35" t="n">
         <v>0.7724572804729058</v>
       </c>
+      <c r="N35" t="n">
+        <v>0.773188728757826</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1908,6 +2013,9 @@
       <c r="M36" t="n">
         <v>0.7068306098108814</v>
       </c>
+      <c r="N36" t="n">
+        <v>0.7096236443498644</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1949,6 +2057,9 @@
       <c r="M37" t="n">
         <v>0.6700131844909643</v>
       </c>
+      <c r="N37" t="n">
+        <v>0.6726351401663078</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1990,6 +2101,9 @@
       <c r="M38" t="n">
         <v>0.6264357886529762</v>
       </c>
+      <c r="N38" t="n">
+        <v>0.6250566889289023</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2031,6 +2145,9 @@
       <c r="M39" t="n">
         <v>0.5728771322217939</v>
       </c>
+      <c r="N39" t="n">
+        <v>0.5748103271157305</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2072,6 +2189,9 @@
       <c r="M40" t="n">
         <v>0.7364785232983441</v>
       </c>
+      <c r="N40" t="n">
+        <v>0.737629313052542</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2113,6 +2233,9 @@
       <c r="M41" t="n">
         <v>0.5443547321668128</v>
       </c>
+      <c r="N41" t="n">
+        <v>0.5470394789349001</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2154,6 +2277,9 @@
       <c r="M42" t="n">
         <v>0.568901637133183</v>
       </c>
+      <c r="N42" t="n">
+        <v>0.569152508082826</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2195,6 +2321,9 @@
       <c r="M43" t="n">
         <v>0.6491345758930631</v>
       </c>
+      <c r="N43" t="n">
+        <v>0.6495180531163079</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2236,6 +2365,9 @@
       <c r="M44" t="n">
         <v>0.6587748481793096</v>
       </c>
+      <c r="N44" t="n">
+        <v>0.6617230672637495</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2277,6 +2409,9 @@
       <c r="M45" t="n">
         <v>0.6103823845000723</v>
       </c>
+      <c r="N45" t="n">
+        <v>0.6160728593928591</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2318,6 +2453,9 @@
       <c r="M46" t="n">
         <v>-1.285285644019332</v>
       </c>
+      <c r="N46" t="n">
+        <v>-1.287059027368684</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2359,6 +2497,9 @@
       <c r="M47" t="n">
         <v>-1.003973316109823</v>
       </c>
+      <c r="N47" t="n">
+        <v>-1.005386795827159</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2400,6 +2541,9 @@
       <c r="M48" t="n">
         <v>-0.8827032272000097</v>
       </c>
+      <c r="N48" t="n">
+        <v>-0.8817787332061812</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2441,6 +2585,9 @@
       <c r="M49" t="n">
         <v>-0.6438810557227099</v>
       </c>
+      <c r="N49" t="n">
+        <v>-0.6432418967702567</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2482,6 +2629,9 @@
       <c r="M50" t="n">
         <v>-0.05904995819123257</v>
       </c>
+      <c r="N50" t="n">
+        <v>-0.06029377626966249</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2523,6 +2673,9 @@
       <c r="M51" t="n">
         <v>-0.8711642311144283</v>
       </c>
+      <c r="N51" t="n">
+        <v>-0.8697585867422777</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2564,6 +2717,9 @@
       <c r="M52" t="n">
         <v>-0.8711642311144283</v>
       </c>
+      <c r="N52" t="n">
+        <v>-0.8697585867422777</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2605,6 +2761,9 @@
       <c r="M53" t="n">
         <v>-1.141962331990535</v>
       </c>
+      <c r="N53" t="n">
+        <v>-1.142359685315496</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2646,6 +2805,9 @@
       <c r="M54" t="n">
         <v>-0.1763068958888526</v>
       </c>
+      <c r="N54" t="n">
+        <v>-0.1759357959933621</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2687,6 +2849,9 @@
       <c r="M55" t="n">
         <v>-1.022482075547763</v>
       </c>
+      <c r="N55" t="n">
+        <v>-1.024180227238693</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2728,6 +2893,9 @@
       <c r="M56" t="n">
         <v>-0.8892702919990938</v>
       </c>
+      <c r="N56" t="n">
+        <v>-0.8919701816247345</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2769,6 +2937,9 @@
       <c r="M57" t="n">
         <v>-0.8940664302816661</v>
       </c>
+      <c r="N57" t="n">
+        <v>-0.8979913667117267</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2810,6 +2981,9 @@
       <c r="M58" t="n">
         <v>-1.041659642535884</v>
       </c>
+      <c r="N58" t="n">
+        <v>-1.044145580893794</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2851,6 +3025,9 @@
       <c r="M59" t="n">
         <v>-0.7813964473020821</v>
       </c>
+      <c r="N59" t="n">
+        <v>-0.7803085672898933</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2892,6 +3069,9 @@
       <c r="M60" t="n">
         <v>-0.4026437315926048</v>
       </c>
+      <c r="N60" t="n">
+        <v>-0.4022889117654847</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2933,6 +3113,9 @@
       <c r="M61" t="n">
         <v>0.3873859259810966</v>
       </c>
+      <c r="N61" t="n">
+        <v>0.3876803953217242</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2974,6 +3157,9 @@
       <c r="M62" t="n">
         <v>-1.143659989477108</v>
       </c>
+      <c r="N62" t="n">
+        <v>-1.147885861658981</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3015,6 +3201,9 @@
       <c r="M63" t="n">
         <v>-0.5737242232785573</v>
       </c>
+      <c r="N63" t="n">
+        <v>-0.5669343119993911</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3056,6 +3245,9 @@
       <c r="M64" t="n">
         <v>-0.8394788965780818</v>
       </c>
+      <c r="N64" t="n">
+        <v>-0.8376431954739793</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3097,6 +3289,9 @@
       <c r="M65" t="n">
         <v>-0.02186365002861253</v>
       </c>
+      <c r="N65" t="n">
+        <v>-0.02123157925336057</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3138,6 +3333,9 @@
       <c r="M66" t="n">
         <v>-0.7209892780842259</v>
       </c>
+      <c r="N66" t="n">
+        <v>-0.7256763995943323</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3178,6 +3376,9 @@
       </c>
       <c r="M67" t="n">
         <v>-0.6849229027221567</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6920965561097885</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,12 @@
       <c r="N1" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -520,6 +526,12 @@
       <c r="N2" t="n">
         <v>-0.2133182815533546</v>
       </c>
+      <c r="O2" t="n">
+        <v>-0.2114643095450728</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2105307011609714</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -564,6 +576,12 @@
       <c r="N3" t="n">
         <v>0.2799337956004256</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.2806349495657003</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2804782342884273</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,6 +626,12 @@
       <c r="N4" t="n">
         <v>0.2441294833550263</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.2473511196078822</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2495978380119809</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -652,6 +676,12 @@
       <c r="N5" t="n">
         <v>-0.02938075562979789</v>
       </c>
+      <c r="O5" t="n">
+        <v>-0.03033007942995938</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03184136088923693</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -696,6 +726,12 @@
       <c r="N6" t="n">
         <v>0.2292135923449498</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.2293198790880224</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2286045838077772</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -740,6 +776,12 @@
       <c r="N7" t="n">
         <v>-0.3721358550879831</v>
       </c>
+      <c r="O7" t="n">
+        <v>-0.3700356111966396</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.368788297950749</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -784,6 +826,12 @@
       <c r="N8" t="n">
         <v>-0.1467277649244374</v>
       </c>
+      <c r="O8" t="n">
+        <v>-0.1413961698196282</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1369774069469465</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,6 +876,12 @@
       <c r="N9" t="n">
         <v>-0.2865183840701719</v>
       </c>
+      <c r="O9" t="n">
+        <v>-0.2819806693959612</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2788143977689841</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -872,6 +926,12 @@
       <c r="N10" t="n">
         <v>0.4305302140403074</v>
       </c>
+      <c r="O10" t="n">
+        <v>0.4300107267053127</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4288048919811859</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -916,6 +976,12 @@
       <c r="N11" t="n">
         <v>-0.1777090901920442</v>
       </c>
+      <c r="O11" t="n">
+        <v>-0.176727984093035</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1763990854416434</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,6 +1026,12 @@
       <c r="N12" t="n">
         <v>-0.003088451154600651</v>
       </c>
+      <c r="O12" t="n">
+        <v>-0.007243021530742952</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01241214794415214</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1004,6 +1076,12 @@
       <c r="N13" t="n">
         <v>-0.0181820180564608</v>
       </c>
+      <c r="O13" t="n">
+        <v>-0.02024715154380544</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02248655969775492</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,6 +1126,12 @@
       <c r="N14" t="n">
         <v>0.2106099744345458</v>
       </c>
+      <c r="O14" t="n">
+        <v>0.20396057915699</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1954692355642895</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1092,6 +1176,12 @@
       <c r="N15" t="n">
         <v>0.1205120640223172</v>
       </c>
+      <c r="O15" t="n">
+        <v>0.1084671529106905</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09458394629827144</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1136,6 +1226,12 @@
       <c r="N16" t="n">
         <v>0.5698273472902188</v>
       </c>
+      <c r="O16" t="n">
+        <v>0.5579117559550353</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5433729377062484</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1180,6 +1276,12 @@
       <c r="N17" t="n">
         <v>0.6518227728484387</v>
       </c>
+      <c r="O17" t="n">
+        <v>0.6362965422861516</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6196207302970599</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1224,6 +1326,12 @@
       <c r="N18" t="n">
         <v>-0.05981573714725474</v>
       </c>
+      <c r="O18" t="n">
+        <v>-0.06815352160258968</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07636216074010468</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1268,6 +1376,12 @@
       <c r="N19" t="n">
         <v>0.4195898659096047</v>
       </c>
+      <c r="O19" t="n">
+        <v>0.4115014975651828</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4027274116305298</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1312,6 +1426,12 @@
       <c r="N20" t="n">
         <v>0.473378703491282</v>
       </c>
+      <c r="O20" t="n">
+        <v>0.4588847377591326</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4420835603505659</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,6 +1476,12 @@
       <c r="N21" t="n">
         <v>0.6845864683677628</v>
       </c>
+      <c r="O21" t="n">
+        <v>0.6728430254908768</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6594159441139804</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1400,6 +1526,12 @@
       <c r="N22" t="n">
         <v>0.4555843843713148</v>
       </c>
+      <c r="O22" t="n">
+        <v>0.4425085211407857</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4281838752811294</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1444,6 +1576,12 @@
       <c r="N23" t="n">
         <v>0.0001877967685391113</v>
       </c>
+      <c r="O23" t="n">
+        <v>-0.0113000032422991</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02378779627998907</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1488,6 +1626,12 @@
       <c r="N24" t="n">
         <v>2.344144439350988</v>
       </c>
+      <c r="O24" t="n">
+        <v>2.129520835592704</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.933480563269069</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1532,6 +1676,12 @@
       <c r="N25" t="n">
         <v>0.2939189594636418</v>
       </c>
+      <c r="O25" t="n">
+        <v>0.2904976299505371</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2884788020759164</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1576,6 +1726,12 @@
       <c r="N26" t="n">
         <v>0.1604909494866479</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.1506317619940473</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1423364354741517</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1620,6 +1776,12 @@
       <c r="N27" t="n">
         <v>0.06504081690360274</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.05399768676252616</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04474693881610786</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1664,6 +1826,12 @@
       <c r="N28" t="n">
         <v>0.805303307312236</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.7954418179133347</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7878710865875564</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1708,6 +1876,12 @@
       <c r="N29" t="n">
         <v>2.096348653787645</v>
       </c>
+      <c r="O29" t="n">
+        <v>1.940548621359262</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.808452676035163</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1752,6 +1926,12 @@
       <c r="N30" t="n">
         <v>0.6479897996568165</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.6386472370929314</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6317236554716106</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1796,6 +1976,12 @@
       <c r="N31" t="n">
         <v>-0.4962585674411418</v>
       </c>
+      <c r="O31" t="n">
+        <v>-0.4983202327706122</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4982459878878621</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1840,6 +2026,12 @@
       <c r="N32" t="n">
         <v>0.5366744724143238</v>
       </c>
+      <c r="O32" t="n">
+        <v>0.5284334960304413</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.52216684504216</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1884,6 +2076,12 @@
       <c r="N33" t="n">
         <v>0.7408834821974858</v>
       </c>
+      <c r="O33" t="n">
+        <v>0.7367409381924135</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7339635203510406</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1928,6 +2126,12 @@
       <c r="N34" t="n">
         <v>-0.8528627429560246</v>
       </c>
+      <c r="O34" t="n">
+        <v>-0.8579614069301367</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8615942352856631</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1972,6 +2176,12 @@
       <c r="N35" t="n">
         <v>0.773188728757826</v>
       </c>
+      <c r="O35" t="n">
+        <v>0.7745650181102949</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.7764889788772975</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2016,6 +2226,12 @@
       <c r="N36" t="n">
         <v>0.7096236443498644</v>
       </c>
+      <c r="O36" t="n">
+        <v>0.7133374342039093</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7177841561524801</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2060,6 +2276,12 @@
       <c r="N37" t="n">
         <v>0.6726351401663078</v>
       </c>
+      <c r="O37" t="n">
+        <v>0.6762752632840786</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6807298854737832</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2104,6 +2326,12 @@
       <c r="N38" t="n">
         <v>0.6250566889289023</v>
       </c>
+      <c r="O38" t="n">
+        <v>0.6245836616786016</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6248803826165612</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2148,6 +2376,12 @@
       <c r="N39" t="n">
         <v>0.5748103271157305</v>
       </c>
+      <c r="O39" t="n">
+        <v>0.5770265864720949</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5794582359511189</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2192,6 +2426,12 @@
       <c r="N40" t="n">
         <v>0.737629313052542</v>
       </c>
+      <c r="O40" t="n">
+        <v>0.7392385292386937</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.741245263783091</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2236,6 +2476,12 @@
       <c r="N41" t="n">
         <v>0.5470394789349001</v>
       </c>
+      <c r="O41" t="n">
+        <v>0.5499278257552696</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5529337956407395</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2280,6 +2526,12 @@
       <c r="N42" t="n">
         <v>0.569152508082826</v>
       </c>
+      <c r="O42" t="n">
+        <v>0.5708037534225769</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5736166647592651</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2324,6 +2576,12 @@
       <c r="N43" t="n">
         <v>0.6495180531163079</v>
       </c>
+      <c r="O43" t="n">
+        <v>0.6505680392745654</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6521617104953988</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2368,6 +2626,12 @@
       <c r="N44" t="n">
         <v>0.6617230672637495</v>
       </c>
+      <c r="O44" t="n">
+        <v>0.6650497093602901</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6686488913861264</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2412,6 +2676,12 @@
       <c r="N45" t="n">
         <v>0.6160728593928591</v>
       </c>
+      <c r="O45" t="n">
+        <v>0.622719689574091</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6300826381578328</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2456,6 +2726,12 @@
       <c r="N46" t="n">
         <v>-1.287059027368684</v>
       </c>
+      <c r="O46" t="n">
+        <v>-1.288991576725659</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.291101303561887</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2500,6 +2776,12 @@
       <c r="N47" t="n">
         <v>-1.005386795827159</v>
       </c>
+      <c r="O47" t="n">
+        <v>-1.006854996677864</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.008407106267946</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2544,6 +2826,12 @@
       <c r="N48" t="n">
         <v>-0.8817787332061812</v>
       </c>
+      <c r="O48" t="n">
+        <v>-0.880998849997614</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8804238944387288</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2588,6 +2876,12 @@
       <c r="N49" t="n">
         <v>-0.6432418967702567</v>
       </c>
+      <c r="O49" t="n">
+        <v>-0.6427838223261589</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6425418421393924</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2632,6 +2926,12 @@
       <c r="N50" t="n">
         <v>-0.06029377626966249</v>
       </c>
+      <c r="O50" t="n">
+        <v>-0.06159562467068196</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06295277074671651</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2676,6 +2976,12 @@
       <c r="N51" t="n">
         <v>-0.8697585867422777</v>
       </c>
+      <c r="O51" t="n">
+        <v>-0.8684286529132981</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8672392379887609</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2720,6 +3026,12 @@
       <c r="N52" t="n">
         <v>-0.8697585867422777</v>
       </c>
+      <c r="O52" t="n">
+        <v>-0.8684286529132981</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8672392379887609</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2764,6 +3076,12 @@
       <c r="N53" t="n">
         <v>-1.142359685315496</v>
       </c>
+      <c r="O53" t="n">
+        <v>-1.142703383246583</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.14308967652738</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2808,6 +3126,12 @@
       <c r="N54" t="n">
         <v>-0.1759357959933621</v>
       </c>
+      <c r="O54" t="n">
+        <v>-0.175790836190442</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1758729849932592</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2852,6 +3176,12 @@
       <c r="N55" t="n">
         <v>-1.024180227238693</v>
       </c>
+      <c r="O55" t="n">
+        <v>-1.025965455424598</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.02785836688306</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2896,6 +3226,12 @@
       <c r="N56" t="n">
         <v>-0.8919701816247345</v>
       </c>
+      <c r="O56" t="n">
+        <v>-0.894838901547386</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8978345750150249</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2940,6 +3276,12 @@
       <c r="N57" t="n">
         <v>-0.8979913667117267</v>
       </c>
+      <c r="O57" t="n">
+        <v>-0.9028397994521938</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9084518483657634</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2984,6 +3326,12 @@
       <c r="N58" t="n">
         <v>-1.044145580893794</v>
       </c>
+      <c r="O58" t="n">
+        <v>-1.047861740587387</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.05259704072894</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3028,6 +3376,12 @@
       <c r="N59" t="n">
         <v>-0.7803085672898933</v>
       </c>
+      <c r="O59" t="n">
+        <v>-0.7800699864657531</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7805983542856583</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3072,6 +3426,12 @@
       <c r="N60" t="n">
         <v>-0.4022889117654847</v>
       </c>
+      <c r="O60" t="n">
+        <v>-0.4030377529607465</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4047295025405627</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3116,6 +3476,12 @@
       <c r="N61" t="n">
         <v>0.3876803953217242</v>
       </c>
+      <c r="O61" t="n">
+        <v>0.3877615184819895</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3876488883810655</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3160,6 +3526,12 @@
       <c r="N62" t="n">
         <v>-1.147885861658981</v>
       </c>
+      <c r="O62" t="n">
+        <v>-1.153323077767894</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159758715534909</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3204,6 +3576,12 @@
       <c r="N63" t="n">
         <v>-0.5669343119993911</v>
       </c>
+      <c r="O63" t="n">
+        <v>-0.5616580007143084</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5577671524865098</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3248,6 +3626,12 @@
       <c r="N64" t="n">
         <v>-0.8376431954739793</v>
       </c>
+      <c r="O64" t="n">
+        <v>-0.8368302087400017</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8369824073405764</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3292,6 +3676,12 @@
       <c r="N65" t="n">
         <v>-0.02123157925336057</v>
       </c>
+      <c r="O65" t="n">
+        <v>-0.02155160459750484</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02267873477588057</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3336,6 +3726,12 @@
       <c r="N66" t="n">
         <v>-0.7256763995943323</v>
       </c>
+      <c r="O66" t="n">
+        <v>-0.7314242858321528</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7379955461768175</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3379,6 +3775,12 @@
       </c>
       <c r="N67" t="n">
         <v>-0.6920965561097885</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7003664362236856</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7094190390418398</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,9 @@
       <c r="P1" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -532,6 +535,9 @@
       <c r="P2" t="n">
         <v>-0.2105307011609714</v>
       </c>
+      <c r="Q2" t="n">
+        <v>-0.2104147444418475</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -582,6 +588,9 @@
       <c r="P3" t="n">
         <v>0.2804782342884273</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0.2795658551512608</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -632,6 +641,9 @@
       <c r="P4" t="n">
         <v>0.2495978380119809</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0.2509531383102551</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -682,6 +694,9 @@
       <c r="P5" t="n">
         <v>-0.03184136088923693</v>
       </c>
+      <c r="Q5" t="n">
+        <v>-0.03382314132095</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -732,6 +747,9 @@
       <c r="P6" t="n">
         <v>0.2286045838077772</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0.2271990752421662</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -782,6 +800,9 @@
       <c r="P7" t="n">
         <v>-0.368788297950749</v>
       </c>
+      <c r="Q7" t="n">
+        <v>-0.3683230387506168</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -832,6 +853,9 @@
       <c r="P8" t="n">
         <v>-0.1369774069469465</v>
       </c>
+      <c r="Q8" t="n">
+        <v>-0.1334222112578429</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,6 +906,9 @@
       <c r="P9" t="n">
         <v>-0.2788143977689841</v>
       </c>
+      <c r="Q9" t="n">
+        <v>-0.2769247104597994</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -932,6 +959,9 @@
       <c r="P10" t="n">
         <v>0.4288048919811859</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0.42703397775565</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -982,6 +1012,9 @@
       <c r="P11" t="n">
         <v>-0.1763990854416434</v>
       </c>
+      <c r="Q11" t="n">
+        <v>-0.176655501501879</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1032,6 +1065,9 @@
       <c r="P12" t="n">
         <v>-0.01241214794415214</v>
       </c>
+      <c r="Q12" t="n">
+        <v>-0.0183748166304975</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1082,6 +1118,9 @@
       <c r="P13" t="n">
         <v>-0.02248655969775492</v>
       </c>
+      <c r="Q13" t="n">
+        <v>-0.02486517168637566</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1132,6 +1171,9 @@
       <c r="P14" t="n">
         <v>0.1954692355642895</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0.1855381386428033</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1182,6 +1224,9 @@
       <c r="P15" t="n">
         <v>0.09458394629827144</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0.07934802212261124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1232,6 +1277,9 @@
       <c r="P16" t="n">
         <v>0.5433729377062484</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0.5268360549729302</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1282,6 +1330,9 @@
       <c r="P17" t="n">
         <v>0.6196207302970599</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0.6022398615053688</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1332,6 +1383,9 @@
       <c r="P18" t="n">
         <v>-0.07636216074010468</v>
       </c>
+      <c r="Q18" t="n">
+        <v>-0.08439258105944281</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1382,6 +1436,9 @@
       <c r="P19" t="n">
         <v>0.4027274116305298</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0.39348895538086</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1432,6 +1489,9 @@
       <c r="P20" t="n">
         <v>0.4420835603505659</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0.4235902394339874</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1482,6 +1542,9 @@
       <c r="P21" t="n">
         <v>0.6594159441139804</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0.6448251175353039</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1532,6 +1595,9 @@
       <c r="P22" t="n">
         <v>0.4281838752811294</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0.4130351182829947</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1582,6 +1648,9 @@
       <c r="P23" t="n">
         <v>-0.02378779627998907</v>
       </c>
+      <c r="Q23" t="n">
+        <v>-0.03692003355489248</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1632,6 +1701,9 @@
       <c r="P24" t="n">
         <v>1.933480563269069</v>
       </c>
+      <c r="Q24" t="n">
+        <v>1.757283392238908</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1682,6 +1754,9 @@
       <c r="P25" t="n">
         <v>0.2884788020759164</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0.2876505023923114</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1732,6 +1807,9 @@
       <c r="P26" t="n">
         <v>0.1423364354741517</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0.135513554889428</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1782,6 +1860,9 @@
       <c r="P27" t="n">
         <v>0.04474693881610786</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0.03717282748102999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +1913,9 @@
       <c r="P28" t="n">
         <v>0.7878710865875564</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0.7824094082100673</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1882,6 +1966,9 @@
       <c r="P29" t="n">
         <v>1.808452676035163</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.698483208284795</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1932,6 +2019,9 @@
       <c r="P30" t="n">
         <v>0.6317236554716106</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0.6269400740181554</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1982,6 +2072,9 @@
       <c r="P31" t="n">
         <v>-0.4982459878878621</v>
       </c>
+      <c r="Q31" t="n">
+        <v>-0.4964393732115869</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2032,6 +2125,9 @@
       <c r="P32" t="n">
         <v>0.52216684504216</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0.5176832738406331</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2082,6 +2178,9 @@
       <c r="P33" t="n">
         <v>0.7339635203510406</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0.7323824664659163</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2132,6 +2231,9 @@
       <c r="P34" t="n">
         <v>-0.8615942352856631</v>
       </c>
+      <c r="Q34" t="n">
+        <v>-0.863955230295983</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2182,6 +2284,9 @@
       <c r="P35" t="n">
         <v>0.7764889788772975</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0.7788639408674342</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2232,6 +2337,9 @@
       <c r="P36" t="n">
         <v>0.7177841561524801</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0.7227870995980892</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2282,6 +2390,9 @@
       <c r="P37" t="n">
         <v>0.6807298854737832</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0.6858075820777116</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2332,6 +2443,9 @@
       <c r="P38" t="n">
         <v>0.6248803826165612</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0.6258168151620966</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2382,6 +2496,9 @@
       <c r="P39" t="n">
         <v>0.5794582359511189</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0.5820407907407318</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2432,6 +2549,9 @@
       <c r="P40" t="n">
         <v>0.741245263783091</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0.7435848295814055</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2482,6 +2602,9 @@
       <c r="P41" t="n">
         <v>0.5529337956407395</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0.5559829218941543</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2532,6 +2655,9 @@
       <c r="P42" t="n">
         <v>0.5736166647592651</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0.5773641617327532</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2582,6 +2708,9 @@
       <c r="P43" t="n">
         <v>0.6521617104953988</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0.6541843665205976</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2632,6 +2761,9 @@
       <c r="P44" t="n">
         <v>0.6686488913861264</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0.6724236595355956</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2682,6 +2814,9 @@
       <c r="P45" t="n">
         <v>0.6300826381578328</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0.6379392288350982</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2732,6 +2867,9 @@
       <c r="P46" t="n">
         <v>-1.291101303561887</v>
       </c>
+      <c r="Q46" t="n">
+        <v>-1.29339778362833</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2782,6 +2920,9 @@
       <c r="P47" t="n">
         <v>-1.008407106267946</v>
       </c>
+      <c r="Q47" t="n">
+        <v>-1.010064475081007</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2832,6 +2973,9 @@
       <c r="P48" t="n">
         <v>-0.8804238944387288</v>
       </c>
+      <c r="Q48" t="n">
+        <v>-0.8800987664266742</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2882,6 +3026,9 @@
       <c r="P49" t="n">
         <v>-0.6425418421393924</v>
       </c>
+      <c r="Q49" t="n">
+        <v>-0.6425398255855677</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2932,6 +3079,9 @@
       <c r="P50" t="n">
         <v>-0.06295277074671651</v>
       </c>
+      <c r="Q50" t="n">
+        <v>-0.06436130221057948</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2982,6 +3132,9 @@
       <c r="P51" t="n">
         <v>-0.8672392379887609</v>
       </c>
+      <c r="Q51" t="n">
+        <v>-0.866241793291644</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3032,6 +3185,9 @@
       <c r="P52" t="n">
         <v>-0.8672392379887609</v>
       </c>
+      <c r="Q52" t="n">
+        <v>-0.866241793291644</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3082,6 +3238,9 @@
       <c r="P53" t="n">
         <v>-1.14308967652738</v>
       </c>
+      <c r="Q53" t="n">
+        <v>-1.143594944870057</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3132,6 +3291,9 @@
       <c r="P54" t="n">
         <v>-0.1758729849932592</v>
       </c>
+      <c r="Q54" t="n">
+        <v>-0.1761783010937483</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3182,6 +3344,9 @@
       <c r="P55" t="n">
         <v>-1.02785836688306</v>
       </c>
+      <c r="Q55" t="n">
+        <v>-1.029872704125409</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3232,6 +3397,9 @@
       <c r="P56" t="n">
         <v>-0.8978345750150249</v>
       </c>
+      <c r="Q56" t="n">
+        <v>-0.9009204609589077</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3282,6 +3450,9 @@
       <c r="P57" t="n">
         <v>-0.9084518483657634</v>
       </c>
+      <c r="Q57" t="n">
+        <v>-0.9146735150558931</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3332,6 +3503,9 @@
       <c r="P58" t="n">
         <v>-1.05259704072894</v>
       </c>
+      <c r="Q58" t="n">
+        <v>-1.058152001766096</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3382,6 +3556,9 @@
       <c r="P59" t="n">
         <v>-0.7805983542856583</v>
       </c>
+      <c r="Q59" t="n">
+        <v>-0.7818084267893491</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3432,6 +3609,9 @@
       <c r="P60" t="n">
         <v>-0.4047295025405627</v>
       </c>
+      <c r="Q60" t="n">
+        <v>-0.4072097215883203</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3482,6 +3662,9 @@
       <c r="P61" t="n">
         <v>0.3876488883810655</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0.3873633405118553</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3532,6 +3715,9 @@
       <c r="P62" t="n">
         <v>-1.159758715534909</v>
       </c>
+      <c r="Q62" t="n">
+        <v>-1.166990084454029</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3582,6 +3768,9 @@
       <c r="P63" t="n">
         <v>-0.5577671524865098</v>
       </c>
+      <c r="Q63" t="n">
+        <v>-0.5551282401658555</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3632,6 +3821,9 @@
       <c r="P64" t="n">
         <v>-0.8369824073405764</v>
       </c>
+      <c r="Q64" t="n">
+        <v>-0.8380264184808494</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3682,6 +3874,9 @@
       <c r="P65" t="n">
         <v>-0.02267873477588057</v>
       </c>
+      <c r="Q65" t="n">
+        <v>-0.02447592926394663</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3732,6 +3927,9 @@
       <c r="P66" t="n">
         <v>-0.7379955461768175</v>
       </c>
+      <c r="Q66" t="n">
+        <v>-0.7451736525203164</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3781,6 +3979,9 @@
       </c>
       <c r="P67" t="n">
         <v>-0.7094190390418398</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.718977717598265</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,9 @@
       <c r="Q1" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -538,6 +541,9 @@
       <c r="Q2" t="n">
         <v>-0.2104147444418475</v>
       </c>
+      <c r="R2" t="n">
+        <v>-0.2110129099947913</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -591,6 +597,9 @@
       <c r="Q3" t="n">
         <v>0.2795658551512608</v>
       </c>
+      <c r="R3" t="n">
+        <v>0.2780033622338261</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +653,9 @@
       <c r="Q4" t="n">
         <v>0.2509531383102551</v>
       </c>
+      <c r="R4" t="n">
+        <v>0.2515073286521404</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -697,6 +709,9 @@
       <c r="Q5" t="n">
         <v>-0.03382314132095</v>
       </c>
+      <c r="R5" t="n">
+        <v>-0.03618760848620761</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -750,6 +765,9 @@
       <c r="Q6" t="n">
         <v>0.2271990752421662</v>
       </c>
+      <c r="R6" t="n">
+        <v>0.2252290441465485</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -803,6 +821,9 @@
       <c r="Q7" t="n">
         <v>-0.3683230387506168</v>
       </c>
+      <c r="R7" t="n">
+        <v>-0.3685624999141687</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -856,6 +877,9 @@
       <c r="Q8" t="n">
         <v>-0.1334222112578429</v>
       </c>
+      <c r="R8" t="n">
+        <v>-0.1306719720785809</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -909,6 +933,9 @@
       <c r="Q9" t="n">
         <v>-0.2769247104597994</v>
       </c>
+      <c r="R9" t="n">
+        <v>-0.2761996389776031</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -962,6 +989,9 @@
       <c r="Q10" t="n">
         <v>0.42703397775565</v>
       </c>
+      <c r="R10" t="n">
+        <v>0.4248118567768508</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1015,6 +1045,9 @@
       <c r="Q11" t="n">
         <v>-0.176655501501879</v>
       </c>
+      <c r="R11" t="n">
+        <v>-0.1774282994738869</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1068,6 +1101,9 @@
       <c r="Q12" t="n">
         <v>-0.0183748166304975</v>
       </c>
+      <c r="R12" t="n">
+        <v>-0.02492641940684032</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1121,6 +1157,9 @@
       <c r="Q13" t="n">
         <v>-0.02486517168637566</v>
       </c>
+      <c r="R13" t="n">
+        <v>-0.02734832211843441</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1174,6 +1213,9 @@
       <c r="Q14" t="n">
         <v>0.1855381386428033</v>
       </c>
+      <c r="R14" t="n">
+        <v>0.1745409970183318</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1227,6 +1269,9 @@
       <c r="Q15" t="n">
         <v>0.07934802212261124</v>
       </c>
+      <c r="R15" t="n">
+        <v>0.0632029595232512</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1280,6 +1325,9 @@
       <c r="Q16" t="n">
         <v>0.5268360549729302</v>
       </c>
+      <c r="R16" t="n">
+        <v>0.5088766734923057</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1333,6 +1381,9 @@
       <c r="Q17" t="n">
         <v>0.6022398615053688</v>
       </c>
+      <c r="R17" t="n">
+        <v>0.5845498004495605</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1386,6 +1437,9 @@
       <c r="Q18" t="n">
         <v>-0.08439258105944281</v>
       </c>
+      <c r="R18" t="n">
+        <v>-0.09219707132387053</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1439,6 +1493,9 @@
       <c r="Q19" t="n">
         <v>0.39348895538086</v>
       </c>
+      <c r="R19" t="n">
+        <v>0.3839867175812038</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1492,6 +1549,9 @@
       <c r="Q20" t="n">
         <v>0.4235902394339874</v>
       </c>
+      <c r="R20" t="n">
+        <v>0.4039652380351995</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1545,6 +1605,9 @@
       <c r="Q21" t="n">
         <v>0.6448251175353039</v>
       </c>
+      <c r="R21" t="n">
+        <v>0.6295315807084843</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1598,6 +1661,9 @@
       <c r="Q22" t="n">
         <v>0.4130351182829947</v>
       </c>
+      <c r="R22" t="n">
+        <v>0.3974424170386741</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1651,6 +1717,9 @@
       <c r="Q23" t="n">
         <v>-0.03692003355489248</v>
       </c>
+      <c r="R23" t="n">
+        <v>-0.05038050041476216</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1704,6 +1773,9 @@
       <c r="Q24" t="n">
         <v>1.757283392238908</v>
       </c>
+      <c r="R24" t="n">
+        <v>1.601513111322577</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1829,9 @@
       <c r="Q25" t="n">
         <v>0.2876505023923114</v>
       </c>
+      <c r="R25" t="n">
+        <v>0.287814820880688</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1810,6 +1885,9 @@
       <c r="Q26" t="n">
         <v>0.135513554889428</v>
       </c>
+      <c r="R26" t="n">
+        <v>0.13005515872301</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1863,6 +1941,9 @@
       <c r="Q27" t="n">
         <v>0.03717282748102999</v>
       </c>
+      <c r="R27" t="n">
+        <v>0.03114494030219021</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1916,6 +1997,9 @@
       <c r="Q28" t="n">
         <v>0.7824094082100673</v>
       </c>
+      <c r="R28" t="n">
+        <v>0.7788583488057281</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1969,6 +2053,9 @@
       <c r="Q29" t="n">
         <v>1.698483208284795</v>
       </c>
+      <c r="R29" t="n">
+        <v>1.608912131798016</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2022,6 +2109,9 @@
       <c r="Q30" t="n">
         <v>0.6269400740181554</v>
       </c>
+      <c r="R30" t="n">
+        <v>0.6240225170682534</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2075,6 +2165,9 @@
       <c r="Q31" t="n">
         <v>-0.4964393732115869</v>
       </c>
+      <c r="R31" t="n">
+        <v>-0.4932681424451008</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2128,6 +2221,9 @@
       <c r="Q32" t="n">
         <v>0.5176832738406331</v>
       </c>
+      <c r="R32" t="n">
+        <v>0.5147847221883963</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,6 +2277,9 @@
       <c r="Q33" t="n">
         <v>0.7323824664659163</v>
       </c>
+      <c r="R33" t="n">
+        <v>0.7318323653850901</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2234,6 +2333,9 @@
       <c r="Q34" t="n">
         <v>-0.863955230295983</v>
       </c>
+      <c r="R34" t="n">
+        <v>-0.8652326970007264</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2287,6 +2389,9 @@
       <c r="Q35" t="n">
         <v>0.7788639408674342</v>
       </c>
+      <c r="R35" t="n">
+        <v>0.781596353076086</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2340,6 +2445,9 @@
       <c r="Q36" t="n">
         <v>0.7227870995980892</v>
       </c>
+      <c r="R36" t="n">
+        <v>0.7281833761234634</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2393,6 +2501,9 @@
       <c r="Q37" t="n">
         <v>0.6858075820777116</v>
       </c>
+      <c r="R37" t="n">
+        <v>0.6913319959712657</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2446,6 +2557,9 @@
       <c r="Q38" t="n">
         <v>0.6258168151620966</v>
       </c>
+      <c r="R38" t="n">
+        <v>0.6272710957246918</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2499,6 +2613,9 @@
       <c r="Q39" t="n">
         <v>0.5820407907407318</v>
       </c>
+      <c r="R39" t="n">
+        <v>0.584714331253211</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2552,6 +2669,9 @@
       <c r="Q40" t="n">
         <v>0.7435848295814055</v>
       </c>
+      <c r="R40" t="n">
+        <v>0.7461915694900073</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2605,6 +2725,9 @@
       <c r="Q41" t="n">
         <v>0.5559829218941543</v>
       </c>
+      <c r="R41" t="n">
+        <v>0.5590119953034434</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2658,6 +2781,9 @@
       <c r="Q42" t="n">
         <v>0.5773641617327532</v>
       </c>
+      <c r="R42" t="n">
+        <v>0.5818344337623182</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2711,6 +2837,9 @@
       <c r="Q43" t="n">
         <v>0.6541843665205976</v>
       </c>
+      <c r="R43" t="n">
+        <v>0.6565307431914116</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2764,6 +2893,9 @@
       <c r="Q44" t="n">
         <v>0.6724236595355956</v>
       </c>
+      <c r="R44" t="n">
+        <v>0.6762870344220588</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2817,6 +2949,9 @@
       <c r="Q45" t="n">
         <v>0.6379392288350982</v>
       </c>
+      <c r="R45" t="n">
+        <v>0.6460876949244697</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2870,6 +3005,9 @@
       <c r="Q46" t="n">
         <v>-1.29339778362833</v>
       </c>
+      <c r="R46" t="n">
+        <v>-1.295883404657314</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2923,6 +3061,9 @@
       <c r="Q47" t="n">
         <v>-1.010064475081007</v>
       </c>
+      <c r="R47" t="n">
+        <v>-1.011841464380245</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2976,6 +3117,9 @@
       <c r="Q48" t="n">
         <v>-0.8800987664266742</v>
       </c>
+      <c r="R48" t="n">
+        <v>-0.8800545352894469</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3029,6 +3173,9 @@
       <c r="Q49" t="n">
         <v>-0.6425398255855677</v>
       </c>
+      <c r="R49" t="n">
+        <v>-0.6427918277187802</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3082,6 +3229,9 @@
       <c r="Q50" t="n">
         <v>-0.06436130221057948</v>
       </c>
+      <c r="R50" t="n">
+        <v>-0.06581640910292492</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3135,6 +3285,9 @@
       <c r="Q51" t="n">
         <v>-0.866241793291644</v>
       </c>
+      <c r="R51" t="n">
+        <v>-0.8654753253169722</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3188,6 +3341,9 @@
       <c r="Q52" t="n">
         <v>-0.866241793291644</v>
       </c>
+      <c r="R52" t="n">
+        <v>-0.8654753253169722</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3241,6 +3397,9 @@
       <c r="Q53" t="n">
         <v>-1.143594944870057</v>
       </c>
+      <c r="R53" t="n">
+        <v>-1.144277541927448</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3294,6 +3453,9 @@
       <c r="Q54" t="n">
         <v>-0.1761783010937483</v>
       </c>
+      <c r="R54" t="n">
+        <v>-0.1766987695519029</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3347,6 +3509,9 @@
       <c r="Q55" t="n">
         <v>-1.029872704125409</v>
       </c>
+      <c r="R55" t="n">
+        <v>-1.032016185711158</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3400,6 +3565,9 @@
       <c r="Q56" t="n">
         <v>-0.9009204609589077</v>
       </c>
+      <c r="R56" t="n">
+        <v>-0.9040646617884025</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3453,6 +3621,9 @@
       <c r="Q57" t="n">
         <v>-0.9146735150558931</v>
       </c>
+      <c r="R57" t="n">
+        <v>-0.9213596356940784</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3506,6 +3677,9 @@
       <c r="Q58" t="n">
         <v>-1.058152001766096</v>
       </c>
+      <c r="R58" t="n">
+        <v>-1.064341423064816</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3559,6 +3733,9 @@
       <c r="Q59" t="n">
         <v>-0.7818084267893491</v>
       </c>
+      <c r="R59" t="n">
+        <v>-0.7836144207855921</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3612,6 +3789,9 @@
       <c r="Q60" t="n">
         <v>-0.4072097215883203</v>
       </c>
+      <c r="R60" t="n">
+        <v>-0.4103327092409134</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3665,6 +3845,9 @@
       <c r="Q61" t="n">
         <v>0.3873633405118553</v>
       </c>
+      <c r="R61" t="n">
+        <v>0.3869262259608247</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3718,6 +3901,9 @@
       <c r="Q62" t="n">
         <v>-1.166990084454029</v>
       </c>
+      <c r="R62" t="n">
+        <v>-1.174827952386525</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3771,6 +3957,9 @@
       <c r="Q63" t="n">
         <v>-0.5551282401658555</v>
       </c>
+      <c r="R63" t="n">
+        <v>-0.5536058859650799</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3824,6 +4013,9 @@
       <c r="Q64" t="n">
         <v>-0.8380264184808494</v>
       </c>
+      <c r="R64" t="n">
+        <v>-0.8398779121564522</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3877,6 +4069,9 @@
       <c r="Q65" t="n">
         <v>-0.02447592926394663</v>
       </c>
+      <c r="R65" t="n">
+        <v>-0.02681569179376121</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3930,6 +4125,9 @@
       <c r="Q66" t="n">
         <v>-0.7451736525203164</v>
       </c>
+      <c r="R66" t="n">
+        <v>-0.752764350405136</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3982,6 +4180,9 @@
       </c>
       <c r="Q67" t="n">
         <v>-0.718977717598265</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7288024082435465</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,9 @@
       <c r="R1" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +547,9 @@
       <c r="R2" t="n">
         <v>-0.2110129099947913</v>
       </c>
+      <c r="S2" t="n">
+        <v>-0.2122233640300823</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -600,6 +606,9 @@
       <c r="R3" t="n">
         <v>0.2780033622338261</v>
       </c>
+      <c r="S3" t="n">
+        <v>0.2758961095503037</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -656,6 +665,9 @@
       <c r="R4" t="n">
         <v>0.2515073286521404</v>
       </c>
+      <c r="S4" t="n">
+        <v>0.2513540861737076</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -712,6 +724,9 @@
       <c r="R5" t="n">
         <v>-0.03618760848620761</v>
       </c>
+      <c r="S5" t="n">
+        <v>-0.03885212959181017</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -768,6 +783,9 @@
       <c r="R6" t="n">
         <v>0.2252290441465485</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.2228124170841803</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -824,6 +842,9 @@
       <c r="R7" t="n">
         <v>-0.3685624999141687</v>
       </c>
+      <c r="S7" t="n">
+        <v>-0.3694259006357137</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -880,6 +901,9 @@
       <c r="R8" t="n">
         <v>-0.1306719720785809</v>
       </c>
+      <c r="S8" t="n">
+        <v>-0.1286615442077413</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -936,6 +960,9 @@
       <c r="R9" t="n">
         <v>-0.2761996389776031</v>
       </c>
+      <c r="S9" t="n">
+        <v>-0.2765163198545009</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -992,6 +1019,9 @@
       <c r="R10" t="n">
         <v>0.4248118567768508</v>
       </c>
+      <c r="S10" t="n">
+        <v>0.4222435900085436</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1048,6 +1078,9 @@
       <c r="R11" t="n">
         <v>-0.1774282994738869</v>
       </c>
+      <c r="S11" t="n">
+        <v>-0.178648455825561</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1104,6 +1137,9 @@
       <c r="R12" t="n">
         <v>-0.02492641940684032</v>
       </c>
+      <c r="S12" t="n">
+        <v>-0.03188099629366214</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1160,6 +1196,9 @@
       <c r="R13" t="n">
         <v>-0.02734832211843441</v>
       </c>
+      <c r="S13" t="n">
+        <v>-0.0299027389868183</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1216,6 +1255,9 @@
       <c r="R14" t="n">
         <v>0.1745409970183318</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.1628184043910107</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1272,6 +1314,9 @@
       <c r="R15" t="n">
         <v>0.0632029595232512</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.04654618868021078</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1328,6 +1373,9 @@
       <c r="R16" t="n">
         <v>0.5088766734923057</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.4900146051092705</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1384,6 +1432,9 @@
       <c r="R17" t="n">
         <v>0.5845498004495605</v>
       </c>
+      <c r="S17" t="n">
+        <v>0.5668957558502759</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1440,6 +1491,9 @@
       <c r="R18" t="n">
         <v>-0.09219707132387053</v>
       </c>
+      <c r="S18" t="n">
+        <v>-0.09973146396804265</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1496,6 +1550,9 @@
       <c r="R19" t="n">
         <v>0.3839867175812038</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.37439876958648</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1552,6 +1609,9 @@
       <c r="R20" t="n">
         <v>0.4039652380351995</v>
       </c>
+      <c r="S20" t="n">
+        <v>0.3837095143243254</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1608,6 +1668,9 @@
       <c r="R21" t="n">
         <v>0.6295315807084843</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.6139367484838408</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1664,6 +1727,9 @@
       <c r="R22" t="n">
         <v>0.3974424170386741</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.3817393030539648</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1720,6 +1786,9 @@
       <c r="R23" t="n">
         <v>-0.05038050041476216</v>
       </c>
+      <c r="S23" t="n">
+        <v>-0.06389350980600211</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1776,6 +1845,9 @@
       <c r="R24" t="n">
         <v>1.601513111322577</v>
       </c>
+      <c r="S24" t="n">
+        <v>1.466187068430618</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1832,6 +1904,9 @@
       <c r="R25" t="n">
         <v>0.287814820880688</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.2887894640309905</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1888,6 +1963,9 @@
       <c r="R26" t="n">
         <v>0.13005515872301</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.1258421644960949</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1944,6 +2022,9 @@
       <c r="R27" t="n">
         <v>0.03114494030219021</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.02652350441717097</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2000,6 +2081,9 @@
       <c r="R28" t="n">
         <v>0.7788583488057281</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.7770103890150228</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2056,6 +2140,9 @@
       <c r="R29" t="n">
         <v>1.608912131798016</v>
       </c>
+      <c r="S29" t="n">
+        <v>1.537919052019813</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2112,6 +2199,9 @@
       <c r="R30" t="n">
         <v>0.6240225170682534</v>
       </c>
+      <c r="S30" t="n">
+        <v>0.6227068793953549</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2168,6 +2258,9 @@
       <c r="R31" t="n">
         <v>-0.4932681424451008</v>
       </c>
+      <c r="S31" t="n">
+        <v>-0.4890626799720263</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2224,6 +2317,9 @@
       <c r="R32" t="n">
         <v>0.5147847221883963</v>
       </c>
+      <c r="S32" t="n">
+        <v>0.513272127072339</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2280,6 +2376,9 @@
       <c r="R33" t="n">
         <v>0.7318323653850901</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.7321542564134285</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2336,6 +2435,9 @@
       <c r="R34" t="n">
         <v>-0.8652326970007264</v>
       </c>
+      <c r="S34" t="n">
+        <v>-0.8656058734301404</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2392,6 +2494,9 @@
       <c r="R35" t="n">
         <v>0.781596353076086</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.7845977917866701</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2448,6 +2553,9 @@
       <c r="R36" t="n">
         <v>0.7281833761234634</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.7338257190738554</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2504,6 +2612,9 @@
       <c r="R37" t="n">
         <v>0.6913319959712657</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.6971437023784389</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2560,6 +2671,9 @@
       <c r="R38" t="n">
         <v>0.6272710957246918</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.6291308750985906</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2616,6 +2730,9 @@
       <c r="R39" t="n">
         <v>0.584714331253211</v>
       </c>
+      <c r="S39" t="n">
+        <v>0.5874244626350991</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2672,6 +2789,9 @@
       <c r="R40" t="n">
         <v>0.7461915694900073</v>
       </c>
+      <c r="S40" t="n">
+        <v>0.7490011005764813</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2728,6 +2848,9 @@
       <c r="R41" t="n">
         <v>0.5590119953034434</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.5619685672616879</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2784,6 +2907,9 @@
       <c r="R42" t="n">
         <v>0.5818344337623182</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.5868334865210215</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2840,6 +2966,9 @@
       <c r="R43" t="n">
         <v>0.6565307431914116</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.6591058399667533</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2896,6 +3025,9 @@
       <c r="R44" t="n">
         <v>0.6762870344220588</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.6801625706505283</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2952,6 +3084,9 @@
       <c r="R45" t="n">
         <v>0.6460876949244697</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.6543487601031998</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3008,6 +3143,9 @@
       <c r="R46" t="n">
         <v>-1.295883404657314</v>
       </c>
+      <c r="S46" t="n">
+        <v>-1.298554541748541</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3064,6 +3202,9 @@
       <c r="R47" t="n">
         <v>-1.011841464380245</v>
       </c>
+      <c r="S47" t="n">
+        <v>-1.013746296551709</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3120,6 +3261,9 @@
       <c r="R48" t="n">
         <v>-0.8800545352894469</v>
       </c>
+      <c r="S48" t="n">
+        <v>-0.880310072463552</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3176,6 +3320,9 @@
       <c r="R49" t="n">
         <v>-0.6427918277187802</v>
       </c>
+      <c r="S49" t="n">
+        <v>-0.643303411051927</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3232,6 +3379,9 @@
       <c r="R50" t="n">
         <v>-0.06581640910292492</v>
       </c>
+      <c r="S50" t="n">
+        <v>-0.06731262521655787</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3288,6 +3438,9 @@
       <c r="R51" t="n">
         <v>-0.8654753253169722</v>
       </c>
+      <c r="S51" t="n">
+        <v>-0.8649674647092392</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3344,6 +3497,9 @@
       <c r="R52" t="n">
         <v>-0.8654753253169722</v>
       </c>
+      <c r="S52" t="n">
+        <v>-0.8649674647092392</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3400,6 +3556,9 @@
       <c r="R53" t="n">
         <v>-1.144277541927448</v>
       </c>
+      <c r="S53" t="n">
+        <v>-1.145179715375653</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3456,6 +3615,9 @@
       <c r="R54" t="n">
         <v>-0.1766987695519029</v>
       </c>
+      <c r="S54" t="n">
+        <v>-0.177423087540677</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3512,6 +3674,9 @@
       <c r="R55" t="n">
         <v>-1.032016185711158</v>
       </c>
+      <c r="S55" t="n">
+        <v>-1.034291325942703</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3568,6 +3733,9 @@
       <c r="R56" t="n">
         <v>-0.9040646617884025</v>
       </c>
+      <c r="S56" t="n">
+        <v>-0.9072397705742896</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3624,6 +3792,9 @@
       <c r="R57" t="n">
         <v>-0.9213596356940784</v>
       </c>
+      <c r="S57" t="n">
+        <v>-0.9283760000381099</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3680,6 +3851,9 @@
       <c r="R58" t="n">
         <v>-1.064341423064816</v>
       </c>
+      <c r="S58" t="n">
+        <v>-1.070996181867678</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3736,6 +3910,9 @@
       <c r="R59" t="n">
         <v>-0.7836144207855921</v>
       </c>
+      <c r="S59" t="n">
+        <v>-0.7859319502629865</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3792,6 +3969,9 @@
       <c r="R60" t="n">
         <v>-0.4103327092409134</v>
       </c>
+      <c r="S60" t="n">
+        <v>-0.4139632586557177</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3848,6 +4028,9 @@
       <c r="R61" t="n">
         <v>0.3869262259608247</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.3863588128814959</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3904,6 +4087,9 @@
       <c r="R62" t="n">
         <v>-1.174827952386525</v>
       </c>
+      <c r="S62" t="n">
+        <v>-1.183098779189271</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3960,6 +4146,9 @@
       <c r="R63" t="n">
         <v>-0.5536058859650799</v>
       </c>
+      <c r="S63" t="n">
+        <v>-0.5530658552284595</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4016,6 +4205,9 @@
       <c r="R64" t="n">
         <v>-0.8398779121564522</v>
       </c>
+      <c r="S64" t="n">
+        <v>-0.8424458050685558</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4072,6 +4264,9 @@
       <c r="R65" t="n">
         <v>-0.02681569179376121</v>
       </c>
+      <c r="S65" t="n">
+        <v>-0.02958114522484917</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4128,6 +4323,9 @@
       <c r="R66" t="n">
         <v>-0.752764350405136</v>
       </c>
+      <c r="S66" t="n">
+        <v>-0.7605962255207572</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4183,6 +4381,9 @@
       </c>
       <c r="R67" t="n">
         <v>-0.7288024082435465</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7386884893833234</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="S1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -550,6 +553,9 @@
       <c r="S2" t="n">
         <v>-0.2122233640300823</v>
       </c>
+      <c r="T2" t="n">
+        <v>-0.2139479699477185</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -609,6 +615,9 @@
       <c r="S3" t="n">
         <v>0.2758961095503037</v>
       </c>
+      <c r="T3" t="n">
+        <v>0.2733464381410028</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -668,6 +677,9 @@
       <c r="S4" t="n">
         <v>0.2513540861737076</v>
       </c>
+      <c r="T4" t="n">
+        <v>0.2505875924877708</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -727,6 +739,9 @@
       <c r="S5" t="n">
         <v>-0.03885212959181017</v>
       </c>
+      <c r="T5" t="n">
+        <v>-0.04174034628371941</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -786,6 +801,9 @@
       <c r="S6" t="n">
         <v>0.2228124170841803</v>
       </c>
+      <c r="T6" t="n">
+        <v>0.2200578749737881</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -845,6 +863,9 @@
       <c r="S7" t="n">
         <v>-0.3694259006357137</v>
       </c>
+      <c r="T7" t="n">
+        <v>-0.3708315342047389</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -904,6 +925,9 @@
       <c r="S8" t="n">
         <v>-0.1286615442077413</v>
       </c>
+      <c r="T8" t="n">
+        <v>-0.1273217232669918</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -963,6 +987,9 @@
       <c r="S9" t="n">
         <v>-0.2765163198545009</v>
       </c>
+      <c r="T9" t="n">
+        <v>-0.2777462574858728</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1022,6 +1049,9 @@
       <c r="S10" t="n">
         <v>0.4222435900085436</v>
       </c>
+      <c r="T10" t="n">
+        <v>0.4194245088088086</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1081,6 +1111,9 @@
       <c r="S11" t="n">
         <v>-0.178648455825561</v>
       </c>
+      <c r="T11" t="n">
+        <v>-0.1802484389763107</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1140,6 +1173,9 @@
       <c r="S12" t="n">
         <v>-0.03188099629366214</v>
       </c>
+      <c r="T12" t="n">
+        <v>-0.03907253751462429</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1199,6 +1235,9 @@
       <c r="S13" t="n">
         <v>-0.0299027389868183</v>
       </c>
+      <c r="T13" t="n">
+        <v>-0.03249727492808833</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1258,6 +1297,9 @@
       <c r="S14" t="n">
         <v>0.1628184043910107</v>
       </c>
+      <c r="T14" t="n">
+        <v>0.1506750245255103</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1317,6 +1359,9 @@
       <c r="S15" t="n">
         <v>0.04654618868021078</v>
       </c>
+      <c r="T15" t="n">
+        <v>0.0297269323668803</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1376,6 +1421,9 @@
       <c r="S16" t="n">
         <v>0.4900146051092705</v>
       </c>
+      <c r="T16" t="n">
+        <v>0.4707104859327594</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1435,6 +1483,9 @@
       <c r="S17" t="n">
         <v>0.5668957558502759</v>
       </c>
+      <c r="T17" t="n">
+        <v>0.5495721037939874</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1494,6 +1545,9 @@
       <c r="S18" t="n">
         <v>-0.09973146396804265</v>
       </c>
+      <c r="T18" t="n">
+        <v>-0.1069566584109406</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1553,6 +1607,9 @@
       <c r="S19" t="n">
         <v>0.37439876958648</v>
       </c>
+      <c r="T19" t="n">
+        <v>0.3648799027242886</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1612,6 +1669,9 @@
       <c r="S20" t="n">
         <v>0.3837095143243254</v>
       </c>
+      <c r="T20" t="n">
+        <v>0.3632622190640052</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1671,6 +1731,9 @@
       <c r="S21" t="n">
         <v>0.6139367484838408</v>
       </c>
+      <c r="T21" t="n">
+        <v>0.5983833568255921</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1730,6 +1793,9 @@
       <c r="S22" t="n">
         <v>0.3817393030539648</v>
       </c>
+      <c r="T22" t="n">
+        <v>0.366212255266939</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1789,6 +1855,9 @@
       <c r="S23" t="n">
         <v>-0.06389350980600211</v>
       </c>
+      <c r="T23" t="n">
+        <v>-0.07722375128046882</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1848,6 +1917,9 @@
       <c r="S24" t="n">
         <v>1.466187068430618</v>
       </c>
+      <c r="T24" t="n">
+        <v>1.350859338784975</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1907,6 +1979,9 @@
       <c r="S25" t="n">
         <v>0.2887894640309905</v>
       </c>
+      <c r="T25" t="n">
+        <v>0.2904086932896903</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1966,6 +2041,9 @@
       <c r="S26" t="n">
         <v>0.1258421644960949</v>
       </c>
+      <c r="T26" t="n">
+        <v>0.1227490774708962</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2025,6 +2103,9 @@
       <c r="S27" t="n">
         <v>0.02652350441717097</v>
       </c>
+      <c r="T27" t="n">
+        <v>0.02316398764445531</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2084,6 +2165,9 @@
       <c r="S28" t="n">
         <v>0.7770103890150228</v>
       </c>
+      <c r="T28" t="n">
+        <v>0.7766553705578539</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2143,6 +2227,9 @@
       <c r="S29" t="n">
         <v>1.537919052019813</v>
       </c>
+      <c r="T29" t="n">
+        <v>1.483642056833391</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2202,6 +2289,9 @@
       <c r="S30" t="n">
         <v>0.6227068793953549</v>
       </c>
+      <c r="T30" t="n">
+        <v>0.622742719152672</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2261,6 +2351,9 @@
       <c r="S31" t="n">
         <v>-0.4890626799720263</v>
       </c>
+      <c r="T31" t="n">
+        <v>-0.4841155720595099</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2320,6 +2413,9 @@
       <c r="S32" t="n">
         <v>0.513272127072339</v>
       </c>
+      <c r="T32" t="n">
+        <v>0.5129501904010004</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,6 +2475,9 @@
       <c r="S33" t="n">
         <v>0.7321542564134285</v>
       </c>
+      <c r="T33" t="n">
+        <v>0.733198014816171</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,6 +2537,9 @@
       <c r="S34" t="n">
         <v>-0.8656058734301404</v>
       </c>
+      <c r="T34" t="n">
+        <v>-0.8652424049566677</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2497,6 +2599,9 @@
       <c r="S35" t="n">
         <v>0.7845977917866701</v>
       </c>
+      <c r="T35" t="n">
+        <v>0.7877864228055579</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2556,6 +2661,9 @@
       <c r="S36" t="n">
         <v>0.7338257190738554</v>
       </c>
+      <c r="T36" t="n">
+        <v>0.7395835029501625</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2615,6 +2723,9 @@
       <c r="S37" t="n">
         <v>0.6971437023784389</v>
       </c>
+      <c r="T37" t="n">
+        <v>0.7031012513891493</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2674,6 +2785,9 @@
       <c r="S38" t="n">
         <v>0.6291308750985906</v>
       </c>
+      <c r="T38" t="n">
+        <v>0.6312941798240366</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2733,6 +2847,9 @@
       <c r="S39" t="n">
         <v>0.5874244626350991</v>
       </c>
+      <c r="T39" t="n">
+        <v>0.5901229160613964</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2792,6 +2909,9 @@
       <c r="S40" t="n">
         <v>0.7490011005764813</v>
       </c>
+      <c r="T40" t="n">
+        <v>0.751952046419243</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2851,6 +2971,9 @@
       <c r="S41" t="n">
         <v>0.5619685672616879</v>
       </c>
+      <c r="T41" t="n">
+        <v>0.5648102712928891</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2910,6 +3033,9 @@
       <c r="S42" t="n">
         <v>0.5868334865210215</v>
       </c>
+      <c r="T42" t="n">
+        <v>0.5921867328687648</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2969,6 +3095,9 @@
       <c r="S43" t="n">
         <v>0.6591058399667533</v>
       </c>
+      <c r="T43" t="n">
+        <v>0.6618253320284463</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3028,6 +3157,9 @@
       <c r="S44" t="n">
         <v>0.6801625706505283</v>
       </c>
+      <c r="T44" t="n">
+        <v>0.6839845131027533</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3087,6 +3219,9 @@
       <c r="S45" t="n">
         <v>0.6543487601031998</v>
       </c>
+      <c r="T45" t="n">
+        <v>0.6625664351211817</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3146,6 +3281,9 @@
       <c r="S46" t="n">
         <v>-1.298554541748541</v>
       </c>
+      <c r="T46" t="n">
+        <v>-1.301402649016401</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3205,6 +3343,9 @@
       <c r="S47" t="n">
         <v>-1.013746296551709</v>
       </c>
+      <c r="T47" t="n">
+        <v>-1.01578188986295</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3264,6 +3405,9 @@
       <c r="S48" t="n">
         <v>-0.880310072463552</v>
       </c>
+      <c r="T48" t="n">
+        <v>-0.8808736803917537</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3323,6 +3467,9 @@
       <c r="S49" t="n">
         <v>-0.643303411051927</v>
       </c>
+      <c r="T49" t="n">
+        <v>-0.6440729303256673</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3382,6 +3529,9 @@
       <c r="S50" t="n">
         <v>-0.06731262521655787</v>
       </c>
+      <c r="T50" t="n">
+        <v>-0.068844033042647</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3441,6 +3591,9 @@
       <c r="S51" t="n">
         <v>-0.8649674647092392</v>
       </c>
+      <c r="T51" t="n">
+        <v>-0.8647356340578389</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3500,6 +3653,9 @@
       <c r="S52" t="n">
         <v>-0.8649674647092392</v>
       </c>
+      <c r="T52" t="n">
+        <v>-0.8647356340578389</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3559,6 +3715,9 @@
       <c r="S53" t="n">
         <v>-1.145179715375653</v>
       </c>
+      <c r="T53" t="n">
+        <v>-1.146329543171059</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3618,6 +3777,9 @@
       <c r="S54" t="n">
         <v>-0.177423087540677</v>
       </c>
+      <c r="T54" t="n">
+        <v>-0.1783373886898436</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3677,6 +3839,9 @@
       <c r="S55" t="n">
         <v>-1.034291325942703</v>
       </c>
+      <c r="T55" t="n">
+        <v>-1.036696221430399</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3736,6 +3901,9 @@
       <c r="S56" t="n">
         <v>-0.9072397705742896</v>
       </c>
+      <c r="T56" t="n">
+        <v>-0.9104224824346752</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3795,6 +3963,9 @@
       <c r="S57" t="n">
         <v>-0.9283760000381099</v>
       </c>
+      <c r="T57" t="n">
+        <v>-0.9356007467300274</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3854,6 +4025,9 @@
       <c r="S58" t="n">
         <v>-1.070996181867678</v>
       </c>
+      <c r="T58" t="n">
+        <v>-1.077964275848106</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3913,6 +4087,9 @@
       <c r="S59" t="n">
         <v>-0.7859319502629865</v>
       </c>
+      <c r="T59" t="n">
+        <v>-0.7886795717225081</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3972,6 +4149,9 @@
       <c r="S60" t="n">
         <v>-0.4139632586557177</v>
       </c>
+      <c r="T60" t="n">
+        <v>-0.4179778230825855</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4031,6 +4211,9 @@
       <c r="S61" t="n">
         <v>0.3863588128814959</v>
       </c>
+      <c r="T61" t="n">
+        <v>0.3856818081878118</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4090,6 +4273,9 @@
       <c r="S62" t="n">
         <v>-1.183098779189271</v>
       </c>
+      <c r="T62" t="n">
+        <v>-1.191646094179269</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4149,6 +4335,9 @@
       <c r="S63" t="n">
         <v>-0.5530658552284595</v>
       </c>
+      <c r="T63" t="n">
+        <v>-0.5533775158321995</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4208,6 +4397,9 @@
       <c r="S64" t="n">
         <v>-0.8424458050685558</v>
       </c>
+      <c r="T64" t="n">
+        <v>-0.8456358017069643</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4267,6 +4459,9 @@
       <c r="S65" t="n">
         <v>-0.02958114522484917</v>
       </c>
+      <c r="T65" t="n">
+        <v>-0.03266665445521642</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4326,6 +4521,9 @@
       <c r="S66" t="n">
         <v>-0.7605962255207572</v>
       </c>
+      <c r="T66" t="n">
+        <v>-0.7685205759712547</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4384,6 +4582,9 @@
       </c>
       <c r="S67" t="n">
         <v>-0.7386884893833234</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7484649732140461</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,9 @@
       <c r="T1" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -556,6 +559,9 @@
       <c r="T2" t="n">
         <v>-0.2139479699477185</v>
       </c>
+      <c r="U2" t="n">
+        <v>-0.2160938225733404</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -618,6 +624,9 @@
       <c r="T3" t="n">
         <v>0.2733464381410028</v>
       </c>
+      <c r="U3" t="n">
+        <v>0.2704515151403365</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -680,6 +689,9 @@
       <c r="T4" t="n">
         <v>0.2505875924877708</v>
       </c>
+      <c r="U4" t="n">
+        <v>0.2493002109103513</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -742,6 +754,9 @@
       <c r="T5" t="n">
         <v>-0.04174034628371941</v>
       </c>
+      <c r="U5" t="n">
+        <v>-0.04478288969930162</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -804,6 +819,9 @@
       <c r="T6" t="n">
         <v>0.2200578749737881</v>
       </c>
+      <c r="U6" t="n">
+        <v>0.2170638984505877</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -866,6 +884,9 @@
       <c r="T7" t="n">
         <v>-0.3708315342047389</v>
       </c>
+      <c r="U7" t="n">
+        <v>-0.3726988276876625</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -928,6 +949,9 @@
       <c r="T8" t="n">
         <v>-0.1273217232669918</v>
       </c>
+      <c r="U8" t="n">
+        <v>-0.1265813779451279</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -990,6 +1014,9 @@
       <c r="T9" t="n">
         <v>-0.2777462574858728</v>
       </c>
+      <c r="U9" t="n">
+        <v>-0.2797596794950468</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1052,6 +1079,9 @@
       <c r="T10" t="n">
         <v>0.4194245088088086</v>
       </c>
+      <c r="U10" t="n">
+        <v>0.4164397231394509</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1114,6 +1144,9 @@
       <c r="T11" t="n">
         <v>-0.1802484389763107</v>
       </c>
+      <c r="U11" t="n">
+        <v>-0.1821634542401749</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1176,6 +1209,9 @@
       <c r="T12" t="n">
         <v>-0.03907253751462429</v>
       </c>
+      <c r="U12" t="n">
+        <v>-0.0463554988931626</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1238,6 +1274,9 @@
       <c r="T13" t="n">
         <v>-0.03249727492808833</v>
       </c>
+      <c r="U13" t="n">
+        <v>-0.03510341714557414</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1300,6 +1339,9 @@
       <c r="T14" t="n">
         <v>0.1506750245255103</v>
       </c>
+      <c r="U14" t="n">
+        <v>0.1383783025994824</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1362,6 +1404,9 @@
       <c r="T15" t="n">
         <v>0.0297269323668803</v>
       </c>
+      <c r="U15" t="n">
+        <v>0.01304587055127999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1424,6 +1469,9 @@
       <c r="T16" t="n">
         <v>0.4707104859327594</v>
       </c>
+      <c r="U16" t="n">
+        <v>0.4513646330111595</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1486,6 +1534,9 @@
       <c r="T17" t="n">
         <v>0.5495721037939874</v>
       </c>
+      <c r="U17" t="n">
+        <v>0.5328236599043649</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1548,6 +1599,9 @@
       <c r="T18" t="n">
         <v>-0.1069566584109406</v>
       </c>
+      <c r="U18" t="n">
+        <v>-0.1138395923730315</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1610,6 +1664,9 @@
       <c r="T19" t="n">
         <v>0.3648799027242886</v>
       </c>
+      <c r="U19" t="n">
+        <v>0.3555616758105066</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1672,6 +1729,9 @@
       <c r="T20" t="n">
         <v>0.3632622190640052</v>
       </c>
+      <c r="U20" t="n">
+        <v>0.3430005273731183</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1734,6 +1794,9 @@
       <c r="T21" t="n">
         <v>0.5983833568255921</v>
       </c>
+      <c r="U21" t="n">
+        <v>0.5831577415173614</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1796,6 +1859,9 @@
       <c r="T22" t="n">
         <v>0.366212255266939</v>
       </c>
+      <c r="U22" t="n">
+        <v>0.3511016574133068</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1858,6 +1924,9 @@
       <c r="T23" t="n">
         <v>-0.07722375128046882</v>
       </c>
+      <c r="U23" t="n">
+        <v>-0.09017507510249054</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1920,6 +1989,9 @@
       <c r="T24" t="n">
         <v>1.350859338784975</v>
       </c>
+      <c r="U24" t="n">
+        <v>1.254715826607313</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1982,6 +2054,9 @@
       <c r="T25" t="n">
         <v>0.2904086932896903</v>
       </c>
+      <c r="U25" t="n">
+        <v>0.2925237336118997</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2044,6 +2119,9 @@
       <c r="T26" t="n">
         <v>0.1227490774708962</v>
       </c>
+      <c r="U26" t="n">
+        <v>0.1206479845440071</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2106,6 +2184,9 @@
       <c r="T27" t="n">
         <v>0.02316398764445531</v>
       </c>
+      <c r="U27" t="n">
+        <v>0.02092099338474959</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2168,6 +2249,9 @@
       <c r="T28" t="n">
         <v>0.7766553705578539</v>
       </c>
+      <c r="U28" t="n">
+        <v>0.7775857964112133</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2230,6 +2314,9 @@
       <c r="T29" t="n">
         <v>1.483642056833391</v>
       </c>
+      <c r="U29" t="n">
+        <v>1.444220965414083</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2292,6 +2379,9 @@
       <c r="T30" t="n">
         <v>0.622742719152672</v>
       </c>
+      <c r="U30" t="n">
+        <v>0.6238960685332454</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2354,6 +2444,9 @@
       <c r="T31" t="n">
         <v>-0.4841155720595099</v>
       </c>
+      <c r="U31" t="n">
+        <v>-0.4786821316063156</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2416,6 +2509,9 @@
       <c r="T32" t="n">
         <v>0.5129501904010004</v>
       </c>
+      <c r="U32" t="n">
+        <v>0.5136311669894635</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2478,6 +2574,9 @@
       <c r="T33" t="n">
         <v>0.733198014816171</v>
       </c>
+      <c r="U33" t="n">
+        <v>0.7348240909653121</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2540,6 +2639,9 @@
       <c r="T34" t="n">
         <v>-0.8652424049566677</v>
       </c>
+      <c r="U34" t="n">
+        <v>-0.8642965752008007</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2602,6 +2704,9 @@
       <c r="T35" t="n">
         <v>0.7877864228055579</v>
       </c>
+      <c r="U35" t="n">
+        <v>0.7910879881548081</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2664,6 +2769,9 @@
       <c r="T36" t="n">
         <v>0.7395835029501625</v>
       </c>
+      <c r="U36" t="n">
+        <v>0.7453431121267927</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2726,6 +2834,9 @@
       <c r="T37" t="n">
         <v>0.7031012513891493</v>
       </c>
+      <c r="U37" t="n">
+        <v>0.7090815248403691</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2788,6 +2899,9 @@
       <c r="T38" t="n">
         <v>0.6312941798240366</v>
       </c>
+      <c r="U38" t="n">
+        <v>0.6336698613185099</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2850,6 +2964,9 @@
       <c r="T39" t="n">
         <v>0.5901229160613964</v>
       </c>
+      <c r="U39" t="n">
+        <v>0.5927678492955069</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2912,6 +3029,9 @@
       <c r="T40" t="n">
         <v>0.751952046419243</v>
       </c>
+      <c r="U40" t="n">
+        <v>0.7549873158002139</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2974,6 +3094,9 @@
       <c r="T41" t="n">
         <v>0.5648102712928891</v>
       </c>
+      <c r="U41" t="n">
+        <v>0.567504018717835</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3036,6 +3159,9 @@
       <c r="T42" t="n">
         <v>0.5921867328687648</v>
       </c>
+      <c r="U42" t="n">
+        <v>0.5977397725058106</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3098,6 +3224,9 @@
       <c r="T43" t="n">
         <v>0.6618253320284463</v>
       </c>
+      <c r="U43" t="n">
+        <v>0.6646156366585192</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3160,6 +3289,9 @@
       <c r="T44" t="n">
         <v>0.6839845131027533</v>
       </c>
+      <c r="U44" t="n">
+        <v>0.6876976285293555</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3222,6 +3354,9 @@
       <c r="T45" t="n">
         <v>0.6625664351211817</v>
       </c>
+      <c r="U45" t="n">
+        <v>0.6706080098921459</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3284,6 +3419,9 @@
       <c r="T46" t="n">
         <v>-1.301402649016401</v>
       </c>
+      <c r="U46" t="n">
+        <v>-1.304415260866074</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3346,6 +3484,9 @@
       <c r="T47" t="n">
         <v>-1.01578188986295</v>
       </c>
+      <c r="U47" t="n">
+        <v>-1.017946663488583</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3408,6 +3549,9 @@
       <c r="T48" t="n">
         <v>-0.8808736803917537</v>
       </c>
+      <c r="U48" t="n">
+        <v>-0.8817446778396896</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3470,6 +3614,9 @@
       <c r="T49" t="n">
         <v>-0.6440729303256673</v>
       </c>
+      <c r="U49" t="n">
+        <v>-0.6450927555607241</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3532,6 +3679,9 @@
       <c r="T50" t="n">
         <v>-0.068844033042647</v>
       </c>
+      <c r="U50" t="n">
+        <v>-0.0704044369528859</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3594,6 +3744,9 @@
       <c r="T51" t="n">
         <v>-0.8647356340578389</v>
       </c>
+      <c r="U51" t="n">
+        <v>-0.8647882650945347</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3656,6 +3809,9 @@
       <c r="T52" t="n">
         <v>-0.8647356340578389</v>
       </c>
+      <c r="U52" t="n">
+        <v>-0.8647882650945347</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3718,6 +3874,9 @@
       <c r="T53" t="n">
         <v>-1.146329543171059</v>
       </c>
+      <c r="U53" t="n">
+        <v>-1.147742837717623</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3780,6 +3939,9 @@
       <c r="T54" t="n">
         <v>-0.1783373886898436</v>
       </c>
+      <c r="U54" t="n">
+        <v>-0.1794258999187984</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3842,6 +4004,9 @@
       <c r="T55" t="n">
         <v>-1.036696221430399</v>
       </c>
+      <c r="U55" t="n">
+        <v>-1.039225295441655</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3904,6 +4069,9 @@
       <c r="T56" t="n">
         <v>-0.9104224824346752</v>
       </c>
+      <c r="U56" t="n">
+        <v>-0.9135931913391476</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3966,6 +4134,9 @@
       <c r="T57" t="n">
         <v>-0.9356007467300274</v>
       </c>
+      <c r="U57" t="n">
+        <v>-0.942925147205126</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4028,6 +4199,9 @@
       <c r="T58" t="n">
         <v>-1.077964275848106</v>
       </c>
+      <c r="U58" t="n">
+        <v>-1.0851112331362</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4090,6 +4264,9 @@
       <c r="T59" t="n">
         <v>-0.7886795717225081</v>
       </c>
+      <c r="U59" t="n">
+        <v>-0.791779973880526</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4152,6 +4329,9 @@
       <c r="T60" t="n">
         <v>-0.4179778230825855</v>
       </c>
+      <c r="U60" t="n">
+        <v>-0.422265175854891</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4214,6 +4394,9 @@
       <c r="T61" t="n">
         <v>0.3856818081878118</v>
       </c>
+      <c r="U61" t="n">
+        <v>0.3849149882544959</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4276,6 +4459,9 @@
       <c r="T62" t="n">
         <v>-1.191646094179269</v>
       </c>
+      <c r="U62" t="n">
+        <v>-1.200331155918523</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4338,6 +4524,9 @@
       <c r="T63" t="n">
         <v>-0.5533775158321995</v>
       </c>
+      <c r="U63" t="n">
+        <v>-0.5544157928170576</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4400,6 +4589,9 @@
       <c r="T64" t="n">
         <v>-0.8456358017069643</v>
       </c>
+      <c r="U64" t="n">
+        <v>-0.8493533110696867</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4462,6 +4654,9 @@
       <c r="T65" t="n">
         <v>-0.03266665445521642</v>
       </c>
+      <c r="U65" t="n">
+        <v>-0.03597806741000852</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4524,6 +4719,9 @@
       <c r="T66" t="n">
         <v>-0.7685205759712547</v>
       </c>
+      <c r="U66" t="n">
+        <v>-0.7764107346275212</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4585,6 +4783,9 @@
       </c>
       <c r="T67" t="n">
         <v>-0.7484649732140461</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7579922143243579</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,9 @@
       <c r="U1" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -562,6 +565,9 @@
       <c r="U2" t="n">
         <v>-0.2160938225733404</v>
       </c>
+      <c r="V2" t="n">
+        <v>-0.2185743662945712</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -627,6 +633,9 @@
       <c r="U3" t="n">
         <v>0.2704515151403365</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.2673017529584331</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -692,6 +701,9 @@
       <c r="U4" t="n">
         <v>0.2493002109103513</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.247580660278397</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -757,6 +769,9 @@
       <c r="U5" t="n">
         <v>-0.04478288969930162</v>
       </c>
+      <c r="V5" t="n">
+        <v>-0.04791777444879804</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -822,6 +837,9 @@
       <c r="U6" t="n">
         <v>0.2170638984505877</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.2139182600667245</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -887,6 +905,9 @@
       <c r="U7" t="n">
         <v>-0.3726988276876625</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.3749499773734228</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -952,6 +973,9 @@
       <c r="U8" t="n">
         <v>-0.1265813779451279</v>
       </c>
+      <c r="V8" t="n">
+        <v>-0.1263692458003483</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1017,6 +1041,9 @@
       <c r="U9" t="n">
         <v>-0.2797596794950468</v>
       </c>
+      <c r="V9" t="n">
+        <v>-0.2824290503590758</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1082,6 +1109,9 @@
       <c r="U10" t="n">
         <v>0.4164397231394509</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.4133639832094178</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1147,6 +1177,9 @@
       <c r="U11" t="n">
         <v>-0.1821634542401749</v>
       </c>
+      <c r="V11" t="n">
+        <v>-0.1843323855867676</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1212,6 +1245,9 @@
       <c r="U12" t="n">
         <v>-0.0463554988931626</v>
       </c>
+      <c r="V12" t="n">
+        <v>-0.05360467916239185</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1277,6 +1313,9 @@
       <c r="U13" t="n">
         <v>-0.03510341714557414</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.03769561100047041</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1342,6 +1381,9 @@
       <c r="U14" t="n">
         <v>0.1383783025994824</v>
       </c>
+      <c r="V14" t="n">
+        <v>0.1261584240584654</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1407,6 +1449,9 @@
       <c r="U15" t="n">
         <v>0.01304587055127999</v>
       </c>
+      <c r="V15" t="n">
+        <v>-0.003243821346045575</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1472,6 +1517,9 @@
       <c r="U16" t="n">
         <v>0.4513646330111595</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.4323177410671267</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1537,6 +1585,9 @@
       <c r="U17" t="n">
         <v>0.5328236599043649</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.5168480597670851</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1602,6 +1653,9 @@
       <c r="U18" t="n">
         <v>-0.1138395923730315</v>
       </c>
+      <c r="V18" t="n">
+        <v>-0.1203537613951322</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1667,6 +1721,9 @@
       <c r="U19" t="n">
         <v>0.3555616758105066</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.3465530987370863</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1732,6 +1789,9 @@
       <c r="U20" t="n">
         <v>0.3430005273731183</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.3232411667825381</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1797,6 +1857,9 @@
       <c r="U21" t="n">
         <v>0.5831577415173614</v>
       </c>
+      <c r="V21" t="n">
+        <v>0.5684931189131686</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1862,6 +1925,9 @@
       <c r="U22" t="n">
         <v>0.3511016574133068</v>
       </c>
+      <c r="V22" t="n">
+        <v>0.3366038157927673</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1927,6 +1993,9 @@
       <c r="U23" t="n">
         <v>-0.09017507510249054</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.1025884681244903</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1992,6 +2061,9 @@
       <c r="U24" t="n">
         <v>1.254715826607313</v>
       </c>
+      <c r="V24" t="n">
+        <v>1.176660240310868</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2057,6 +2129,9 @@
       <c r="U25" t="n">
         <v>0.2925237336118997</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.2950027389187561</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2122,6 +2197,9 @@
       <c r="U26" t="n">
         <v>0.1206479845440071</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.1194118602198698</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2187,6 +2265,9 @@
       <c r="U27" t="n">
         <v>0.02092099338474959</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.0196514744147145</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2252,6 +2333,9 @@
       <c r="U28" t="n">
         <v>0.7775857964112133</v>
       </c>
+      <c r="V28" t="n">
+        <v>0.7796010643351945</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2317,6 +2401,9 @@
       <c r="U29" t="n">
         <v>1.444220965414083</v>
       </c>
+      <c r="V29" t="n">
+        <v>1.417833193149277</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2382,6 +2469,9 @@
       <c r="U30" t="n">
         <v>0.6238960685332454</v>
       </c>
+      <c r="V30" t="n">
+        <v>0.6259513691584117</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2447,6 +2537,9 @@
       <c r="U31" t="n">
         <v>-0.4786821316063156</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.4729816826005803</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2512,6 +2605,9 @@
       <c r="U32" t="n">
         <v>0.5136311669894635</v>
       </c>
+      <c r="V32" t="n">
+        <v>0.5151377582017035</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2577,6 +2673,9 @@
       <c r="U33" t="n">
         <v>0.7348240909653121</v>
       </c>
+      <c r="V33" t="n">
+        <v>0.7369046793544641</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2642,6 +2741,9 @@
       <c r="U34" t="n">
         <v>-0.8642965752008007</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.8629081968547297</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2707,6 +2809,9 @@
       <c r="U35" t="n">
         <v>0.7910879881548081</v>
       </c>
+      <c r="V35" t="n">
+        <v>0.7944363883572981</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2772,6 +2877,9 @@
       <c r="U36" t="n">
         <v>0.7453431121267927</v>
       </c>
+      <c r="V36" t="n">
+        <v>0.751007782877903</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2837,6 +2945,9 @@
       <c r="U37" t="n">
         <v>0.7090815248403691</v>
       </c>
+      <c r="V37" t="n">
+        <v>0.7149795385167487</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2902,6 +3013,9 @@
       <c r="U38" t="n">
         <v>0.6336698613185099</v>
       </c>
+      <c r="V38" t="n">
+        <v>0.6361777007751508</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2967,6 +3081,9 @@
       <c r="U39" t="n">
         <v>0.5927678492955069</v>
       </c>
+      <c r="V39" t="n">
+        <v>0.5953239014830611</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3032,6 +3149,9 @@
       <c r="U40" t="n">
         <v>0.7549873158002139</v>
       </c>
+      <c r="V40" t="n">
+        <v>0.7580549883348371</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3097,6 +3217,9 @@
       <c r="U41" t="n">
         <v>0.567504018717835</v>
       </c>
+      <c r="V41" t="n">
+        <v>0.570025116585304</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3162,6 +3285,9 @@
       <c r="U42" t="n">
         <v>0.5977397725058106</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.6033585021205008</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3227,6 +3353,9 @@
       <c r="U43" t="n">
         <v>0.6646156366585192</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.6674137007737814</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3292,6 +3421,9 @@
       <c r="U44" t="n">
         <v>0.6876976285293555</v>
       </c>
+      <c r="V44" t="n">
+        <v>0.6912567850269717</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3357,6 +3489,9 @@
       <c r="U45" t="n">
         <v>0.6706080098921459</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.6783634092174947</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3422,6 +3557,9 @@
       <c r="U46" t="n">
         <v>-1.304415260866074</v>
       </c>
+      <c r="V46" t="n">
+        <v>-1.307576899728463</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3487,6 +3625,9 @@
       <c r="U47" t="n">
         <v>-1.017946663488583</v>
       </c>
+      <c r="V47" t="n">
+        <v>-1.020235301803342</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3552,6 +3693,9 @@
       <c r="U48" t="n">
         <v>-0.8817446778396896</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.8829149110105544</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3617,6 +3761,9 @@
       <c r="U49" t="n">
         <v>-0.6450927555607241</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.646350415536721</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3682,6 +3829,9 @@
       <c r="U50" t="n">
         <v>-0.0704044369528859</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.07198750924851277</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3747,6 +3897,9 @@
       <c r="U51" t="n">
         <v>-0.8647882650945347</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.8651260241490082</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3812,6 +3965,9 @@
       <c r="U52" t="n">
         <v>-0.8647882650945347</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.8651260241490082</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3877,6 +4033,9 @@
       <c r="U53" t="n">
         <v>-1.147742837717623</v>
       </c>
+      <c r="V53" t="n">
+        <v>-1.149424979585109</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3942,6 +4101,9 @@
       <c r="U54" t="n">
         <v>-0.1794258999187984</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.1806715282200876</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4007,6 +4169,9 @@
       <c r="U55" t="n">
         <v>-1.039225295441655</v>
       </c>
+      <c r="V55" t="n">
+        <v>-1.041869993469221</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4072,6 +4237,9 @@
       <c r="U56" t="n">
         <v>-0.9135931913391476</v>
       </c>
+      <c r="V56" t="n">
+        <v>-0.9167355892710456</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4137,6 +4305,9 @@
       <c r="U57" t="n">
         <v>-0.942925147205126</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.9502538870337184</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4202,6 +4373,9 @@
       <c r="U58" t="n">
         <v>-1.0851112331362</v>
       </c>
+      <c r="V58" t="n">
+        <v>-1.092320009138796</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4267,6 +4441,9 @@
       <c r="U59" t="n">
         <v>-0.791779973880526</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.7951608519389228</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4332,6 +4509,9 @@
       <c r="U60" t="n">
         <v>-0.422265175854891</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.4267266482173157</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4397,6 +4577,9 @@
       <c r="U61" t="n">
         <v>0.3849149882544959</v>
       </c>
+      <c r="V61" t="n">
+        <v>0.3840769258247823</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4462,6 +4645,9 @@
       <c r="U62" t="n">
         <v>-1.200331155918523</v>
       </c>
+      <c r="V62" t="n">
+        <v>-1.209033027576594</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4527,6 +4713,9 @@
       <c r="U63" t="n">
         <v>-0.5544157928170576</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.5560626601538868</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4592,6 +4781,9 @@
       <c r="U64" t="n">
         <v>-0.8493533110696867</v>
       </c>
+      <c r="V64" t="n">
+        <v>-0.8535057900192418</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4657,6 +4849,9 @@
       <c r="U65" t="n">
         <v>-0.03597806741000852</v>
       </c>
+      <c r="V65" t="n">
+        <v>-0.03943264324322039</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4722,6 +4917,9 @@
       <c r="U66" t="n">
         <v>-0.7764107346275212</v>
       </c>
+      <c r="V66" t="n">
+        <v>-0.7841609743614513</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4786,6 +4984,9 @@
       </c>
       <c r="U67" t="n">
         <v>-0.7579922143243579</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7671592973952844</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,9 @@
       <c r="V1" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -568,6 +571,9 @@
       <c r="V2" t="n">
         <v>-0.2185743662945712</v>
       </c>
+      <c r="W2" t="n">
+        <v>-0.221310151433758</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -636,6 +642,9 @@
       <c r="V3" t="n">
         <v>0.2673017529584331</v>
       </c>
+      <c r="W3" t="n">
+        <v>0.263979729807605</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -704,6 +713,9 @@
       <c r="V4" t="n">
         <v>0.247580660278397</v>
       </c>
+      <c r="W4" t="n">
+        <v>0.2455126331023497</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -772,6 +784,9 @@
       <c r="V5" t="n">
         <v>-0.04791777444879804</v>
       </c>
+      <c r="W5" t="n">
+        <v>-0.05109052834665297</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,6 +855,9 @@
       <c r="V6" t="n">
         <v>0.2139182600667245</v>
       </c>
+      <c r="W6" t="n">
+        <v>0.2106978853338894</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -908,6 +926,9 @@
       <c r="V7" t="n">
         <v>-0.3749499773734228</v>
       </c>
+      <c r="W7" t="n">
+        <v>-0.3775112032917919</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -976,6 +997,9 @@
       <c r="V8" t="n">
         <v>-0.1263692458003483</v>
       </c>
+      <c r="W8" t="n">
+        <v>-0.1266154096140897</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,6 +1068,9 @@
       <c r="V9" t="n">
         <v>-0.2824290503590758</v>
       </c>
+      <c r="W9" t="n">
+        <v>-0.2856318226825943</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1112,6 +1139,9 @@
       <c r="V10" t="n">
         <v>0.4133639832094178</v>
       </c>
+      <c r="W10" t="n">
+        <v>0.4102618254336877</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1180,6 +1210,9 @@
       <c r="V11" t="n">
         <v>-0.1843323855867676</v>
       </c>
+      <c r="W11" t="n">
+        <v>-0.186698471428976</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1248,6 +1281,9 @@
       <c r="V12" t="n">
         <v>-0.05360467916239185</v>
       </c>
+      <c r="W12" t="n">
+        <v>-0.06071459691980777</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1316,6 +1352,9 @@
       <c r="V13" t="n">
         <v>-0.03769561100047041</v>
       </c>
+      <c r="W13" t="n">
+        <v>-0.04025143043429233</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1384,6 +1423,9 @@
       <c r="V14" t="n">
         <v>0.1261584240584654</v>
       </c>
+      <c r="W14" t="n">
+        <v>0.1142092605316931</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1452,6 +1494,9 @@
       <c r="V15" t="n">
         <v>-0.003243821346045575</v>
       </c>
+      <c r="W15" t="n">
+        <v>-0.01893438007549579</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1520,6 +1565,9 @@
       <c r="V16" t="n">
         <v>0.4323177410671267</v>
       </c>
+      <c r="W16" t="n">
+        <v>0.4138530137872662</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1588,6 +1636,9 @@
       <c r="V17" t="n">
         <v>0.5168480597670851</v>
       </c>
+      <c r="W17" t="n">
+        <v>0.5017989439143395</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1656,6 +1707,9 @@
       <c r="V18" t="n">
         <v>-0.1203537613951322</v>
       </c>
+      <c r="W18" t="n">
+        <v>-0.1264793782745358</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1724,6 +1778,9 @@
       <c r="V19" t="n">
         <v>0.3465530987370863</v>
       </c>
+      <c r="W19" t="n">
+        <v>0.3379417949691974</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1792,6 +1849,9 @@
       <c r="V20" t="n">
         <v>0.3232411667825381</v>
       </c>
+      <c r="W20" t="n">
+        <v>0.3042432414967907</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1860,6 +1920,9 @@
       <c r="V21" t="n">
         <v>0.5684931189131686</v>
       </c>
+      <c r="W21" t="n">
+        <v>0.5545735711941919</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1928,6 +1991,9 @@
       <c r="V22" t="n">
         <v>0.3366038157927673</v>
       </c>
+      <c r="W22" t="n">
+        <v>0.32287375593373</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1996,6 +2062,9 @@
       <c r="V23" t="n">
         <v>-0.1025884681244903</v>
       </c>
+      <c r="W23" t="n">
+        <v>-0.1143394494085558</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2064,6 +2133,9 @@
       <c r="V24" t="n">
         <v>1.176660240310868</v>
       </c>
+      <c r="W24" t="n">
+        <v>1.1153904191065</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2132,6 +2204,9 @@
       <c r="V25" t="n">
         <v>0.2950027389187561</v>
       </c>
+      <c r="W25" t="n">
+        <v>0.297730398796029</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2200,6 +2275,9 @@
       <c r="V26" t="n">
         <v>0.1194118602198698</v>
       </c>
+      <c r="W26" t="n">
+        <v>0.1189172296912163</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2268,6 +2346,9 @@
       <c r="V27" t="n">
         <v>0.0196514744147145</v>
       </c>
+      <c r="W27" t="n">
+        <v>0.01921730942986447</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2336,6 +2417,9 @@
       <c r="V28" t="n">
         <v>0.7796010643351945</v>
       </c>
+      <c r="W28" t="n">
+        <v>0.7825107323439602</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2404,6 +2488,9 @@
       <c r="V29" t="n">
         <v>1.417833193149277</v>
       </c>
+      <c r="W29" t="n">
+        <v>1.402722627779271</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2472,6 +2559,9 @@
       <c r="V30" t="n">
         <v>0.6259513691584117</v>
       </c>
+      <c r="W30" t="n">
+        <v>0.6287126473862787</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2540,6 +2630,9 @@
       <c r="V31" t="n">
         <v>-0.4729816826005803</v>
       </c>
+      <c r="W31" t="n">
+        <v>-0.4671994242055232</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2608,6 +2701,9 @@
       <c r="V32" t="n">
         <v>0.5151377582017035</v>
       </c>
+      <c r="W32" t="n">
+        <v>0.5173052092082494</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2676,6 +2772,9 @@
       <c r="V33" t="n">
         <v>0.7369046793544641</v>
       </c>
+      <c r="W33" t="n">
+        <v>0.7393243971612983</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2744,6 +2843,9 @@
       <c r="V34" t="n">
         <v>-0.8629081968547297</v>
       </c>
+      <c r="W34" t="n">
+        <v>-0.8612020630051067</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2812,6 +2914,9 @@
       <c r="V35" t="n">
         <v>0.7944363883572981</v>
       </c>
+      <c r="W35" t="n">
+        <v>0.7977739292298111</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2880,6 +2985,9 @@
       <c r="V36" t="n">
         <v>0.751007782877903</v>
       </c>
+      <c r="W36" t="n">
+        <v>0.7564970332943982</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2948,6 +3056,9 @@
       <c r="V37" t="n">
         <v>0.7149795385167487</v>
       </c>
+      <c r="W37" t="n">
+        <v>0.7207078107558763</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3016,6 +3127,9 @@
       <c r="V38" t="n">
         <v>0.6361777007751508</v>
       </c>
+      <c r="W38" t="n">
+        <v>0.638748235074061</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3084,6 +3198,9 @@
       <c r="V39" t="n">
         <v>0.5953239014830611</v>
       </c>
+      <c r="W39" t="n">
+        <v>0.5977620530986367</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3152,6 +3269,9 @@
       <c r="V40" t="n">
         <v>0.7580549883348371</v>
       </c>
+      <c r="W40" t="n">
+        <v>0.7611088669697353</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3220,6 +3340,9 @@
       <c r="V41" t="n">
         <v>0.570025116585304</v>
       </c>
+      <c r="W41" t="n">
+        <v>0.5723563481085122</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3288,6 +3411,9 @@
       <c r="V42" t="n">
         <v>0.6033585021205008</v>
       </c>
+      <c r="W42" t="n">
+        <v>0.6089286899143985</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3356,6 +3482,9 @@
       <c r="V43" t="n">
         <v>0.6674137007737814</v>
       </c>
+      <c r="W43" t="n">
+        <v>0.6701665715422345</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3424,6 +3553,9 @@
       <c r="V44" t="n">
         <v>0.6912567850269717</v>
       </c>
+      <c r="W44" t="n">
+        <v>0.6946263444052171</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3492,6 +3624,9 @@
       <c r="V45" t="n">
         <v>0.6783634092174947</v>
       </c>
+      <c r="W45" t="n">
+        <v>0.6857440648745495</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3560,6 +3695,9 @@
       <c r="V46" t="n">
         <v>-1.307576899728463</v>
       </c>
+      <c r="W46" t="n">
+        <v>-1.310869889615552</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3628,6 +3766,9 @@
       <c r="V47" t="n">
         <v>-1.020235301803342</v>
       </c>
+      <c r="W47" t="n">
+        <v>-1.022639469602515</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3696,6 +3837,9 @@
       <c r="V48" t="n">
         <v>-0.8829149110105544</v>
       </c>
+      <c r="W48" t="n">
+        <v>-0.8843701679523344</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3764,6 +3908,9 @@
       <c r="V49" t="n">
         <v>-0.646350415536721</v>
       </c>
+      <c r="W49" t="n">
+        <v>-0.6478296496262518</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3832,6 +3979,9 @@
       <c r="V50" t="n">
         <v>-0.07198750924851277</v>
       </c>
+      <c r="W50" t="n">
+        <v>-0.0735869132122827</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3900,6 +4050,9 @@
       <c r="V51" t="n">
         <v>-0.8651260241490082</v>
       </c>
+      <c r="W51" t="n">
+        <v>-0.8657430125906448</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3968,6 +4121,9 @@
       <c r="V52" t="n">
         <v>-0.8651260241490082</v>
       </c>
+      <c r="W52" t="n">
+        <v>-0.8657430125906448</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4036,6 +4192,9 @@
       <c r="V53" t="n">
         <v>-1.149424979585109</v>
       </c>
+      <c r="W53" t="n">
+        <v>-1.151372651480925</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4104,6 +4263,9 @@
       <c r="V54" t="n">
         <v>-0.1806715282200876</v>
       </c>
+      <c r="W54" t="n">
+        <v>-0.1820563774326017</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4172,6 +4334,9 @@
       <c r="V55" t="n">
         <v>-1.041869993469221</v>
       </c>
+      <c r="W55" t="n">
+        <v>-1.044619425404107</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4240,6 +4405,9 @@
       <c r="V56" t="n">
         <v>-0.9167355892710456</v>
       </c>
+      <c r="W56" t="n">
+        <v>-0.9198362803510467</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4308,6 +4476,9 @@
       <c r="V57" t="n">
         <v>-0.9502538870337184</v>
       </c>
+      <c r="W57" t="n">
+        <v>-0.9575049459195905</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4376,6 +4547,9 @@
       <c r="V58" t="n">
         <v>-1.092320009138796</v>
       </c>
+      <c r="W58" t="n">
+        <v>-1.099490480546417</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4444,6 +4618,9 @@
       <c r="V59" t="n">
         <v>-0.7951608519389228</v>
       </c>
+      <c r="W59" t="n">
+        <v>-0.7987555082273577</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4512,6 +4689,9 @@
       <c r="V60" t="n">
         <v>-0.4267266482173157</v>
       </c>
+      <c r="W60" t="n">
+        <v>-0.4312760250898869</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4580,6 +4760,9 @@
       <c r="V61" t="n">
         <v>0.3840769258247823</v>
       </c>
+      <c r="W61" t="n">
+        <v>0.3831847998280499</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4648,6 +4831,9 @@
       <c r="V62" t="n">
         <v>-1.209033027576594</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1.217648191065575</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4716,6 +4902,9 @@
       <c r="V63" t="n">
         <v>-0.5560626601538868</v>
       </c>
+      <c r="W63" t="n">
+        <v>-0.5582082188280841</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4784,6 +4973,9 @@
       <c r="V64" t="n">
         <v>-0.8535057900192418</v>
       </c>
+      <c r="W64" t="n">
+        <v>-0.8580045715673135</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4852,6 +5044,9 @@
       <c r="V65" t="n">
         <v>-0.03943264324322039</v>
       </c>
+      <c r="W65" t="n">
+        <v>-0.04295873286918943</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4920,6 +5115,9 @@
       <c r="V66" t="n">
         <v>-0.7841609743614513</v>
       </c>
+      <c r="W66" t="n">
+        <v>-0.7916851140435321</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4987,6 +5185,9 @@
       </c>
       <c r="V67" t="n">
         <v>-0.7671592973952844</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7758812421104512</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,9 @@
       <c r="W1" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +577,9 @@
       <c r="W2" t="n">
         <v>-0.221310151433758</v>
       </c>
+      <c r="X2" t="n">
+        <v>-0.2242292830970158</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -645,6 +651,9 @@
       <c r="W3" t="n">
         <v>0.263979729807605</v>
       </c>
+      <c r="X3" t="n">
+        <v>0.2605595339329835</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -716,6 +725,9 @@
       <c r="W4" t="n">
         <v>0.2455126331023497</v>
       </c>
+      <c r="X4" t="n">
+        <v>0.2431738027107133</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -787,6 +799,9 @@
       <c r="W5" t="n">
         <v>-0.05109052834665297</v>
       </c>
+      <c r="X5" t="n">
+        <v>-0.05425411064942567</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,6 +873,9 @@
       <c r="W6" t="n">
         <v>0.2106978853338894</v>
       </c>
+      <c r="X6" t="n">
+        <v>0.2074690095227967</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -929,6 +947,9 @@
       <c r="W7" t="n">
         <v>-0.3775112032917919</v>
       </c>
+      <c r="X7" t="n">
+        <v>-0.3803136687699579</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1000,6 +1021,9 @@
       <c r="W8" t="n">
         <v>-0.1266154096140897</v>
       </c>
+      <c r="X8" t="n">
+        <v>-0.1272524783200675</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1071,6 +1095,9 @@
       <c r="W9" t="n">
         <v>-0.2856318226825943</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.2892525126196834</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1142,6 +1169,9 @@
       <c r="W10" t="n">
         <v>0.4102618254336877</v>
       </c>
+      <c r="X10" t="n">
+        <v>0.4071879393356145</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1213,6 +1243,9 @@
       <c r="W11" t="n">
         <v>-0.186698471428976</v>
       </c>
+      <c r="X11" t="n">
+        <v>-0.1892097519614805</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1284,6 +1317,9 @@
       <c r="W12" t="n">
         <v>-0.06071459691980777</v>
       </c>
+      <c r="X12" t="n">
+        <v>-0.0675984907656447</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1355,6 +1391,9 @@
       <c r="W13" t="n">
         <v>-0.04025143043429233</v>
       </c>
+      <c r="X13" t="n">
+        <v>-0.04275162554849449</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1426,6 +1465,9 @@
       <c r="W14" t="n">
         <v>0.1142092605316931</v>
       </c>
+      <c r="X14" t="n">
+        <v>0.1026900675112596</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1497,6 +1539,9 @@
       <c r="W15" t="n">
         <v>-0.01893438007549579</v>
       </c>
+      <c r="X15" t="n">
+        <v>-0.03386059122040417</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1568,6 +1613,9 @@
       <c r="W16" t="n">
         <v>0.4138530137872662</v>
       </c>
+      <c r="X16" t="n">
+        <v>0.3961993665827588</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1639,6 +1687,9 @@
       <c r="W17" t="n">
         <v>0.5017989439143395</v>
       </c>
+      <c r="X17" t="n">
+        <v>0.4877896848230411</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1710,6 +1761,9 @@
       <c r="W18" t="n">
         <v>-0.1264793782745358</v>
       </c>
+      <c r="X18" t="n">
+        <v>-0.1322032540570005</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1781,6 +1835,9 @@
       <c r="W19" t="n">
         <v>0.3379417949691974</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.3297955054268417</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1852,6 +1909,9 @@
       <c r="W20" t="n">
         <v>0.3042432414967907</v>
       </c>
+      <c r="X20" t="n">
+        <v>0.2862119987771136</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1923,6 +1983,9 @@
       <c r="W21" t="n">
         <v>0.5545735711941919</v>
       </c>
+      <c r="X21" t="n">
+        <v>0.5415384804586938</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1994,6 +2057,9 @@
       <c r="W22" t="n">
         <v>0.32287375593373</v>
       </c>
+      <c r="X22" t="n">
+        <v>0.3100285535302774</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2065,6 +2131,9 @@
       <c r="W23" t="n">
         <v>-0.1143394494085558</v>
       </c>
+      <c r="X23" t="n">
+        <v>-0.1253350819542111</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2136,6 +2205,9 @@
       <c r="W24" t="n">
         <v>1.1153904191065</v>
       </c>
+      <c r="X24" t="n">
+        <v>1.069464923683004</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2207,6 +2279,9 @@
       <c r="W25" t="n">
         <v>0.297730398796029</v>
       </c>
+      <c r="X25" t="n">
+        <v>0.3006072650572551</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2278,6 +2353,9 @@
       <c r="W26" t="n">
         <v>0.1189172296912163</v>
       </c>
+      <c r="X26" t="n">
+        <v>0.1190462460262916</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2349,6 +2427,9 @@
       <c r="W27" t="n">
         <v>0.01921730942986447</v>
       </c>
+      <c r="X27" t="n">
+        <v>0.0194872985510196</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2420,6 +2501,9 @@
       <c r="W28" t="n">
         <v>0.7825107323439602</v>
       </c>
+      <c r="X28" t="n">
+        <v>0.7861369250784646</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2491,6 +2575,9 @@
       <c r="W29" t="n">
         <v>1.402722627779271</v>
       </c>
+      <c r="X29" t="n">
+        <v>1.397222072885224</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2562,6 +2649,9 @@
       <c r="W30" t="n">
         <v>0.6287126473862787</v>
       </c>
+      <c r="X30" t="n">
+        <v>0.6320040458664385</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2633,6 +2723,9 @@
       <c r="W31" t="n">
         <v>-0.4671994242055232</v>
       </c>
+      <c r="X31" t="n">
+        <v>-0.4614887129599237</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2704,6 +2797,9 @@
       <c r="W32" t="n">
         <v>0.5173052092082494</v>
       </c>
+      <c r="X32" t="n">
+        <v>0.5199827133012982</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2775,6 +2871,9 @@
       <c r="W33" t="n">
         <v>0.7393243971612983</v>
       </c>
+      <c r="X33" t="n">
+        <v>0.7419805512850991</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2846,6 +2945,9 @@
       <c r="W34" t="n">
         <v>-0.8612020630051067</v>
       </c>
+      <c r="X34" t="n">
+        <v>-0.8592878617554067</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2917,6 +3019,9 @@
       <c r="W35" t="n">
         <v>0.7977739292298111</v>
       </c>
+      <c r="X35" t="n">
+        <v>0.8010512976296044</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2988,6 +3093,9 @@
       <c r="W36" t="n">
         <v>0.7564970332943982</v>
       </c>
+      <c r="X36" t="n">
+        <v>0.7617457837531445</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3059,6 +3167,9 @@
       <c r="W37" t="n">
         <v>0.7207078107558763</v>
       </c>
+      <c r="X37" t="n">
+        <v>0.7261954059620306</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3130,6 +3241,9 @@
       <c r="W38" t="n">
         <v>0.638748235074061</v>
       </c>
+      <c r="X38" t="n">
+        <v>0.6413223640805119</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3201,6 +3315,9 @@
       <c r="W39" t="n">
         <v>0.5977620530986367</v>
       </c>
+      <c r="X39" t="n">
+        <v>0.600059336881042</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3272,6 +3389,9 @@
       <c r="W40" t="n">
         <v>0.7611088669697353</v>
       </c>
+      <c r="X40" t="n">
+        <v>0.7641087544749744</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3343,6 +3463,9 @@
       <c r="W41" t="n">
         <v>0.5723563481085122</v>
       </c>
+      <c r="X41" t="n">
+        <v>0.5744870481554509</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3414,6 +3537,9 @@
       <c r="W42" t="n">
         <v>0.6089286899143985</v>
       </c>
+      <c r="X42" t="n">
+        <v>0.6143551367303588</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3485,6 +3611,9 @@
       <c r="W43" t="n">
         <v>0.6701665715422345</v>
       </c>
+      <c r="X43" t="n">
+        <v>0.6728308056300535</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3556,6 +3685,9 @@
       <c r="W44" t="n">
         <v>0.6946263444052171</v>
       </c>
+      <c r="X44" t="n">
+        <v>0.6977794240334212</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3627,6 +3759,9 @@
       <c r="W45" t="n">
         <v>0.6857440648745495</v>
       </c>
+      <c r="X45" t="n">
+        <v>0.692681438648911</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3698,6 +3833,9 @@
       <c r="W46" t="n">
         <v>-1.310869889615552</v>
       </c>
+      <c r="X46" t="n">
+        <v>-1.314275076740048</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3769,6 +3907,9 @@
       <c r="W47" t="n">
         <v>-1.022639469602515</v>
       </c>
+      <c r="X47" t="n">
+        <v>-1.02514847222233</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3840,6 +3981,9 @@
       <c r="W48" t="n">
         <v>-0.8843701679523344</v>
       </c>
+      <c r="X48" t="n">
+        <v>-0.8860914808064287</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3911,6 +4055,9 @@
       <c r="W49" t="n">
         <v>-0.6478296496262518</v>
       </c>
+      <c r="X49" t="n">
+        <v>-0.6495113607374042</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3982,6 +4129,9 @@
       <c r="W50" t="n">
         <v>-0.0735869132122827</v>
       </c>
+      <c r="X50" t="n">
+        <v>-0.07519640662786781</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4053,6 +4203,9 @@
       <c r="W51" t="n">
         <v>-0.8657430125906448</v>
       </c>
+      <c r="X51" t="n">
+        <v>-0.8666279163036854</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4124,6 +4277,9 @@
       <c r="W52" t="n">
         <v>-0.8657430125906448</v>
       </c>
+      <c r="X52" t="n">
+        <v>-0.8666279163036854</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4195,6 +4351,9 @@
       <c r="W53" t="n">
         <v>-1.151372651480925</v>
       </c>
+      <c r="X53" t="n">
+        <v>-1.153575451309033</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4266,6 +4425,9 @@
       <c r="W54" t="n">
         <v>-0.1820563774326017</v>
       </c>
+      <c r="X54" t="n">
+        <v>-0.1835621968596437</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4337,6 +4499,9 @@
       <c r="W55" t="n">
         <v>-1.044619425404107</v>
       </c>
+      <c r="X55" t="n">
+        <v>-1.047460951291797</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4408,6 +4573,9 @@
       <c r="W56" t="n">
         <v>-0.9198362803510467</v>
       </c>
+      <c r="X56" t="n">
+        <v>-0.9228844185374833</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4479,6 +4647,9 @@
       <c r="W57" t="n">
         <v>-0.9575049459195905</v>
       </c>
+      <c r="X57" t="n">
+        <v>-0.964609167398402</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4550,6 +4721,9 @@
       <c r="W58" t="n">
         <v>-1.099490480546417</v>
       </c>
+      <c r="X58" t="n">
+        <v>-1.106538635264192</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4621,6 +4795,9 @@
       <c r="W59" t="n">
         <v>-0.7987555082273577</v>
       </c>
+      <c r="X59" t="n">
+        <v>-0.8025032203083704</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4692,6 +4869,9 @@
       <c r="W60" t="n">
         <v>-0.4312760250898869</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.4358391723705752</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4763,6 +4943,9 @@
       <c r="W61" t="n">
         <v>0.3831847998280499</v>
       </c>
+      <c r="X61" t="n">
+        <v>0.3822542751087448</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4834,6 +5017,9 @@
       <c r="W62" t="n">
         <v>-1.217648191065575</v>
       </c>
+      <c r="X62" t="n">
+        <v>-1.226089810092621</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4905,6 +5091,9 @@
       <c r="W63" t="n">
         <v>-0.5582082188280841</v>
       </c>
+      <c r="X63" t="n">
+        <v>-0.5607514136411162</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4976,6 +5165,9 @@
       <c r="W64" t="n">
         <v>-0.8580045715673135</v>
       </c>
+      <c r="X64" t="n">
+        <v>-0.8627662394182969</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5047,6 +5239,9 @@
       <c r="W65" t="n">
         <v>-0.04295873286918943</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.04649527087299651</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5118,6 +5313,9 @@
       <c r="W66" t="n">
         <v>-0.7916851140435321</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.7989149266035896</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5188,6 +5386,9 @@
       </c>
       <c r="W67" t="n">
         <v>-0.7758812421104512</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7840961388132647</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,9 @@
       <c r="X1" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -580,6 +583,9 @@
       <c r="X2" t="n">
         <v>-0.2242292830970158</v>
       </c>
+      <c r="Y2" t="n">
+        <v>-0.2272676143222147</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,6 +660,9 @@
       <c r="X3" t="n">
         <v>0.2605595339329835</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0.2571064580025952</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +737,9 @@
       <c r="X4" t="n">
         <v>0.2431738027107133</v>
       </c>
+      <c r="Y4" t="n">
+        <v>0.2406351640940768</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -802,6 +814,9 @@
       <c r="X5" t="n">
         <v>-0.05425411064942567</v>
       </c>
+      <c r="Y5" t="n">
+        <v>-0.05736866623689504</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -876,6 +891,9 @@
       <c r="X6" t="n">
         <v>0.2074690095227967</v>
       </c>
+      <c r="Y6" t="n">
+        <v>0.2042875639733576</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +968,9 @@
       <c r="X7" t="n">
         <v>-0.3803136687699579</v>
       </c>
+      <c r="Y7" t="n">
+        <v>-0.3832941110546488</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1024,6 +1045,9 @@
       <c r="X8" t="n">
         <v>-0.1272524783200675</v>
       </c>
+      <c r="Y8" t="n">
+        <v>-0.1282165007673027</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1098,6 +1122,9 @@
       <c r="X9" t="n">
         <v>-0.2892525126196834</v>
       </c>
+      <c r="Y9" t="n">
+        <v>-0.2931841877746507</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1172,6 +1199,9 @@
       <c r="X10" t="n">
         <v>0.4071879393356145</v>
       </c>
+      <c r="Y10" t="n">
+        <v>0.4041876991249773</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1246,6 +1276,9 @@
       <c r="X11" t="n">
         <v>-0.1892097519614805</v>
       </c>
+      <c r="Y11" t="n">
+        <v>-0.1918193241868225</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1320,6 +1353,9 @@
       <c r="X12" t="n">
         <v>-0.0675984907656447</v>
       </c>
+      <c r="Y12" t="n">
+        <v>-0.07418705020074996</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1394,6 +1430,9 @@
       <c r="X13" t="n">
         <v>-0.04275162554849449</v>
       </c>
+      <c r="Y13" t="n">
+        <v>-0.04518007426489312</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1468,6 +1507,9 @@
       <c r="X14" t="n">
         <v>0.1026900675112596</v>
       </c>
+      <c r="Y14" t="n">
+        <v>0.09172772740017601</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1542,6 +1584,9 @@
       <c r="X15" t="n">
         <v>-0.03386059122040417</v>
       </c>
+      <c r="Y15" t="n">
+        <v>-0.04789639867365195</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1616,6 +1661,9 @@
       <c r="X16" t="n">
         <v>0.3961993665827588</v>
       </c>
+      <c r="Y16" t="n">
+        <v>0.379535385075536</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1690,6 +1738,9 @@
       <c r="X17" t="n">
         <v>0.4877896848230411</v>
       </c>
+      <c r="Y17" t="n">
+        <v>0.4748974354913258</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1764,6 +1815,9 @@
       <c r="X18" t="n">
         <v>-0.1322032540570005</v>
       </c>
+      <c r="Y18" t="n">
+        <v>-0.137518471423125</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1838,6 +1892,9 @@
       <c r="X19" t="n">
         <v>0.3297955054268417</v>
       </c>
+      <c r="Y19" t="n">
+        <v>0.3221638168576783</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1912,6 +1969,9 @@
       <c r="X20" t="n">
         <v>0.2862119987771136</v>
       </c>
+      <c r="Y20" t="n">
+        <v>0.2693032330266989</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1986,6 +2046,9 @@
       <c r="X21" t="n">
         <v>0.5415384804586938</v>
       </c>
+      <c r="Y21" t="n">
+        <v>0.5294871985780902</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2060,6 +2123,9 @@
       <c r="X22" t="n">
         <v>0.3100285535302774</v>
       </c>
+      <c r="Y22" t="n">
+        <v>0.2981509931740424</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2134,6 +2200,9 @@
       <c r="X23" t="n">
         <v>-0.1253350819542111</v>
       </c>
+      <c r="Y23" t="n">
+        <v>-0.1355107647377486</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2208,6 +2277,9 @@
       <c r="X24" t="n">
         <v>1.069464923683004</v>
       </c>
+      <c r="Y24" t="n">
+        <v>1.037360137521153</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2282,6 +2354,9 @@
       <c r="X25" t="n">
         <v>0.3006072650572551</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0.3035488689979743</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2356,6 +2431,9 @@
       <c r="X26" t="n">
         <v>0.1190462460262916</v>
       </c>
+      <c r="Y26" t="n">
+        <v>0.1196882451378617</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2430,6 +2508,9 @@
       <c r="X27" t="n">
         <v>0.0194872985510196</v>
       </c>
+      <c r="Y27" t="n">
+        <v>0.02033864090110247</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2504,6 +2585,9 @@
       <c r="X28" t="n">
         <v>0.7861369250784646</v>
       </c>
+      <c r="Y28" t="n">
+        <v>0.7903159933834146</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2578,6 +2662,9 @@
       <c r="X29" t="n">
         <v>1.397222072885224</v>
       </c>
+      <c r="Y29" t="n">
+        <v>1.399769910757255</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2652,6 +2739,9 @@
       <c r="X30" t="n">
         <v>0.6320040458664385</v>
       </c>
+      <c r="Y30" t="n">
+        <v>0.6356698234832974</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2726,6 +2816,9 @@
       <c r="X31" t="n">
         <v>-0.4614887129599237</v>
       </c>
+      <c r="Y31" t="n">
+        <v>-0.4559736227396485</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2800,6 +2893,9 @@
       <c r="X32" t="n">
         <v>0.5199827133012982</v>
       </c>
+      <c r="Y32" t="n">
+        <v>0.5230342265206643</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2874,6 +2970,9 @@
       <c r="X33" t="n">
         <v>0.7419805512850991</v>
       </c>
+      <c r="Y33" t="n">
+        <v>0.7447830688944207</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2948,6 +3047,9 @@
       <c r="X34" t="n">
         <v>-0.8592878617554067</v>
       </c>
+      <c r="Y34" t="n">
+        <v>-0.8572604628387348</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3022,6 +3124,9 @@
       <c r="X35" t="n">
         <v>0.8010512976296044</v>
       </c>
+      <c r="Y35" t="n">
+        <v>0.8042273246314978</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3096,6 +3201,9 @@
       <c r="X36" t="n">
         <v>0.7617457837531445</v>
       </c>
+      <c r="Y36" t="n">
+        <v>0.7667032573681816</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3170,6 +3278,9 @@
       <c r="X37" t="n">
         <v>0.7261954059620306</v>
       </c>
+      <c r="Y37" t="n">
+        <v>0.7313867475378791</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3244,6 +3355,9 @@
       <c r="X38" t="n">
         <v>0.6413223640805119</v>
       </c>
+      <c r="Y38" t="n">
+        <v>0.6438507934836167</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3318,6 +3432,9 @@
       <c r="X39" t="n">
         <v>0.600059336881042</v>
       </c>
+      <c r="Y39" t="n">
+        <v>0.6021984399433367</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3392,6 +3509,9 @@
       <c r="X40" t="n">
         <v>0.7641087544749744</v>
       </c>
+      <c r="Y40" t="n">
+        <v>0.7670205067015771</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3466,6 +3586,9 @@
       <c r="X41" t="n">
         <v>0.5744870481554509</v>
       </c>
+      <c r="Y41" t="n">
+        <v>0.5764121991890725</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3540,6 +3663,9 @@
       <c r="X42" t="n">
         <v>0.6143551367303588</v>
       </c>
+      <c r="Y42" t="n">
+        <v>0.6195605320943093</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3614,6 +3740,9 @@
       <c r="X43" t="n">
         <v>0.6728308056300535</v>
       </c>
+      <c r="Y43" t="n">
+        <v>0.6753717655030678</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3688,6 +3817,9 @@
       <c r="X44" t="n">
         <v>0.6977794240334212</v>
       </c>
+      <c r="Y44" t="n">
+        <v>0.7006970761111565</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3762,6 +3894,9 @@
       <c r="X45" t="n">
         <v>0.692681438648911</v>
       </c>
+      <c r="Y45" t="n">
+        <v>0.6991253116462469</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3836,6 +3971,9 @@
       <c r="X46" t="n">
         <v>-1.314275076740048</v>
       </c>
+      <c r="Y46" t="n">
+        <v>-1.317772459864754</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3910,6 +4048,9 @@
       <c r="X47" t="n">
         <v>-1.02514847222233</v>
       </c>
+      <c r="Y47" t="n">
+        <v>-1.027749856571905</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3984,6 +4125,9 @@
       <c r="X48" t="n">
         <v>-0.8860914808064287</v>
       </c>
+      <c r="Y48" t="n">
+        <v>-0.8880563064520988</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4058,6 +4202,9 @@
       <c r="X49" t="n">
         <v>-0.6495113607374042</v>
       </c>
+      <c r="Y49" t="n">
+        <v>-0.6513744660710581</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4132,6 +4279,9 @@
       <c r="X50" t="n">
         <v>-0.07519640662786781</v>
       </c>
+      <c r="Y50" t="n">
+        <v>-0.07680992853904303</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4206,6 +4356,9 @@
       <c r="X51" t="n">
         <v>-0.8666279163036854</v>
       </c>
+      <c r="Y51" t="n">
+        <v>-0.8677650848717973</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4280,6 +4433,9 @@
       <c r="X52" t="n">
         <v>-0.8666279163036854</v>
       </c>
+      <c r="Y52" t="n">
+        <v>-0.8677650848717973</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4354,6 +4510,9 @@
       <c r="X53" t="n">
         <v>-1.153575451309033</v>
       </c>
+      <c r="Y53" t="n">
+        <v>-1.156017370276088</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4428,6 +4587,9 @@
       <c r="X54" t="n">
         <v>-0.1835621968596437</v>
       </c>
+      <c r="Y54" t="n">
+        <v>-0.1851707648294285</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4502,6 +4664,9 @@
       <c r="X55" t="n">
         <v>-1.047460951291797</v>
       </c>
+      <c r="Y55" t="n">
+        <v>-1.050380709010488</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4576,6 +4741,9 @@
       <c r="X56" t="n">
         <v>-0.9228844185374833</v>
       </c>
+      <c r="Y56" t="n">
+        <v>-0.9258713741122064</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4650,6 +4818,9 @@
       <c r="X57" t="n">
         <v>-0.964609167398402</v>
       </c>
+      <c r="Y57" t="n">
+        <v>-0.9715095977847613</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4724,6 +4895,9 @@
       <c r="X58" t="n">
         <v>-1.106538635264192</v>
       </c>
+      <c r="Y58" t="n">
+        <v>-1.113395544010644</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4798,6 +4972,9 @@
       <c r="X59" t="n">
         <v>-0.8025032203083704</v>
       </c>
+      <c r="Y59" t="n">
+        <v>-0.8063494153227989</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4872,6 +5049,9 @@
       <c r="X60" t="n">
         <v>-0.4358391723705752</v>
       </c>
+      <c r="Y60" t="n">
+        <v>-0.4403534612914047</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4946,6 +5126,9 @@
       <c r="X61" t="n">
         <v>0.3822542751087448</v>
       </c>
+      <c r="Y61" t="n">
+        <v>0.3812994399034555</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5020,6 +5203,9 @@
       <c r="X62" t="n">
         <v>-1.226089810092621</v>
       </c>
+      <c r="Y62" t="n">
+        <v>-1.234286737783747</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5094,6 +5280,9 @@
       <c r="X63" t="n">
         <v>-0.5607514136411162</v>
       </c>
+      <c r="Y63" t="n">
+        <v>-0.5636004412119088</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5168,6 +5357,9 @@
       <c r="X64" t="n">
         <v>-0.8627662394182969</v>
       </c>
+      <c r="Y64" t="n">
+        <v>-0.8677136098767659</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5242,6 +5434,9 @@
       <c r="X65" t="n">
         <v>-0.04649527087299651</v>
       </c>
+      <c r="Y65" t="n">
+        <v>-0.04999113064771826</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5316,6 +5511,9 @@
       <c r="X66" t="n">
         <v>-0.7989149266035896</v>
       </c>
+      <c r="Y66" t="n">
+        <v>-0.8057984335904615</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5389,6 +5587,9 @@
       </c>
       <c r="X67" t="n">
         <v>-0.7840961388132647</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7917623049455197</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y67"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,9 @@
       <c r="Y1" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -586,6 +589,9 @@
       <c r="Y2" t="n">
         <v>-0.2272676143222147</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.2303687313838525</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -663,6 +669,9 @@
       <c r="Y3" t="n">
         <v>0.2571064580025952</v>
       </c>
+      <c r="Z3" t="n">
+        <v>0.2536769761855142</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -740,6 +749,9 @@
       <c r="Y4" t="n">
         <v>0.2406351640940768</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0.2379606554883302</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -817,6 +829,9 @@
       <c r="Y5" t="n">
         <v>-0.05736866623689504</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.06040115723071957</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -894,6 +909,9 @@
       <c r="Y6" t="n">
         <v>0.2042875639733576</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0.2011997335607381</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -971,6 +989,9 @@
       <c r="Y7" t="n">
         <v>-0.3832941110546488</v>
       </c>
+      <c r="Z7" t="n">
+        <v>-0.3863952272063939</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1048,6 +1069,9 @@
       <c r="Y8" t="n">
         <v>-0.1282165007673027</v>
       </c>
+      <c r="Z8" t="n">
+        <v>-0.1294476425582695</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1125,6 +1149,9 @@
       <c r="Y9" t="n">
         <v>-0.2931841877746507</v>
       </c>
+      <c r="Z9" t="n">
+        <v>-0.2973294537412761</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1202,6 +1229,9 @@
       <c r="Y10" t="n">
         <v>0.4041876991249773</v>
       </c>
+      <c r="Z10" t="n">
+        <v>0.4012978113876636</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1279,6 +1309,9 @@
       <c r="Y11" t="n">
         <v>-0.1918193241868225</v>
       </c>
+      <c r="Z11" t="n">
+        <v>-0.1944854382371611</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1356,6 +1389,9 @@
       <c r="Y12" t="n">
         <v>-0.07418705020074996</v>
       </c>
+      <c r="Z12" t="n">
+        <v>-0.08042696845165334</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1433,6 +1469,9 @@
       <c r="Y13" t="n">
         <v>-0.04518007426489312</v>
       </c>
+      <c r="Z13" t="n">
+        <v>-0.04752366137045907</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1510,6 +1549,9 @@
       <c r="Y14" t="n">
         <v>0.09172772740017601</v>
       </c>
+      <c r="Z14" t="n">
+        <v>0.08141936171000294</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1587,6 +1629,9 @@
       <c r="Y15" t="n">
         <v>-0.04789639867365195</v>
       </c>
+      <c r="Z15" t="n">
+        <v>-0.06095119115849401</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1664,6 +1709,9 @@
       <c r="Y16" t="n">
         <v>0.379535385075536</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0.3639937720855461</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1741,6 +1789,9 @@
       <c r="Y17" t="n">
         <v>0.4748974354913258</v>
       </c>
+      <c r="Z17" t="n">
+        <v>0.4631673198034448</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1818,6 +1869,9 @@
       <c r="Y18" t="n">
         <v>-0.137518471423125</v>
       </c>
+      <c r="Z18" t="n">
+        <v>-0.1424239104948737</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1895,6 +1949,9 @@
       <c r="Y19" t="n">
         <v>0.3221638168576783</v>
       </c>
+      <c r="Z19" t="n">
+        <v>0.3150800180728774</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1972,6 +2029,9 @@
       <c r="Y20" t="n">
         <v>0.2693032330266989</v>
       </c>
+      <c r="Z20" t="n">
+        <v>0.2536280729496586</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2049,6 +2109,9 @@
       <c r="Y21" t="n">
         <v>0.5294871985780902</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0.5184837806431397</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2126,6 +2189,9 @@
       <c r="Y22" t="n">
         <v>0.2981509931740424</v>
       </c>
+      <c r="Z22" t="n">
+        <v>0.2872933855171025</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2203,6 +2269,9 @@
       <c r="Y23" t="n">
         <v>-0.1355107647377486</v>
       </c>
+      <c r="Z23" t="n">
+        <v>-0.1448269383958793</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2280,6 +2349,9 @@
       <c r="Y24" t="n">
         <v>1.037360137521153</v>
       </c>
+      <c r="Z24" t="n">
+        <v>1.017518366899408</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2357,6 +2429,9 @@
       <c r="Y25" t="n">
         <v>0.3035488689979743</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0.3064846912750074</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2434,6 +2509,9 @@
       <c r="Y26" t="n">
         <v>0.1196882451378617</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0.1207408445904409</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2511,6 +2589,9 @@
       <c r="Y27" t="n">
         <v>0.02033864090110247</v>
       </c>
+      <c r="Z27" t="n">
+        <v>0.02165795985600424</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2588,6 +2669,9 @@
       <c r="Y28" t="n">
         <v>0.7903159933834146</v>
       </c>
+      <c r="Z28" t="n">
+        <v>0.7948995373589589</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2665,6 +2749,9 @@
       <c r="Y29" t="n">
         <v>1.399769910757255</v>
       </c>
+      <c r="Z29" t="n">
+        <v>1.408921679992234</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2742,6 +2829,9 @@
       <c r="Y30" t="n">
         <v>0.6356698234832974</v>
       </c>
+      <c r="Z30" t="n">
+        <v>0.6395739279537455</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2819,6 +2909,9 @@
       <c r="Y31" t="n">
         <v>-0.4559736227396485</v>
       </c>
+      <c r="Z31" t="n">
+        <v>-0.4507516640544522</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2896,6 +2989,9 @@
       <c r="Y32" t="n">
         <v>0.5230342265206643</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0.5263387914369366</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2973,6 +3069,9 @@
       <c r="Y33" t="n">
         <v>0.7447830688944207</v>
       </c>
+      <c r="Z33" t="n">
+        <v>0.7476541604911284</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3050,6 +3149,9 @@
       <c r="Y34" t="n">
         <v>-0.8572604628387348</v>
       </c>
+      <c r="Z34" t="n">
+        <v>-0.8552004932228316</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3127,6 +3229,9 @@
       <c r="Y35" t="n">
         <v>0.8042273246314978</v>
       </c>
+      <c r="Z35" t="n">
+        <v>0.8072685878147787</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3204,6 +3309,9 @@
       <c r="Y36" t="n">
         <v>0.7667032573681816</v>
       </c>
+      <c r="Z36" t="n">
+        <v>0.7713317363108807</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3281,6 +3389,9 @@
       <c r="Y37" t="n">
         <v>0.7313867475378791</v>
       </c>
+      <c r="Z37" t="n">
+        <v>0.7362402804069661</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3358,6 +3469,9 @@
       <c r="Y38" t="n">
         <v>0.6438507934836167</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0.6462933604266786</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3435,6 +3549,9 @@
       <c r="Y39" t="n">
         <v>0.6021984399433367</v>
       </c>
+      <c r="Z39" t="n">
+        <v>0.6041672314291605</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3512,6 +3629,9 @@
       <c r="Y40" t="n">
         <v>0.7670205067015771</v>
       </c>
+      <c r="Z40" t="n">
+        <v>0.7698159100551257</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3589,6 +3709,9 @@
       <c r="Y41" t="n">
         <v>0.5764121991890725</v>
       </c>
+      <c r="Z41" t="n">
+        <v>0.5781315666623799</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3666,6 +3789,9 @@
       <c r="Y42" t="n">
         <v>0.6195605320943093</v>
       </c>
+      <c r="Z42" t="n">
+        <v>0.6244840985970633</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3743,6 +3869,9 @@
       <c r="Y43" t="n">
         <v>0.6753717655030678</v>
       </c>
+      <c r="Z43" t="n">
+        <v>0.6777628438840059</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3820,6 +3949,9 @@
       <c r="Y44" t="n">
         <v>0.7006970761111565</v>
       </c>
+      <c r="Z44" t="n">
+        <v>0.7033674239102481</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3897,6 +4029,9 @@
       <c r="Y45" t="n">
         <v>0.6991253116462469</v>
       </c>
+      <c r="Z45" t="n">
+        <v>0.7050419361206621</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3974,6 +4109,9 @@
       <c r="Y46" t="n">
         <v>-1.317772459864754</v>
       </c>
+      <c r="Z46" t="n">
+        <v>-1.321341734128623</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4051,6 +4189,9 @@
       <c r="Y47" t="n">
         <v>-1.027749856571905</v>
       </c>
+      <c r="Z47" t="n">
+        <v>-1.03042995088349</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4128,6 +4269,9 @@
       <c r="Y48" t="n">
         <v>-0.8880563064520988</v>
       </c>
+      <c r="Z48" t="n">
+        <v>-0.8902395810901489</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4205,6 +4349,9 @@
       <c r="Y49" t="n">
         <v>-0.6513744660710581</v>
       </c>
+      <c r="Z49" t="n">
+        <v>-0.6533966455659481</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4282,6 +4429,9 @@
       <c r="Y50" t="n">
         <v>-0.07680992853904303</v>
       </c>
+      <c r="Z50" t="n">
+        <v>-0.07842167140030561</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4359,6 +4509,9 @@
       <c r="Y51" t="n">
         <v>-0.8677650848717973</v>
       </c>
+      <c r="Z51" t="n">
+        <v>-0.8691355269878914</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4436,6 +4589,9 @@
       <c r="Y52" t="n">
         <v>-0.8677650848717973</v>
       </c>
+      <c r="Z52" t="n">
+        <v>-0.8691355269878914</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4513,6 +4669,9 @@
       <c r="Y53" t="n">
         <v>-1.156017370276088</v>
       </c>
+      <c r="Z53" t="n">
+        <v>-1.158678128088637</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4590,6 +4749,9 @@
       <c r="Y54" t="n">
         <v>-0.1851707648294285</v>
       </c>
+      <c r="Z54" t="n">
+        <v>-0.1868642111094301</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4667,6 +4829,9 @@
       <c r="Y55" t="n">
         <v>-1.050380709010488</v>
       </c>
+      <c r="Z55" t="n">
+        <v>-1.053364083398101</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4744,6 +4909,9 @@
       <c r="Y56" t="n">
         <v>-0.9258713741122064</v>
       </c>
+      <c r="Z56" t="n">
+        <v>-0.9287904314299923</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4821,6 +4989,9 @@
       <c r="Y57" t="n">
         <v>-0.9715095977847613</v>
       </c>
+      <c r="Z57" t="n">
+        <v>-0.9781606621064141</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4898,6 +5069,9 @@
       <c r="Y58" t="n">
         <v>-1.113395544010644</v>
       </c>
+      <c r="Z58" t="n">
+        <v>-1.120006186085242</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4975,6 +5149,9 @@
       <c r="Y59" t="n">
         <v>-0.8063494153227989</v>
       </c>
+      <c r="Z59" t="n">
+        <v>-0.8102456860469969</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5052,6 +5229,9 @@
       <c r="Y60" t="n">
         <v>-0.4403534612914047</v>
       </c>
+      <c r="Z60" t="n">
+        <v>-0.4447670465557802</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5129,6 +5309,9 @@
       <c r="Y61" t="n">
         <v>0.3812994399034555</v>
       </c>
+      <c r="Z61" t="n">
+        <v>0.3803327900587258</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5206,6 +5389,9 @@
       <c r="Y62" t="n">
         <v>-1.234286737783747</v>
       </c>
+      <c r="Z62" t="n">
+        <v>-1.242182349802956</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5283,6 +5469,9 @@
       <c r="Y63" t="n">
         <v>-0.5636004412119088</v>
       </c>
+      <c r="Z63" t="n">
+        <v>-0.5666728994961984</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5360,6 +5549,9 @@
       <c r="Y64" t="n">
         <v>-0.8677136098767659</v>
       </c>
+      <c r="Z64" t="n">
+        <v>-0.8727763796499037</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5437,6 +5629,9 @@
       <c r="Y65" t="n">
         <v>-0.04999113064771826</v>
       </c>
+      <c r="Z65" t="n">
+        <v>-0.05340438700319441</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5514,6 +5709,9 @@
       <c r="Y66" t="n">
         <v>-0.8057984335904615</v>
       </c>
+      <c r="Z66" t="n">
+        <v>-0.8122981545372678</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5590,6 +5788,9 @@
       </c>
       <c r="Y67" t="n">
         <v>-0.7917623049455197</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7988555308993184</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,9 @@
       <c r="Z1" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -592,6 +595,9 @@
       <c r="Z2" t="n">
         <v>-0.2303687313838525</v>
       </c>
+      <c r="AA2" t="n">
+        <v>-0.2334837742522972</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,6 +678,9 @@
       <c r="Z3" t="n">
         <v>0.2536769761855142</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.2503189436452383</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -752,6 +761,9 @@
       <c r="Z4" t="n">
         <v>0.2379606554883302</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.2352070115888453</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -832,6 +844,9 @@
       <c r="Z5" t="n">
         <v>-0.06040115723071957</v>
       </c>
+      <c r="AA5" t="n">
+        <v>-0.0633249074749781</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -912,6 +927,9 @@
       <c r="Z6" t="n">
         <v>0.2011997335607381</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.1982426352006296</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -992,6 +1010,9 @@
       <c r="Z7" t="n">
         <v>-0.3863952272063939</v>
       </c>
+      <c r="AA7" t="n">
+        <v>-0.3895658563967864</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1072,6 +1093,9 @@
       <c r="Z8" t="n">
         <v>-0.1294476425582695</v>
       </c>
+      <c r="AA8" t="n">
+        <v>-0.1308906564633696</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1152,6 +1176,9 @@
       <c r="Z9" t="n">
         <v>-0.2973294537412761</v>
       </c>
+      <c r="AA9" t="n">
+        <v>-0.3016010204589845</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1259,9 @@
       <c r="Z10" t="n">
         <v>0.4012978113876636</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.3985470380404784</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1312,6 +1342,9 @@
       <c r="Z11" t="n">
         <v>-0.1944854382371611</v>
       </c>
+      <c r="AA11" t="n">
+        <v>-0.1971714653981934</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1392,6 +1425,9 @@
       <c r="Z12" t="n">
         <v>-0.08042696845165334</v>
       </c>
+      <c r="AA12" t="n">
+        <v>-0.08627939252679345</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1472,6 +1508,9 @@
       <c r="Z13" t="n">
         <v>-0.04752366137045907</v>
       </c>
+      <c r="AA13" t="n">
+        <v>-0.04977210467097703</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1552,6 +1591,9 @@
       <c r="Z14" t="n">
         <v>0.08141936171000294</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.07183516573066027</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1632,6 +1674,9 @@
       <c r="Z15" t="n">
         <v>-0.06095119115849401</v>
       </c>
+      <c r="AA15" t="n">
+        <v>-0.07296593240168862</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,6 +1757,9 @@
       <c r="Z16" t="n">
         <v>0.3639937720855461</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.3496660627737951</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1792,6 +1840,9 @@
       <c r="Z17" t="n">
         <v>0.4631673198034448</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.4526166223777037</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1872,6 +1923,9 @@
       <c r="Z18" t="n">
         <v>-0.1424239104948737</v>
       </c>
+      <c r="AA18" t="n">
+        <v>-0.1469236767930248</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1952,6 +2006,9 @@
       <c r="Z19" t="n">
         <v>0.3150800180728774</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.3085630063507324</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2032,6 +2089,9 @@
       <c r="Z20" t="n">
         <v>0.2536280729496586</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.2392579444633369</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2112,6 +2172,9 @@
       <c r="Z21" t="n">
         <v>0.5184837806431397</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.5085616473177363</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2192,6 +2255,9 @@
       <c r="Z22" t="n">
         <v>0.2872933855171025</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.2774814079471475</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2272,6 +2338,9 @@
       <c r="Z23" t="n">
         <v>-0.1448269383958793</v>
       </c>
+      <c r="AA23" t="n">
+        <v>-0.1532658095482149</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2352,6 +2421,9 @@
       <c r="Z24" t="n">
         <v>1.017518366899408</v>
       </c>
+      <c r="AA24" t="n">
+        <v>1.00838758898487</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2432,6 +2504,9 @@
       <c r="Z25" t="n">
         <v>0.3064846912750074</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.3093570371392744</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2512,6 +2587,9 @@
       <c r="Z26" t="n">
         <v>0.1207408445904409</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.1221106514104353</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2592,6 +2670,9 @@
       <c r="Z27" t="n">
         <v>0.02165795985600424</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.02334194074173329</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2672,6 +2753,9 @@
       <c r="Z28" t="n">
         <v>0.7948995373589589</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.7997548972914232</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2752,6 +2836,9 @@
       <c r="Z29" t="n">
         <v>1.408921679992234</v>
       </c>
+      <c r="AA29" t="n">
+        <v>1.423357266289791</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2832,6 +2919,9 @@
       <c r="Z30" t="n">
         <v>0.6395739279537455</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.6435992351971581</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2912,6 +3002,9 @@
       <c r="Z31" t="n">
         <v>-0.4507516640544522</v>
       </c>
+      <c r="AA31" t="n">
+        <v>-0.4458965655711681</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2992,6 +3085,9 @@
       <c r="Z32" t="n">
         <v>0.5263387914369366</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.5297904616622361</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3072,6 +3168,9 @@
       <c r="Z33" t="n">
         <v>0.7476541604911284</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.7505277772109729</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3152,6 +3251,9 @@
       <c r="Z34" t="n">
         <v>-0.8552004932228316</v>
       </c>
+      <c r="AA34" t="n">
+        <v>-0.8531751283569671</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3232,6 +3334,9 @@
       <c r="Z35" t="n">
         <v>0.8072685878147787</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.8101488972635839</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3312,6 +3417,9 @@
       <c r="Z36" t="n">
         <v>0.7713317363108807</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.7756052367932784</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3392,6 +3500,9 @@
       <c r="Z37" t="n">
         <v>0.7362402804069661</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.740727049435256</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3472,6 +3583,9 @@
       <c r="Z38" t="n">
         <v>0.6462933604266786</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.6486182821312835</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3552,6 +3666,9 @@
       <c r="Z39" t="n">
         <v>0.6041672314291605</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.6059582444232169</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3632,6 +3749,9 @@
       <c r="Z40" t="n">
         <v>0.7698159100551257</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.7724724248571482</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3712,6 +3832,9 @@
       <c r="Z41" t="n">
         <v>0.5781315666623799</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.579648887360571</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3792,6 +3915,9 @@
       <c r="Z42" t="n">
         <v>0.6244840985970633</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.6290801032030136</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3872,6 +3998,9 @@
       <c r="Z43" t="n">
         <v>0.6777628438840059</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.6799846503668782</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3952,6 +4081,9 @@
       <c r="Z44" t="n">
         <v>0.7033674239102481</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.7057847867333412</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4032,6 +4164,9 @@
       <c r="Z45" t="n">
         <v>0.7050419361206621</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.7104121280180549</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4112,6 +4247,9 @@
       <c r="Z46" t="n">
         <v>-1.321341734128623</v>
       </c>
+      <c r="AA46" t="n">
+        <v>-1.324962752913555</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4192,6 +4330,9 @@
       <c r="Z47" t="n">
         <v>-1.03042995088349</v>
       </c>
+      <c r="AA47" t="n">
+        <v>-1.033174342546894</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4272,6 +4413,9 @@
       <c r="Z48" t="n">
         <v>-0.8902395810901489</v>
       </c>
+      <c r="AA48" t="n">
+        <v>-0.8926146483387363</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4352,6 +4496,9 @@
       <c r="Z49" t="n">
         <v>-0.6533966455659481</v>
       </c>
+      <c r="AA49" t="n">
+        <v>-0.6555549903704322</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4432,6 +4579,9 @@
       <c r="Z50" t="n">
         <v>-0.07842167140030561</v>
       </c>
+      <c r="AA50" t="n">
+        <v>-0.08002614026514202</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4512,6 +4662,9 @@
       <c r="Z51" t="n">
         <v>-0.8691355269878914</v>
       </c>
+      <c r="AA51" t="n">
+        <v>-0.8707178136046321</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4592,6 +4745,9 @@
       <c r="Z52" t="n">
         <v>-0.8691355269878914</v>
       </c>
+      <c r="AA52" t="n">
+        <v>-0.8707178136046321</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4672,6 +4828,9 @@
       <c r="Z53" t="n">
         <v>-1.158678128088637</v>
       </c>
+      <c r="AA53" t="n">
+        <v>-1.161534362330287</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4752,6 +4911,9 @@
       <c r="Z54" t="n">
         <v>-0.1868642111094301</v>
       </c>
+      <c r="AA54" t="n">
+        <v>-0.1886252825826704</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4832,6 +4994,9 @@
       <c r="Z55" t="n">
         <v>-1.053364083398101</v>
       </c>
+      <c r="AA55" t="n">
+        <v>-1.056396117395097</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4912,6 +5077,9 @@
       <c r="Z56" t="n">
         <v>-0.9287904314299923</v>
       </c>
+      <c r="AA56" t="n">
+        <v>-0.931636518351934</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4992,6 +5160,9 @@
       <c r="Z57" t="n">
         <v>-0.9781606621064141</v>
       </c>
+      <c r="AA57" t="n">
+        <v>-0.9845272333649276</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5072,6 +5243,9 @@
       <c r="Z58" t="n">
         <v>-1.120006186085242</v>
       </c>
+      <c r="AA58" t="n">
+        <v>-1.126328189100907</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5152,6 +5326,9 @@
       <c r="Z59" t="n">
         <v>-0.8102456860469969</v>
       </c>
+      <c r="AA59" t="n">
+        <v>-0.8141496803152047</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5232,6 +5409,9 @@
       <c r="Z60" t="n">
         <v>-0.4447670465557802</v>
       </c>
+      <c r="AA60" t="n">
+        <v>-0.4490380461757887</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5312,6 +5492,9 @@
       <c r="Z61" t="n">
         <v>0.3803327900587258</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.3793652502889577</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5392,6 +5575,9 @@
       <c r="Z62" t="n">
         <v>-1.242182349802956</v>
       </c>
+      <c r="AA62" t="n">
+        <v>-1.249733269789714</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5472,6 +5658,9 @@
       <c r="Z63" t="n">
         <v>-0.5666728994961984</v>
       </c>
+      <c r="AA63" t="n">
+        <v>-0.5698957254929327</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5552,6 +5741,9 @@
       <c r="Z64" t="n">
         <v>-0.8727763796499037</v>
       </c>
+      <c r="AA64" t="n">
+        <v>-0.8778914939510045</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5632,6 +5824,9 @@
       <c r="Z65" t="n">
         <v>-0.05340438700319441</v>
       </c>
+      <c r="AA65" t="n">
+        <v>-0.05670152302815661</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5712,6 +5907,9 @@
       <c r="Z66" t="n">
         <v>-0.8122981545372678</v>
       </c>
+      <c r="AA66" t="n">
+        <v>-0.818389364718649</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5791,6 +5989,9 @@
       </c>
       <c r="Z67" t="n">
         <v>-0.7988555308993184</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8053664652017356</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AB67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,9 @@
       <c r="AA1" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -598,6 +601,9 @@
       <c r="AA2" t="n">
         <v>-0.2334837742522972</v>
       </c>
+      <c r="AB2" t="n">
+        <v>-0.236571129963864</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -681,6 +687,9 @@
       <c r="AA3" t="n">
         <v>0.2503189436452383</v>
       </c>
+      <c r="AB3" t="n">
+        <v>0.2470719658155774</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -764,6 +773,9 @@
       <c r="AA4" t="n">
         <v>0.2352070115888453</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0.2324238040225199</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +859,9 @@
       <c r="AA5" t="n">
         <v>-0.0633249074749781</v>
       </c>
+      <c r="AB5" t="n">
+        <v>-0.0661190894615819</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -930,6 +945,9 @@
       <c r="AA6" t="n">
         <v>0.1982426352006296</v>
       </c>
+      <c r="AB6" t="n">
+        <v>0.1954450753354289</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1013,6 +1031,9 @@
       <c r="AA7" t="n">
         <v>-0.3895658563967864</v>
       </c>
+      <c r="AB7" t="n">
+        <v>-0.3927609959289516</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,6 +1117,9 @@
       <c r="AA8" t="n">
         <v>-0.1308906564633696</v>
       </c>
+      <c r="AB8" t="n">
+        <v>-0.1324951759332463</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1179,6 +1203,9 @@
       <c r="AA9" t="n">
         <v>-0.3016010204589845</v>
       </c>
+      <c r="AB9" t="n">
+        <v>-0.3059219228080601</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1262,6 +1289,9 @@
       <c r="AA10" t="n">
         <v>0.3985470380404784</v>
       </c>
+      <c r="AB10" t="n">
+        <v>0.3959569610206429</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1345,6 +1375,9 @@
       <c r="AA11" t="n">
         <v>-0.1971714653981934</v>
       </c>
+      <c r="AB11" t="n">
+        <v>-0.1998457647349832</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1428,6 +1461,9 @@
       <c r="AA12" t="n">
         <v>-0.08627939252679345</v>
       </c>
+      <c r="AB12" t="n">
+        <v>-0.09171833115881017</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1511,6 +1547,9 @@
       <c r="AA13" t="n">
         <v>-0.04977210467097703</v>
       </c>
+      <c r="AB13" t="n">
+        <v>-0.05191774461735358</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1594,6 +1633,9 @@
       <c r="AA14" t="n">
         <v>0.07183516573066027</v>
       </c>
+      <c r="AB14" t="n">
+        <v>0.06302134657127169</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1677,6 +1719,9 @@
       <c r="AA15" t="n">
         <v>-0.07296593240168862</v>
       </c>
+      <c r="AB15" t="n">
+        <v>-0.08390926725346165</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1760,6 +1805,9 @@
       <c r="AA16" t="n">
         <v>0.3496660627737951</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0.3366074308992876</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1843,6 +1891,9 @@
       <c r="AA17" t="n">
         <v>0.4526166223777037</v>
       </c>
+      <c r="AB17" t="n">
+        <v>0.4432388688898071</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1926,6 +1977,9 @@
       <c r="AA18" t="n">
         <v>-0.1469236767930248</v>
       </c>
+      <c r="AB18" t="n">
+        <v>-0.1510264716545434</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2009,6 +2063,9 @@
       <c r="AA19" t="n">
         <v>0.3085630063507324</v>
       </c>
+      <c r="AB19" t="n">
+        <v>0.302619183309106</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2092,6 +2149,9 @@
       <c r="AA20" t="n">
         <v>0.2392579444633369</v>
       </c>
+      <c r="AB20" t="n">
+        <v>0.2262295451462319</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2175,6 +2235,9 @@
       <c r="AA21" t="n">
         <v>0.5085616473177363</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0.4997280745232287</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2258,6 +2321,9 @@
       <c r="AA22" t="n">
         <v>0.2774814079471475</v>
       </c>
+      <c r="AB22" t="n">
+        <v>0.2687178646225716</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2341,6 +2407,9 @@
       <c r="AA23" t="n">
         <v>-0.1532658095482149</v>
       </c>
+      <c r="AB23" t="n">
+        <v>-0.1608281736893692</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2424,6 +2493,9 @@
       <c r="AA24" t="n">
         <v>1.00838758898487</v>
       </c>
+      <c r="AB24" t="n">
+        <v>1.00845359253512</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2507,6 +2579,9 @@
       <c r="AA25" t="n">
         <v>0.3093570371392744</v>
       </c>
+      <c r="AB25" t="n">
+        <v>0.3121198608083513</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2590,6 +2665,9 @@
       <c r="AA26" t="n">
         <v>0.1221106514104353</v>
       </c>
+      <c r="AB26" t="n">
+        <v>0.1237136408477366</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2673,6 +2751,9 @@
       <c r="AA27" t="n">
         <v>0.02334194074173329</v>
       </c>
+      <c r="AB27" t="n">
+        <v>0.0252976425693539</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2756,6 +2837,9 @@
       <c r="AA28" t="n">
         <v>0.7997548972914232</v>
       </c>
+      <c r="AB28" t="n">
+        <v>0.8047652085219309</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2839,6 +2923,9 @@
       <c r="AA29" t="n">
         <v>1.423357266289791</v>
       </c>
+      <c r="AB29" t="n">
+        <v>1.441884379202971</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2922,6 +3009,9 @@
       <c r="AA30" t="n">
         <v>0.6435992351971581</v>
       </c>
+      <c r="AB30" t="n">
+        <v>0.6476465383401211</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3005,6 +3095,9 @@
       <c r="AA31" t="n">
         <v>-0.4458965655711681</v>
       </c>
+      <c r="AB31" t="n">
+        <v>-0.4414610405107937</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3088,6 +3181,9 @@
       <c r="AA32" t="n">
         <v>0.5297904616622361</v>
       </c>
+      <c r="AB32" t="n">
+        <v>0.5332979096756159</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3171,6 +3267,9 @@
       <c r="AA33" t="n">
         <v>0.7505277772109729</v>
       </c>
+      <c r="AB33" t="n">
+        <v>0.7533489162536189</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3254,6 +3353,9 @@
       <c r="AA34" t="n">
         <v>-0.8531751283569671</v>
       </c>
+      <c r="AB34" t="n">
+        <v>-0.8512390358238837</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3337,6 +3439,9 @@
       <c r="AA35" t="n">
         <v>0.8101488972635839</v>
       </c>
+      <c r="AB35" t="n">
+        <v>0.8128487029512432</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3420,6 +3525,9 @@
       <c r="AA36" t="n">
         <v>0.7756052367932784</v>
       </c>
+      <c r="AB36" t="n">
+        <v>0.7795081533920114</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3503,6 +3611,9 @@
       <c r="AA37" t="n">
         <v>0.740727049435256</v>
       </c>
+      <c r="AB37" t="n">
+        <v>0.7448292472291079</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3586,6 +3697,9 @@
       <c r="AA38" t="n">
         <v>0.6486182821312835</v>
       </c>
+      <c r="AB38" t="n">
+        <v>0.6508013609176425</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3669,6 +3783,9 @@
       <c r="AA39" t="n">
         <v>0.6059582444232169</v>
       </c>
+      <c r="AB39" t="n">
+        <v>0.6075681355371031</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3752,6 +3869,9 @@
       <c r="AA40" t="n">
         <v>0.7724724248571482</v>
       </c>
+      <c r="AB40" t="n">
+        <v>0.7749728304271754</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3835,6 +3955,9 @@
       <c r="AA41" t="n">
         <v>0.579648887360571</v>
       </c>
+      <c r="AB41" t="n">
+        <v>0.5809711195771813</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3918,6 +4041,9 @@
       <c r="AA42" t="n">
         <v>0.6290801032030136</v>
       </c>
+      <c r="AB42" t="n">
+        <v>0.6333163000116525</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4001,6 +4127,9 @@
       <c r="AA43" t="n">
         <v>0.6799846503668782</v>
       </c>
+      <c r="AB43" t="n">
+        <v>0.6820241876046186</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4084,6 +4213,9 @@
       <c r="AA44" t="n">
         <v>0.7057847867333412</v>
       </c>
+      <c r="AB44" t="n">
+        <v>0.7079488183411994</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4167,6 +4299,9 @@
       <c r="AA45" t="n">
         <v>0.7104121280180549</v>
       </c>
+      <c r="AB45" t="n">
+        <v>0.71522936205438</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4250,6 +4385,9 @@
       <c r="AA46" t="n">
         <v>-1.324962752913555</v>
       </c>
+      <c r="AB46" t="n">
+        <v>-1.328615912917663</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4333,6 +4471,9 @@
       <c r="AA47" t="n">
         <v>-1.033174342546894</v>
       </c>
+      <c r="AB47" t="n">
+        <v>-1.035968294718397</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4416,6 +4557,9 @@
       <c r="AA48" t="n">
         <v>-0.8926146483387363</v>
       </c>
+      <c r="AB48" t="n">
+        <v>-0.8951540635651226</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4499,6 +4643,9 @@
       <c r="AA49" t="n">
         <v>-0.6555549903704322</v>
       </c>
+      <c r="AB49" t="n">
+        <v>-0.6578265555330133</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4582,6 +4729,9 @@
       <c r="AA50" t="n">
         <v>-0.08002614026514202</v>
       </c>
+      <c r="AB50" t="n">
+        <v>-0.08161820027922126</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4665,6 +4815,9 @@
       <c r="AA51" t="n">
         <v>-0.8707178136046321</v>
       </c>
+      <c r="AB51" t="n">
+        <v>-0.8724888844978705</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4748,6 +4901,9 @@
       <c r="AA52" t="n">
         <v>-0.8707178136046321</v>
       </c>
+      <c r="AB52" t="n">
+        <v>-0.8724888844978705</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4831,6 +4987,9 @@
       <c r="AA53" t="n">
         <v>-1.161534362330287</v>
       </c>
+      <c r="AB53" t="n">
+        <v>-1.164560673160789</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4914,6 +5073,9 @@
       <c r="AA54" t="n">
         <v>-0.1886252825826704</v>
       </c>
+      <c r="AB54" t="n">
+        <v>-0.1904375568580247</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4997,6 +5159,9 @@
       <c r="AA55" t="n">
         <v>-1.056396117395097</v>
       </c>
+      <c r="AB55" t="n">
+        <v>-1.059461866668206</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5080,6 +5245,9 @@
       <c r="AA56" t="n">
         <v>-0.931636518351934</v>
       </c>
+      <c r="AB56" t="n">
+        <v>-0.9344059663357995</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5163,6 +5331,9 @@
       <c r="AA57" t="n">
         <v>-0.9845272333649276</v>
       </c>
+      <c r="AB57" t="n">
+        <v>-0.9905836409550626</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5246,6 +5417,9 @@
       <c r="AA58" t="n">
         <v>-1.126328189100907</v>
       </c>
+      <c r="AB58" t="n">
+        <v>-1.132330530827133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5329,6 +5503,9 @@
       <c r="AA59" t="n">
         <v>-0.8141496803152047</v>
       </c>
+      <c r="AB59" t="n">
+        <v>-0.8180248914899657</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5412,6 +5589,9 @@
       <c r="AA60" t="n">
         <v>-0.4490380461757887</v>
       </c>
+      <c r="AB60" t="n">
+        <v>-0.4531336625735889</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5495,6 +5675,9 @@
       <c r="AA61" t="n">
         <v>0.3793652502889577</v>
       </c>
+      <c r="AB61" t="n">
+        <v>0.3784062241076834</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5578,6 +5761,9 @@
       <c r="AA62" t="n">
         <v>-1.249733269789714</v>
       </c>
+      <c r="AB62" t="n">
+        <v>-1.256908041028373</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5661,6 +5847,9 @@
       <c r="AA63" t="n">
         <v>-0.5698957254929327</v>
       </c>
+      <c r="AB63" t="n">
+        <v>-0.5732049633018103</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5744,6 +5933,9 @@
       <c r="AA64" t="n">
         <v>-0.8778914939510045</v>
       </c>
+      <c r="AB64" t="n">
+        <v>-0.8830032842900225</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5827,6 +6019,9 @@
       <c r="AA65" t="n">
         <v>-0.05670152302815661</v>
       </c>
+      <c r="AB65" t="n">
+        <v>-0.05985661103293249</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5910,6 +6105,9 @@
       <c r="AA66" t="n">
         <v>-0.818389364718649</v>
       </c>
+      <c r="AB66" t="n">
+        <v>-0.8240584019541689</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5992,6 +6190,9 @@
       </c>
       <c r="AA67" t="n">
         <v>-0.8053664652017356</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8112981731641814</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB67"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,9 @@
       <c r="AB1" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -604,6 +607,9 @@
       <c r="AB2" t="n">
         <v>-0.236571129963864</v>
       </c>
+      <c r="AC2" t="n">
+        <v>-0.239596031417627</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -690,6 +696,9 @@
       <c r="AB3" t="n">
         <v>0.2470719658155774</v>
       </c>
+      <c r="AC3" t="n">
+        <v>0.2439678923980748</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -776,6 +785,9 @@
       <c r="AB4" t="n">
         <v>0.2324238040225199</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0.2296536298230615</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -862,6 +874,9 @@
       <c r="AB5" t="n">
         <v>-0.0661190894615819</v>
       </c>
+      <c r="AC5" t="n">
+        <v>-0.0687681779037245</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -948,6 +963,9 @@
       <c r="AB6" t="n">
         <v>0.1954450753354289</v>
       </c>
+      <c r="AC6" t="n">
+        <v>0.1928283518628958</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1034,6 +1052,9 @@
       <c r="AB7" t="n">
         <v>-0.3927609959289516</v>
       </c>
+      <c r="AC7" t="n">
+        <v>-0.3959416841626137</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1120,6 +1141,9 @@
       <c r="AB8" t="n">
         <v>-0.1324951759332463</v>
       </c>
+      <c r="AC8" t="n">
+        <v>-0.1342158594242222</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1206,6 +1230,9 @@
       <c r="AB9" t="n">
         <v>-0.3059219228080601</v>
       </c>
+      <c r="AC9" t="n">
+        <v>-0.3102254621762094</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1292,6 +1319,9 @@
       <c r="AB10" t="n">
         <v>0.3959569610206429</v>
       </c>
+      <c r="AC10" t="n">
+        <v>0.3935427618307042</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1378,6 +1408,9 @@
       <c r="AB11" t="n">
         <v>-0.1998457647349832</v>
       </c>
+      <c r="AC11" t="n">
+        <v>-0.2024814716792686</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1464,6 +1497,9 @@
       <c r="AB12" t="n">
         <v>-0.09171833115881017</v>
       </c>
+      <c r="AC12" t="n">
+        <v>-0.09672906824602262</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1550,6 +1586,9 @@
       <c r="AB13" t="n">
         <v>-0.05191774461735358</v>
       </c>
+      <c r="AC13" t="n">
+        <v>-0.05395531073358609</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1636,6 +1675,9 @@
       <c r="AB14" t="n">
         <v>0.06302134657127169</v>
       </c>
+      <c r="AC14" t="n">
+        <v>0.05500307026192706</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1722,6 +1764,9 @@
       <c r="AB15" t="n">
         <v>-0.08390926725346165</v>
       </c>
+      <c r="AC15" t="n">
+        <v>-0.09377370581379421</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1808,6 +1853,9 @@
       <c r="AB16" t="n">
         <v>0.3366074308992876</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0.3248414477295566</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1894,6 +1942,9 @@
       <c r="AB17" t="n">
         <v>0.4432388688898071</v>
       </c>
+      <c r="AC17" t="n">
+        <v>0.4350077165084217</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1980,6 +2031,9 @@
       <c r="AB18" t="n">
         <v>-0.1510264716545434</v>
       </c>
+      <c r="AC18" t="n">
+        <v>-0.1547449370716782</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2066,6 +2120,9 @@
       <c r="AB19" t="n">
         <v>0.302619183309106</v>
       </c>
+      <c r="AC19" t="n">
+        <v>0.2972442943059909</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2152,6 +2209,9 @@
       <c r="AB20" t="n">
         <v>0.2262295451462319</v>
       </c>
+      <c r="AC20" t="n">
+        <v>0.2145497039449327</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2238,6 +2298,9 @@
       <c r="AB21" t="n">
         <v>0.4997280745232287</v>
       </c>
+      <c r="AC21" t="n">
+        <v>0.4919684371724766</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2324,6 +2387,9 @@
       <c r="AB22" t="n">
         <v>0.2687178646225716</v>
       </c>
+      <c r="AC22" t="n">
+        <v>0.2609862883163345</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2410,6 +2476,9 @@
       <c r="AB23" t="n">
         <v>-0.1608281736893692</v>
       </c>
+      <c r="AC23" t="n">
+        <v>-0.1675303951100773</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2496,6 +2565,9 @@
       <c r="AB24" t="n">
         <v>1.00845359253512</v>
       </c>
+      <c r="AC24" t="n">
+        <v>1.016265298736974</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2582,6 +2654,9 @@
       <c r="AB25" t="n">
         <v>0.3121198608083513</v>
       </c>
+      <c r="AC25" t="n">
+        <v>0.3147375744720551</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2668,6 +2743,9 @@
       <c r="AB26" t="n">
         <v>0.1237136408477366</v>
       </c>
+      <c r="AC26" t="n">
+        <v>0.1254752633186198</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2754,6 +2832,9 @@
       <c r="AB27" t="n">
         <v>0.0252976425693539</v>
       </c>
+      <c r="AC27" t="n">
+        <v>0.027442540709585</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2840,6 +2921,9 @@
       <c r="AB28" t="n">
         <v>0.8047652085219309</v>
       </c>
+      <c r="AC28" t="n">
+        <v>0.8098291066032748</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2926,6 +3010,9 @@
       <c r="AB29" t="n">
         <v>1.441884379202971</v>
       </c>
+      <c r="AC29" t="n">
+        <v>1.463438942830331</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3012,6 +3099,9 @@
       <c r="AB30" t="n">
         <v>0.6476465383401211</v>
       </c>
+      <c r="AC30" t="n">
+        <v>0.6516333577452237</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3098,6 +3188,9 @@
       <c r="AB31" t="n">
         <v>-0.4414610405107937</v>
       </c>
+      <c r="AC31" t="n">
+        <v>-0.4374794781927698</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3184,6 +3277,9 @@
       <c r="AB32" t="n">
         <v>0.5332979096756159</v>
       </c>
+      <c r="AC32" t="n">
+        <v>0.536783790794099</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3270,6 +3366,9 @@
       <c r="AB33" t="n">
         <v>0.7533489162536189</v>
       </c>
+      <c r="AC33" t="n">
+        <v>0.7560728205107978</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3356,6 +3455,9 @@
       <c r="AB34" t="n">
         <v>-0.8512390358238837</v>
       </c>
+      <c r="AC34" t="n">
+        <v>-0.8494354180893738</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3442,6 +3544,9 @@
       <c r="AB35" t="n">
         <v>0.8128487029512432</v>
       </c>
+      <c r="AC35" t="n">
+        <v>0.8153544546811595</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3528,6 +3633,9 @@
       <c r="AB36" t="n">
         <v>0.7795081533920114</v>
       </c>
+      <c r="AC36" t="n">
+        <v>0.7830339125647777</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3614,6 +3722,9 @@
       <c r="AB37" t="n">
         <v>0.7448292472291079</v>
       </c>
+      <c r="AC37" t="n">
+        <v>0.7485387733262429</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3700,6 +3811,9 @@
       <c r="AB38" t="n">
         <v>0.6508013609176425</v>
       </c>
+      <c r="AC38" t="n">
+        <v>0.6528251727399701</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3786,6 +3900,9 @@
       <c r="AB39" t="n">
         <v>0.6075681355371031</v>
       </c>
+      <c r="AC39" t="n">
+        <v>0.6089971408245611</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3872,6 +3989,9 @@
       <c r="AB40" t="n">
         <v>0.7749728304271754</v>
       </c>
+      <c r="AC40" t="n">
+        <v>0.7773048021120245</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3958,6 +4078,9 @@
       <c r="AB41" t="n">
         <v>0.5809711195771813</v>
       </c>
+      <c r="AC41" t="n">
+        <v>0.5821077602791828</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4044,6 +4167,9 @@
       <c r="AB42" t="n">
         <v>0.6333163000116525</v>
       </c>
+      <c r="AC42" t="n">
+        <v>0.6371723561899304</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4130,6 +4256,9 @@
       <c r="AB43" t="n">
         <v>0.6820241876046186</v>
       </c>
+      <c r="AC43" t="n">
+        <v>0.6838740385921213</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4216,6 +4345,9 @@
       <c r="AB44" t="n">
         <v>0.7079488183411994</v>
       </c>
+      <c r="AC44" t="n">
+        <v>0.7098636775242384</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4302,6 +4434,9 @@
       <c r="AB45" t="n">
         <v>0.71522936205438</v>
       </c>
+      <c r="AC45" t="n">
+        <v>0.7194979167588296</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4388,6 +4523,9 @@
       <c r="AB46" t="n">
         <v>-1.328615912917663</v>
       </c>
+      <c r="AC46" t="n">
+        <v>-1.332282468020714</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4474,6 +4612,9 @@
       <c r="AB47" t="n">
         <v>-1.035968294718397</v>
       </c>
+      <c r="AC47" t="n">
+        <v>-1.038797103487988</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4560,6 +4701,9 @@
       <c r="AB48" t="n">
         <v>-0.8951540635651226</v>
       </c>
+      <c r="AC48" t="n">
+        <v>-0.8978302795485973</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4646,6 +4790,9 @@
       <c r="AB49" t="n">
         <v>-0.6578265555330133</v>
       </c>
+      <c r="AC49" t="n">
+        <v>-0.6601888224329174</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4732,6 +4879,9 @@
       <c r="AB50" t="n">
         <v>-0.08161820027922126</v>
       </c>
+      <c r="AC50" t="n">
+        <v>-0.08319311348471364</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4818,6 +4968,9 @@
       <c r="AB51" t="n">
         <v>-0.8724888844978705</v>
       </c>
+      <c r="AC51" t="n">
+        <v>-0.8744247572680323</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4904,6 +5057,9 @@
       <c r="AB52" t="n">
         <v>-0.8724888844978705</v>
       </c>
+      <c r="AC52" t="n">
+        <v>-0.8744247572680323</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4990,6 +5146,9 @@
       <c r="AB53" t="n">
         <v>-1.164560673160789</v>
       </c>
+      <c r="AC53" t="n">
+        <v>-1.167730527621283</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5076,6 +5235,9 @@
       <c r="AB54" t="n">
         <v>-0.1904375568580247</v>
       </c>
+      <c r="AC54" t="n">
+        <v>-0.1922856085818854</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5162,6 +5324,9 @@
       <c r="AB55" t="n">
         <v>-1.059461866668206</v>
       </c>
+      <c r="AC55" t="n">
+        <v>-1.062546699936026</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5248,6 +5413,9 @@
       <c r="AB56" t="n">
         <v>-0.9344059663357995</v>
       </c>
+      <c r="AC56" t="n">
+        <v>-0.9370962992241751</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5334,6 +5502,9 @@
       <c r="AB57" t="n">
         <v>-0.9905836409550626</v>
       </c>
+      <c r="AC57" t="n">
+        <v>-0.99631265473328</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5420,6 +5591,9 @@
       <c r="AB58" t="n">
         <v>-1.132330530827133</v>
       </c>
+      <c r="AC58" t="n">
+        <v>-1.137992240981583</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5506,6 +5680,9 @@
       <c r="AB59" t="n">
         <v>-0.8180248914899657</v>
       </c>
+      <c r="AC59" t="n">
+        <v>-0.8218403737927511</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5592,6 +5769,9 @@
       <c r="AB60" t="n">
         <v>-0.4531336625735889</v>
       </c>
+      <c r="AC60" t="n">
+        <v>-0.457029276909997</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5678,6 +5858,9 @@
       <c r="AB61" t="n">
         <v>0.3784062241076834</v>
       </c>
+      <c r="AC61" t="n">
+        <v>0.3774636653425367</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5764,6 +5947,9 @@
       <c r="AB62" t="n">
         <v>-1.256908041028373</v>
       </c>
+      <c r="AC62" t="n">
+        <v>-1.263685786856187</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5850,6 +6036,9 @@
       <c r="AB63" t="n">
         <v>-0.5732049633018103</v>
       </c>
+      <c r="AC63" t="n">
+        <v>-0.5765453998223439</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5936,6 +6125,9 @@
       <c r="AB64" t="n">
         <v>-0.8830032842900225</v>
       </c>
+      <c r="AC64" t="n">
+        <v>-0.8880634199312517</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6022,6 +6214,9 @@
       <c r="AB65" t="n">
         <v>-0.05985661103293249</v>
       </c>
+      <c r="AC65" t="n">
+        <v>-0.0628504911722267</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6108,6 +6303,9 @@
       <c r="AB66" t="n">
         <v>-0.8240584019541689</v>
       </c>
+      <c r="AC66" t="n">
+        <v>-0.8293010521135433</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6193,6 +6391,9 @@
       </c>
       <c r="AB67" t="n">
         <v>-0.8112981731641814</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8166638902358385</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="AC1" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -610,6 +613,9 @@
       <c r="AC2" t="n">
         <v>-0.239596031417627</v>
       </c>
+      <c r="AD2" t="n">
+        <v>-0.2425300891351935</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -699,6 +705,9 @@
       <c r="AC3" t="n">
         <v>0.2439678923980748</v>
       </c>
+      <c r="AD3" t="n">
+        <v>0.2410313981733991</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -788,6 +797,9 @@
       <c r="AC4" t="n">
         <v>0.2296536298230615</v>
       </c>
+      <c r="AD4" t="n">
+        <v>0.2269324137891754</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -877,6 +889,9 @@
       <c r="AC5" t="n">
         <v>-0.0687681779037245</v>
       </c>
+      <c r="AD5" t="n">
+        <v>-0.07126138937227469</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -966,6 +981,9 @@
       <c r="AC6" t="n">
         <v>0.1928283518628958</v>
       </c>
+      <c r="AD6" t="n">
+        <v>0.190407072735869</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1055,6 +1073,9 @@
       <c r="AC7" t="n">
         <v>-0.3959416841626137</v>
       </c>
+      <c r="AD7" t="n">
+        <v>-0.3990747793571718</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1144,6 +1165,9 @@
       <c r="AC8" t="n">
         <v>-0.1342158594242222</v>
       </c>
+      <c r="AD8" t="n">
+        <v>-0.1360124109545239</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1233,6 +1257,9 @@
       <c r="AC9" t="n">
         <v>-0.3102254621762094</v>
       </c>
+      <c r="AD9" t="n">
+        <v>-0.3144549277487597</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1322,6 +1349,9 @@
       <c r="AC10" t="n">
         <v>0.3935427618307042</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0.3913139949074603</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1411,6 +1441,9 @@
       <c r="AC11" t="n">
         <v>-0.2024814716792686</v>
       </c>
+      <c r="AD11" t="n">
+        <v>-0.2050562285503184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1500,6 +1533,9 @@
       <c r="AC12" t="n">
         <v>-0.09672906824602262</v>
       </c>
+      <c r="AD12" t="n">
+        <v>-0.1013066181415016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1589,6 +1625,9 @@
       <c r="AC13" t="n">
         <v>-0.05395531073358609</v>
       </c>
+      <c r="AD13" t="n">
+        <v>-0.05588167551850052</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1678,6 +1717,9 @@
       <c r="AC14" t="n">
         <v>0.05500307026192706</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0.04778734521487565</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1767,6 +1809,9 @@
       <c r="AC15" t="n">
         <v>-0.09377370581379421</v>
       </c>
+      <c r="AD15" t="n">
+        <v>-0.1025719617504443</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1856,6 +1901,9 @@
       <c r="AC16" t="n">
         <v>0.3248414477295566</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0.3143646884987227</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1945,6 +1993,9 @@
       <c r="AC17" t="n">
         <v>0.4350077165084217</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.427880598033972</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2034,6 +2085,9 @@
       <c r="AC18" t="n">
         <v>-0.1547449370716782</v>
       </c>
+      <c r="AD18" t="n">
+        <v>-0.1580949997187291</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2123,6 +2177,9 @@
       <c r="AC19" t="n">
         <v>0.2972442943059909</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.2924251778798805</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2212,6 +2269,9 @@
       <c r="AC20" t="n">
         <v>0.2145497039449327</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.2042000322982563</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2301,6 +2361,9 @@
       <c r="AC21" t="n">
         <v>0.4919684371724766</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0.4852501571696154</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2390,6 +2453,9 @@
       <c r="AC22" t="n">
         <v>0.2609862883163345</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0.2542543288725668</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2479,6 +2545,9 @@
       <c r="AC23" t="n">
         <v>-0.1675303951100773</v>
       </c>
+      <c r="AD23" t="n">
+        <v>-0.1734015844251472</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2568,6 +2637,9 @@
       <c r="AC24" t="n">
         <v>1.016265298736974</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1.030454053643187</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2657,6 +2729,9 @@
       <c r="AC25" t="n">
         <v>0.3147375744720551</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0.3171838700064249</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2746,6 +2821,9 @@
       <c r="AC26" t="n">
         <v>0.1254752633186198</v>
       </c>
+      <c r="AD26" t="n">
+        <v>0.1273303312076782</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2835,6 +2913,9 @@
       <c r="AC27" t="n">
         <v>0.027442540709585</v>
       </c>
+      <c r="AD27" t="n">
+        <v>0.02970435188903711</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2924,6 +3005,9 @@
       <c r="AC28" t="n">
         <v>0.8098291066032748</v>
       </c>
+      <c r="AD28" t="n">
+        <v>0.8148601588882817</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3013,6 +3097,9 @@
       <c r="AC29" t="n">
         <v>1.463438942830331</v>
       </c>
+      <c r="AD29" t="n">
+        <v>1.487082972542608</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3102,6 +3189,9 @@
       <c r="AC30" t="n">
         <v>0.6516333577452237</v>
       </c>
+      <c r="AD30" t="n">
+        <v>0.6554926323952001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3191,6 +3281,9 @@
       <c r="AC31" t="n">
         <v>-0.4374794781927698</v>
       </c>
+      <c r="AD31" t="n">
+        <v>-0.4339705162335277</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3280,6 +3373,9 @@
       <c r="AC32" t="n">
         <v>0.536783790794099</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0.5401839262941742</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3369,6 +3465,9 @@
       <c r="AC33" t="n">
         <v>0.7560728205107978</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0.7586641110208084</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3458,6 +3557,9 @@
       <c r="AC34" t="n">
         <v>-0.8494354180893738</v>
       </c>
+      <c r="AD34" t="n">
+        <v>-0.8477971103445676</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3547,6 +3649,9 @@
       <c r="AC35" t="n">
         <v>0.8153544546811595</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0.8176579398742466</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3636,6 +3741,9 @@
       <c r="AC36" t="n">
         <v>0.7830339125647777</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0.7861836658196393</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3725,6 +3833,9 @@
       <c r="AC37" t="n">
         <v>0.7485387733262429</v>
       </c>
+      <c r="AD37" t="n">
+        <v>0.7518558368574256</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3814,6 +3925,9 @@
       <c r="AC38" t="n">
         <v>0.6528251727399701</v>
       </c>
+      <c r="AD38" t="n">
+        <v>0.6546782607421608</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3903,6 +4017,9 @@
       <c r="AC39" t="n">
         <v>0.6089971408245611</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0.6102485425037467</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3992,6 +4109,9 @@
       <c r="AC40" t="n">
         <v>0.7773048021120245</v>
       </c>
+      <c r="AD40" t="n">
+        <v>0.779460445308072</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4081,6 +4201,9 @@
       <c r="AC41" t="n">
         <v>0.5821077602791828</v>
       </c>
+      <c r="AD41" t="n">
+        <v>0.5830702314802135</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4170,6 +4293,9 @@
       <c r="AC42" t="n">
         <v>0.6371723561899304</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0.6406383014936062</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4259,6 +4385,9 @@
       <c r="AC43" t="n">
         <v>0.6838740385921213</v>
       </c>
+      <c r="AD43" t="n">
+        <v>0.6855315814458685</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4348,6 +4477,9 @@
       <c r="AC44" t="n">
         <v>0.7098636775242384</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0.7115372443537994</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4437,6 +4569,9 @@
       <c r="AC45" t="n">
         <v>0.7194979167588296</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0.7232311046207157</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4526,6 +4661,9 @@
       <c r="AC46" t="n">
         <v>-1.332282468020714</v>
       </c>
+      <c r="AD46" t="n">
+        <v>-1.335944777792465</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4615,6 +4753,9 @@
       <c r="AC47" t="n">
         <v>-1.038797103487988</v>
       </c>
+      <c r="AD47" t="n">
+        <v>-1.041646398260795</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4704,6 +4845,9 @@
       <c r="AC48" t="n">
         <v>-0.8978302795485973</v>
       </c>
+      <c r="AD48" t="n">
+        <v>-0.9006162202708471</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4793,6 +4937,9 @@
       <c r="AC49" t="n">
         <v>-0.6601888224329174</v>
       </c>
+      <c r="AD49" t="n">
+        <v>-0.6626200773646371</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4882,6 +5029,9 @@
       <c r="AC50" t="n">
         <v>-0.08319311348471364</v>
       </c>
+      <c r="AD50" t="n">
+        <v>-0.08474656577976211</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4971,6 +5121,9 @@
       <c r="AC51" t="n">
         <v>-0.8744247572680323</v>
       </c>
+      <c r="AD51" t="n">
+        <v>-0.8765011404228187</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5060,6 +5213,9 @@
       <c r="AC52" t="n">
         <v>-0.8744247572680323</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-0.8765011404228187</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5149,6 +5305,9 @@
       <c r="AC53" t="n">
         <v>-1.167730527621283</v>
       </c>
+      <c r="AD53" t="n">
+        <v>-1.17101703016635</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5238,6 +5397,9 @@
       <c r="AC54" t="n">
         <v>-0.1922856085818854</v>
       </c>
+      <c r="AD54" t="n">
+        <v>-0.1941551331933587</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5327,6 +5489,9 @@
       <c r="AC55" t="n">
         <v>-1.062546699936026</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-1.065636547831574</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5416,6 +5581,9 @@
       <c r="AC56" t="n">
         <v>-0.9370962992241751</v>
       </c>
+      <c r="AD56" t="n">
+        <v>-0.9397060482489482</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5505,6 +5673,9 @@
       <c r="AC57" t="n">
         <v>-0.99631265473328</v>
       </c>
+      <c r="AD57" t="n">
+        <v>-1.001704473161083</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5594,6 +5765,9 @@
       <c r="AC58" t="n">
         <v>-1.137992240981583</v>
       </c>
+      <c r="AD58" t="n">
+        <v>-1.143301131953133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5683,6 +5857,9 @@
       <c r="AC59" t="n">
         <v>-0.8218403737927511</v>
       </c>
+      <c r="AD59" t="n">
+        <v>-0.8255704026976369</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5772,6 +5949,9 @@
       <c r="AC60" t="n">
         <v>-0.457029276909997</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-0.4607075419116321</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5861,6 +6041,9 @@
       <c r="AC61" t="n">
         <v>0.3774636653425367</v>
       </c>
+      <c r="AD61" t="n">
+        <v>0.3765441653131099</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5950,6 +6133,9 @@
       <c r="AC62" t="n">
         <v>-1.263685786856187</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-1.270054892526816</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6039,6 +6225,9 @@
       <c r="AC63" t="n">
         <v>-0.5765453998223439</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-0.5798701004972255</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6128,6 +6317,9 @@
       <c r="AC64" t="n">
         <v>-0.8880634199312517</v>
       </c>
+      <c r="AD64" t="n">
+        <v>-0.893030711578686</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6217,6 +6409,9 @@
       <c r="AC65" t="n">
         <v>-0.0628504911722267</v>
       </c>
+      <c r="AD65" t="n">
+        <v>-0.06566996594736568</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6306,6 +6501,9 @@
       <c r="AC66" t="n">
         <v>-0.8293010521135433</v>
       </c>
+      <c r="AD66" t="n">
+        <v>-0.8341210338887615</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6394,6 +6592,9 @@
       </c>
       <c r="AC67" t="n">
         <v>-0.8166638902358385</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8214849810937246</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD67"/>
+  <dimension ref="A1:AE67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9 @@
       <c r="AD1" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +619,9 @@
       <c r="AD2" t="n">
         <v>-0.2425300891351935</v>
       </c>
+      <c r="AE2" t="n">
+        <v>-0.2453507789603213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -708,6 +714,9 @@
       <c r="AD3" t="n">
         <v>0.2410313981733991</v>
       </c>
+      <c r="AE3" t="n">
+        <v>0.238280619240651</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -800,6 +809,9 @@
       <c r="AD4" t="n">
         <v>0.2269324137891754</v>
       </c>
+      <c r="AE4" t="n">
+        <v>0.2242897955050743</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -892,6 +904,9 @@
       <c r="AD5" t="n">
         <v>-0.07126138937227469</v>
       </c>
+      <c r="AE5" t="n">
+        <v>-0.07359212326399642</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -984,6 +999,9 @@
       <c r="AD6" t="n">
         <v>0.190407072735869</v>
       </c>
+      <c r="AE6" t="n">
+        <v>0.188189969376457</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1076,6 +1094,9 @@
       <c r="AD7" t="n">
         <v>-0.3990747793571718</v>
       </c>
+      <c r="AE7" t="n">
+        <v>-0.4021326594530977</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1168,6 +1189,9 @@
       <c r="AD8" t="n">
         <v>-0.1360124109545239</v>
       </c>
+      <c r="AE8" t="n">
+        <v>-0.1378494997775758</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1260,6 +1284,9 @@
       <c r="AD9" t="n">
         <v>-0.3144549277487597</v>
       </c>
+      <c r="AE9" t="n">
+        <v>-0.3185631484634004</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1352,6 +1379,9 @@
       <c r="AD10" t="n">
         <v>0.3913139949074603</v>
       </c>
+      <c r="AE10" t="n">
+        <v>0.3892753387853867</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1444,6 +1474,9 @@
       <c r="AD11" t="n">
         <v>-0.2050562285503184</v>
       </c>
+      <c r="AE11" t="n">
+        <v>-0.2075518738615731</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1536,6 +1569,9 @@
       <c r="AD12" t="n">
         <v>-0.1013066181415016</v>
       </c>
+      <c r="AE12" t="n">
+        <v>-0.1054542496552102</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1628,6 +1664,9 @@
       <c r="AD13" t="n">
         <v>-0.05588167551850052</v>
       </c>
+      <c r="AE13" t="n">
+        <v>-0.05769560422506335</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1720,6 +1759,9 @@
       <c r="AD14" t="n">
         <v>0.04778734521487565</v>
       </c>
+      <c r="AE14" t="n">
+        <v>0.0413657876937731</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1812,6 +1854,9 @@
       <c r="AD15" t="n">
         <v>-0.1025719617504443</v>
       </c>
+      <c r="AE15" t="n">
+        <v>-0.1103334994057447</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1904,6 +1949,9 @@
       <c r="AD16" t="n">
         <v>0.3143646884987227</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0.3051511094090404</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1996,6 +2044,9 @@
       <c r="AD17" t="n">
         <v>0.427880598033972</v>
       </c>
+      <c r="AE17" t="n">
+        <v>0.4218020828583768</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2088,6 +2139,9 @@
       <c r="AD18" t="n">
         <v>-0.1580949997187291</v>
       </c>
+      <c r="AE18" t="n">
+        <v>-0.161095232872182</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2180,6 +2234,9 @@
       <c r="AD19" t="n">
         <v>0.2924251778798805</v>
       </c>
+      <c r="AE19" t="n">
+        <v>0.2881414019860249</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2272,6 +2329,9 @@
       <c r="AD20" t="n">
         <v>0.2042000322982563</v>
       </c>
+      <c r="AE20" t="n">
+        <v>0.1951412998679818</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2364,6 +2424,9 @@
       <c r="AD21" t="n">
         <v>0.4852501571696154</v>
       </c>
+      <c r="AE21" t="n">
+        <v>0.4795263248938777</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2456,6 +2519,9 @@
       <c r="AD22" t="n">
         <v>0.2542543288725668</v>
       </c>
+      <c r="AE22" t="n">
+        <v>0.2484768913945408</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2548,6 +2614,9 @@
       <c r="AD23" t="n">
         <v>-0.1734015844251472</v>
       </c>
+      <c r="AE23" t="n">
+        <v>-0.1784809997710615</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2640,6 +2709,9 @@
       <c r="AD24" t="n">
         <v>1.030454053643187</v>
       </c>
+      <c r="AE24" t="n">
+        <v>1.049747659929032</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2732,6 +2804,9 @@
       <c r="AD25" t="n">
         <v>0.3171838700064249</v>
       </c>
+      <c r="AE25" t="n">
+        <v>0.3194405750276292</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2824,6 +2899,9 @@
       <c r="AD26" t="n">
         <v>0.1273303312076782</v>
       </c>
+      <c r="AE26" t="n">
+        <v>0.1292227313337992</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2916,6 +2994,9 @@
       <c r="AD27" t="n">
         <v>0.02970435188903711</v>
       </c>
+      <c r="AE27" t="n">
+        <v>0.03202068705646581</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3008,6 +3089,9 @@
       <c r="AD28" t="n">
         <v>0.8148601588882817</v>
       </c>
+      <c r="AE28" t="n">
+        <v>0.8197860886133876</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3100,6 +3184,9 @@
       <c r="AD29" t="n">
         <v>1.487082972542608</v>
       </c>
+      <c r="AE29" t="n">
+        <v>1.512000448908897</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3192,6 +3279,9 @@
       <c r="AD30" t="n">
         <v>0.6554926323952001</v>
       </c>
+      <c r="AE30" t="n">
+        <v>0.6591713427287115</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3284,6 +3374,9 @@
       <c r="AD31" t="n">
         <v>-0.4339705162335277</v>
       </c>
+      <c r="AE31" t="n">
+        <v>-0.4309394617185855</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3376,6 +3469,9 @@
       <c r="AD32" t="n">
         <v>0.5401839262941742</v>
       </c>
+      <c r="AE32" t="n">
+        <v>0.5434463592809207</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3468,6 +3564,9 @@
       <c r="AD33" t="n">
         <v>0.7586641110208084</v>
       </c>
+      <c r="AE33" t="n">
+        <v>0.7610958840603645</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3560,6 +3659,9 @@
       <c r="AD34" t="n">
         <v>-0.8477971103445676</v>
       </c>
+      <c r="AE34" t="n">
+        <v>-0.8463476978455667</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3652,6 +3754,9 @@
       <c r="AD35" t="n">
         <v>0.8176579398742466</v>
       </c>
+      <c r="AE35" t="n">
+        <v>0.8197556193137164</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3744,6 +3849,9 @@
       <c r="AD36" t="n">
         <v>0.7861836658196393</v>
       </c>
+      <c r="AE36" t="n">
+        <v>0.788965045051635</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3836,6 +3944,9 @@
       <c r="AD37" t="n">
         <v>0.7518558368574256</v>
       </c>
+      <c r="AE37" t="n">
+        <v>0.7547876263521147</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3928,6 +4039,9 @@
       <c r="AD38" t="n">
         <v>0.6546782607421608</v>
       </c>
+      <c r="AE38" t="n">
+        <v>0.6563543504611797</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4020,6 +4134,9 @@
       <c r="AD39" t="n">
         <v>0.6102485425037467</v>
       </c>
+      <c r="AE39" t="n">
+        <v>0.6113281573936823</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4112,6 +4229,9 @@
       <c r="AD40" t="n">
         <v>0.779460445308072</v>
       </c>
+      <c r="AE40" t="n">
+        <v>0.781435806876246</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4204,6 +4324,9 @@
       <c r="AD41" t="n">
         <v>0.5830702314802135</v>
       </c>
+      <c r="AE41" t="n">
+        <v>0.5838713358005787</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4296,6 +4419,9 @@
       <c r="AD42" t="n">
         <v>0.6406383014936062</v>
       </c>
+      <c r="AE42" t="n">
+        <v>0.6437130320880503</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4388,6 +4514,9 @@
       <c r="AD43" t="n">
         <v>0.6855315814458685</v>
       </c>
+      <c r="AE43" t="n">
+        <v>0.6869982437432625</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4480,6 +4609,9 @@
       <c r="AD44" t="n">
         <v>0.7115372443537994</v>
       </c>
+      <c r="AE44" t="n">
+        <v>0.7129803914039465</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4572,6 +4704,9 @@
       <c r="AD45" t="n">
         <v>0.7232311046207157</v>
       </c>
+      <c r="AE45" t="n">
+        <v>0.7264496122360764</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4664,6 +4799,9 @@
       <c r="AD46" t="n">
         <v>-1.335944777792465</v>
       </c>
+      <c r="AE46" t="n">
+        <v>-1.33958649662739</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4756,6 +4894,9 @@
       <c r="AD47" t="n">
         <v>-1.041646398260795</v>
       </c>
+      <c r="AE47" t="n">
+        <v>-1.04450238867529</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4848,6 +4989,9 @@
       <c r="AD48" t="n">
         <v>-0.9006162202708471</v>
       </c>
+      <c r="AE48" t="n">
+        <v>-0.9034857507721669</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4940,6 +5084,9 @@
       <c r="AD49" t="n">
         <v>-0.6626200773646371</v>
       </c>
+      <c r="AE49" t="n">
+        <v>-0.6650997132288101</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5032,6 +5179,9 @@
       <c r="AD50" t="n">
         <v>-0.08474656577976211</v>
       </c>
+      <c r="AE50" t="n">
+        <v>-0.08627468479126156</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5124,6 +5274,9 @@
       <c r="AD51" t="n">
         <v>-0.8765011404228187</v>
       </c>
+      <c r="AE51" t="n">
+        <v>-0.8786939541570232</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5216,6 +5369,9 @@
       <c r="AD52" t="n">
         <v>-0.8765011404228187</v>
       </c>
+      <c r="AE52" t="n">
+        <v>-0.8786939541570232</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5308,6 +5464,9 @@
       <c r="AD53" t="n">
         <v>-1.17101703016635</v>
       </c>
+      <c r="AE53" t="n">
+        <v>-1.174393567690843</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5400,6 +5559,9 @@
       <c r="AD54" t="n">
         <v>-0.1941551331933587</v>
       </c>
+      <c r="AE54" t="n">
+        <v>-0.1960330327559372</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5492,6 +5654,9 @@
       <c r="AD55" t="n">
         <v>-1.065636547831574</v>
       </c>
+      <c r="AE55" t="n">
+        <v>-1.068718103613971</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5584,6 +5749,9 @@
       <c r="AD56" t="n">
         <v>-0.9397060482489482</v>
       </c>
+      <c r="AE56" t="n">
+        <v>-0.9422345905564827</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5676,6 +5844,9 @@
       <c r="AD57" t="n">
         <v>-1.001704473161083</v>
       </c>
+      <c r="AE57" t="n">
+        <v>-1.006755737155259</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5768,6 +5939,9 @@
       <c r="AD58" t="n">
         <v>-1.143301131953133</v>
       </c>
+      <c r="AE58" t="n">
+        <v>-1.148252580019917</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5860,6 +6034,9 @@
       <c r="AD59" t="n">
         <v>-0.8255704026976369</v>
       </c>
+      <c r="AE59" t="n">
+        <v>-0.8291940973331489</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5952,6 +6129,9 @@
       <c r="AD60" t="n">
         <v>-0.4607075419116321</v>
       </c>
+      <c r="AE60" t="n">
+        <v>-0.4641574927326217</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6044,6 +6224,9 @@
       <c r="AD61" t="n">
         <v>0.3765441653131099</v>
       </c>
+      <c r="AE61" t="n">
+        <v>0.3756530507855225</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6136,6 +6319,9 @@
       <c r="AD62" t="n">
         <v>-1.270054892526816</v>
       </c>
+      <c r="AE62" t="n">
+        <v>-1.276011733048077</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6228,6 +6414,9 @@
       <c r="AD63" t="n">
         <v>-0.5798701004972255</v>
       </c>
+      <c r="AE63" t="n">
+        <v>-0.5831398728410445</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6320,6 +6509,9 @@
       <c r="AD64" t="n">
         <v>-0.893030711578686</v>
       </c>
+      <c r="AE64" t="n">
+        <v>-0.8978708006688416</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6412,6 +6604,9 @@
       <c r="AD65" t="n">
         <v>-0.06566996594736568</v>
       </c>
+      <c r="AE65" t="n">
+        <v>-0.06830702422875413</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6504,6 +6699,9 @@
       <c r="AD66" t="n">
         <v>-0.8341210338887615</v>
       </c>
+      <c r="AE66" t="n">
+        <v>-0.8385285960763001</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6595,6 +6793,9 @@
       </c>
       <c r="AD67" t="n">
         <v>-0.8214849810937246</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8257891076667098</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE67"/>
+  <dimension ref="A1:AF67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,9 @@
       <c r="AE1" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -622,6 +625,9 @@
       <c r="AE2" t="n">
         <v>-0.2453507789603213</v>
       </c>
+      <c r="AF2" t="n">
+        <v>-0.2480409046164936</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -717,6 +723,9 @@
       <c r="AE3" t="n">
         <v>0.238280619240651</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.2357278190825148</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -812,6 +821,9 @@
       <c r="AE4" t="n">
         <v>0.2242897955050743</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.221749576314747</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -907,6 +919,9 @@
       <c r="AE5" t="n">
         <v>-0.07359212326399642</v>
       </c>
+      <c r="AF5" t="n">
+        <v>-0.07575741586039902</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1002,6 +1017,9 @@
       <c r="AE6" t="n">
         <v>0.188189969376457</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.1861806880965199</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1097,6 +1115,9 @@
       <c r="AE7" t="n">
         <v>-0.4021326594530977</v>
       </c>
+      <c r="AF7" t="n">
+        <v>-0.4050928641194498</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1192,6 +1213,9 @@
       <c r="AE8" t="n">
         <v>-0.1378494997775758</v>
       </c>
+      <c r="AF8" t="n">
+        <v>-0.1396965994804591</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1287,6 +1311,9 @@
       <c r="AE9" t="n">
         <v>-0.3185631484634004</v>
       </c>
+      <c r="AF9" t="n">
+        <v>-0.322511919227879</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1409,9 @@
       <c r="AE10" t="n">
         <v>0.3892753387853867</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.3874273132054528</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1477,6 +1507,9 @@
       <c r="AE11" t="n">
         <v>-0.2075518738615731</v>
       </c>
+      <c r="AF11" t="n">
+        <v>-0.2099541044725794</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1572,6 +1605,9 @@
       <c r="AE12" t="n">
         <v>-0.1054542496552102</v>
       </c>
+      <c r="AF12" t="n">
+        <v>-0.1091820978264522</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1667,6 +1703,9 @@
       <c r="AE13" t="n">
         <v>-0.05769560422506335</v>
       </c>
+      <c r="AF13" t="n">
+        <v>-0.05939750702386982</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1762,6 +1801,9 @@
       <c r="AE14" t="n">
         <v>0.0413657876937731</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.03571723017870108</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1857,6 +1899,9 @@
       <c r="AE15" t="n">
         <v>-0.1103334994057447</v>
       </c>
+      <c r="AF15" t="n">
+        <v>-0.117101326673908</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1952,6 +1997,9 @@
       <c r="AE16" t="n">
         <v>0.3051511094090404</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.2971561413250446</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2047,6 +2095,9 @@
       <c r="AE17" t="n">
         <v>0.4218020828583768</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.4167069334101108</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2142,6 +2193,9 @@
       <c r="AE18" t="n">
         <v>-0.161095232872182</v>
       </c>
+      <c r="AF18" t="n">
+        <v>-0.163766249927203</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2237,6 +2291,9 @@
       <c r="AE19" t="n">
         <v>0.2881414019860249</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.2843667720233144</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2332,6 +2389,9 @@
       <c r="AE20" t="n">
         <v>0.1951412998679818</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.1873174900926338</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2427,6 +2487,9 @@
       <c r="AE21" t="n">
         <v>0.4795263248938777</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.4747389783768071</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2522,6 +2585,9 @@
       <c r="AE22" t="n">
         <v>0.2484768913945408</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.2435990019421322</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2617,6 +2683,9 @@
       <c r="AE23" t="n">
         <v>-0.1784809997710615</v>
       </c>
+      <c r="AF23" t="n">
+        <v>-0.1828156862309024</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2712,6 +2781,9 @@
       <c r="AE24" t="n">
         <v>1.049747659929032</v>
       </c>
+      <c r="AF24" t="n">
+        <v>1.072979873692008</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2807,6 +2879,9 @@
       <c r="AE25" t="n">
         <v>0.3194405750276292</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.3214965594539513</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2902,6 +2977,9 @@
       <c r="AE26" t="n">
         <v>0.1292227313337992</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.1311050030602025</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2997,6 +3075,9 @@
       <c r="AE27" t="n">
         <v>0.03202068705646581</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.03433857188846971</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3092,6 +3173,9 @@
       <c r="AE28" t="n">
         <v>0.8197860886133876</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.8245478480071524</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,6 +3271,9 @@
       <c r="AE29" t="n">
         <v>1.512000448908897</v>
       </c>
+      <c r="AF29" t="n">
+        <v>1.537491638426081</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3282,6 +3369,9 @@
       <c r="AE30" t="n">
         <v>0.6591713427287115</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.6626291058379772</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3377,6 +3467,9 @@
       <c r="AE31" t="n">
         <v>-0.4309394617185855</v>
       </c>
+      <c r="AF31" t="n">
+        <v>-0.4283805401879339</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3472,6 +3565,9 @@
       <c r="AE32" t="n">
         <v>0.5434463592809207</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.5465303282195746</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3567,6 +3663,9 @@
       <c r="AE33" t="n">
         <v>0.7610958840603645</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.7633487986157457</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3662,6 +3761,9 @@
       <c r="AE34" t="n">
         <v>-0.8463476978455667</v>
       </c>
+      <c r="AF34" t="n">
+        <v>-0.8451026245458471</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3757,6 +3859,9 @@
       <c r="AE35" t="n">
         <v>0.8197556193137164</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.8216479765006355</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3852,6 +3957,9 @@
       <c r="AE36" t="n">
         <v>0.788965045051635</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.7913909959826365</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3947,6 +4055,9 @@
       <c r="AE37" t="n">
         <v>0.7547876263521147</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.7573470634076234</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4042,6 +4153,9 @@
       <c r="AE38" t="n">
         <v>0.6563543504611797</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.6578515991634054</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4137,6 +4251,9 @@
       <c r="AE39" t="n">
         <v>0.6113281573936823</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.6122438549832941</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4232,6 +4349,9 @@
       <c r="AE40" t="n">
         <v>0.781435806876246</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.7832303802817302</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4327,6 +4447,9 @@
       <c r="AE41" t="n">
         <v>0.5838713358005787</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.5845247795373801</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4422,6 +4545,9 @@
       <c r="AE42" t="n">
         <v>0.6437130320880503</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.6464028912245248</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4517,6 +4643,9 @@
       <c r="AE43" t="n">
         <v>0.6869982437432625</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.6882788048894066</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4612,6 +4741,9 @@
       <c r="AE44" t="n">
         <v>0.7129803914039465</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.7142063158042937</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4707,6 +4839,9 @@
       <c r="AE45" t="n">
         <v>0.7264496122360764</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.7291799669992798</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4802,6 +4937,9 @@
       <c r="AE46" t="n">
         <v>-1.33958649662739</v>
       </c>
+      <c r="AF46" t="n">
+        <v>-1.343192709510684</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4897,6 +5035,9 @@
       <c r="AE47" t="n">
         <v>-1.04450238867529</v>
       </c>
+      <c r="AF47" t="n">
+        <v>-1.047352061863047</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4992,6 +5133,9 @@
       <c r="AE48" t="n">
         <v>-0.9034857507721669</v>
       </c>
+      <c r="AF48" t="n">
+        <v>-0.9064140517016351</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5087,6 +5231,9 @@
       <c r="AE49" t="n">
         <v>-0.6650997132288101</v>
       </c>
+      <c r="AF49" t="n">
+        <v>-0.6676084615407597</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5182,6 +5329,9 @@
       <c r="AE50" t="n">
         <v>-0.08627468479126156</v>
       </c>
+      <c r="AF50" t="n">
+        <v>-0.08777404938725381</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5277,6 +5427,9 @@
       <c r="AE51" t="n">
         <v>-0.8786939541570232</v>
       </c>
+      <c r="AF51" t="n">
+        <v>-0.8809797638684683</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5372,6 +5525,9 @@
       <c r="AE52" t="n">
         <v>-0.8786939541570232</v>
       </c>
+      <c r="AF52" t="n">
+        <v>-0.8809797638684683</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5467,6 +5623,9 @@
       <c r="AE53" t="n">
         <v>-1.174393567690843</v>
       </c>
+      <c r="AF53" t="n">
+        <v>-1.177834338396156</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5562,6 +5721,9 @@
       <c r="AE54" t="n">
         <v>-0.1960330327559372</v>
       </c>
+      <c r="AF54" t="n">
+        <v>-0.1979074683322488</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5657,6 +5819,9 @@
       <c r="AE55" t="n">
         <v>-1.068718103613971</v>
       </c>
+      <c r="AF55" t="n">
+        <v>-1.071778979390044</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5752,6 +5917,9 @@
       <c r="AE56" t="n">
         <v>-0.9422345905564827</v>
       </c>
+      <c r="AF56" t="n">
+        <v>-0.9446820085611969</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5847,6 +6015,9 @@
       <c r="AE57" t="n">
         <v>-1.006755737155259</v>
       </c>
+      <c r="AF57" t="n">
+        <v>-1.011468585670793</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5942,6 +6113,9 @@
       <c r="AE58" t="n">
         <v>-1.148252580019917</v>
       </c>
+      <c r="AF58" t="n">
+        <v>-1.152848372539796</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6037,6 +6211,9 @@
       <c r="AE59" t="n">
         <v>-0.8291940973331489</v>
       </c>
+      <c r="AF59" t="n">
+        <v>-0.8326950189679263</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6132,6 +6309,9 @@
       <c r="AE60" t="n">
         <v>-0.4641574927326217</v>
       </c>
+      <c r="AF60" t="n">
+        <v>-0.4673736905789828</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6227,6 +6407,9 @@
       <c r="AE61" t="n">
         <v>0.3756530507855225</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.3747944887102557</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6322,6 +6505,9 @@
       <c r="AE62" t="n">
         <v>-1.276011733048077</v>
       </c>
+      <c r="AF62" t="n">
+        <v>-1.281559464788949</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6417,6 +6603,9 @@
       <c r="AE63" t="n">
         <v>-0.5831398728410445</v>
       </c>
+      <c r="AF63" t="n">
+        <v>-0.5863226812048671</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6512,6 +6701,9 @@
       <c r="AE64" t="n">
         <v>-0.8978708006688416</v>
       </c>
+      <c r="AF64" t="n">
+        <v>-0.9025557628628563</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6607,6 +6799,9 @@
       <c r="AE65" t="n">
         <v>-0.06830702422875413</v>
       </c>
+      <c r="AF65" t="n">
+        <v>-0.07075810467730451</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6702,6 +6897,9 @@
       <c r="AE66" t="n">
         <v>-0.8385285960763001</v>
       </c>
+      <c r="AF66" t="n">
+        <v>-0.8425392348546165</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6796,6 +6994,9 @@
       </c>
       <c r="AE67" t="n">
         <v>-0.8257891076667098</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8296086034664218</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF67"/>
+  <dimension ref="A1:AG67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,9 @@
       <c r="AF1" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -628,6 +631,9 @@
       <c r="AF2" t="n">
         <v>-0.2480409046164936</v>
       </c>
+      <c r="AG2" t="n">
+        <v>-0.2505880505044932</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -726,6 +732,9 @@
       <c r="AF3" t="n">
         <v>0.2357278190825148</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.233380063874779</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -824,6 +833,9 @@
       <c r="AF4" t="n">
         <v>0.221749576314747</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2193302055878889</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -922,6 +934,9 @@
       <c r="AF5" t="n">
         <v>-0.07575741586039902</v>
       </c>
+      <c r="AG5" t="n">
+        <v>-0.07775741631846736</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1020,6 +1035,9 @@
       <c r="AF6" t="n">
         <v>0.1861806880965199</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.1843785469416043</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1118,6 +1136,9 @@
       <c r="AF7" t="n">
         <v>-0.4050928641194498</v>
       </c>
+      <c r="AG7" t="n">
+        <v>-0.4079376970681725</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1216,6 +1237,9 @@
       <c r="AF8" t="n">
         <v>-0.1396965994804591</v>
       </c>
+      <c r="AG8" t="n">
+        <v>-0.1415277643173294</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1314,6 +1338,9 @@
       <c r="AF9" t="n">
         <v>-0.322511919227879</v>
       </c>
+      <c r="AG9" t="n">
+        <v>-0.3262713382980307</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1412,6 +1439,9 @@
       <c r="AF10" t="n">
         <v>0.3874273132054528</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.3857669537464312</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1510,6 +1540,9 @@
       <c r="AF11" t="n">
         <v>-0.2099541044725794</v>
       </c>
+      <c r="AG11" t="n">
+        <v>-0.2122521221987463</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1608,6 +1641,9 @@
       <c r="AF12" t="n">
         <v>-0.1091820978264522</v>
       </c>
+      <c r="AG12" t="n">
+        <v>-0.1125058762168249</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1706,6 +1742,9 @@
       <c r="AF13" t="n">
         <v>-0.05939750702386982</v>
       </c>
+      <c r="AG13" t="n">
+        <v>-0.06098919849662403</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1804,6 +1843,9 @@
       <c r="AF14" t="n">
         <v>0.03571723017870108</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.03081014592903417</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1902,6 +1944,9 @@
       <c r="AF15" t="n">
         <v>-0.117101326673908</v>
       </c>
+      <c r="AG15" t="n">
+        <v>-0.1229290565397392</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2000,6 +2045,9 @@
       <c r="AF16" t="n">
         <v>0.2971561413250446</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.2903204650148385</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2098,6 +2146,9 @@
       <c r="AF17" t="n">
         <v>0.4167069334101108</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.4125228478544323</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2196,6 +2247,9 @@
       <c r="AF18" t="n">
         <v>-0.163766249927203</v>
       </c>
+      <c r="AG18" t="n">
+        <v>-0.1661301391538981</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2294,6 +2348,9 @@
       <c r="AF19" t="n">
         <v>0.2843667720233144</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.2810707021365571</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2392,6 +2449,9 @@
       <c r="AF20" t="n">
         <v>0.1873174900926338</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.1806595083724588</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2490,6 +2550,9 @@
       <c r="AF21" t="n">
         <v>0.4747389783768071</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.4708220359281555</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2588,6 +2651,9 @@
       <c r="AF22" t="n">
         <v>0.2435990019421322</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.2395583899990378</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2686,6 +2752,9 @@
       <c r="AF23" t="n">
         <v>-0.1828156862309024</v>
       </c>
+      <c r="AG23" t="n">
+        <v>-0.1864583591289791</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2784,6 +2853,9 @@
       <c r="AF24" t="n">
         <v>1.072979873692008</v>
       </c>
+      <c r="AG24" t="n">
+        <v>1.099096039166686</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2882,6 +2954,9 @@
       <c r="AF25" t="n">
         <v>0.3214965594539513</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.3233467042053398</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2980,6 +3055,9 @@
       <c r="AF26" t="n">
         <v>0.1311050030602025</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.1329378164957029</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3078,6 +3156,9 @@
       <c r="AF27" t="n">
         <v>0.03433857188846971</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03661386922216977</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3176,6 +3257,9 @@
       <c r="AF28" t="n">
         <v>0.8245478480071524</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.8290985882130408</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3274,6 +3358,9 @@
       <c r="AF29" t="n">
         <v>1.537491638426081</v>
       </c>
+      <c r="AG29" t="n">
+        <v>1.562966251422142</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3372,6 +3459,9 @@
       <c r="AF30" t="n">
         <v>0.6626291058379772</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.6658367758888045</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3470,6 +3560,9 @@
       <c r="AF31" t="n">
         <v>-0.4283805401879339</v>
       </c>
+      <c r="AG31" t="n">
+        <v>-0.4262789597298936</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3568,6 +3661,9 @@
       <c r="AF32" t="n">
         <v>0.5465303282195746</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.549405195249368</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3666,6 +3762,9 @@
       <c r="AF33" t="n">
         <v>0.7633487986157457</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.7654101746935221</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3764,6 +3863,9 @@
       <c r="AF34" t="n">
         <v>-0.8451026245458471</v>
       </c>
+      <c r="AG34" t="n">
+        <v>-0.8440702711662983</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3862,6 +3964,9 @@
       <c r="AF35" t="n">
         <v>0.8216479765006355</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.8233388925083042</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3960,6 +4065,9 @@
       <c r="AF36" t="n">
         <v>0.7913909959826365</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.7934787002956328</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4058,6 +4166,9 @@
       <c r="AF37" t="n">
         <v>0.7573470634076234</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.759551651296078</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4156,6 +4267,9 @@
       <c r="AF38" t="n">
         <v>0.6578515991634054</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.6591718883488479</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4254,6 +4368,9 @@
       <c r="AF39" t="n">
         <v>0.6122438549832941</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.6130051105945158</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4352,6 +4469,9 @@
       <c r="AF40" t="n">
         <v>0.7832303802817302</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.7848466172968824</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4450,6 +4570,9 @@
       <c r="AF41" t="n">
         <v>0.5845247795373801</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.5850447603898862</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4548,6 +4671,9 @@
       <c r="AF42" t="n">
         <v>0.6464028912245248</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.6487203426081685</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4646,6 +4772,9 @@
       <c r="AF43" t="n">
         <v>0.6882788048894066</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.6893807520555743</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4744,6 +4873,9 @@
       <c r="AF44" t="n">
         <v>0.7142063158042937</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.7152299352665871</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4842,6 +4974,9 @@
       <c r="AF45" t="n">
         <v>0.7291799669992798</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.7314531402094112</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4940,6 +5075,9 @@
       <c r="AF46" t="n">
         <v>-1.343192709510684</v>
       </c>
+      <c r="AG46" t="n">
+        <v>-1.346750020349326</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5038,6 +5176,9 @@
       <c r="AF47" t="n">
         <v>-1.047352061863047</v>
       </c>
+      <c r="AG47" t="n">
+        <v>-1.050183334176165</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5136,6 +5277,9 @@
       <c r="AF48" t="n">
         <v>-0.9064140517016351</v>
       </c>
+      <c r="AG48" t="n">
+        <v>-0.9093779075234941</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5234,6 +5378,9 @@
       <c r="AF49" t="n">
         <v>-0.6676084615407597</v>
       </c>
+      <c r="AG49" t="n">
+        <v>-0.670128562012717</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5332,6 +5479,9 @@
       <c r="AF50" t="n">
         <v>-0.08777404938725381</v>
       </c>
+      <c r="AG50" t="n">
+        <v>-0.08924169155777927</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5430,6 +5580,9 @@
       <c r="AF51" t="n">
         <v>-0.8809797638684683</v>
       </c>
+      <c r="AG51" t="n">
+        <v>-0.8833361324191661</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5528,6 +5681,9 @@
       <c r="AF52" t="n">
         <v>-0.8809797638684683</v>
       </c>
+      <c r="AG52" t="n">
+        <v>-0.8833361324191661</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5626,6 +5782,9 @@
       <c r="AF53" t="n">
         <v>-1.177834338396156</v>
       </c>
+      <c r="AG53" t="n">
+        <v>-1.181314774458642</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5724,6 +5883,9 @@
       <c r="AF54" t="n">
         <v>-0.1979074683322488</v>
       </c>
+      <c r="AG54" t="n">
+        <v>-0.1997678831647487</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5822,6 +5984,9 @@
       <c r="AF55" t="n">
         <v>-1.071778979390044</v>
       </c>
+      <c r="AG55" t="n">
+        <v>-1.074807821738693</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5920,6 +6085,9 @@
       <c r="AF56" t="n">
         <v>-0.9446820085611969</v>
       </c>
+      <c r="AG56" t="n">
+        <v>-0.9470489675809681</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6018,6 +6186,9 @@
       <c r="AF57" t="n">
         <v>-1.011468585670793</v>
       </c>
+      <c r="AG57" t="n">
+        <v>-1.015849764494419</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6116,6 +6287,9 @@
       <c r="AF58" t="n">
         <v>-1.152848372539796</v>
       </c>
+      <c r="AG58" t="n">
+        <v>-1.157095631687983</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6214,6 +6388,9 @@
       <c r="AF59" t="n">
         <v>-0.8326950189679263</v>
       </c>
+      <c r="AG59" t="n">
+        <v>-0.8360607571739458</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6312,6 +6489,9 @@
       <c r="AF60" t="n">
         <v>-0.4673736905789828</v>
       </c>
+      <c r="AG60" t="n">
+        <v>-0.4703554098666057</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6410,6 +6590,9 @@
       <c r="AF61" t="n">
         <v>0.3747944887102557</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.3739715945052405</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6508,6 +6691,9 @@
       <c r="AF62" t="n">
         <v>-1.281559464788949</v>
       </c>
+      <c r="AG62" t="n">
+        <v>-1.286706893232597</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6606,6 +6792,9 @@
       <c r="AF63" t="n">
         <v>-0.5863226812048671</v>
       </c>
+      <c r="AG63" t="n">
+        <v>-0.5893930323806711</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6704,6 +6893,9 @@
       <c r="AF64" t="n">
         <v>-0.9025557628628563</v>
       </c>
+      <c r="AG64" t="n">
+        <v>-0.9070636500126036</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6802,6 +6994,9 @@
       <c r="AF65" t="n">
         <v>-0.07075810467730451</v>
       </c>
+      <c r="AG65" t="n">
+        <v>-0.07302340539834468</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6900,6 +7095,9 @@
       <c r="AF66" t="n">
         <v>-0.8425392348546165</v>
       </c>
+      <c r="AG66" t="n">
+        <v>-0.8461725341151578</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6997,6 +7195,9 @@
       </c>
       <c r="AF67" t="n">
         <v>-0.8296086034664218</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8329790474197312</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG67"/>
+  <dimension ref="A1:AH67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,9 @@
       <c r="AG1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -634,6 +637,9 @@
       <c r="AG2" t="n">
         <v>-0.2505880505044932</v>
       </c>
+      <c r="AH2" t="n">
+        <v>-0.252984037091208</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -735,6 +741,9 @@
       <c r="AG3" t="n">
         <v>0.233380063874779</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.2312398907443896</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -836,6 +845,9 @@
       <c r="AG4" t="n">
         <v>0.2193302055878889</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.2170452891735679</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -937,6 +949,9 @@
       <c r="AG5" t="n">
         <v>-0.07775741631846736</v>
       </c>
+      <c r="AH5" t="n">
+        <v>-0.07959489104492368</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,6 +1053,9 @@
       <c r="AG6" t="n">
         <v>0.1843785469416043</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.1827792488558705</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1139,6 +1157,9 @@
       <c r="AG7" t="n">
         <v>-0.4079376970681725</v>
       </c>
+      <c r="AH7" t="n">
+        <v>-0.4106538036944671</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1240,6 +1261,9 @@
       <c r="AG8" t="n">
         <v>-0.1415277643173294</v>
       </c>
+      <c r="AH8" t="n">
+        <v>-0.1433213582472334</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1341,6 +1365,9 @@
       <c r="AG9" t="n">
         <v>-0.3262713382980307</v>
       </c>
+      <c r="AH9" t="n">
+        <v>-0.3298190867300498</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1442,6 +1469,9 @@
       <c r="AG10" t="n">
         <v>0.3857669537464312</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.3842884383180846</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1543,6 +1573,9 @@
       <c r="AG11" t="n">
         <v>-0.2122521221987463</v>
       </c>
+      <c r="AH11" t="n">
+        <v>-0.2144382743810088</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1644,6 +1677,9 @@
       <c r="AG12" t="n">
         <v>-0.1125058762168249</v>
       </c>
+      <c r="AH12" t="n">
+        <v>-0.1154456974634967</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1745,6 +1781,9 @@
       <c r="AG13" t="n">
         <v>-0.06098919849662403</v>
       </c>
+      <c r="AH13" t="n">
+        <v>-0.06247366813770547</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1846,6 +1885,9 @@
       <c r="AG14" t="n">
         <v>0.03081014592903417</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.02660487299282442</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1947,6 +1989,9 @@
       <c r="AG15" t="n">
         <v>-0.1229290565397392</v>
       </c>
+      <c r="AH15" t="n">
+        <v>-0.1278782490975996</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2048,6 +2093,9 @@
       <c r="AG16" t="n">
         <v>0.2903204650148385</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.2845734476459087</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2149,6 +2197,9 @@
       <c r="AG17" t="n">
         <v>0.4125228478544323</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.4091728890429774</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2250,6 +2301,9 @@
       <c r="AG18" t="n">
         <v>-0.1661301391538981</v>
       </c>
+      <c r="AH18" t="n">
+        <v>-0.1682099460899038</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2351,6 +2405,9 @@
       <c r="AG19" t="n">
         <v>0.2810707021365571</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.2782194462946748</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2452,6 +2509,9 @@
       <c r="AG20" t="n">
         <v>0.1806595083724588</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.175088529489318</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2553,6 +2613,9 @@
       <c r="AG21" t="n">
         <v>0.4708220359281555</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.4677038866468401</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2654,6 +2717,9 @@
       <c r="AG22" t="n">
         <v>0.2395583899990378</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.2362877857789439</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2755,6 +2821,9 @@
       <c r="AG23" t="n">
         <v>-0.1864583591289791</v>
       </c>
+      <c r="AH23" t="n">
+        <v>-0.189465530080686</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2856,6 +2925,9 @@
       <c r="AG24" t="n">
         <v>1.099096039166686</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.127155476070496</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2957,6 +3029,9 @@
       <c r="AG25" t="n">
         <v>0.3233467042053398</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.3249909399634061</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3058,6 +3133,9 @@
       <c r="AG26" t="n">
         <v>0.1329378164957029</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.13468938013839</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3159,6 +3237,9 @@
       <c r="AG27" t="n">
         <v>0.03661386922216977</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.03881063265934462</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3260,6 +3341,9 @@
       <c r="AG28" t="n">
         <v>0.8290985882130408</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.833402565986455</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3361,6 +3445,9 @@
       <c r="AG29" t="n">
         <v>1.562966251422142</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1.587935772401242</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3462,6 +3549,9 @@
       <c r="AG30" t="n">
         <v>0.6658367758888045</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.6687750757003553</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3563,6 +3653,9 @@
       <c r="AG31" t="n">
         <v>-0.4262789597298936</v>
       </c>
+      <c r="AH31" t="n">
+        <v>-0.424612784143246</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3664,6 +3757,9 @@
       <c r="AG32" t="n">
         <v>0.549405195249368</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.5520493595466611</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3765,6 +3861,9 @@
       <c r="AG33" t="n">
         <v>0.7654101746935221</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.767273118416154</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3866,6 +3965,9 @@
       <c r="AG34" t="n">
         <v>-0.8440702711662983</v>
       </c>
+      <c r="AH34" t="n">
+        <v>-0.8432529862033191</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3967,6 +4069,9 @@
       <c r="AG35" t="n">
         <v>0.8233388925083042</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.824835055090572</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4068,6 +4173,9 @@
       <c r="AG36" t="n">
         <v>0.7934787002956328</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.7952485927832349</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4169,6 +4277,9 @@
       <c r="AG37" t="n">
         <v>0.759551651296078</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.761422425075953</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4270,6 +4381,9 @@
       <c r="AG38" t="n">
         <v>0.6591718883488479</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.6603201656300014</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4371,6 +4485,9 @@
       <c r="AG39" t="n">
         <v>0.6130051105945158</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.6136225971126748</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4472,6 +4589,9 @@
       <c r="AG40" t="n">
         <v>0.7848466172968824</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.7862894561512073</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4573,6 +4693,9 @@
       <c r="AG41" t="n">
         <v>0.5850447603898862</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.5854456161846571</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4674,6 +4797,9 @@
       <c r="AG42" t="n">
         <v>0.6487203426081685</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.6506827468459598</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4775,6 +4901,9 @@
       <c r="AG43" t="n">
         <v>0.6893807520555743</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.6903136928958256</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4876,6 +5005,9 @@
       <c r="AG44" t="n">
         <v>0.7152299352665871</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.7160673491139319</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4977,6 +5109,9 @@
       <c r="AG45" t="n">
         <v>0.7314531402094112</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.7333032912197599</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5078,6 +5213,9 @@
       <c r="AG46" t="n">
         <v>-1.346750020349326</v>
       </c>
+      <c r="AH46" t="n">
+        <v>-1.350246598655301</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5179,6 +5317,9 @@
       <c r="AG47" t="n">
         <v>-1.050183334176165</v>
       </c>
+      <c r="AH47" t="n">
+        <v>-1.052985161693162</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5280,6 +5421,9 @@
       <c r="AG48" t="n">
         <v>-0.9093779075234941</v>
       </c>
+      <c r="AH48" t="n">
+        <v>-0.9123559174043229</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5381,6 +5525,9 @@
       <c r="AG49" t="n">
         <v>-0.670128562012717</v>
       </c>
+      <c r="AH49" t="n">
+        <v>-0.672643876850748</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5482,6 +5629,9 @@
       <c r="AG50" t="n">
         <v>-0.08924169155777927</v>
       </c>
+      <c r="AH50" t="n">
+        <v>-0.09067509141380703</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5583,6 +5733,9 @@
       <c r="AG51" t="n">
         <v>-0.8833361324191661</v>
       </c>
+      <c r="AH51" t="n">
+        <v>-0.8857418977570426</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5684,6 +5837,9 @@
       <c r="AG52" t="n">
         <v>-0.8833361324191661</v>
       </c>
+      <c r="AH52" t="n">
+        <v>-0.8857418977570426</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5785,6 +5941,9 @@
       <c r="AG53" t="n">
         <v>-1.181314774458642</v>
       </c>
+      <c r="AH53" t="n">
+        <v>-1.184811868722521</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -5886,6 +6045,9 @@
       <c r="AG54" t="n">
         <v>-0.1997678831647487</v>
       </c>
+      <c r="AH54" t="n">
+        <v>-0.2016050006979958</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5987,6 +6149,9 @@
       <c r="AG55" t="n">
         <v>-1.074807821738693</v>
       </c>
+      <c r="AH55" t="n">
+        <v>-1.077794390759971</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6088,6 +6253,9 @@
       <c r="AG56" t="n">
         <v>-0.9470489675809681</v>
       </c>
+      <c r="AH56" t="n">
+        <v>-0.9493366094364555</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6189,6 +6357,9 @@
       <c r="AG57" t="n">
         <v>-1.015849764494419</v>
       </c>
+      <c r="AH57" t="n">
+        <v>-1.019909796088623</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6290,6 +6461,9 @@
       <c r="AG58" t="n">
         <v>-1.157095631687983</v>
       </c>
+      <c r="AH58" t="n">
+        <v>-1.161005821426738</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6391,6 +6565,9 @@
       <c r="AG59" t="n">
         <v>-0.8360607571739458</v>
       </c>
+      <c r="AH59" t="n">
+        <v>-0.8392825131418701</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6492,6 +6669,9 @@
       <c r="AG60" t="n">
         <v>-0.4703554098666057</v>
       </c>
+      <c r="AH60" t="n">
+        <v>-0.4731058764748689</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6593,6 +6773,9 @@
       <c r="AG61" t="n">
         <v>0.3739715945052405</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.3731865412764948</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6694,6 +6877,9 @@
       <c r="AG62" t="n">
         <v>-1.286706893232597</v>
       </c>
+      <c r="AH62" t="n">
+        <v>-1.291467424949124</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6795,6 +6981,9 @@
       <c r="AG63" t="n">
         <v>-0.5893930323806711</v>
       </c>
+      <c r="AH63" t="n">
+        <v>-0.5923313482672655</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6896,6 +7085,9 @@
       <c r="AG64" t="n">
         <v>-0.9070636500126036</v>
       </c>
+      <c r="AH64" t="n">
+        <v>-0.9113779910521678</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -6997,6 +7189,9 @@
       <c r="AG65" t="n">
         <v>-0.07302340539834468</v>
       </c>
+      <c r="AH65" t="n">
+        <v>-0.07510624423611037</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7098,6 +7293,9 @@
       <c r="AG66" t="n">
         <v>-0.8461725341151578</v>
       </c>
+      <c r="AH66" t="n">
+        <v>-0.8494511285751454</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7198,6 +7396,9 @@
       </c>
       <c r="AG67" t="n">
         <v>-0.8329790474197312</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8359380275250625</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH67"/>
+  <dimension ref="A1:AI67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,9 @@
       <c r="AH1" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -640,6 +643,9 @@
       <c r="AH2" t="n">
         <v>-0.252984037091208</v>
       </c>
+      <c r="AI2" t="n">
+        <v>-0.2552243886737362</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,9 @@
       <c r="AH3" t="n">
         <v>0.2312398907443896</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.2293059562924826</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -848,6 +857,9 @@
       <c r="AH4" t="n">
         <v>0.2170452891735679</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.2149041060219302</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -952,6 +964,9 @@
       <c r="AH5" t="n">
         <v>-0.07959489104492368</v>
       </c>
+      <c r="AI5" t="n">
+        <v>-0.08127476097057129</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1056,6 +1071,9 @@
       <c r="AH6" t="n">
         <v>0.1827792488558705</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.1813755448958516</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1160,6 +1178,9 @@
       <c r="AH7" t="n">
         <v>-0.4106538036944671</v>
       </c>
+      <c r="AI7" t="n">
+        <v>-0.4132317365370814</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1264,6 +1285,9 @@
       <c r="AH8" t="n">
         <v>-0.1433213582472334</v>
       </c>
+      <c r="AI8" t="n">
+        <v>-0.1450597500044692</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1368,6 +1392,9 @@
       <c r="AH9" t="n">
         <v>-0.3298190867300498</v>
       </c>
+      <c r="AI9" t="n">
+        <v>-0.3331396755629197</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1472,6 +1499,9 @@
       <c r="AH10" t="n">
         <v>0.3842884383180846</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.3829836620525328</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1576,6 +1606,9 @@
       <c r="AH11" t="n">
         <v>-0.2144382743810088</v>
       </c>
+      <c r="AI11" t="n">
+        <v>-0.216507696117158</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1680,6 +1713,9 @@
       <c r="AH12" t="n">
         <v>-0.1154456974634967</v>
       </c>
+      <c r="AI12" t="n">
+        <v>-0.1180250059091528</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1784,6 +1820,9 @@
       <c r="AH13" t="n">
         <v>-0.06247366813770547</v>
       </c>
+      <c r="AI13" t="n">
+        <v>-0.06385486452154206</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1888,6 +1927,9 @@
       <c r="AH14" t="n">
         <v>0.02660487299282442</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.02305562876735422</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1992,6 +2034,9 @@
       <c r="AH15" t="n">
         <v>-0.1278782490975996</v>
       </c>
+      <c r="AI15" t="n">
+        <v>-0.1320160373098528</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2096,6 +2141,9 @@
       <c r="AH16" t="n">
         <v>0.2845734476459087</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.2798362318565086</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2200,6 +2248,9 @@
       <c r="AH17" t="n">
         <v>0.4091728890429774</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.4065776065837837</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2304,6 +2355,9 @@
       <c r="AH18" t="n">
         <v>-0.1682099460899038</v>
       </c>
+      <c r="AI18" t="n">
+        <v>-0.1700292074002545</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2408,6 +2462,9 @@
       <c r="AH19" t="n">
         <v>0.2782194462946748</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.275777189452495</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2512,6 +2569,9 @@
       <c r="AH20" t="n">
         <v>0.175088529489318</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.1705189815036333</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2616,6 +2676,9 @@
       <c r="AH21" t="n">
         <v>0.4677038866468401</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.465309649616592</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2720,6 +2783,9 @@
       <c r="AH22" t="n">
         <v>0.2362877857789439</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.2337169370606556</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2824,6 +2890,9 @@
       <c r="AH23" t="n">
         <v>-0.189465530080686</v>
       </c>
+      <c r="AI23" t="n">
+        <v>-0.1918958696771079</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2928,6 +2997,9 @@
       <c r="AH24" t="n">
         <v>1.127155476070496</v>
       </c>
+      <c r="AI24" t="n">
+        <v>1.156331174774401</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3032,6 +3104,9 @@
       <c r="AH25" t="n">
         <v>0.3249909399634061</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.3264333609302948</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3136,6 +3211,9 @@
       <c r="AH26" t="n">
         <v>0.13468938013839</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.1363348027229652</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3240,6 +3318,9 @@
       <c r="AH27" t="n">
         <v>0.03881063265934462</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.04090041604834928</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3344,6 +3425,9 @@
       <c r="AH28" t="n">
         <v>0.833402565986455</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8374340202316957</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3448,6 +3532,9 @@
       <c r="AH29" t="n">
         <v>1.587935772401242</v>
       </c>
+      <c r="AI29" t="n">
+        <v>1.612005248048873</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3552,6 +3639,9 @@
       <c r="AH30" t="n">
         <v>0.6687750757003553</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.6714332795522373</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3656,6 +3746,9 @@
       <c r="AH31" t="n">
         <v>-0.424612784143246</v>
       </c>
+      <c r="AI31" t="n">
+        <v>-0.4233546142863993</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3760,6 +3853,9 @@
       <c r="AH32" t="n">
         <v>0.5520493595466611</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.5544491800746056</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3864,6 +3960,9 @@
       <c r="AH33" t="n">
         <v>0.767273118416154</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.7689356860414167</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3968,6 +4067,9 @@
       <c r="AH34" t="n">
         <v>-0.8432529862033191</v>
       </c>
+      <c r="AI34" t="n">
+        <v>-0.8426480578265222</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4072,6 +4174,9 @@
       <c r="AH35" t="n">
         <v>0.824835055090572</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.826145408223686</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4176,6 +4281,9 @@
       <c r="AH36" t="n">
         <v>0.7952485927832349</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.7967234764656034</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4280,6 +4388,9 @@
       <c r="AH37" t="n">
         <v>0.761422425075953</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.7629830062280345</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4384,6 +4495,9 @@
       <c r="AH38" t="n">
         <v>0.6603201656300014</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.6613038399046124</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4488,6 +4602,9 @@
       <c r="AH39" t="n">
         <v>0.6136225971126748</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.6141078171701098</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4592,6 +4709,9 @@
       <c r="AH40" t="n">
         <v>0.7862894561512073</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.7875658735429458</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4696,6 +4816,9 @@
       <c r="AH41" t="n">
         <v>0.5854456161846571</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.5857415304354853</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4800,6 +4923,9 @@
       <c r="AH42" t="n">
         <v>0.6506827468459598</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.6523112470069098</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4904,6 +5030,9 @@
       <c r="AH43" t="n">
         <v>0.6903136928958256</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.6910888264062843</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5008,6 +5137,9 @@
       <c r="AH44" t="n">
         <v>0.7160673491139319</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.71673536372631</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5112,6 +5244,9 @@
       <c r="AH45" t="n">
         <v>0.7333032912197599</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.73476665321128</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5216,6 +5351,9 @@
       <c r="AH46" t="n">
         <v>-1.350246598655301</v>
       </c>
+      <c r="AI46" t="n">
+        <v>-1.353672190160706</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5320,6 +5458,9 @@
       <c r="AH47" t="n">
         <v>-1.052985161693162</v>
       </c>
+      <c r="AI47" t="n">
+        <v>-1.055747613885249</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5424,6 +5565,9 @@
       <c r="AH48" t="n">
         <v>-0.9123559174043229</v>
       </c>
+      <c r="AI48" t="n">
+        <v>-0.9153286376659373</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5528,6 +5672,9 @@
       <c r="AH49" t="n">
         <v>-0.672643876850748</v>
       </c>
+      <c r="AI49" t="n">
+        <v>-0.6751399566769299</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5632,6 +5779,9 @@
       <c r="AH50" t="n">
         <v>-0.09067509141380703</v>
       </c>
+      <c r="AI50" t="n">
+        <v>-0.09207216608047555</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5736,6 +5886,9 @@
       <c r="AH51" t="n">
         <v>-0.8857418977570426</v>
       </c>
+      <c r="AI51" t="n">
+        <v>-0.8881773828347149</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5840,6 +5993,9 @@
       <c r="AH52" t="n">
         <v>-0.8857418977570426</v>
       </c>
+      <c r="AI52" t="n">
+        <v>-0.8881773828347149</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5944,6 +6100,9 @@
       <c r="AH53" t="n">
         <v>-1.184811868722521</v>
       </c>
+      <c r="AI53" t="n">
+        <v>-1.188304415626618</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6048,6 +6207,9 @@
       <c r="AH54" t="n">
         <v>-0.2016050006979958</v>
       </c>
+      <c r="AI54" t="n">
+        <v>-0.2034108012369164</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6152,6 +6314,9 @@
       <c r="AH55" t="n">
         <v>-1.077794390759971</v>
       </c>
+      <c r="AI55" t="n">
+        <v>-1.080729606611226</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6256,6 +6421,9 @@
       <c r="AH56" t="n">
         <v>-0.9493366094364555</v>
       </c>
+      <c r="AI56" t="n">
+        <v>-0.951546459963696</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6360,6 +6528,9 @@
       <c r="AH57" t="n">
         <v>-1.019909796088623</v>
       </c>
+      <c r="AI57" t="n">
+        <v>-1.023662215446551</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6464,6 +6635,9 @@
       <c r="AH58" t="n">
         <v>-1.161005821426738</v>
       </c>
+      <c r="AI58" t="n">
+        <v>-1.164593841344115</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6568,6 +6742,9 @@
       <c r="AH59" t="n">
         <v>-0.8392825131418701</v>
       </c>
+      <c r="AI59" t="n">
+        <v>-0.8423546878283914</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6672,6 +6849,9 @@
       <c r="AH60" t="n">
         <v>-0.4731058764748689</v>
       </c>
+      <c r="AI60" t="n">
+        <v>-0.4756315620858933</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6776,6 +6956,9 @@
       <c r="AH61" t="n">
         <v>0.3731865412764948</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.3724406678897414</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6880,6 +7063,9 @@
       <c r="AH62" t="n">
         <v>-1.291467424949124</v>
       </c>
+      <c r="AI62" t="n">
+        <v>-1.295858108483917</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6984,6 +7170,9 @@
       <c r="AH63" t="n">
         <v>-0.5923313482672655</v>
       </c>
+      <c r="AI63" t="n">
+        <v>-0.5951233388860162</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7088,6 +7277,9 @@
       <c r="AH64" t="n">
         <v>-0.9113779910521678</v>
       </c>
+      <c r="AI64" t="n">
+        <v>-0.9154872689218908</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7192,6 +7384,9 @@
       <c r="AH65" t="n">
         <v>-0.07510624423611037</v>
       </c>
+      <c r="AI65" t="n">
+        <v>-0.07701247221080595</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7296,6 +7491,9 @@
       <c r="AH66" t="n">
         <v>-0.8494511285751454</v>
       </c>
+      <c r="AI66" t="n">
+        <v>-0.8523997869497092</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7399,6 +7597,9 @@
       </c>
       <c r="AH67" t="n">
         <v>-0.8359380275250625</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8385240827884403</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI67"/>
+  <dimension ref="A1:AJ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,9 @@
       <c r="AI1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -646,6 +649,9 @@
       <c r="AI2" t="n">
         <v>-0.2552243886737362</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>-0.257307821145345</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -753,6 +759,9 @@
       <c r="AI3" t="n">
         <v>0.2293059562924826</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.2275736557161603</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -860,6 +869,9 @@
       <c r="AI4" t="n">
         <v>0.2149041060219302</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.2129121216016013</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -967,6 +979,9 @@
       <c r="AI5" t="n">
         <v>-0.08127476097057129</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>-0.08280367468687053</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1074,6 +1089,9 @@
       <c r="AI6" t="n">
         <v>0.1813755448958516</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.1801578434998694</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1181,6 +1199,9 @@
       <c r="AI7" t="n">
         <v>-0.4132317365370814</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>-0.4156655188345748</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1288,6 +1309,9 @@
       <c r="AI8" t="n">
         <v>-0.1450597500044692</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>-0.1467289856018975</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1395,6 +1419,9 @@
       <c r="AI9" t="n">
         <v>-0.3331396755629197</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>-0.3362236818181691</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1502,6 +1529,9 @@
       <c r="AI10" t="n">
         <v>0.3829836620525328</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.3818427588582011</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1609,6 +1639,9 @@
       <c r="AI11" t="n">
         <v>-0.216507696117158</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>-0.2184579603310194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1716,6 +1749,9 @@
       <c r="AI12" t="n">
         <v>-0.1180250059091528</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>-0.1202696230905042</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1823,6 +1859,9 @@
       <c r="AI13" t="n">
         <v>-0.06385486452154206</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>-0.06513749497661375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1930,6 +1969,9 @@
       <c r="AI14" t="n">
         <v>0.02305562876735422</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.02011231234370931</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2037,6 +2079,9 @@
       <c r="AI15" t="n">
         <v>-0.1320160373098528</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>-0.1354130332467121</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2144,6 +2189,9 @@
       <c r="AI16" t="n">
         <v>0.2798362318565086</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.2760244776789412</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,6 +2299,9 @@
       <c r="AI17" t="n">
         <v>0.4065776065837837</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.4046568639103944</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2358,6 +2409,9 @@
       <c r="AI18" t="n">
         <v>-0.1700292074002545</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>-0.1716115380282853</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2465,6 +2519,9 @@
       <c r="AI19" t="n">
         <v>0.275777189452495</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.2737070019431759</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2572,6 +2629,9 @@
       <c r="AI20" t="n">
         <v>0.1705189815036333</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.1668611714444045</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2679,6 +2739,9 @@
       <c r="AI21" t="n">
         <v>0.465309649616592</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.463563117117662</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2786,6 +2849,9 @@
       <c r="AI22" t="n">
         <v>0.2337169370606556</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.2317743551126786</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2893,6 +2959,9 @@
       <c r="AI23" t="n">
         <v>-0.1918958696771079</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>-0.1938087970657199</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3000,6 +3069,9 @@
       <c r="AI24" t="n">
         <v>1.156331174774401</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>1.185907296228197</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3107,6 +3179,9 @@
       <c r="AI25" t="n">
         <v>0.3264333609302948</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.3276814161494815</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3214,6 +3289,9 @@
       <c r="AI26" t="n">
         <v>0.1363348027229652</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.1378554299647638</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3321,6 +3399,9 @@
       <c r="AI27" t="n">
         <v>0.04090041604834928</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.04286155952976278</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3428,6 +3509,9 @@
       <c r="AI28" t="n">
         <v>0.8374340202316957</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8411760454471991</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3535,6 +3619,9 @@
       <c r="AI29" t="n">
         <v>1.612005248048873</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>1.63486477341281</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3642,6 +3729,9 @@
       <c r="AI30" t="n">
         <v>0.6714332795522373</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.6738079623622317</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3749,6 +3839,9 @@
       <c r="AI31" t="n">
         <v>-0.4233546142863993</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>-0.422473080657258</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3856,6 +3949,9 @@
       <c r="AI32" t="n">
         <v>0.5544491800746056</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.5565979269845733</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3963,6 +4059,9 @@
       <c r="AI33" t="n">
         <v>0.7689356860414167</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.7704000958688</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4070,6 +4169,9 @@
       <c r="AI34" t="n">
         <v>-0.8426480578265222</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>-0.8422486182745166</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4177,6 +4279,9 @@
       <c r="AI35" t="n">
         <v>0.826145408223686</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.827280646163807</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4284,6 +4389,9 @@
       <c r="AI36" t="n">
         <v>0.7967234764656034</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.7979277360167415</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4391,6 +4499,9 @@
       <c r="AI37" t="n">
         <v>0.7629830062280345</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.7642587620808313</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4498,6 +4609,9 @@
       <c r="AI38" t="n">
         <v>0.6613038399046124</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.6621322319115863</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4605,6 +4719,9 @@
       <c r="AI39" t="n">
         <v>0.6141078171701098</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.6144727764170314</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4712,6 +4829,9 @@
       <c r="AI40" t="n">
         <v>0.7875658735429458</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.7886844658816883</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4819,6 +4939,9 @@
       <c r="AI41" t="n">
         <v>0.5857415304354853</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.5859462902827943</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4926,6 +5049,9 @@
       <c r="AI42" t="n">
         <v>0.6523112470069098</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.6536297658847158</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5033,6 +5159,9 @@
       <c r="AI43" t="n">
         <v>0.6910888264062843</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.6917184718594899</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5140,6 +5269,9 @@
       <c r="AI44" t="n">
         <v>0.71673536372631</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.7172510806037098</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5247,6 +5379,9 @@
       <c r="AI45" t="n">
         <v>0.73476665321128</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.7358805580954542</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5354,6 +5489,9 @@
       <c r="AI46" t="n">
         <v>-1.353672190160706</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>-1.357018096688734</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5461,6 +5599,9 @@
       <c r="AI47" t="n">
         <v>-1.055747613885249</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>-1.058461914803456</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5568,6 +5709,9 @@
       <c r="AI48" t="n">
         <v>-0.9153286376659373</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>-0.9182786644031981</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5675,6 +5819,9 @@
       <c r="AI49" t="n">
         <v>-0.6751399566769299</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>-0.677604064675801</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5782,6 +5929,9 @@
       <c r="AI50" t="n">
         <v>-0.09207216608047555</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>-0.09343125328432633</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5889,6 +6039,9 @@
       <c r="AI51" t="n">
         <v>-0.8881773828347149</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>-0.8906245448642961</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5996,6 +6149,9 @@
       <c r="AI52" t="n">
         <v>-0.8881773828347149</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>-0.8906245448642961</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6103,6 +6259,9 @@
       <c r="AI53" t="n">
         <v>-1.188304415626618</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>-1.191773176359064</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6210,6 +6369,9 @@
       <c r="AI54" t="n">
         <v>-0.2034108012369164</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>-0.2051784807863377</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6317,6 +6479,9 @@
       <c r="AI55" t="n">
         <v>-1.080729606611226</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>-1.083605567557928</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6424,6 +6589,9 @@
       <c r="AI56" t="n">
         <v>-0.951546459963696</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>-0.9536803486636678</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6531,6 +6699,9 @@
       <c r="AI57" t="n">
         <v>-1.023662215446551</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>-1.027122874656733</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6638,6 +6809,9 @@
       <c r="AI58" t="n">
         <v>-1.164593841344115</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>-1.167877208633658</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6745,6 +6919,9 @@
       <c r="AI59" t="n">
         <v>-0.8423546878283914</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>-0.8452744811011309</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6852,6 +7029,9 @@
       <c r="AI60" t="n">
         <v>-0.4756315620858933</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>-0.4779415375553221</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6959,6 +7139,9 @@
       <c r="AI61" t="n">
         <v>0.3724406678897414</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.3717345842355878</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7066,6 +7249,9 @@
       <c r="AI62" t="n">
         <v>-1.295858108483917</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>-1.299898766228782</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7173,6 +7359,9 @@
       <c r="AI63" t="n">
         <v>-0.5951233388860162</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>-0.5977593865139559</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7280,6 +7469,9 @@
       <c r="AI64" t="n">
         <v>-0.9154872689218908</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>-0.9193843877301549</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7387,6 +7579,9 @@
       <c r="AI65" t="n">
         <v>-0.07701247221080595</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>-0.07874994111785255</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7494,6 +7689,9 @@
       <c r="AI66" t="n">
         <v>-0.8523997869497092</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>-0.8550446106981814</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7600,6 +7798,9 @@
       </c>
       <c r="AI67" t="n">
         <v>-0.8385240827884403</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8407758107831338</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,9 @@
       <c r="AJ1" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -652,6 +655,9 @@
       <c r="AJ2" t="n">
         <v>-0.257307821145345</v>
       </c>
+      <c r="AK2" t="n">
+        <v>-0.2592357555842189</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -762,6 +768,9 @@
       <c r="AJ3" t="n">
         <v>0.2275736557161603</v>
       </c>
+      <c r="AK3" t="n">
+        <v>0.2260357053684025</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -872,6 +881,9 @@
       <c r="AJ4" t="n">
         <v>0.2129121216016013</v>
       </c>
+      <c r="AK4" t="n">
+        <v>0.2110714889994235</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -982,6 +994,9 @@
       <c r="AJ5" t="n">
         <v>-0.08280367468687053</v>
       </c>
+      <c r="AK5" t="n">
+        <v>-0.08418961916463916</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1092,6 +1107,9 @@
       <c r="AJ6" t="n">
         <v>0.1801578434998694</v>
       </c>
+      <c r="AK6" t="n">
+        <v>0.1791147636415938</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1202,6 +1220,9 @@
       <c r="AJ7" t="n">
         <v>-0.4156655188345748</v>
       </c>
+      <c r="AK7" t="n">
+        <v>-0.4179522145457045</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1312,6 +1333,9 @@
       <c r="AJ8" t="n">
         <v>-0.1467289856018975</v>
       </c>
+      <c r="AK8" t="n">
+        <v>-0.1483184479502356</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1422,6 +1446,9 @@
       <c r="AJ9" t="n">
         <v>-0.3362236818181691</v>
       </c>
+      <c r="AK9" t="n">
+        <v>-0.33906699046307</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1532,6 +1559,9 @@
       <c r="AJ10" t="n">
         <v>0.3818427588582011</v>
       </c>
+      <c r="AK10" t="n">
+        <v>0.3808545692483447</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1642,6 +1672,9 @@
       <c r="AJ11" t="n">
         <v>-0.2184579603310194</v>
       </c>
+      <c r="AK11" t="n">
+        <v>-0.2202887405664544</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1752,6 +1785,9 @@
       <c r="AJ12" t="n">
         <v>-0.1202696230905042</v>
       </c>
+      <c r="AK12" t="n">
+        <v>-0.1222069045458694</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1862,6 +1898,9 @@
       <c r="AJ13" t="n">
         <v>-0.06513749497661375</v>
       </c>
+      <c r="AK13" t="n">
+        <v>-0.06632684195405163</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1972,6 +2011,9 @@
       <c r="AJ14" t="n">
         <v>0.02011231234370931</v>
       </c>
+      <c r="AK14" t="n">
+        <v>0.01772209659615118</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2082,6 +2124,9 @@
       <c r="AJ15" t="n">
         <v>-0.1354130332467121</v>
       </c>
+      <c r="AK15" t="n">
+        <v>-0.138141506661119</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2192,6 +2237,9 @@
       <c r="AJ16" t="n">
         <v>0.2760244776789412</v>
       </c>
+      <c r="AK16" t="n">
+        <v>0.2730507644061822</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2302,6 +2350,9 @@
       <c r="AJ17" t="n">
         <v>0.4046568639103944</v>
       </c>
+      <c r="AK17" t="n">
+        <v>0.4033313857755837</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2412,6 +2463,9 @@
       <c r="AJ18" t="n">
         <v>-0.1716115380282853</v>
       </c>
+      <c r="AK18" t="n">
+        <v>-0.1729802719040487</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2522,6 +2576,9 @@
       <c r="AJ19" t="n">
         <v>0.2737070019431759</v>
       </c>
+      <c r="AK19" t="n">
+        <v>0.2719716623274717</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2632,6 +2689,9 @@
       <c r="AJ20" t="n">
         <v>0.1668611714444045</v>
       </c>
+      <c r="AK20" t="n">
+        <v>0.1640235641381139</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2742,6 +2802,9 @@
       <c r="AJ21" t="n">
         <v>0.463563117117662</v>
       </c>
+      <c r="AK21" t="n">
+        <v>0.4623884002987633</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2852,6 +2915,9 @@
       <c r="AJ22" t="n">
         <v>0.2317743551126786</v>
       </c>
+      <c r="AK22" t="n">
+        <v>0.2303888027642231</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2962,6 +3028,9 @@
       <c r="AJ23" t="n">
         <v>-0.1938087970657199</v>
       </c>
+      <c r="AK23" t="n">
+        <v>-0.195263284149727</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3072,6 +3141,9 @@
       <c r="AJ24" t="n">
         <v>1.185907296228197</v>
       </c>
+      <c r="AK24" t="n">
+        <v>1.215274918165619</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3182,6 +3254,9 @@
       <c r="AJ25" t="n">
         <v>0.3276814161494815</v>
       </c>
+      <c r="AK25" t="n">
+        <v>0.3287451790783812</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3292,6 +3367,9 @@
       <c r="AJ26" t="n">
         <v>0.1378554299647638</v>
       </c>
+      <c r="AK26" t="n">
+        <v>0.1392381733274547</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3402,6 +3480,9 @@
       <c r="AJ27" t="n">
         <v>0.04286155952976278</v>
       </c>
+      <c r="AK27" t="n">
+        <v>0.04467846930726271</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3512,6 +3593,9 @@
       <c r="AJ28" t="n">
         <v>0.8411760454471991</v>
       </c>
+      <c r="AK28" t="n">
+        <v>0.8446194839724711</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3622,6 +3706,9 @@
       <c r="AJ29" t="n">
         <v>1.63486477341281</v>
       </c>
+      <c r="AK29" t="n">
+        <v>1.656280877296989</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3732,6 +3819,9 @@
       <c r="AJ30" t="n">
         <v>0.6738079623622317</v>
       </c>
+      <c r="AK30" t="n">
+        <v>0.6759018262766033</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3842,6 +3932,9 @@
       <c r="AJ31" t="n">
         <v>-0.422473080657258</v>
       </c>
+      <c r="AK31" t="n">
+        <v>-0.4219341531817511</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3952,6 +4045,9 @@
       <c r="AJ32" t="n">
         <v>0.5565979269845733</v>
       </c>
+      <c r="AK32" t="n">
+        <v>0.558494776630607</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4062,6 +4158,9 @@
       <c r="AJ33" t="n">
         <v>0.7704000958688</v>
       </c>
+      <c r="AK33" t="n">
+        <v>0.7716719943656684</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4172,6 +4271,9 @@
       <c r="AJ34" t="n">
         <v>-0.8422486182745166</v>
       </c>
+      <c r="AK34" t="n">
+        <v>-0.8420444753352602</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4282,6 +4384,9 @@
       <c r="AJ35" t="n">
         <v>0.827280646163807</v>
       </c>
+      <c r="AK35" t="n">
+        <v>0.8282527544062658</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4392,6 +4497,9 @@
       <c r="AJ36" t="n">
         <v>0.7979277360167415</v>
       </c>
+      <c r="AK36" t="n">
+        <v>0.7988866478280512</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4502,6 +4610,9 @@
       <c r="AJ37" t="n">
         <v>0.7642587620808313</v>
       </c>
+      <c r="AK37" t="n">
+        <v>0.7652760681767219</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4612,6 +4723,9 @@
       <c r="AJ38" t="n">
         <v>0.6621322319115863</v>
       </c>
+      <c r="AK38" t="n">
+        <v>0.662816080808304</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4722,6 +4836,9 @@
       <c r="AJ39" t="n">
         <v>0.6144727764170314</v>
       </c>
+      <c r="AK39" t="n">
+        <v>0.614729697537197</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4832,6 +4949,9 @@
       <c r="AJ40" t="n">
         <v>0.7886844658816883</v>
       </c>
+      <c r="AK40" t="n">
+        <v>0.789655063448503</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4942,6 +5062,9 @@
       <c r="AJ41" t="n">
         <v>0.5859462902827943</v>
       </c>
+      <c r="AK41" t="n">
+        <v>0.5860730922279362</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5052,6 +5175,9 @@
       <c r="AJ42" t="n">
         <v>0.6536297658847158</v>
       </c>
+      <c r="AK42" t="n">
+        <v>0.6546641148611178</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5162,6 +5288,9 @@
       <c r="AJ43" t="n">
         <v>0.6917184718594899</v>
       </c>
+      <c r="AK43" t="n">
+        <v>0.6922156546467679</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5272,6 +5401,9 @@
       <c r="AJ44" t="n">
         <v>0.7172510806037098</v>
       </c>
+      <c r="AK44" t="n">
+        <v>0.717631544355948</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5382,6 +5514,9 @@
       <c r="AJ45" t="n">
         <v>0.7358805580954542</v>
       </c>
+      <c r="AK45" t="n">
+        <v>0.736682595753795</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5492,6 +5627,9 @@
       <c r="AJ46" t="n">
         <v>-1.357018096688734</v>
       </c>
+      <c r="AK46" t="n">
+        <v>-1.360277130311079</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5602,6 +5740,9 @@
       <c r="AJ47" t="n">
         <v>-1.058461914803456</v>
       </c>
+      <c r="AK47" t="n">
+        <v>-1.061120456051247</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5712,6 +5853,9 @@
       <c r="AJ48" t="n">
         <v>-0.9182786644031981</v>
       </c>
+      <c r="AK48" t="n">
+        <v>-0.9211906644774308</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5822,6 +5966,9 @@
       <c r="AJ49" t="n">
         <v>-0.677604064675801</v>
       </c>
+      <c r="AK49" t="n">
+        <v>-0.680025165197613</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5932,6 +6079,9 @@
       <c r="AJ50" t="n">
         <v>-0.09343125328432633</v>
       </c>
+      <c r="AK50" t="n">
+        <v>-0.09475109044847609</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6042,6 +6192,9 @@
       <c r="AJ51" t="n">
         <v>-0.8906245448642961</v>
       </c>
+      <c r="AK51" t="n">
+        <v>-0.8930670708852013</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6152,6 +6305,9 @@
       <c r="AJ52" t="n">
         <v>-0.8906245448642961</v>
       </c>
+      <c r="AK52" t="n">
+        <v>-0.8930670708852013</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6262,6 +6418,9 @@
       <c r="AJ53" t="n">
         <v>-1.191773176359064</v>
       </c>
+      <c r="AK53" t="n">
+        <v>-1.195200977872636</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6372,6 +6531,9 @@
       <c r="AJ54" t="n">
         <v>-0.2051784807863377</v>
       </c>
+      <c r="AK54" t="n">
+        <v>-0.2069023953637995</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6482,6 +6644,9 @@
       <c r="AJ55" t="n">
         <v>-1.083605567557928</v>
       </c>
+      <c r="AK55" t="n">
+        <v>-1.086415543469622</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6592,6 +6757,9 @@
       <c r="AJ56" t="n">
         <v>-0.9536803486636678</v>
       </c>
+      <c r="AK56" t="n">
+        <v>-0.9557403389731378</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6702,6 +6870,9 @@
       <c r="AJ57" t="n">
         <v>-1.027122874656733</v>
       </c>
+      <c r="AK57" t="n">
+        <v>-1.030309317108239</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6812,6 +6983,9 @@
       <c r="AJ58" t="n">
         <v>-1.167877208633658</v>
       </c>
+      <c r="AK58" t="n">
+        <v>-1.170875327665011</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6922,6 +7096,9 @@
       <c r="AJ59" t="n">
         <v>-0.8452744811011309</v>
       </c>
+      <c r="AK59" t="n">
+        <v>-0.8480415067686218</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7032,6 +7209,9 @@
       <c r="AJ60" t="n">
         <v>-0.4779415375553221</v>
       </c>
+      <c r="AK60" t="n">
+        <v>-0.4800468866448867</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7142,6 +7322,9 @@
       <c r="AJ61" t="n">
         <v>0.3717345842355878</v>
       </c>
+      <c r="AK61" t="n">
+        <v>0.3710682723845523</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7252,6 +7435,9 @@
       <c r="AJ62" t="n">
         <v>-1.299898766228782</v>
       </c>
+      <c r="AK62" t="n">
+        <v>-1.303611217309327</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7362,6 +7548,9 @@
       <c r="AJ63" t="n">
         <v>-0.5977593865139559</v>
       </c>
+      <c r="AK63" t="n">
+        <v>-0.6002339495466131</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7472,6 +7661,9 @@
       <c r="AJ64" t="n">
         <v>-0.9193843877301549</v>
       </c>
+      <c r="AK64" t="n">
+        <v>-0.9230661418495903</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7582,6 +7774,9 @@
       <c r="AJ65" t="n">
         <v>-0.07874994111785255</v>
       </c>
+      <c r="AK65" t="n">
+        <v>-0.08032802516506925</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7692,6 +7887,9 @@
       <c r="AJ66" t="n">
         <v>-0.8550446106981814</v>
       </c>
+      <c r="AK66" t="n">
+        <v>-0.8574123426239084</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -7801,6 +7999,9 @@
       </c>
       <c r="AJ67" t="n">
         <v>-0.8407758107831338</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8427311276159758</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK67"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,9 @@
       <c r="AK1" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -658,6 +661,9 @@
       <c r="AK2" t="n">
         <v>-0.2592357555842189</v>
       </c>
+      <c r="AL2" t="n">
+        <v>-0.2610118619764245</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -771,6 +777,9 @@
       <c r="AK3" t="n">
         <v>0.2260357053684025</v>
       </c>
+      <c r="AL3" t="n">
+        <v>0.2246826836696804</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -884,6 +893,9 @@
       <c r="AK4" t="n">
         <v>0.2110714889994235</v>
       </c>
+      <c r="AL4" t="n">
+        <v>0.2093815305118983</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -997,6 +1009,9 @@
       <c r="AK5" t="n">
         <v>-0.08418961916463916</v>
       </c>
+      <c r="AL5" t="n">
+        <v>-0.08544156878440745</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1110,6 +1125,9 @@
       <c r="AK6" t="n">
         <v>0.1791147636415938</v>
       </c>
+      <c r="AL6" t="n">
+        <v>0.1782336311447446</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1223,6 +1241,9 @@
       <c r="AK7" t="n">
         <v>-0.4179522145457045</v>
       </c>
+      <c r="AL7" t="n">
+        <v>-0.4200915115631784</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1336,6 +1357,9 @@
       <c r="AK8" t="n">
         <v>-0.1483184479502356</v>
       </c>
+      <c r="AL8" t="n">
+        <v>-0.1498205117554271</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1449,6 +1473,9 @@
       <c r="AK9" t="n">
         <v>-0.33906699046307</v>
       </c>
+      <c r="AL9" t="n">
+        <v>-0.3416700560973021</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1562,6 +1589,9 @@
       <c r="AK10" t="n">
         <v>0.3808545692483447</v>
       </c>
+      <c r="AL10" t="n">
+        <v>0.3800070550997944</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1675,6 +1705,9 @@
       <c r="AK11" t="n">
         <v>-0.2202887405664544</v>
       </c>
+      <c r="AL11" t="n">
+        <v>-0.22200149030307</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1788,6 +1821,9 @@
       <c r="AK12" t="n">
         <v>-0.1222069045458694</v>
       </c>
+      <c r="AL12" t="n">
+        <v>-0.1238650046445853</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1901,6 +1937,9 @@
       <c r="AK13" t="n">
         <v>-0.06632684195405163</v>
       </c>
+      <c r="AL13" t="n">
+        <v>-0.06742859675623492</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2014,6 +2053,9 @@
       <c r="AK14" t="n">
         <v>0.01772209659615118</v>
       </c>
+      <c r="AL14" t="n">
+        <v>0.01583081558643604</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2127,6 +2169,9 @@
       <c r="AK15" t="n">
         <v>-0.138141506661119</v>
       </c>
+      <c r="AL15" t="n">
+        <v>-0.1402738241452533</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2240,6 +2285,9 @@
       <c r="AK16" t="n">
         <v>0.2730507644061822</v>
       </c>
+      <c r="AL16" t="n">
+        <v>0.2708266646098498</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2353,6 +2401,9 @@
       <c r="AK17" t="n">
         <v>0.4033313857755837</v>
       </c>
+      <c r="AL17" t="n">
+        <v>0.4025240440170326</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2466,6 +2517,9 @@
       <c r="AK18" t="n">
         <v>-0.1729802719040487</v>
       </c>
+      <c r="AL18" t="n">
+        <v>-0.1741581552776242</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2579,6 +2633,9 @@
       <c r="AK19" t="n">
         <v>0.2719716623274717</v>
       </c>
+      <c r="AL19" t="n">
+        <v>0.2705343554167732</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2692,6 +2749,9 @@
       <c r="AK20" t="n">
         <v>0.1640235641381139</v>
       </c>
+      <c r="AL20" t="n">
+        <v>0.1619147299457809</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2805,6 +2865,9 @@
       <c r="AK21" t="n">
         <v>0.4623884002987633</v>
       </c>
+      <c r="AL21" t="n">
+        <v>0.4617112977840276</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2918,6 +2981,9 @@
       <c r="AK22" t="n">
         <v>0.2303888027642231</v>
       </c>
+      <c r="AL22" t="n">
+        <v>0.2294905401127634</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3031,6 +3097,9 @@
       <c r="AK23" t="n">
         <v>-0.195263284149727</v>
       </c>
+      <c r="AL23" t="n">
+        <v>-0.1963168604170197</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3144,6 +3213,9 @@
       <c r="AK24" t="n">
         <v>1.215274918165619</v>
       </c>
+      <c r="AL24" t="n">
+        <v>1.24392641741835</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3257,6 +3329,9 @@
       <c r="AK25" t="n">
         <v>0.3287451790783812</v>
       </c>
+      <c r="AL25" t="n">
+        <v>0.3296366946364836</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3370,6 +3445,9 @@
       <c r="AK26" t="n">
         <v>0.1392381733274547</v>
       </c>
+      <c r="AL26" t="n">
+        <v>0.1404748448376354</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3483,6 +3561,9 @@
       <c r="AK27" t="n">
         <v>0.04467846930726271</v>
       </c>
+      <c r="AL27" t="n">
+        <v>0.04634090523512438</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3596,6 +3677,9 @@
       <c r="AK28" t="n">
         <v>0.8446194839724711</v>
       </c>
+      <c r="AL28" t="n">
+        <v>0.8477618544856802</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3709,6 +3793,9 @@
       <c r="AK29" t="n">
         <v>1.656280877296989</v>
       </c>
+      <c r="AL29" t="n">
+        <v>1.676087973278289</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3822,6 +3909,9 @@
       <c r="AK30" t="n">
         <v>0.6759018262766033</v>
       </c>
+      <c r="AL30" t="n">
+        <v>0.6777226123138785</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3935,6 +4025,9 @@
       <c r="AK31" t="n">
         <v>-0.4219341531817511</v>
       </c>
+      <c r="AL31" t="n">
+        <v>-0.4217022763406469</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4048,6 +4141,9 @@
       <c r="AK32" t="n">
         <v>0.558494776630607</v>
       </c>
+      <c r="AL32" t="n">
+        <v>0.5601438615237682</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4161,6 +4257,9 @@
       <c r="AK33" t="n">
         <v>0.7716719943656684</v>
       </c>
+      <c r="AL33" t="n">
+        <v>0.772759780677801</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4274,6 +4373,9 @@
       <c r="AK34" t="n">
         <v>-0.8420444753352602</v>
       </c>
+      <c r="AL34" t="n">
+        <v>-0.8420228679067819</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4387,6 +4489,9 @@
       <c r="AK35" t="n">
         <v>0.8282527544062658</v>
       </c>
+      <c r="AL35" t="n">
+        <v>0.8290745985687119</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4500,6 +4605,9 @@
       <c r="AK36" t="n">
         <v>0.7988866478280512</v>
       </c>
+      <c r="AL36" t="n">
+        <v>0.7996257835127084</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4613,6 +4721,9 @@
       <c r="AK37" t="n">
         <v>0.7652760681767219</v>
       </c>
+      <c r="AL37" t="n">
+        <v>0.7660616701284255</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4726,6 +4837,9 @@
       <c r="AK38" t="n">
         <v>0.662816080808304</v>
       </c>
+      <c r="AL38" t="n">
+        <v>0.6633671062661337</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4839,6 +4953,9 @@
       <c r="AK39" t="n">
         <v>0.614729697537197</v>
       </c>
+      <c r="AL39" t="n">
+        <v>0.614890773913126</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4952,6 +5069,9 @@
       <c r="AK40" t="n">
         <v>0.789655063448503</v>
       </c>
+      <c r="AL40" t="n">
+        <v>0.7904883797816014</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5065,6 +5185,9 @@
       <c r="AK41" t="n">
         <v>0.5860730922279362</v>
       </c>
+      <c r="AL41" t="n">
+        <v>0.5861343910651365</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5178,6 +5301,9 @@
       <c r="AK42" t="n">
         <v>0.6546641148611178</v>
       </c>
+      <c r="AL42" t="n">
+        <v>0.6554412121829342</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5291,6 +5417,9 @@
       <c r="AK43" t="n">
         <v>0.6922156546467679</v>
       </c>
+      <c r="AL43" t="n">
+        <v>0.6925937470284529</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5404,6 +5533,9 @@
       <c r="AK44" t="n">
         <v>0.717631544355948</v>
       </c>
+      <c r="AL44" t="n">
+        <v>0.7178934472873281</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5517,6 +5649,9 @@
       <c r="AK45" t="n">
         <v>0.736682595753795</v>
       </c>
+      <c r="AL45" t="n">
+        <v>0.7372099011365523</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5630,6 +5765,9 @@
       <c r="AK46" t="n">
         <v>-1.360277130311079</v>
       </c>
+      <c r="AL46" t="n">
+        <v>-1.363443546499552</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5743,6 +5881,9 @@
       <c r="AK47" t="n">
         <v>-1.061120456051247</v>
       </c>
+      <c r="AL47" t="n">
+        <v>-1.063716785652625</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5856,6 +5997,9 @@
       <c r="AK48" t="n">
         <v>-0.9211906644774308</v>
       </c>
+      <c r="AL48" t="n">
+        <v>-0.9240513626375415</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5969,6 +6113,9 @@
       <c r="AK49" t="n">
         <v>-0.680025165197613</v>
       </c>
+      <c r="AL49" t="n">
+        <v>-0.682393882648518</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6082,6 +6229,9 @@
       <c r="AK50" t="n">
         <v>-0.09475109044847609</v>
       </c>
+      <c r="AL50" t="n">
+        <v>-0.09603079011116344</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6195,6 +6345,9 @@
       <c r="AK51" t="n">
         <v>-0.8930670708852013</v>
       </c>
+      <c r="AL51" t="n">
+        <v>-0.8954904264381105</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6308,6 +6461,9 @@
       <c r="AK52" t="n">
         <v>-0.8930670708852013</v>
       </c>
+      <c r="AL52" t="n">
+        <v>-0.8954904264381105</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6421,6 +6577,9 @@
       <c r="AK53" t="n">
         <v>-1.195200977872636</v>
       </c>
+      <c r="AL53" t="n">
+        <v>-1.198572754928789</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6534,6 +6693,9 @@
       <c r="AK54" t="n">
         <v>-0.2069023953637995</v>
       </c>
+      <c r="AL54" t="n">
+        <v>-0.20857799382242</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6647,6 +6809,9 @@
       <c r="AK55" t="n">
         <v>-1.086415543469622</v>
       </c>
+      <c r="AL55" t="n">
+        <v>-1.089153948542951</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6760,6 +6925,9 @@
       <c r="AK56" t="n">
         <v>-0.9557403389731378</v>
       </c>
+      <c r="AL56" t="n">
+        <v>-0.9577286678755459</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -6873,6 +7041,9 @@
       <c r="AK57" t="n">
         <v>-1.030309317108239</v>
       </c>
+      <c r="AL57" t="n">
+        <v>-1.03324022088698</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -6986,6 +7157,9 @@
       <c r="AK58" t="n">
         <v>-1.170875327665011</v>
       </c>
+      <c r="AL58" t="n">
+        <v>-1.173608845199345</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7099,6 +7273,9 @@
       <c r="AK59" t="n">
         <v>-0.8480415067686218</v>
       </c>
+      <c r="AL59" t="n">
+        <v>-0.8506574273001437</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7212,6 +7389,9 @@
       <c r="AK60" t="n">
         <v>-0.4800468866448867</v>
       </c>
+      <c r="AL60" t="n">
+        <v>-0.4819601801738201</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7325,6 +7505,9 @@
       <c r="AK61" t="n">
         <v>0.3710682723845523</v>
       </c>
+      <c r="AL61" t="n">
+        <v>0.3704411826214287</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7438,6 +7621,9 @@
       <c r="AK62" t="n">
         <v>-1.303611217309327</v>
       </c>
+      <c r="AL62" t="n">
+        <v>-1.307018589954188</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7551,6 +7737,9 @@
       <c r="AK63" t="n">
         <v>-0.6002339495466131</v>
       </c>
+      <c r="AL63" t="n">
+        <v>-0.6025449928629814</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7664,6 +7853,9 @@
       <c r="AK64" t="n">
         <v>-0.9230661418495903</v>
       </c>
+      <c r="AL64" t="n">
+        <v>-0.9265326964774769</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7777,6 +7969,9 @@
       <c r="AK65" t="n">
         <v>-0.08032802516506925</v>
       </c>
+      <c r="AL65" t="n">
+        <v>-0.0817571956456468</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -7890,6 +8085,9 @@
       <c r="AK66" t="n">
         <v>-0.8574123426239084</v>
       </c>
+      <c r="AL66" t="n">
+        <v>-0.8595297787690206</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8002,6 +8200,9 @@
       </c>
       <c r="AK67" t="n">
         <v>-0.8427311276159758</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8444266669160297</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL67"/>
+  <dimension ref="A1:AM67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,9 @@
       <c r="AL1" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -664,6 +667,9 @@
       <c r="AL2" t="n">
         <v>-0.2610118619764245</v>
       </c>
+      <c r="AM2" t="n">
+        <v>-0.262641636120839</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -780,6 +786,9 @@
       <c r="AL3" t="n">
         <v>0.2246826836696804</v>
       </c>
+      <c r="AM3" t="n">
+        <v>0.2235035270000005</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -896,6 +905,9 @@
       <c r="AL4" t="n">
         <v>0.2093815305118983</v>
       </c>
+      <c r="AM4" t="n">
+        <v>0.2078391941744099</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1012,6 +1024,9 @@
       <c r="AL5" t="n">
         <v>-0.08544156878440745</v>
       </c>
+      <c r="AM5" t="n">
+        <v>-0.08656917261890423</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1128,6 +1143,9 @@
       <c r="AL6" t="n">
         <v>0.1782336311447446</v>
       </c>
+      <c r="AM6" t="n">
+        <v>0.1775009185831882</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1244,6 +1262,9 @@
       <c r="AL7" t="n">
         <v>-0.4200915115631784</v>
       </c>
+      <c r="AM7" t="n">
+        <v>-0.4220853234406736</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1360,6 +1381,9 @@
       <c r="AL8" t="n">
         <v>-0.1498205117554271</v>
       </c>
+      <c r="AM8" t="n">
+        <v>-0.1512302005123921</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1476,6 +1500,9 @@
       <c r="AL9" t="n">
         <v>-0.3416700560973021</v>
       </c>
+      <c r="AM9" t="n">
+        <v>-0.3440371952178009</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1592,6 +1619,9 @@
       <c r="AL10" t="n">
         <v>0.3800070550997944</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0.3792876628010124</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1708,6 +1738,9 @@
       <c r="AL11" t="n">
         <v>-0.22200149030307</v>
       </c>
+      <c r="AM11" t="n">
+        <v>-0.2235991416658219</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1824,6 +1857,9 @@
       <c r="AL12" t="n">
         <v>-0.1238650046445853</v>
       </c>
+      <c r="AM12" t="n">
+        <v>-0.1252722448247771</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1940,6 +1976,9 @@
       <c r="AL13" t="n">
         <v>-0.06742859675623492</v>
       </c>
+      <c r="AM13" t="n">
+        <v>-0.06844871087085444</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2056,6 +2095,9 @@
       <c r="AL14" t="n">
         <v>0.01583081558643604</v>
       </c>
+      <c r="AM14" t="n">
+        <v>0.01438415557701737</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2172,6 +2214,9 @@
       <c r="AL15" t="n">
         <v>-0.1402738241452533</v>
       </c>
+      <c r="AM15" t="n">
+        <v>-0.1418811345073241</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2288,6 +2333,9 @@
       <c r="AL16" t="n">
         <v>0.2708266646098498</v>
       </c>
+      <c r="AM16" t="n">
+        <v>0.2692645062978526</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2404,6 +2452,9 @@
       <c r="AL17" t="n">
         <v>0.4025240440170326</v>
       </c>
+      <c r="AM17" t="n">
+        <v>0.4021609010053595</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2520,6 +2571,9 @@
       <c r="AL18" t="n">
         <v>-0.1741581552776242</v>
       </c>
+      <c r="AM18" t="n">
+        <v>-0.1751670908289776</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2636,6 +2690,9 @@
       <c r="AL19" t="n">
         <v>0.2705343554167732</v>
       </c>
+      <c r="AM19" t="n">
+        <v>0.2693592532262329</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2752,6 +2809,9 @@
       <c r="AL20" t="n">
         <v>0.1619147299457809</v>
       </c>
+      <c r="AM20" t="n">
+        <v>0.1604449803494705</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2868,6 +2928,9 @@
       <c r="AL21" t="n">
         <v>0.4617112977840276</v>
       </c>
+      <c r="AM21" t="n">
+        <v>0.461460408903586</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2984,6 +3047,9 @@
       <c r="AL22" t="n">
         <v>0.2294905401127634</v>
       </c>
+      <c r="AM22" t="n">
+        <v>0.2290123449759326</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3100,6 +3166,9 @@
       <c r="AL23" t="n">
         <v>-0.1963168604170197</v>
       </c>
+      <c r="AM23" t="n">
+        <v>-0.1970248033262886</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3216,6 +3285,9 @@
       <c r="AL24" t="n">
         <v>1.24392641741835</v>
       </c>
+      <c r="AM24" t="n">
+        <v>1.271448830506694</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3332,6 +3404,9 @@
       <c r="AL25" t="n">
         <v>0.3296366946364836</v>
       </c>
+      <c r="AM25" t="n">
+        <v>0.3303694018125733</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3448,6 +3523,9 @@
       <c r="AL26" t="n">
         <v>0.1404748448376354</v>
       </c>
+      <c r="AM26" t="n">
+        <v>0.1415615092783234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3564,6 +3642,9 @@
       <c r="AL27" t="n">
         <v>0.04634090523512438</v>
       </c>
+      <c r="AM27" t="n">
+        <v>0.04784328764732421</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3680,6 +3761,9 @@
       <c r="AL28" t="n">
         <v>0.8477618544856802</v>
       </c>
+      <c r="AM28" t="n">
+        <v>0.8506063303911731</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3796,6 +3880,9 @@
       <c r="AL29" t="n">
         <v>1.676087973278289</v>
       </c>
+      <c r="AM29" t="n">
+        <v>1.69418001248416</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3912,6 +3999,9 @@
       <c r="AL30" t="n">
         <v>0.6777226123138785</v>
       </c>
+      <c r="AM30" t="n">
+        <v>0.6792821018886144</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4028,6 +4118,9 @@
       <c r="AL31" t="n">
         <v>-0.4217022763406469</v>
       </c>
+      <c r="AM31" t="n">
+        <v>-0.4217413393045076</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4144,6 +4237,9 @@
       <c r="AL32" t="n">
         <v>0.5601438615237682</v>
       </c>
+      <c r="AM32" t="n">
+        <v>0.561553383491898</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4260,6 +4356,9 @@
       <c r="AL33" t="n">
         <v>0.772759780677801</v>
       </c>
+      <c r="AM33" t="n">
+        <v>0.7736739919068453</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4376,6 +4475,9 @@
       <c r="AL34" t="n">
         <v>-0.8420228679067819</v>
       </c>
+      <c r="AM34" t="n">
+        <v>-0.8421691445736741</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4492,6 +4594,9 @@
       <c r="AL35" t="n">
         <v>0.8290745985687119</v>
       </c>
+      <c r="AM35" t="n">
+        <v>0.8297595611286045</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4608,6 +4713,9 @@
       <c r="AL36" t="n">
         <v>0.7996257835127084</v>
       </c>
+      <c r="AM36" t="n">
+        <v>0.8001705025135437</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4724,6 +4832,9 @@
       <c r="AL37" t="n">
         <v>0.7660616701284255</v>
       </c>
+      <c r="AM37" t="n">
+        <v>0.7666421403193334</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4840,6 +4951,9 @@
       <c r="AL38" t="n">
         <v>0.6633671062661337</v>
       </c>
+      <c r="AM38" t="n">
+        <v>0.6637976246897223</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4956,6 +5070,9 @@
       <c r="AL39" t="n">
         <v>0.614890773913126</v>
       </c>
+      <c r="AM39" t="n">
+        <v>0.6149679612729394</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5072,6 +5189,9 @@
       <c r="AL40" t="n">
         <v>0.7904883797816014</v>
       </c>
+      <c r="AM40" t="n">
+        <v>0.7911956974703075</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5188,6 +5308,9 @@
       <c r="AL41" t="n">
         <v>0.5861343910651365</v>
       </c>
+      <c r="AM41" t="n">
+        <v>0.5861417874841158</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5304,6 +5427,9 @@
       <c r="AL42" t="n">
         <v>0.6554412121829342</v>
       </c>
+      <c r="AM42" t="n">
+        <v>0.6559884068668874</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5420,6 +5546,9 @@
       <c r="AL43" t="n">
         <v>0.6925937470284529</v>
       </c>
+      <c r="AM43" t="n">
+        <v>0.6928661611702772</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5536,6 +5665,9 @@
       <c r="AL44" t="n">
         <v>0.7178934472873281</v>
       </c>
+      <c r="AM44" t="n">
+        <v>0.7180528867993257</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5652,6 +5784,9 @@
       <c r="AL45" t="n">
         <v>0.7372099011365523</v>
       </c>
+      <c r="AM45" t="n">
+        <v>0.7374985615391966</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5768,6 +5903,9 @@
       <c r="AL46" t="n">
         <v>-1.363443546499552</v>
       </c>
+      <c r="AM46" t="n">
+        <v>-1.366512960635112</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -5884,6 +6022,9 @@
       <c r="AL47" t="n">
         <v>-1.063716785652625</v>
       </c>
+      <c r="AM47" t="n">
+        <v>-1.066245576725135</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6000,6 +6141,9 @@
       <c r="AL48" t="n">
         <v>-0.9240513626375415</v>
       </c>
+      <c r="AM48" t="n">
+        <v>-0.9268494920161742</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6116,6 +6260,9 @@
       <c r="AL49" t="n">
         <v>-0.682393882648518</v>
       </c>
+      <c r="AM49" t="n">
+        <v>-0.6847024360733367</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6232,6 +6379,9 @@
       <c r="AL50" t="n">
         <v>-0.09603079011116344</v>
       </c>
+      <c r="AM50" t="n">
+        <v>-0.09726981247019953</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6348,6 +6498,9 @@
       <c r="AL51" t="n">
         <v>-0.8954904264381105</v>
       </c>
+      <c r="AM51" t="n">
+        <v>-0.8978818638655974</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6464,6 +6617,9 @@
       <c r="AL52" t="n">
         <v>-0.8954904264381105</v>
       </c>
+      <c r="AM52" t="n">
+        <v>-0.8978818638655974</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6580,6 +6736,9 @@
       <c r="AL53" t="n">
         <v>-1.198572754928789</v>
       </c>
+      <c r="AM53" t="n">
+        <v>-1.201875543803143</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6696,6 +6855,9 @@
       <c r="AL54" t="n">
         <v>-0.20857799382242</v>
       </c>
+      <c r="AM54" t="n">
+        <v>-0.2102017419646776</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6812,6 +6974,9 @@
       <c r="AL55" t="n">
         <v>-1.089153948542951</v>
       </c>
+      <c r="AM55" t="n">
+        <v>-1.091816296843936</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6928,6 +7093,9 @@
       <c r="AL56" t="n">
         <v>-0.9577286678755459</v>
       </c>
+      <c r="AM56" t="n">
+        <v>-0.9596476937727745</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7044,6 +7212,9 @@
       <c r="AL57" t="n">
         <v>-1.03324022088698</v>
       </c>
+      <c r="AM57" t="n">
+        <v>-1.035934909837354</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7160,6 +7331,9 @@
       <c r="AL58" t="n">
         <v>-1.173608845199345</v>
       </c>
+      <c r="AM58" t="n">
+        <v>-1.176099088238533</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7276,6 +7450,9 @@
       <c r="AL59" t="n">
         <v>-0.8506574273001437</v>
       </c>
+      <c r="AM59" t="n">
+        <v>-0.8531256111171692</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7392,6 +7569,9 @@
       <c r="AL60" t="n">
         <v>-0.4819601801738201</v>
       </c>
+      <c r="AM60" t="n">
+        <v>-0.4836950096440349</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7508,6 +7688,9 @@
       <c r="AL61" t="n">
         <v>0.3704411826214287</v>
       </c>
+      <c r="AM61" t="n">
+        <v>0.3698523235938368</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7624,6 +7807,9 @@
       <c r="AL62" t="n">
         <v>-1.307018589954188</v>
       </c>
+      <c r="AM62" t="n">
+        <v>-1.310144720605535</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7740,6 +7926,9 @@
       <c r="AL63" t="n">
         <v>-0.6025449928629814</v>
       </c>
+      <c r="AM63" t="n">
+        <v>-0.6046934498924826</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -7856,6 +8045,9 @@
       <c r="AL64" t="n">
         <v>-0.9265326964774769</v>
       </c>
+      <c r="AM64" t="n">
+        <v>-0.9297870873148407</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -7972,6 +8164,9 @@
       <c r="AL65" t="n">
         <v>-0.0817571956456468</v>
       </c>
+      <c r="AM65" t="n">
+        <v>-0.08304864697369513</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8088,6 +8283,9 @@
       <c r="AL66" t="n">
         <v>-0.8595297787690206</v>
       </c>
+      <c r="AM66" t="n">
+        <v>-0.8614232765042983</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8203,6 +8401,9 @@
       </c>
       <c r="AL67" t="n">
         <v>-0.8444266669160297</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.845897304569069</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,9 @@
       <c r="AM1" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -670,6 +673,9 @@
       <c r="AM2" t="n">
         <v>-0.262641636120839</v>
       </c>
+      <c r="AN2" t="n">
+        <v>-0.2641320117028035</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -789,6 +795,9 @@
       <c r="AM3" t="n">
         <v>0.2235035270000005</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.2224859786185836</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -908,6 +917,9 @@
       <c r="AM4" t="n">
         <v>0.2078391941744099</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.2064394810702867</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1027,6 +1039,9 @@
       <c r="AM5" t="n">
         <v>-0.08656917261890423</v>
       </c>
+      <c r="AN5" t="n">
+        <v>-0.0875824792794386</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1146,6 +1161,9 @@
       <c r="AM6" t="n">
         <v>0.1775009185831882</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.1769026300958445</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1265,6 +1283,9 @@
       <c r="AM7" t="n">
         <v>-0.4220853234406736</v>
       </c>
+      <c r="AN7" t="n">
+        <v>-0.4239374137375884</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,6 +1405,9 @@
       <c r="AM8" t="n">
         <v>-0.1512302005123921</v>
       </c>
+      <c r="AN8" t="n">
+        <v>-0.1525448512258816</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1503,6 +1527,9 @@
       <c r="AM9" t="n">
         <v>-0.3440371952178009</v>
       </c>
+      <c r="AN9" t="n">
+        <v>-0.3461759174225696</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1622,6 +1649,9 @@
       <c r="AM10" t="n">
         <v>0.3792876628010124</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.37868363686292</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1741,6 +1771,9 @@
       <c r="AM11" t="n">
         <v>-0.2235991416658219</v>
       </c>
+      <c r="AN11" t="n">
+        <v>-0.2250858256125373</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1860,6 +1893,9 @@
       <c r="AM12" t="n">
         <v>-0.1252722448247771</v>
       </c>
+      <c r="AN12" t="n">
+        <v>-0.1264565796547727</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1979,6 +2015,9 @@
       <c r="AM13" t="n">
         <v>-0.06844871087085444</v>
       </c>
+      <c r="AN13" t="n">
+        <v>-0.06939326481674289</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2098,6 +2137,9 @@
       <c r="AM14" t="n">
         <v>0.01438415557701737</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.01332865997175065</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2217,6 +2259,9 @@
       <c r="AM15" t="n">
         <v>-0.1418811345073241</v>
       </c>
+      <c r="AN15" t="n">
+        <v>-0.1430322841765764</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2336,6 +2381,9 @@
       <c r="AM16" t="n">
         <v>0.2692645062978526</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.2682788419321363</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2455,6 +2503,9 @@
       <c r="AM17" t="n">
         <v>0.4021609010053595</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.4021720310944579</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2574,6 +2625,9 @@
       <c r="AM18" t="n">
         <v>-0.1751670908289776</v>
       </c>
+      <c r="AN18" t="n">
+        <v>-0.1760279300145406</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2693,6 +2747,9 @@
       <c r="AM19" t="n">
         <v>0.2693592532262329</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.2684119873083666</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2812,6 +2869,9 @@
       <c r="AM20" t="n">
         <v>0.1604449803494705</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.1595277125292392</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2931,6 +2991,9 @@
       <c r="AM21" t="n">
         <v>0.461460408903586</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.4615680138364797</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3050,6 +3113,9 @@
       <c r="AM22" t="n">
         <v>0.2290123449759326</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.2288903261894349</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3169,6 +3235,9 @@
       <c r="AM23" t="n">
         <v>-0.1970248033262886</v>
       </c>
+      <c r="AN23" t="n">
+        <v>-0.1974394985699593</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3288,6 +3357,9 @@
       <c r="AM24" t="n">
         <v>1.271448830506694</v>
       </c>
+      <c r="AN24" t="n">
+        <v>1.297516491036834</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3407,6 +3479,9 @@
       <c r="AM25" t="n">
         <v>0.3303694018125733</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.3309576290340913</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3526,6 +3601,9 @@
       <c r="AM26" t="n">
         <v>0.1415615092783234</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.1424978627629833</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3645,6 +3723,9 @@
       <c r="AM27" t="n">
         <v>0.04784328764732421</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.04918403253838631</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3764,6 +3845,9 @@
       <c r="AM28" t="n">
         <v>0.8506063303911731</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.8531607784704082</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3883,6 +3967,9 @@
       <c r="AM29" t="n">
         <v>1.69418001248416</v>
       </c>
+      <c r="AN29" t="n">
+        <v>1.710502447820837</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4002,6 +4089,9 @@
       <c r="AM30" t="n">
         <v>0.6792821018886144</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.6805952107143578</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4121,6 +4211,9 @@
       <c r="AM31" t="n">
         <v>-0.4217413393045076</v>
       </c>
+      <c r="AN31" t="n">
+        <v>-0.4220154918115256</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4240,6 +4333,9 @@
       <c r="AM32" t="n">
         <v>0.561553383491898</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.5627347957337216</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4359,6 +4455,9 @@
       <c r="AM33" t="n">
         <v>0.7736739919068453</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.7744267500751917</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4478,6 +4577,9 @@
       <c r="AM34" t="n">
         <v>-0.8421691445736741</v>
       </c>
+      <c r="AN34" t="n">
+        <v>-0.8424673656896393</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4597,6 +4699,9 @@
       <c r="AM35" t="n">
         <v>0.8297595611286045</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.8303212250762567</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4716,6 +4821,9 @@
       <c r="AM36" t="n">
         <v>0.8001705025135437</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.8005455286407235</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4835,6 +4943,9 @@
       <c r="AM37" t="n">
         <v>0.7666421403193334</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.7670434239259838</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4954,6 +5065,9 @@
       <c r="AM38" t="n">
         <v>0.6637976246897223</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.6641202174761062</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5073,6 +5187,9 @@
       <c r="AM39" t="n">
         <v>0.6149679612729394</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.6149728052233183</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5192,6 +5309,9 @@
       <c r="AM40" t="n">
         <v>0.7911956974703075</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.791788590624586</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5311,6 +5431,9 @@
       <c r="AM41" t="n">
         <v>0.5861417874841158</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.5861059499454019</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5430,6 +5553,9 @@
       <c r="AM42" t="n">
         <v>0.6559884068668874</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.6563329032361997</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5549,6 +5675,9 @@
       <c r="AM43" t="n">
         <v>0.6928661611702772</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.6930460913905603</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5668,6 +5797,9 @@
       <c r="AM44" t="n">
         <v>0.7180528867993257</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.7181251715423689</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5787,6 +5919,9 @@
       <c r="AM45" t="n">
         <v>0.7374985615391966</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.7375831355472641</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -5906,6 +6041,9 @@
       <c r="AM46" t="n">
         <v>-1.366512960635112</v>
       </c>
+      <c r="AN46" t="n">
+        <v>-1.369482251877062</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6025,6 +6163,9 @@
       <c r="AM47" t="n">
         <v>-1.066245576725135</v>
       </c>
+      <c r="AN47" t="n">
+        <v>-1.068702579631442</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6144,6 +6285,9 @@
       <c r="AM48" t="n">
         <v>-0.9268494920161742</v>
       </c>
+      <c r="AN48" t="n">
+        <v>-0.9295757147147148</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6263,6 +6407,9 @@
       <c r="AM49" t="n">
         <v>-0.6847024360733367</v>
       </c>
+      <c r="AN49" t="n">
+        <v>-0.6869445543997086</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6382,6 +6529,9 @@
       <c r="AM50" t="n">
         <v>-0.09726981247019953</v>
       </c>
+      <c r="AN50" t="n">
+        <v>-0.09846793582837149</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6501,6 +6651,9 @@
       <c r="AM51" t="n">
         <v>-0.8978818638655974</v>
       </c>
+      <c r="AN51" t="n">
+        <v>-0.9002303964232392</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6620,6 +6773,9 @@
       <c r="AM52" t="n">
         <v>-0.8978818638655974</v>
       </c>
+      <c r="AN52" t="n">
+        <v>-0.9002303964232392</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6739,6 +6895,9 @@
       <c r="AM53" t="n">
         <v>-1.201875543803143</v>
       </c>
+      <c r="AN53" t="n">
+        <v>-1.20509843570311</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6858,6 +7017,9 @@
       <c r="AM54" t="n">
         <v>-0.2102017419646776</v>
       </c>
+      <c r="AN54" t="n">
+        <v>-0.2117710404722841</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6977,6 +7139,9 @@
       <c r="AM55" t="n">
         <v>-1.091816296843936</v>
       </c>
+      <c r="AN55" t="n">
+        <v>-1.094399144039211</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7096,6 +7261,9 @@
       <c r="AM56" t="n">
         <v>-0.9596476937727745</v>
       </c>
+      <c r="AN56" t="n">
+        <v>-0.9614998517067029</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7215,6 +7383,9 @@
       <c r="AM57" t="n">
         <v>-1.035934909837354</v>
       </c>
+      <c r="AN57" t="n">
+        <v>-1.038412929923759</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7334,6 +7505,9 @@
       <c r="AM58" t="n">
         <v>-1.176099088238533</v>
       </c>
+      <c r="AN58" t="n">
+        <v>-1.178367580689212</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7453,6 +7627,9 @@
       <c r="AM59" t="n">
         <v>-0.8531256111171692</v>
       </c>
+      <c r="AN59" t="n">
+        <v>-0.8554508145453811</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7572,6 +7749,9 @@
       <c r="AM60" t="n">
         <v>-0.4836950096440349</v>
       </c>
+      <c r="AN60" t="n">
+        <v>-0.4852655786057961</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7691,6 +7871,9 @@
       <c r="AM61" t="n">
         <v>0.3698523235938368</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.3693003460176267</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7810,6 +7993,9 @@
       <c r="AM62" t="n">
         <v>-1.310144720605535</v>
       </c>
+      <c r="AN62" t="n">
+        <v>-1.313013636104941</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -7929,6 +8115,9 @@
       <c r="AM63" t="n">
         <v>-0.6046934498924826</v>
       </c>
+      <c r="AN63" t="n">
+        <v>-0.606682720235556</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8048,6 +8237,9 @@
       <c r="AM64" t="n">
         <v>-0.9297870873148407</v>
       </c>
+      <c r="AN64" t="n">
+        <v>-0.9328347453903496</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8167,6 +8359,9 @@
       <c r="AM65" t="n">
         <v>-0.08304864697369513</v>
       </c>
+      <c r="AN65" t="n">
+        <v>-0.08421397189825855</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8286,6 +8481,9 @@
       <c r="AM66" t="n">
         <v>-0.8614232765042983</v>
       </c>
+      <c r="AN66" t="n">
+        <v>-0.8631183513933989</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8404,6 +8602,9 @@
       </c>
       <c r="AM67" t="n">
         <v>-0.845897304569069</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8471757962187121</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,9 @@
       <c r="AN1" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -676,6 +679,9 @@
       <c r="AN2" t="n">
         <v>-0.2641320117028035</v>
       </c>
+      <c r="AO2" t="n">
+        <v>-0.2654910086296195</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -798,6 +804,9 @@
       <c r="AN3" t="n">
         <v>0.2224859786185836</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.2216169898317721</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,6 +929,9 @@
       <c r="AN4" t="n">
         <v>0.2064394810702867</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.2051758404557655</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1042,6 +1054,9 @@
       <c r="AN5" t="n">
         <v>-0.0875824792794386</v>
       </c>
+      <c r="AO5" t="n">
+        <v>-0.08849169813755176</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1164,6 +1179,9 @@
       <c r="AN6" t="n">
         <v>0.1769026300958445</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.1764246331560188</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1286,6 +1304,9 @@
       <c r="AN7" t="n">
         <v>-0.4239374137375884</v>
       </c>
+      <c r="AO7" t="n">
+        <v>-0.4256530460341711</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1408,6 +1429,9 @@
       <c r="AN8" t="n">
         <v>-0.1525448512258816</v>
       </c>
+      <c r="AO8" t="n">
+        <v>-0.153763791437691</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1530,6 +1554,9 @@
       <c r="AN9" t="n">
         <v>-0.3461759174225696</v>
       </c>
+      <c r="AO9" t="n">
+        <v>-0.3480963017704577</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1652,6 +1679,9 @@
       <c r="AN10" t="n">
         <v>0.37868363686292</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.3781822865310569</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1774,6 +1804,9 @@
       <c r="AN11" t="n">
         <v>-0.2250858256125373</v>
       </c>
+      <c r="AO11" t="n">
+        <v>-0.2264666150081555</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1896,6 +1929,9 @@
       <c r="AN12" t="n">
         <v>-0.1264565796547727</v>
       </c>
+      <c r="AO12" t="n">
+        <v>-0.1274451544330754</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2018,6 +2054,9 @@
       <c r="AN13" t="n">
         <v>-0.06939326481674289</v>
       </c>
+      <c r="AO13" t="n">
+        <v>-0.07026835413270019</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2140,6 +2179,9 @@
       <c r="AN14" t="n">
         <v>0.01332865997175065</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.01261255997340213</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2262,6 +2304,9 @@
       <c r="AN15" t="n">
         <v>-0.1430322841765764</v>
       </c>
+      <c r="AO15" t="n">
+        <v>-0.1437929452211694</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2384,6 +2429,9 @@
       <c r="AN16" t="n">
         <v>0.2682788419321363</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.2677876449334764</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2506,6 +2554,9 @@
       <c r="AN17" t="n">
         <v>0.4021720310944579</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.4024921408040871</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2628,6 +2679,9 @@
       <c r="AN18" t="n">
         <v>-0.1760279300145406</v>
       </c>
+      <c r="AO18" t="n">
+        <v>-0.1767603105978834</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2750,6 +2804,9 @@
       <c r="AN19" t="n">
         <v>0.2684119873083666</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.2676600213460483</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2872,6 +2929,9 @@
       <c r="AN20" t="n">
         <v>0.1595277125292392</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.1590804855123268</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2994,6 +3054,9 @@
       <c r="AN21" t="n">
         <v>0.4615680138364797</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0.4619707430920556</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3116,6 +3179,9 @@
       <c r="AN22" t="n">
         <v>0.2288903261894349</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.2290645483673585</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3238,6 +3304,9 @@
       <c r="AN23" t="n">
         <v>-0.1974394985699593</v>
       </c>
+      <c r="AO23" t="n">
+        <v>-0.1976099542875012</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3360,6 +3429,9 @@
       <c r="AN24" t="n">
         <v>1.297516491036834</v>
       </c>
+      <c r="AO24" t="n">
+        <v>1.321883202614371</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3482,6 +3554,9 @@
       <c r="AN25" t="n">
         <v>0.3309576290340913</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.3314161588282948</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3604,6 +3679,9 @@
       <c r="AN26" t="n">
         <v>0.1424978627629833</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0.1432866446732438</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3726,6 +3804,9 @@
       <c r="AN27" t="n">
         <v>0.04918403253838631</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.05036492219410727</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3848,6 +3929,9 @@
       <c r="AN28" t="n">
         <v>0.8531607784704082</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.8554368653673502</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3970,6 +4054,9 @@
       <c r="AN29" t="n">
         <v>1.710502447820837</v>
       </c>
+      <c r="AO29" t="n">
+        <v>1.72504459620837</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4092,6 +4179,9 @@
       <c r="AN30" t="n">
         <v>0.6805952107143578</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.6816791756609955</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4214,6 +4304,9 @@
       <c r="AN31" t="n">
         <v>-0.4220154918115256</v>
       </c>
+      <c r="AO31" t="n">
+        <v>-0.4224898172178441</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4336,6 +4429,9 @@
       <c r="AN32" t="n">
         <v>0.5627347957337216</v>
       </c>
+      <c r="AO32" t="n">
+        <v>0.5637020572878984</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4458,6 +4554,9 @@
       <c r="AN33" t="n">
         <v>0.7744267500751917</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.7750312705016298</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4580,6 +4679,9 @@
       <c r="AN34" t="n">
         <v>-0.8424673656896393</v>
       </c>
+      <c r="AO34" t="n">
+        <v>-0.842900830696841</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4702,6 +4804,9 @@
       <c r="AN35" t="n">
         <v>0.8303212250762567</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8307731028575903</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4824,6 +4929,9 @@
       <c r="AN36" t="n">
         <v>0.8005455286407235</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.8007746047713578</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4946,6 +5054,9 @@
       <c r="AN37" t="n">
         <v>0.7670434239259838</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.7672904681205274</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5068,6 +5179,9 @@
       <c r="AN38" t="n">
         <v>0.6641202174761062</v>
       </c>
+      <c r="AO38" t="n">
+        <v>0.6643474487031141</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5190,6 +5304,9 @@
       <c r="AN39" t="n">
         <v>0.6149728052233183</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.6149163022627224</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5312,6 +5429,9 @@
       <c r="AN40" t="n">
         <v>0.791788590624586</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.7922786835458014</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5434,6 +5554,9 @@
       <c r="AN41" t="n">
         <v>0.5861059499454019</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.5860365666008764</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5556,6 +5679,9 @@
       <c r="AN42" t="n">
         <v>0.6563329032361997</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.6565012801945027</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5678,6 +5804,9 @@
       <c r="AN43" t="n">
         <v>0.6930460913905603</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.6931463022227869</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5800,6 +5929,9 @@
       <c r="AN44" t="n">
         <v>0.7181251715423689</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.7181246720755553</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -5922,6 +6054,9 @@
       <c r="AN45" t="n">
         <v>0.7375831355472641</v>
       </c>
+      <c r="AO45" t="n">
+        <v>0.7374962746077752</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6044,6 +6179,9 @@
       <c r="AN46" t="n">
         <v>-1.369482251877062</v>
       </c>
+      <c r="AO46" t="n">
+        <v>-1.372349458024649</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6166,6 +6304,9 @@
       <c r="AN47" t="n">
         <v>-1.068702579631442</v>
       </c>
+      <c r="AO47" t="n">
+        <v>-1.071084561021285</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6288,6 +6429,9 @@
       <c r="AN48" t="n">
         <v>-0.9295757147147148</v>
       </c>
+      <c r="AO48" t="n">
+        <v>-0.9322225186412594</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6410,6 +6554,9 @@
       <c r="AN49" t="n">
         <v>-0.6869445543997086</v>
       </c>
+      <c r="AO49" t="n">
+        <v>-0.6891153768704156</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6532,6 +6679,9 @@
       <c r="AN50" t="n">
         <v>-0.09846793582837149</v>
       </c>
+      <c r="AO50" t="n">
+        <v>-0.09962522567379742</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6654,6 +6804,9 @@
       <c r="AN51" t="n">
         <v>-0.9002303964232392</v>
       </c>
+      <c r="AO51" t="n">
+        <v>-0.9025267440030709</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6776,6 +6929,9 @@
       <c r="AN52" t="n">
         <v>-0.9002303964232392</v>
       </c>
+      <c r="AO52" t="n">
+        <v>-0.9025267440030709</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6898,6 +7054,9 @@
       <c r="AN53" t="n">
         <v>-1.20509843570311</v>
       </c>
+      <c r="AO53" t="n">
+        <v>-1.208232497337358</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7020,6 +7179,9 @@
       <c r="AN54" t="n">
         <v>-0.2117710404722841</v>
       </c>
+      <c r="AO54" t="n">
+        <v>-0.2132841389227874</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7142,6 +7304,9 @@
       <c r="AN55" t="n">
         <v>-1.094399144039211</v>
       </c>
+      <c r="AO55" t="n">
+        <v>-1.096900018438514</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7264,6 +7429,9 @@
       <c r="AN56" t="n">
         <v>-0.9614998517067029</v>
       </c>
+      <c r="AO56" t="n">
+        <v>-0.9632876151549329</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7386,6 +7554,9 @@
       <c r="AN57" t="n">
         <v>-1.038412929923759</v>
       </c>
+      <c r="AO57" t="n">
+        <v>-1.040693687873477</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7508,6 +7679,9 @@
       <c r="AN58" t="n">
         <v>-1.178367580689212</v>
       </c>
+      <c r="AO58" t="n">
+        <v>-1.180435634416404</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7630,6 +7804,9 @@
       <c r="AN59" t="n">
         <v>-0.8554508145453811</v>
       </c>
+      <c r="AO59" t="n">
+        <v>-0.8576388898303704</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7752,6 +7929,9 @@
       <c r="AN60" t="n">
         <v>-0.4852655786057961</v>
       </c>
+      <c r="AO60" t="n">
+        <v>-0.4866863494122984</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -7874,6 +8054,9 @@
       <c r="AN61" t="n">
         <v>0.3693003460176267</v>
       </c>
+      <c r="AO61" t="n">
+        <v>0.3687836195600477</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -7996,6 +8179,9 @@
       <c r="AN62" t="n">
         <v>-1.313013636104941</v>
       </c>
+      <c r="AO62" t="n">
+        <v>-1.31564911458318</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8118,6 +8304,9 @@
       <c r="AN63" t="n">
         <v>-0.606682720235556</v>
       </c>
+      <c r="AO63" t="n">
+        <v>-0.6085182055292726</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8240,6 +8429,9 @@
       <c r="AN64" t="n">
         <v>-0.9328347453903496</v>
       </c>
+      <c r="AO64" t="n">
+        <v>-0.9356830516357112</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8362,6 +8554,9 @@
       <c r="AN65" t="n">
         <v>-0.08421397189825855</v>
       </c>
+      <c r="AO65" t="n">
+        <v>-0.08526488332555335</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8484,6 +8679,9 @@
       <c r="AN66" t="n">
         <v>-0.8631183513933989</v>
       </c>
+      <c r="AO66" t="n">
+        <v>-0.8646393552549003</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8605,6 +8803,9 @@
       </c>
       <c r="AN67" t="n">
         <v>-0.8471757962187121</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8482925149824688</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,9 @@
       <c r="AO1" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -682,6 +685,9 @@
       <c r="AO2" t="n">
         <v>-0.2654910086296195</v>
       </c>
+      <c r="AP2" t="n">
+        <v>-0.266727417966561</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -807,6 +813,9 @@
       <c r="AO3" t="n">
         <v>0.2216169898317721</v>
       </c>
+      <c r="AP3" t="n">
+        <v>0.2208830735994987</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -932,6 +941,9 @@
       <c r="AO4" t="n">
         <v>0.2051758404557655</v>
       </c>
+      <c r="AP4" t="n">
+        <v>0.2040405307607401</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1057,6 +1069,9 @@
       <c r="AO5" t="n">
         <v>-0.08849169813755176</v>
       </c>
+      <c r="AP5" t="n">
+        <v>-0.08930699533682598</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1182,6 +1197,9 @@
       <c r="AO6" t="n">
         <v>0.1764246331560188</v>
       </c>
+      <c r="AP6" t="n">
+        <v>0.1760529398866091</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1325,9 @@
       <c r="AO7" t="n">
         <v>-0.4256530460341711</v>
       </c>
+      <c r="AP7" t="n">
+        <v>-0.4272386617566116</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1432,6 +1453,9 @@
       <c r="AO8" t="n">
         <v>-0.153763791437691</v>
       </c>
+      <c r="AP8" t="n">
+        <v>-0.1548880322062597</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1557,6 +1581,9 @@
       <c r="AO9" t="n">
         <v>-0.3480963017704577</v>
       </c>
+      <c r="AP9" t="n">
+        <v>-0.3498104226686237</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1682,6 +1709,9 @@
       <c r="AO10" t="n">
         <v>0.3781822865310569</v>
       </c>
+      <c r="AP10" t="n">
+        <v>0.3777712082835991</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1807,6 +1837,9 @@
       <c r="AO11" t="n">
         <v>-0.2264666150081555</v>
       </c>
+      <c r="AP11" t="n">
+        <v>-0.2277472914135655</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1932,6 +1965,9 @@
       <c r="AO12" t="n">
         <v>-0.1274451544330754</v>
       </c>
+      <c r="AP12" t="n">
+        <v>-0.1282639475567161</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2057,6 +2093,9 @@
       <c r="AO13" t="n">
         <v>-0.07026835413270019</v>
       </c>
+      <c r="AP13" t="n">
+        <v>-0.07107999191720253</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2182,6 +2221,9 @@
       <c r="AO14" t="n">
         <v>0.01261255997340213</v>
       </c>
+      <c r="AP14" t="n">
+        <v>0.01218644377442413</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2307,6 +2349,9 @@
       <c r="AO15" t="n">
         <v>-0.1437929452211694</v>
       </c>
+      <c r="AP15" t="n">
+        <v>-0.1442249378205707</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2432,6 +2477,9 @@
       <c r="AO16" t="n">
         <v>0.2677876449334764</v>
       </c>
+      <c r="AP16" t="n">
+        <v>0.2677132555498356</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2557,6 +2605,9 @@
       <c r="AO17" t="n">
         <v>0.4024921408040871</v>
       </c>
+      <c r="AP17" t="n">
+        <v>0.4030610084883487</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2682,6 +2733,9 @@
       <c r="AO18" t="n">
         <v>-0.1767603105978834</v>
       </c>
+      <c r="AP18" t="n">
+        <v>-0.1773825359432769</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2807,6 +2861,9 @@
       <c r="AO19" t="n">
         <v>0.2676600213460483</v>
       </c>
+      <c r="AP19" t="n">
+        <v>0.2670729331053993</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2932,6 +2989,9 @@
       <c r="AO20" t="n">
         <v>0.1590804855123268</v>
       </c>
+      <c r="AP20" t="n">
+        <v>0.1590258513183573</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3057,6 +3117,9 @@
       <c r="AO21" t="n">
         <v>0.4619707430920556</v>
       </c>
+      <c r="AP21" t="n">
+        <v>0.4626100585407824</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3182,6 +3245,9 @@
       <c r="AO22" t="n">
         <v>0.2290645483673585</v>
       </c>
+      <c r="AP22" t="n">
+        <v>0.2294794868835525</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3307,6 +3373,9 @@
       <c r="AO23" t="n">
         <v>-0.1976099542875012</v>
       </c>
+      <c r="AP23" t="n">
+        <v>-0.1975814533352039</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3432,6 +3501,9 @@
       <c r="AO24" t="n">
         <v>1.321883202614371</v>
       </c>
+      <c r="AP24" t="n">
+        <v>1.344374169683165</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3557,6 +3629,9 @@
       <c r="AO25" t="n">
         <v>0.3314161588282948</v>
       </c>
+      <c r="AP25" t="n">
+        <v>0.331759857797987</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3682,6 +3757,9 @@
       <c r="AO26" t="n">
         <v>0.1432866446732438</v>
       </c>
+      <c r="AP26" t="n">
+        <v>0.1439330881933368</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3807,6 +3885,9 @@
       <c r="AO27" t="n">
         <v>0.05036492219410727</v>
       </c>
+      <c r="AP27" t="n">
+        <v>0.05139051661820433</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3932,6 +4013,9 @@
       <c r="AO28" t="n">
         <v>0.8554368653673502</v>
       </c>
+      <c r="AP28" t="n">
+        <v>0.8574492370715537</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4057,6 +4141,9 @@
       <c r="AO29" t="n">
         <v>1.72504459620837</v>
       </c>
+      <c r="AP29" t="n">
+        <v>1.737832465106345</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4182,6 +4269,9 @@
       <c r="AO30" t="n">
         <v>0.6816791756609955</v>
       </c>
+      <c r="AP30" t="n">
+        <v>0.6825528335530094</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4307,6 +4397,9 @@
       <c r="AO31" t="n">
         <v>-0.4224898172178441</v>
       </c>
+      <c r="AP31" t="n">
+        <v>-0.4231308745542702</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4432,6 +4525,9 @@
       <c r="AO32" t="n">
         <v>0.5637020572878984</v>
       </c>
+      <c r="AP32" t="n">
+        <v>0.564470961613507</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4557,6 +4653,9 @@
       <c r="AO33" t="n">
         <v>0.7750312705016298</v>
       </c>
+      <c r="AP33" t="n">
+        <v>0.7755014303342371</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4682,6 +4781,9 @@
       <c r="AO34" t="n">
         <v>-0.842900830696841</v>
       </c>
+      <c r="AP34" t="n">
+        <v>-0.8434525333954035</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4807,6 +4909,9 @@
       <c r="AO35" t="n">
         <v>0.8307731028575903</v>
       </c>
+      <c r="AP35" t="n">
+        <v>0.8311284084441498</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4932,6 +5037,9 @@
       <c r="AO36" t="n">
         <v>0.8007746047713578</v>
       </c>
+      <c r="AP36" t="n">
+        <v>0.8008802195436925</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5057,6 +5165,9 @@
       <c r="AO37" t="n">
         <v>0.7672904681205274</v>
       </c>
+      <c r="AP37" t="n">
+        <v>0.76740692789513</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5182,6 +5293,9 @@
       <c r="AO38" t="n">
         <v>0.6643474487031141</v>
       </c>
+      <c r="AP38" t="n">
+        <v>0.6644916292427102</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5307,6 +5421,9 @@
       <c r="AO39" t="n">
         <v>0.6149163022627224</v>
       </c>
+      <c r="AP39" t="n">
+        <v>0.6148087916542048</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5432,6 +5549,9 @@
       <c r="AO40" t="n">
         <v>0.7922786835458014</v>
       </c>
+      <c r="AP40" t="n">
+        <v>0.7926774445279305</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5557,6 +5677,9 @@
       <c r="AO41" t="n">
         <v>0.5860365666008764</v>
       </c>
+      <c r="AP41" t="n">
+        <v>0.5859423232323139</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5682,6 +5805,9 @@
       <c r="AO42" t="n">
         <v>0.6565012801945027</v>
       </c>
+      <c r="AP42" t="n">
+        <v>0.6565190986962454</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5807,6 +5933,9 @@
       <c r="AO43" t="n">
         <v>0.6931463022227869</v>
       </c>
+      <c r="AP43" t="n">
+        <v>0.6931789586856915</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -5932,6 +6061,9 @@
       <c r="AO44" t="n">
         <v>0.7181246720755553</v>
       </c>
+      <c r="AP44" t="n">
+        <v>0.7180647117161274</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6057,6 +6189,9 @@
       <c r="AO45" t="n">
         <v>0.7374962746077752</v>
       </c>
+      <c r="AP45" t="n">
+        <v>0.7372684378880031</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6182,6 +6317,9 @@
       <c r="AO46" t="n">
         <v>-1.372349458024649</v>
       </c>
+      <c r="AP46" t="n">
+        <v>-1.37511366462771</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6307,6 +6445,9 @@
       <c r="AO47" t="n">
         <v>-1.071084561021285</v>
       </c>
+      <c r="AP47" t="n">
+        <v>-1.073389232895246</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6432,6 +6573,9 @@
       <c r="AO48" t="n">
         <v>-0.9322225186412594</v>
       </c>
+      <c r="AP48" t="n">
+        <v>-0.9347840962090003</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6557,6 +6701,9 @@
       <c r="AO49" t="n">
         <v>-0.6891153768704156</v>
       </c>
+      <c r="AP49" t="n">
+        <v>-0.6912113427487355</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6682,6 +6829,9 @@
       <c r="AO50" t="n">
         <v>-0.09962522567379742</v>
       </c>
+      <c r="AP50" t="n">
+        <v>-0.1007420030762847</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6807,6 +6957,9 @@
       <c r="AO51" t="n">
         <v>-0.9025267440030709</v>
       </c>
+      <c r="AP51" t="n">
+        <v>-0.9047632558579706</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6932,6 +7085,9 @@
       <c r="AO52" t="n">
         <v>-0.9025267440030709</v>
       </c>
+      <c r="AP52" t="n">
+        <v>-0.9047632558579706</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7057,6 +7213,9 @@
       <c r="AO53" t="n">
         <v>-1.208232497337358</v>
       </c>
+      <c r="AP53" t="n">
+        <v>-1.211270665449828</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7182,6 +7341,9 @@
       <c r="AO54" t="n">
         <v>-0.2132841389227874</v>
       </c>
+      <c r="AP54" t="n">
+        <v>-0.2147400479112241</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7307,6 +7469,9 @@
       <c r="AO55" t="n">
         <v>-1.096900018438514</v>
       </c>
+      <c r="AP55" t="n">
+        <v>-1.099317344205297</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7432,6 +7597,9 @@
       <c r="AO56" t="n">
         <v>-0.9632876151549329</v>
       </c>
+      <c r="AP56" t="n">
+        <v>-0.9650134637311777</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7557,6 +7725,9 @@
       <c r="AO57" t="n">
         <v>-1.040693687873477</v>
       </c>
+      <c r="AP57" t="n">
+        <v>-1.042796148578913</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7682,6 +7853,9 @@
       <c r="AO58" t="n">
         <v>-1.180435634416404</v>
       </c>
+      <c r="AP58" t="n">
+        <v>-1.18232400981508</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7807,6 +7981,9 @@
       <c r="AO59" t="n">
         <v>-0.8576388898303704</v>
       </c>
+      <c r="AP59" t="n">
+        <v>-0.8596965200234616</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -7932,6 +8109,9 @@
       <c r="AO60" t="n">
         <v>-0.4866863494122984</v>
       </c>
+      <c r="AP60" t="n">
+        <v>-0.4879717425298687</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8057,6 +8237,9 @@
       <c r="AO61" t="n">
         <v>0.3687836195600477</v>
       </c>
+      <c r="AP61" t="n">
+        <v>0.3683003026761588</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8182,6 +8365,9 @@
       <c r="AO62" t="n">
         <v>-1.31564911458318</v>
       </c>
+      <c r="AP62" t="n">
+        <v>-1.318074320152214</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8307,6 +8493,9 @@
       <c r="AO63" t="n">
         <v>-0.6085182055292726</v>
       </c>
+      <c r="AP63" t="n">
+        <v>-0.6102068852475745</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8432,6 +8621,9 @@
       <c r="AO64" t="n">
         <v>-0.9356830516357112</v>
       </c>
+      <c r="AP64" t="n">
+        <v>-0.9383409245779963</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8557,6 +8749,9 @@
       <c r="AO65" t="n">
         <v>-0.08526488332555335</v>
       </c>
+      <c r="AP65" t="n">
+        <v>-0.0862129798915717</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8682,6 +8877,9 @@
       <c r="AO66" t="n">
         <v>-0.8646393552549003</v>
       </c>
+      <c r="AP66" t="n">
+        <v>-0.8660092278154365</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -8806,6 +9004,9 @@
       </c>
       <c r="AO67" t="n">
         <v>-0.8482925149824688</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8492752773481222</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP67"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,9 @@
       <c r="AP1" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,6 +691,9 @@
       <c r="AP2" t="n">
         <v>-0.266727417966561</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>-0.2678505231752822</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -816,6 +822,9 @@
       <c r="AP3" t="n">
         <v>0.2208830735994987</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>0.220270611569219</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -944,6 +953,9 @@
       <c r="AP4" t="n">
         <v>0.2040405307607401</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>0.2030249454040736</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,6 +1084,9 @@
       <c r="AP5" t="n">
         <v>-0.08930699533682598</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-0.09003832269907233</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1200,6 +1215,9 @@
       <c r="AP6" t="n">
         <v>0.1760529398866091</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>0.1757739409339567</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1328,6 +1346,9 @@
       <c r="AP7" t="n">
         <v>-0.4272386617566116</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>-0.4287015871579147</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1456,6 +1477,9 @@
       <c r="AP8" t="n">
         <v>-0.1548880322062597</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>-0.1559199798547641</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1584,6 +1608,9 @@
       <c r="AP9" t="n">
         <v>-0.3498104226686237</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>-0.3513318280705614</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1712,6 +1739,9 @@
       <c r="AP10" t="n">
         <v>0.3777712082835991</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>0.3774384673489443</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1840,6 +1870,9 @@
       <c r="AP11" t="n">
         <v>-0.2277472914135655</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>-0.2289341359162477</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1968,6 +2001,9 @@
       <c r="AP12" t="n">
         <v>-0.1282639475567161</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>-0.1289374905771237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2096,6 +2132,9 @@
       <c r="AP13" t="n">
         <v>-0.07107999191720253</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>-0.07183402714643768</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2224,6 +2263,9 @@
       <c r="AP14" t="n">
         <v>0.01218644377442413</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>0.01200377776385573</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2352,6 +2394,9 @@
       <c r="AP15" t="n">
         <v>-0.1442249378205707</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>-0.1443857286774895</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2480,6 +2525,9 @@
       <c r="AP16" t="n">
         <v>0.2677132555498356</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>0.2679830986831633</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2608,6 +2656,9 @@
       <c r="AP17" t="n">
         <v>0.4030610084883487</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>0.4038237639632854</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2736,6 +2787,9 @@
       <c r="AP18" t="n">
         <v>-0.1773825359432769</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>-0.1779114924008989</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2864,6 +2918,9 @@
       <c r="AP19" t="n">
         <v>0.2670729331053993</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>0.2666226149060478</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2992,6 +3049,9 @@
       <c r="AP20" t="n">
         <v>0.1590258513183573</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>0.1592919648855558</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3120,6 +3180,9 @@
       <c r="AP21" t="n">
         <v>0.4626100585407824</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>0.4634325677164823</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3248,6 +3311,9 @@
       <c r="AP22" t="n">
         <v>0.2294794868835525</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>0.230084331680444</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3376,6 +3442,9 @@
       <c r="AP23" t="n">
         <v>-0.1975814533352039</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>-0.1973953279698463</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3504,6 +3573,9 @@
       <c r="AP24" t="n">
         <v>1.344374169683165</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>1.364877875597263</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3632,6 +3704,9 @@
       <c r="AP25" t="n">
         <v>0.331759857797987</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>0.332003367563693</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3760,6 +3835,9 @@
       <c r="AP26" t="n">
         <v>0.1439330881933368</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>0.1444444131557025</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3888,6 +3966,9 @@
       <c r="AP27" t="n">
         <v>0.05139051661820433</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>0.05226760957295531</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4016,6 +4097,9 @@
       <c r="AP28" t="n">
         <v>0.8574492370715537</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>0.8592147744930764</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4144,6 +4228,9 @@
       <c r="AP29" t="n">
         <v>1.737832465106345</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>1.748922091820081</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4272,6 +4359,9 @@
       <c r="AP30" t="n">
         <v>0.6825528335530094</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>0.6832359895881049</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4400,6 +4490,9 @@
       <c r="AP31" t="n">
         <v>-0.4231308745542702</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>-0.4239071215960402</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4528,6 +4621,9 @@
       <c r="AP32" t="n">
         <v>0.564470961613507</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>0.5650585394468532</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4656,6 +4752,9 @@
       <c r="AP33" t="n">
         <v>0.7755014303342371</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>0.7758513951950248</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4784,6 +4883,9 @@
       <c r="AP34" t="n">
         <v>-0.8434525333954035</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>-0.8441055486455736</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4912,6 +5014,9 @@
       <c r="AP35" t="n">
         <v>0.8311284084441498</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>0.8313998699570322</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5040,6 +5145,9 @@
       <c r="AP36" t="n">
         <v>0.8008802195436925</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>0.8008833996380166</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5168,6 +5276,9 @@
       <c r="AP37" t="n">
         <v>0.76740692789513</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>0.7674149417011051</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5296,6 +5407,9 @@
       <c r="AP38" t="n">
         <v>0.6644916292427102</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>0.6645646240107851</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5424,6 +5538,9 @@
       <c r="AP39" t="n">
         <v>0.6148087916542048</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>0.6146598754012313</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5552,6 +5669,9 @@
       <c r="AP40" t="n">
         <v>0.7926774445279305</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>0.792996013244451</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5680,6 +5800,9 @@
       <c r="AP41" t="n">
         <v>0.5859423232323139</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>0.5858309034025253</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5808,6 +5931,9 @@
       <c r="AP42" t="n">
         <v>0.6565190986962454</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>0.6564105904332009</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5936,6 +6062,9 @@
       <c r="AP43" t="n">
         <v>0.6931789586856915</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>0.693155495028306</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6064,6 +6193,9 @@
       <c r="AP44" t="n">
         <v>0.7180647117161274</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>0.7179574932603445</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6192,6 +6324,9 @@
       <c r="AP45" t="n">
         <v>0.7372684378880031</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>0.7369276909746023</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6320,6 +6455,9 @@
       <c r="AP46" t="n">
         <v>-1.37511366462771</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>-1.37777489122728</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6448,6 +6586,9 @@
       <c r="AP47" t="n">
         <v>-1.073389232895246</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>-1.075615174529585</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6576,6 +6717,9 @@
       <c r="AP48" t="n">
         <v>-0.9347840962090003</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>-0.9372562099461672</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,6 +6848,9 @@
       <c r="AP49" t="n">
         <v>-0.6912113427487355</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>-0.6932300739442601</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6832,6 +6979,9 @@
       <c r="AP50" t="n">
         <v>-0.1007420030762847</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>-0.1018188130181875</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6960,6 +7110,9 @@
       <c r="AP51" t="n">
         <v>-0.9047632558579706</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>-0.9069338152818501</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7088,6 +7241,9 @@
       <c r="AP52" t="n">
         <v>-0.9047632558579706</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>-0.9069338152818501</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7216,6 +7372,9 @@
       <c r="AP53" t="n">
         <v>-1.211270665449828</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>-1.214207621498364</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7344,6 +7503,9 @@
       <c r="AP54" t="n">
         <v>-0.2147400479112241</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>-0.2161384510465037</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7472,6 +7634,9 @@
       <c r="AP55" t="n">
         <v>-1.099317344205297</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>-1.101650359315105</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7600,6 +7765,9 @@
       <c r="AP56" t="n">
         <v>-0.9650134637311777</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>-0.9666798562020222</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7728,6 +7896,9 @@
       <c r="AP57" t="n">
         <v>-1.042796148578913</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>-1.044738587356852</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7856,6 +8027,9 @@
       <c r="AP58" t="n">
         <v>-1.18232400981508</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>-1.184052640712702</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -7984,6 +8158,9 @@
       <c r="AP59" t="n">
         <v>-0.8596965200234616</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>-0.8616309810238374</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8112,6 +8289,9 @@
       <c r="AP60" t="n">
         <v>-0.4879717425298687</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>-0.4891358852012238</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8240,6 +8420,9 @@
       <c r="AP61" t="n">
         <v>0.3683003026761588</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>0.3678484053090106</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8368,6 +8551,9 @@
       <c r="AP62" t="n">
         <v>-1.318074320152214</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>-1.320311506110767</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8496,6 +8682,9 @@
       <c r="AP63" t="n">
         <v>-0.6102068852475745</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>-0.6117569332593223</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8624,6 +8813,9 @@
       <c r="AP64" t="n">
         <v>-0.9383409245779963</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>-0.9408184434271887</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8752,6 +8944,9 @@
       <c r="AP65" t="n">
         <v>-0.0862129798915717</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>-0.08706955221933738</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -8880,6 +9075,9 @@
       <c r="AP66" t="n">
         <v>-0.8660092278154365</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>-0.867249314415628</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9007,6 +9205,9 @@
       </c>
       <c r="AP67" t="n">
         <v>-0.8492752773481222</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8501492457967221</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ67"/>
+  <dimension ref="A1:AR67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,9 @@
       <c r="AQ1" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -694,6 +697,9 @@
       <c r="AQ2" t="n">
         <v>-0.2678505231752822</v>
       </c>
+      <c r="AR2" t="n">
+        <v>-0.2688698568210781</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -825,6 +831,9 @@
       <c r="AQ3" t="n">
         <v>0.220270611569219</v>
       </c>
+      <c r="AR3" t="n">
+        <v>0.2197661161786439</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -956,6 +965,9 @@
       <c r="AQ4" t="n">
         <v>0.2030249454040736</v>
       </c>
+      <c r="AR4" t="n">
+        <v>0.2021199031157116</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1087,6 +1099,9 @@
       <c r="AQ5" t="n">
         <v>-0.09003832269907233</v>
       </c>
+      <c r="AR5" t="n">
+        <v>-0.09069527739098018</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1218,6 +1233,9 @@
       <c r="AQ6" t="n">
         <v>0.1757739409339567</v>
       </c>
+      <c r="AR6" t="n">
+        <v>0.1755745952248428</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1349,6 +1367,9 @@
       <c r="AQ7" t="n">
         <v>-0.4287015871579147</v>
       </c>
+      <c r="AR7" t="n">
+        <v>-0.4300497701109657</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1480,6 +1501,9 @@
       <c r="AQ8" t="n">
         <v>-0.1559199798547641</v>
       </c>
+      <c r="AR8" t="n">
+        <v>-0.1568631685652525</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1611,6 +1635,9 @@
       <c r="AQ9" t="n">
         <v>-0.3513318280705614</v>
       </c>
+      <c r="AR9" t="n">
+        <v>-0.3526750714017501</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1742,6 +1769,9 @@
       <c r="AQ10" t="n">
         <v>0.3774384673489443</v>
       </c>
+      <c r="AR10" t="n">
+        <v>0.3771727415453154</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1873,6 +1903,9 @@
       <c r="AQ11" t="n">
         <v>-0.2289341359162477</v>
       </c>
+      <c r="AR11" t="n">
+        <v>-0.2300337438990376</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2004,6 +2037,9 @@
       <c r="AQ12" t="n">
         <v>-0.1289374905771237</v>
       </c>
+      <c r="AR12" t="n">
+        <v>-0.1294886586964569</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2135,6 +2171,9 @@
       <c r="AQ13" t="n">
         <v>-0.07183402714643768</v>
       </c>
+      <c r="AR13" t="n">
+        <v>-0.0725360778542801</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2266,6 +2305,9 @@
       <c r="AQ14" t="n">
         <v>0.01200377776385573</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0.01202129360061373</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2397,6 +2439,9 @@
       <c r="AQ15" t="n">
         <v>-0.1443857286774895</v>
       </c>
+      <c r="AR15" t="n">
+        <v>-0.1443280868149634</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2528,6 +2573,9 @@
       <c r="AQ16" t="n">
         <v>0.2679830986831633</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0.2685301965501806</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2659,6 +2707,9 @@
       <c r="AQ17" t="n">
         <v>0.4038237639632854</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0.4047310280421886</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2790,6 +2841,9 @@
       <c r="AQ18" t="n">
         <v>-0.1779114924008989</v>
       </c>
+      <c r="AR18" t="n">
+        <v>-0.1783626009616259</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2921,6 +2975,9 @@
       <c r="AQ19" t="n">
         <v>0.2666226149060478</v>
       </c>
+      <c r="AR19" t="n">
+        <v>0.2662834016890902</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3052,6 +3109,9 @@
       <c r="AQ20" t="n">
         <v>0.1592919648855558</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0.1598129965306674</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3183,6 +3243,9 @@
       <c r="AQ21" t="n">
         <v>0.4634325677164823</v>
       </c>
+      <c r="AR21" t="n">
+        <v>0.4643901924058499</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3314,6 +3377,9 @@
       <c r="AQ22" t="n">
         <v>0.230084331680444</v>
       </c>
+      <c r="AR22" t="n">
+        <v>0.2308331581216266</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3445,6 +3511,9 @@
       <c r="AQ23" t="n">
         <v>-0.1973953279698463</v>
       </c>
+      <c r="AR23" t="n">
+        <v>-0.1970888417306184</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3576,6 +3645,9 @@
       <c r="AQ24" t="n">
         <v>1.364877875597263</v>
       </c>
+      <c r="AR24" t="n">
+        <v>1.383338067032399</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3707,6 +3779,9 @@
       <c r="AQ25" t="n">
         <v>0.332003367563693</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0.3321608520664914</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3838,6 +3913,9 @@
       <c r="AQ26" t="n">
         <v>0.1444444131557025</v>
       </c>
+      <c r="AR26" t="n">
+        <v>0.144829363594981</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3969,6 +4047,9 @@
       <c r="AQ27" t="n">
         <v>0.05226760957295531</v>
       </c>
+      <c r="AR27" t="n">
+        <v>0.05300473171908042</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4100,6 +4181,9 @@
       <c r="AQ28" t="n">
         <v>0.8592147744930764</v>
       </c>
+      <c r="AR28" t="n">
+        <v>0.8607519264483403</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4231,6 +4315,9 @@
       <c r="AQ29" t="n">
         <v>1.748922091820081</v>
       </c>
+      <c r="AR29" t="n">
+        <v>1.758393428451376</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4362,6 +4449,9 @@
       <c r="AQ30" t="n">
         <v>0.6832359895881049</v>
       </c>
+      <c r="AR30" t="n">
+        <v>0.6837488719886923</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4493,6 +4583,9 @@
       <c r="AQ31" t="n">
         <v>-0.4239071215960402</v>
       </c>
+      <c r="AR31" t="n">
+        <v>-0.4247892309368987</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4624,6 +4717,9 @@
       <c r="AQ32" t="n">
         <v>0.5650585394468532</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0.5654825348192311</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4755,6 +4851,9 @@
       <c r="AQ33" t="n">
         <v>0.7758513951950248</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0.7760953012564489</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4886,6 +4985,9 @@
       <c r="AQ34" t="n">
         <v>-0.8441055486455736</v>
       </c>
+      <c r="AR34" t="n">
+        <v>-0.8448433545752121</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5017,6 +5119,9 @@
       <c r="AQ35" t="n">
         <v>0.8313998699570322</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0.8315995799670782</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5148,6 +5253,9 @@
       <c r="AQ36" t="n">
         <v>0.8008833996380166</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0.8008035611277963</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5279,6 +5387,9 @@
       <c r="AQ37" t="n">
         <v>0.7674149417011051</v>
       </c>
+      <c r="AR37" t="n">
+        <v>0.7673349699846895</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5410,6 +5521,9 @@
       <c r="AQ38" t="n">
         <v>0.6645646240107851</v>
       </c>
+      <c r="AR38" t="n">
+        <v>0.664577698872732</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5541,6 +5655,9 @@
       <c r="AQ39" t="n">
         <v>0.6146598754012313</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0.6144783634998321</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5672,6 +5789,9 @@
       <c r="AQ40" t="n">
         <v>0.792996013244451</v>
       </c>
+      <c r="AR40" t="n">
+        <v>0.7932450598066327</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5803,6 +5923,9 @@
       <c r="AQ41" t="n">
         <v>0.5858309034025253</v>
       </c>
+      <c r="AR41" t="n">
+        <v>0.5857090072515444</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5934,6 +6057,9 @@
       <c r="AQ42" t="n">
         <v>0.6564105904332009</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0.6561984204893719</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6065,6 +6191,9 @@
       <c r="AQ43" t="n">
         <v>0.693155495028306</v>
       </c>
+      <c r="AR43" t="n">
+        <v>0.69308651816574</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6196,6 +6325,9 @@
       <c r="AQ44" t="n">
         <v>0.7179574932603445</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0.7178140573202383</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6327,6 +6459,9 @@
       <c r="AQ45" t="n">
         <v>0.7369276909746023</v>
       </c>
+      <c r="AR45" t="n">
+        <v>0.7364995790140527</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6458,6 +6593,9 @@
       <c r="AQ46" t="n">
         <v>-1.37777489122728</v>
       </c>
+      <c r="AR46" t="n">
+        <v>-1.380333977235943</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6589,6 +6727,9 @@
       <c r="AQ47" t="n">
         <v>-1.075615174529585</v>
       </c>
+      <c r="AR47" t="n">
+        <v>-1.077761749803256</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6720,6 +6861,9 @@
       <c r="AQ48" t="n">
         <v>-0.9372562099461672</v>
       </c>
+      <c r="AR48" t="n">
+        <v>-0.93963604951837</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6851,6 +6995,9 @@
       <c r="AQ49" t="n">
         <v>-0.6932300739442601</v>
       </c>
+      <c r="AR49" t="n">
+        <v>-0.695170253777355</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6982,6 +7129,9 @@
       <c r="AQ50" t="n">
         <v>-0.1018188130181875</v>
       </c>
+      <c r="AR50" t="n">
+        <v>-0.1028563932085436</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7113,6 +7263,9 @@
       <c r="AQ51" t="n">
         <v>-0.9069338152818501</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-0.9090337307548713</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7244,6 +7397,9 @@
       <c r="AQ52" t="n">
         <v>-0.9069338152818501</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-0.9090337307548713</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7375,6 +7531,9 @@
       <c r="AQ53" t="n">
         <v>-1.214207621498364</v>
       </c>
+      <c r="AR53" t="n">
+        <v>-1.217039652027554</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7506,6 +7665,9 @@
       <c r="AQ54" t="n">
         <v>-0.2161384510465037</v>
       </c>
+      <c r="AR54" t="n">
+        <v>-0.2174796183489557</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7637,6 +7799,9 @@
       <c r="AQ55" t="n">
         <v>-1.101650359315105</v>
       </c>
+      <c r="AR55" t="n">
+        <v>-1.103899030558122</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7768,6 +7933,9 @@
       <c r="AQ56" t="n">
         <v>-0.9666798562020222</v>
       </c>
+      <c r="AR56" t="n">
+        <v>-0.9682892082926782</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -7899,6 +8067,9 @@
       <c r="AQ57" t="n">
         <v>-1.044738587356852</v>
       </c>
+      <c r="AR57" t="n">
+        <v>-1.046538392886288</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8030,6 +8201,9 @@
       <c r="AQ58" t="n">
         <v>-1.184052640712702</v>
       </c>
+      <c r="AR58" t="n">
+        <v>-1.185640418210275</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8161,6 +8335,9 @@
       <c r="AQ59" t="n">
         <v>-0.8616309810238374</v>
       </c>
+      <c r="AR59" t="n">
+        <v>-0.8634499306101812</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8292,6 +8469,9 @@
       <c r="AQ60" t="n">
         <v>-0.4891358852012238</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-0.4901924059847529</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8423,6 +8603,9 @@
       <c r="AQ61" t="n">
         <v>0.3678484053090106</v>
       </c>
+      <c r="AR61" t="n">
+        <v>0.3674258444824172</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8554,6 +8737,9 @@
       <c r="AQ62" t="n">
         <v>-1.320311506110767</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-1.322381781109131</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8685,6 +8871,9 @@
       <c r="AQ63" t="n">
         <v>-0.6117569332593223</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-0.6131773752188624</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -8816,6 +9005,9 @@
       <c r="AQ64" t="n">
         <v>-0.9408184434271887</v>
       </c>
+      <c r="AR64" t="n">
+        <v>-0.9431265078859995</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -8947,6 +9139,9 @@
       <c r="AQ65" t="n">
         <v>-0.08706955221933738</v>
       </c>
+      <c r="AR65" t="n">
+        <v>-0.08784542665372931</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9078,6 +9273,9 @@
       <c r="AQ66" t="n">
         <v>-0.867249314415628</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-0.8683792423788778</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9208,6 +9406,9 @@
       </c>
       <c r="AQ67" t="n">
         <v>-0.8501492457967221</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8509368973261088</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR67"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,9 @@
       <c r="AR1" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -700,6 +703,9 @@
       <c r="AR2" t="n">
         <v>-0.2688698568210781</v>
       </c>
+      <c r="AS2" t="n">
+        <v>-0.2697949914693408</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -834,6 +840,9 @@
       <c r="AR3" t="n">
         <v>0.2197661161786439</v>
       </c>
+      <c r="AS3" t="n">
+        <v>0.2193564499941247</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -968,6 +977,9 @@
       <c r="AR4" t="n">
         <v>0.2021199031157116</v>
       </c>
+      <c r="AS4" t="n">
+        <v>0.2013159031006673</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1102,6 +1114,9 @@
       <c r="AR5" t="n">
         <v>-0.09069527739098018</v>
       </c>
+      <c r="AS5" t="n">
+        <v>-0.09128699004202494</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1236,6 +1251,9 @@
       <c r="AR6" t="n">
         <v>0.1755745952248428</v>
       </c>
+      <c r="AS6" t="n">
+        <v>0.1754425791490628</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1370,6 +1388,9 @@
       <c r="AR7" t="n">
         <v>-0.4300497701109657</v>
       </c>
+      <c r="AS7" t="n">
+        <v>-0.4312915467739827</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1504,6 +1525,9 @@
       <c r="AR8" t="n">
         <v>-0.1568631685652525</v>
       </c>
+      <c r="AS8" t="n">
+        <v>-0.157722015239997</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1638,6 +1662,9 @@
       <c r="AR9" t="n">
         <v>-0.3526750714017501</v>
       </c>
+      <c r="AS9" t="n">
+        <v>-0.3538552974611283</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1772,6 +1799,9 @@
       <c r="AR10" t="n">
         <v>0.3771727415453154</v>
       </c>
+      <c r="AS10" t="n">
+        <v>0.3769634308451247</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1906,6 +1936,9 @@
       <c r="AR11" t="n">
         <v>-0.2300337438990376</v>
       </c>
+      <c r="AS11" t="n">
+        <v>-0.2310528632747347</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2040,6 +2073,9 @@
       <c r="AR12" t="n">
         <v>-0.1294886586964569</v>
       </c>
+      <c r="AS12" t="n">
+        <v>-0.1299385244136016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2174,6 +2210,9 @@
       <c r="AR13" t="n">
         <v>-0.0725360778542801</v>
       </c>
+      <c r="AS13" t="n">
+        <v>-0.07319147814623869</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2308,6 +2347,9 @@
       <c r="AR14" t="n">
         <v>0.01202129360061373</v>
       </c>
+      <c r="AS14" t="n">
+        <v>0.0121992551183704</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2442,6 +2484,9 @@
       <c r="AR15" t="n">
         <v>-0.1443280868149634</v>
       </c>
+      <c r="AS15" t="n">
+        <v>-0.1440998784303583</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2576,6 +2621,9 @@
       <c r="AR16" t="n">
         <v>0.2685301965501806</v>
       </c>
+      <c r="AS16" t="n">
+        <v>0.2692934989660616</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2710,6 +2758,9 @@
       <c r="AR17" t="n">
         <v>0.4047310280421886</v>
       </c>
+      <c r="AS17" t="n">
+        <v>0.405738931202734</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2844,6 +2895,9 @@
       <c r="AR18" t="n">
         <v>-0.1783626009616259</v>
       </c>
+      <c r="AS18" t="n">
+        <v>-0.1787497992930992</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2978,6 +3032,9 @@
       <c r="AR19" t="n">
         <v>0.2662834016890902</v>
       </c>
+      <c r="AS19" t="n">
+        <v>0.2660321355741022</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3112,6 +3169,9 @@
       <c r="AR20" t="n">
         <v>0.1598129965306674</v>
       </c>
+      <c r="AS20" t="n">
+        <v>0.1605293703345443</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3246,6 +3306,9 @@
       <c r="AR21" t="n">
         <v>0.4643901924058499</v>
       </c>
+      <c r="AS21" t="n">
+        <v>0.465440211659239</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3380,6 +3443,9 @@
       <c r="AR22" t="n">
         <v>0.2308331581216266</v>
       </c>
+      <c r="AS22" t="n">
+        <v>0.2316849825190491</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3514,6 +3580,9 @@
       <c r="AR23" t="n">
         <v>-0.1970888417306184</v>
       </c>
+      <c r="AS23" t="n">
+        <v>-0.1966951638743925</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3648,6 +3717,9 @@
       <c r="AR24" t="n">
         <v>1.383338067032399</v>
       </c>
+      <c r="AS24" t="n">
+        <v>1.399745976286277</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3782,6 +3854,9 @@
       <c r="AR25" t="n">
         <v>0.3321608520664914</v>
       </c>
+      <c r="AS25" t="n">
+        <v>0.3322457964644639</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3916,6 +3991,9 @@
       <c r="AR26" t="n">
         <v>0.144829363594981</v>
       </c>
+      <c r="AS26" t="n">
+        <v>0.1450977912677685</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4050,6 +4128,9 @@
       <c r="AR27" t="n">
         <v>0.05300473171908042</v>
       </c>
+      <c r="AS27" t="n">
+        <v>0.05361170217982617</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4184,6 +4265,9 @@
       <c r="AR28" t="n">
         <v>0.8607519264483403</v>
       </c>
+      <c r="AS28" t="n">
+        <v>0.8620801198603485</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4318,6 +4402,9 @@
       <c r="AR29" t="n">
         <v>1.758393428451376</v>
       </c>
+      <c r="AS29" t="n">
+        <v>1.766344791657822</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4452,6 +4539,9 @@
       <c r="AR30" t="n">
         <v>0.6837488719886923</v>
       </c>
+      <c r="AS30" t="n">
+        <v>0.6841116686399138</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4586,6 +4676,9 @@
       <c r="AR31" t="n">
         <v>-0.4247892309368987</v>
       </c>
+      <c r="AS31" t="n">
+        <v>-0.4257503108874291</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4720,6 +4813,9 @@
       <c r="AR32" t="n">
         <v>0.5654825348192311</v>
       </c>
+      <c r="AS32" t="n">
+        <v>0.5657609520592514</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4854,6 +4950,9 @@
       <c r="AR33" t="n">
         <v>0.7760953012564489</v>
       </c>
+      <c r="AS33" t="n">
+        <v>0.7762469895718135</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4988,6 +5087,9 @@
       <c r="AR34" t="n">
         <v>-0.8448433545752121</v>
       </c>
+      <c r="AS34" t="n">
+        <v>-0.8456500948030069</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5122,6 +5224,9 @@
       <c r="AR35" t="n">
         <v>0.8315995799670782</v>
       </c>
+      <c r="AS35" t="n">
+        <v>0.8317388803810463</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5256,6 +5361,9 @@
       <c r="AR36" t="n">
         <v>0.8008035611277963</v>
       </c>
+      <c r="AS36" t="n">
+        <v>0.8006584133872549</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5390,6 +5498,9 @@
       <c r="AR37" t="n">
         <v>0.7673349699846895</v>
       </c>
+      <c r="AS37" t="n">
+        <v>0.7671856897071194</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5524,6 +5635,9 @@
       <c r="AR38" t="n">
         <v>0.664577698872732</v>
       </c>
+      <c r="AS38" t="n">
+        <v>0.6645414036104729</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5658,6 +5772,9 @@
       <c r="AR39" t="n">
         <v>0.6144783634998321</v>
       </c>
+      <c r="AS39" t="n">
+        <v>0.6142722416260116</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5792,6 +5909,9 @@
       <c r="AR40" t="n">
         <v>0.7932450598066327</v>
       </c>
+      <c r="AS40" t="n">
+        <v>0.7934346732999575</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5926,6 +6046,9 @@
       <c r="AR41" t="n">
         <v>0.5857090072515444</v>
       </c>
+      <c r="AS41" t="n">
+        <v>0.5855823856200236</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6060,6 +6183,9 @@
       <c r="AR42" t="n">
         <v>0.6561984204893719</v>
       </c>
+      <c r="AS42" t="n">
+        <v>0.655903516595257</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6194,6 +6320,9 @@
       <c r="AR43" t="n">
         <v>0.69308651816574</v>
       </c>
+      <c r="AS43" t="n">
+        <v>0.6929817420312806</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6328,6 +6457,9 @@
       <c r="AR44" t="n">
         <v>0.7178140573202383</v>
       </c>
+      <c r="AS44" t="n">
+        <v>0.7176442681360576</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6462,6 +6594,9 @@
       <c r="AR45" t="n">
         <v>0.7364995790140527</v>
       </c>
+      <c r="AS45" t="n">
+        <v>0.7360070650731793</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6596,6 +6731,9 @@
       <c r="AR46" t="n">
         <v>-1.380333977235943</v>
       </c>
+      <c r="AS46" t="n">
+        <v>-1.382792469605629</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6730,6 +6868,9 @@
       <c r="AR47" t="n">
         <v>-1.077761749803256</v>
       </c>
+      <c r="AS47" t="n">
+        <v>-1.079829022169328</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6864,6 +7005,9 @@
       <c r="AR48" t="n">
         <v>-0.93963604951837</v>
       </c>
+      <c r="AS48" t="n">
+        <v>-0.9419220841252246</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6998,6 +7142,9 @@
       <c r="AR49" t="n">
         <v>-0.695170253777355</v>
       </c>
+      <c r="AS49" t="n">
+        <v>-0.6970315046829171</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7132,6 +7279,9 @@
       <c r="AR50" t="n">
         <v>-0.1028563932085436</v>
       </c>
+      <c r="AS50" t="n">
+        <v>-0.1038556438549924</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7266,6 +7416,9 @@
       <c r="AR51" t="n">
         <v>-0.9090337307548713</v>
       </c>
+      <c r="AS51" t="n">
+        <v>-0.9110596176124381</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7400,6 +7553,9 @@
       <c r="AR52" t="n">
         <v>-0.9090337307548713</v>
       </c>
+      <c r="AS52" t="n">
+        <v>-0.9110596176124381</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7534,6 +7690,9 @@
       <c r="AR53" t="n">
         <v>-1.217039652027554</v>
       </c>
+      <c r="AS53" t="n">
+        <v>-1.219764499664023</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7668,6 +7827,9 @@
       <c r="AR54" t="n">
         <v>-0.2174796183489557</v>
       </c>
+      <c r="AS54" t="n">
+        <v>-0.2187643223395879</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7802,6 +7964,9 @@
       <c r="AR55" t="n">
         <v>-1.103899030558122</v>
       </c>
+      <c r="AS55" t="n">
+        <v>-1.106063967598271</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7936,6 +8101,9 @@
       <c r="AR56" t="n">
         <v>-0.9682892082926782</v>
       </c>
+      <c r="AS56" t="n">
+        <v>-0.9698438747997256</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8070,6 +8238,9 @@
       <c r="AR57" t="n">
         <v>-1.046538392886288</v>
       </c>
+      <c r="AS57" t="n">
+        <v>-1.048211916461433</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8204,6 +8375,9 @@
       <c r="AR58" t="n">
         <v>-1.185640418210275</v>
       </c>
+      <c r="AS58" t="n">
+        <v>-1.187105027959164</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8338,6 +8512,9 @@
       <c r="AR59" t="n">
         <v>-0.8634499306101812</v>
       </c>
+      <c r="AS59" t="n">
+        <v>-0.8651612239033515</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8472,6 +8649,9 @@
       <c r="AR60" t="n">
         <v>-0.4901924059847529</v>
       </c>
+      <c r="AS60" t="n">
+        <v>-0.4911542715005309</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8606,6 +8786,9 @@
       <c r="AR61" t="n">
         <v>0.3674258444824172</v>
       </c>
+      <c r="AS61" t="n">
+        <v>0.3670304929184108</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8740,6 +8923,9 @@
       <c r="AR62" t="n">
         <v>-1.322381781109131</v>
       </c>
+      <c r="AS62" t="n">
+        <v>-1.324304932558349</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -8874,6 +9060,9 @@
       <c r="AR63" t="n">
         <v>-0.6131773752188624</v>
       </c>
+      <c r="AS63" t="n">
+        <v>-0.614477786220361</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9008,6 +9197,9 @@
       <c r="AR64" t="n">
         <v>-0.9431265078859995</v>
       </c>
+      <c r="AS64" t="n">
+        <v>-0.9452765351800885</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9142,6 +9334,9 @@
       <c r="AR65" t="n">
         <v>-0.08784542665372931</v>
       </c>
+      <c r="AS65" t="n">
+        <v>-0.08855084318262514</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9276,6 +9471,9 @@
       <c r="AR66" t="n">
         <v>-0.8683792423788778</v>
       </c>
+      <c r="AS66" t="n">
+        <v>-0.869416848868664</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9409,6 +9607,9 @@
       </c>
       <c r="AR67" t="n">
         <v>-0.8509368973261088</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8516580477124853</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS67"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,9 @@
       <c r="AS1" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -706,6 +709,9 @@
       <c r="AS2" t="n">
         <v>-0.2697949914693408</v>
       </c>
+      <c r="AT2" t="n">
+        <v>-0.2706353631257678</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -843,6 +849,9 @@
       <c r="AS3" t="n">
         <v>0.2193564499941247</v>
       </c>
+      <c r="AT3" t="n">
+        <v>0.2190290048650038</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -980,6 +989,9 @@
       <c r="AS4" t="n">
         <v>0.2013159031006673</v>
       </c>
+      <c r="AT4" t="n">
+        <v>0.2006033459233632</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1117,6 +1129,9 @@
       <c r="AS5" t="n">
         <v>-0.09128699004202494</v>
       </c>
+      <c r="AT5" t="n">
+        <v>-0.09182203888474286</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1254,6 +1269,9 @@
       <c r="AS6" t="n">
         <v>0.1754425791490628</v>
       </c>
+      <c r="AT6" t="n">
+        <v>0.1753663988462381</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1391,6 +1409,9 @@
       <c r="AS7" t="n">
         <v>-0.4312915467739827</v>
       </c>
+      <c r="AT7" t="n">
+        <v>-0.4324354376772278</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1528,6 +1549,9 @@
       <c r="AS8" t="n">
         <v>-0.157722015239997</v>
       </c>
+      <c r="AT8" t="n">
+        <v>-0.1585015974702046</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1665,6 +1689,9 @@
       <c r="AS9" t="n">
         <v>-0.3538552974611283</v>
       </c>
+      <c r="AT9" t="n">
+        <v>-0.3548878815543965</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1802,6 +1829,9 @@
       <c r="AS10" t="n">
         <v>0.3769634308451247</v>
       </c>
+      <c r="AT10" t="n">
+        <v>0.3768007361076582</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1939,6 +1969,9 @@
       <c r="AS11" t="n">
         <v>-0.2310528632747347</v>
       </c>
+      <c r="AT11" t="n">
+        <v>-0.2319982554025261</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2076,6 +2109,9 @@
       <c r="AS12" t="n">
         <v>-0.1299385244136016</v>
       </c>
+      <c r="AT12" t="n">
+        <v>-0.1303062670909533</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2213,6 +2249,9 @@
       <c r="AS13" t="n">
         <v>-0.07319147814623869</v>
       </c>
+      <c r="AT13" t="n">
+        <v>-0.07380523793691227</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2350,6 +2389,9 @@
       <c r="AS14" t="n">
         <v>0.0121992551183704</v>
       </c>
+      <c r="AT14" t="n">
+        <v>0.01250161892578024</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2487,6 +2529,9 @@
       <c r="AS15" t="n">
         <v>-0.1440998784303583</v>
       </c>
+      <c r="AT15" t="n">
+        <v>-0.1437439829297128</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2624,6 +2669,9 @@
       <c r="AS16" t="n">
         <v>0.2692934989660616</v>
       </c>
+      <c r="AT16" t="n">
+        <v>0.2702180536406612</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2761,6 +2809,9 @@
       <c r="AS17" t="n">
         <v>0.405738931202734</v>
       </c>
+      <c r="AT17" t="n">
+        <v>0.4068090297202807</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2898,6 +2949,9 @@
       <c r="AS18" t="n">
         <v>-0.1787497992930992</v>
       </c>
+      <c r="AT18" t="n">
+        <v>-0.1790855502754185</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3035,6 +3089,9 @@
       <c r="AS19" t="n">
         <v>0.2660321355741022</v>
       </c>
+      <c r="AT19" t="n">
+        <v>0.2658481755126693</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3172,6 +3229,9 @@
       <c r="AS20" t="n">
         <v>0.1605293703345443</v>
       </c>
+      <c r="AT20" t="n">
+        <v>0.1613878512068124</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3309,6 +3369,9 @@
       <c r="AS21" t="n">
         <v>0.465440211659239</v>
       </c>
+      <c r="AT21" t="n">
+        <v>0.4665451983306666</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3446,6 +3509,9 @@
       <c r="AS22" t="n">
         <v>0.2316849825190491</v>
       </c>
+      <c r="AT22" t="n">
+        <v>0.2326037192174631</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3583,6 +3649,9 @@
       <c r="AS23" t="n">
         <v>-0.1966951638743925</v>
       </c>
+      <c r="AT23" t="n">
+        <v>-0.1962434224094185</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3720,6 +3789,9 @@
       <c r="AS24" t="n">
         <v>1.399745976286277</v>
       </c>
+      <c r="AT24" t="n">
+        <v>1.414132887898751</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3857,6 +3929,9 @@
       <c r="AS25" t="n">
         <v>0.3322457964644639</v>
       </c>
+      <c r="AT25" t="n">
+        <v>0.3322708527781604</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3994,6 +4069,9 @@
       <c r="AS26" t="n">
         <v>0.1450977912677685</v>
       </c>
+      <c r="AT26" t="n">
+        <v>0.1452602854141964</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4131,6 +4209,9 @@
       <c r="AS27" t="n">
         <v>0.05361170217982617</v>
       </c>
+      <c r="AT27" t="n">
+        <v>0.05409922884904232</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4268,6 +4349,9 @@
       <c r="AS28" t="n">
         <v>0.8620801198603485</v>
       </c>
+      <c r="AT28" t="n">
+        <v>0.8632192456932124</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4405,6 +4489,9 @@
       <c r="AS29" t="n">
         <v>1.766344791657822</v>
       </c>
+      <c r="AT29" t="n">
+        <v>1.772887884424404</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4542,6 +4629,9 @@
       <c r="AS30" t="n">
         <v>0.6841116686399138</v>
       </c>
+      <c r="AT30" t="n">
+        <v>0.6843441407928449</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4679,6 +4769,9 @@
       <c r="AS31" t="n">
         <v>-0.4257503108874291</v>
       </c>
+      <c r="AT31" t="n">
+        <v>-0.4267660427148225</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4816,6 +4909,9 @@
       <c r="AS32" t="n">
         <v>0.5657609520592514</v>
       </c>
+      <c r="AT32" t="n">
+        <v>0.5659116707363574</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4953,6 +5049,9 @@
       <c r="AS33" t="n">
         <v>0.7762469895718135</v>
       </c>
+      <c r="AT33" t="n">
+        <v>0.7763197891032182</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5090,6 +5189,9 @@
       <c r="AS34" t="n">
         <v>-0.8456500948030069</v>
       </c>
+      <c r="AT34" t="n">
+        <v>-0.8465107854936957</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5227,6 +5329,9 @@
       <c r="AS35" t="n">
         <v>0.8317388803810463</v>
       </c>
+      <c r="AT35" t="n">
+        <v>0.8318282786906421</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5364,6 +5469,9 @@
       <c r="AS36" t="n">
         <v>0.8006584133872549</v>
       </c>
+      <c r="AT36" t="n">
+        <v>0.800463909139295</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5501,6 +5609,9 @@
       <c r="AS37" t="n">
         <v>0.7671856897071194</v>
       </c>
+      <c r="AT37" t="n">
+        <v>0.7669839380419237</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5638,6 +5749,9 @@
       <c r="AS38" t="n">
         <v>0.6645414036104729</v>
       </c>
+      <c r="AT38" t="n">
+        <v>0.6644654873107342</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5775,6 +5889,9 @@
       <c r="AS39" t="n">
         <v>0.6142722416260116</v>
       </c>
+      <c r="AT39" t="n">
+        <v>0.6140486584502817</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5912,6 +6029,9 @@
       <c r="AS40" t="n">
         <v>0.7934346732999575</v>
       </c>
+      <c r="AT40" t="n">
+        <v>0.793574277405472</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6049,6 +6169,9 @@
       <c r="AS41" t="n">
         <v>0.5855823856200236</v>
       </c>
+      <c r="AT41" t="n">
+        <v>0.5854558864403727</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6186,6 +6309,9 @@
       <c r="AS42" t="n">
         <v>0.655903516595257</v>
       </c>
+      <c r="AT42" t="n">
+        <v>0.6555449576162743</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6323,6 +6449,9 @@
       <c r="AS43" t="n">
         <v>0.6929817420312806</v>
       </c>
+      <c r="AT43" t="n">
+        <v>0.692849949132753</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6460,6 +6589,9 @@
       <c r="AS44" t="n">
         <v>0.7176442681360576</v>
       </c>
+      <c r="AT44" t="n">
+        <v>0.7174568228834878</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6597,6 +6729,9 @@
       <c r="AS45" t="n">
         <v>0.7360070650731793</v>
       </c>
+      <c r="AT45" t="n">
+        <v>0.7354705247856004</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6734,6 +6869,9 @@
       <c r="AS46" t="n">
         <v>-1.382792469605629</v>
       </c>
+      <c r="AT46" t="n">
+        <v>-1.385152514081718</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6871,6 +7009,9 @@
       <c r="AS47" t="n">
         <v>-1.079829022169328</v>
       </c>
+      <c r="AT47" t="n">
+        <v>-1.081817669218241</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7008,6 +7149,9 @@
       <c r="AS48" t="n">
         <v>-0.9419220841252246</v>
       </c>
+      <c r="AT48" t="n">
+        <v>-0.9441139137099684</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7145,6 +7289,9 @@
       <c r="AS49" t="n">
         <v>-0.6970315046829171</v>
       </c>
+      <c r="AT49" t="n">
+        <v>-0.6988142672515112</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7282,6 +7429,9 @@
       <c r="AS50" t="n">
         <v>-0.1038556438549924</v>
       </c>
+      <c r="AT50" t="n">
+        <v>-0.1048175987916296</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7419,6 +7569,9 @@
       <c r="AS51" t="n">
         <v>-0.9110596176124381</v>
       </c>
+      <c r="AT51" t="n">
+        <v>-0.9130092738475778</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7556,6 +7709,9 @@
       <c r="AS52" t="n">
         <v>-0.9110596176124381</v>
       </c>
+      <c r="AT52" t="n">
+        <v>-0.9130092738475778</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7693,6 +7849,9 @@
       <c r="AS53" t="n">
         <v>-1.219764499664023</v>
       </c>
+      <c r="AT53" t="n">
+        <v>-1.222381209056108</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7830,6 +7989,9 @@
       <c r="AS54" t="n">
         <v>-0.2187643223395879</v>
       </c>
+      <c r="AT54" t="n">
+        <v>-0.219993757885226</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -7967,6 +8129,9 @@
       <c r="AS55" t="n">
         <v>-1.106063967598271</v>
       </c>
+      <c r="AT55" t="n">
+        <v>-1.108146337821224</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8104,6 +8269,9 @@
       <c r="AS56" t="n">
         <v>-0.9698438747997256</v>
       </c>
+      <c r="AT56" t="n">
+        <v>-0.971346135562894</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8241,6 +8409,9 @@
       <c r="AS57" t="n">
         <v>-1.048211916461433</v>
       </c>
+      <c r="AT57" t="n">
+        <v>-1.049774363092847</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8378,6 +8549,9 @@
       <c r="AS58" t="n">
         <v>-1.187105027959164</v>
       </c>
+      <c r="AT58" t="n">
+        <v>-1.188462835344807</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8515,6 +8689,9 @@
       <c r="AS59" t="n">
         <v>-0.8651612239033515</v>
       </c>
+      <c r="AT59" t="n">
+        <v>-0.8667727543670007</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8652,6 +8829,9 @@
       <c r="AS60" t="n">
         <v>-0.4911542715005309</v>
       </c>
+      <c r="AT60" t="n">
+        <v>-0.4920336615944195</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8789,6 +8969,9 @@
       <c r="AS61" t="n">
         <v>0.3670304929184108</v>
       </c>
+      <c r="AT61" t="n">
+        <v>0.3666602209007468</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -8926,6 +9109,9 @@
       <c r="AS62" t="n">
         <v>-1.324304932558349</v>
       </c>
+      <c r="AT62" t="n">
+        <v>-1.326099301502279</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9063,6 +9249,9 @@
       <c r="AS63" t="n">
         <v>-0.614477786220361</v>
       </c>
+      <c r="AT63" t="n">
+        <v>-0.6156680275992532</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9200,6 +9389,9 @@
       <c r="AS64" t="n">
         <v>-0.9452765351800885</v>
       </c>
+      <c r="AT64" t="n">
+        <v>-0.9472801940903013</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9337,6 +9529,9 @@
       <c r="AS65" t="n">
         <v>-0.08855084318262514</v>
       </c>
+      <c r="AT65" t="n">
+        <v>-0.08919536421951997</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9474,6 +9669,9 @@
       <c r="AS66" t="n">
         <v>-0.869416848868664</v>
       </c>
+      <c r="AT66" t="n">
+        <v>-0.8703781533333744</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9610,6 +9808,9 @@
       </c>
       <c r="AS67" t="n">
         <v>-0.8516580477124853</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8523299220393911</v>
       </c>
     </row>
   </sheetData>

--- a/predicted_variables_matrix_10.xlsx
+++ b/predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,9 @@
       <c r="AT1" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -712,6 +715,9 @@
       <c r="AT2" t="n">
         <v>-0.2706353631257678</v>
       </c>
+      <c r="AU2" t="n">
+        <v>-0.2714001252824577</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -852,6 +858,9 @@
       <c r="AT3" t="n">
         <v>0.2190290048650038</v>
       </c>
+      <c r="AU3" t="n">
+        <v>0.2187718437875003</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -992,6 +1001,9 @@
       <c r="AT4" t="n">
         <v>0.2006033459233632</v>
       </c>
+      <c r="AU4" t="n">
+        <v>0.1999727214434161</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1132,6 +1144,9 @@
       <c r="AT5" t="n">
         <v>-0.09182203888474286</v>
       </c>
+      <c r="AU5" t="n">
+        <v>-0.09230838741871039</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1272,6 +1287,9 @@
       <c r="AT6" t="n">
         <v>0.1753663988462381</v>
       </c>
+      <c r="AU6" t="n">
+        <v>0.1753354693397035</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1412,6 +1430,9 @@
       <c r="AT7" t="n">
         <v>-0.4324354376772278</v>
       </c>
+      <c r="AU7" t="n">
+        <v>-0.4334899723470448</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1552,6 +1573,9 @@
       <c r="AT8" t="n">
         <v>-0.1585015974702046</v>
       </c>
+      <c r="AU8" t="n">
+        <v>-0.1592074549414254</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1692,6 +1716,9 @@
       <c r="AT9" t="n">
         <v>-0.3548878815543965</v>
       </c>
+      <c r="AU9" t="n">
+        <v>-0.3557881202835971</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1832,6 +1859,9 @@
       <c r="AT10" t="n">
         <v>0.3768007361076582</v>
       </c>
+      <c r="AU10" t="n">
+        <v>0.3766757104120343</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1972,6 +2002,9 @@
       <c r="AT11" t="n">
         <v>-0.2319982554025261</v>
       </c>
+      <c r="AU11" t="n">
+        <v>-0.2328765776432427</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2112,6 +2145,9 @@
       <c r="AT12" t="n">
         <v>-0.1303062670909533</v>
       </c>
+      <c r="AU12" t="n">
+        <v>-0.1306091313671489</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2252,6 +2288,9 @@
       <c r="AT13" t="n">
         <v>-0.07380523793691227</v>
       </c>
+      <c r="AU13" t="n">
+        <v>-0.07438201424463922</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2392,6 +2431,9 @@
       <c r="AT14" t="n">
         <v>0.01250161892578024</v>
       </c>
+      <c r="AU14" t="n">
+        <v>0.01289610227744618</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2532,6 +2574,9 @@
       <c r="AT15" t="n">
         <v>-0.1437439829297128</v>
       </c>
+      <c r="AU15" t="n">
+        <v>-0.1432983129102249</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2672,6 +2717,9 @@
       <c r="AT16" t="n">
         <v>0.2702180536406612</v>
       </c>
+      <c r="AU16" t="n">
+        <v>0.2712550382098024</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2812,6 +2860,9 @@
       <c r="AT17" t="n">
         <v>0.4068090297202807</v>
       </c>
+      <c r="AU17" t="n">
+        <v>0.4079081365752156</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2952,6 +3003,9 @@
       <c r="AT18" t="n">
         <v>-0.1790855502754185</v>
       </c>
+      <c r="AU18" t="n">
+        <v>-0.1793808732246151</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3092,6 +3146,9 @@
       <c r="AT19" t="n">
         <v>0.2658481755126693</v>
       </c>
+      <c r="AU19" t="n">
+        <v>0.2657133602809711</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3232,6 +3289,9 @@
       <c r="AT20" t="n">
         <v>0.1613878512068124</v>
       </c>
+      <c r="AU20" t="n">
+        <v>0.1623415025081008</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3372,6 +3432,9 @@
       <c r="AT21" t="n">
         <v>0.4665451983306666</v>
       </c>
+      <c r="AU21" t="n">
+        <v>0.4676728671108788</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3512,6 +3575,9 @@
       <c r="AT22" t="n">
         <v>0.2326037192174631</v>
       </c>
+      <c r="AU22" t="n">
+        <v>0.2335580552351408</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3652,6 +3718,9 @@
       <c r="AT23" t="n">
         <v>-0.1962434224094185</v>
       </c>
+      <c r="AU23" t="n">
+        <v>-0.195758822561367</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3792,6 +3861,9 @@
       <c r="AT24" t="n">
         <v>1.414132887898751</v>
       </c>
+      <c r="AU24" t="n">
+        <v>1.42656313318889</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3932,6 +4004,9 @@
       <c r="AT25" t="n">
         <v>0.3322708527781604</v>
       </c>
+      <c r="AU25" t="n">
+        <v>0.3322477274366565</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4072,6 +4147,9 @@
       <c r="AT26" t="n">
         <v>0.1452602854141964</v>
       </c>
+      <c r="AU26" t="n">
+        <v>0.1453278481998169</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4212,6 +4290,9 @@
       <c r="AT27" t="n">
         <v>0.05409922884904232</v>
       </c>
+      <c r="AU27" t="n">
+        <v>0.05447855689955631</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4352,6 +4433,9 @@
       <c r="AT28" t="n">
         <v>0.8632192456932124</v>
       </c>
+      <c r="AU28" t="n">
+        <v>0.8641892180685686</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4492,6 +4576,9 @@
       <c r="AT29" t="n">
         <v>1.772887884424404</v>
       </c>
+      <c r="AU29" t="n">
+        <v>1.778143386688943</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4632,6 +4719,9 @@
       <c r="AT30" t="n">
         <v>0.6843441407928449</v>
       </c>
+      <c r="AU30" t="n">
+        <v>0.6844653084008518</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4772,6 +4862,9 @@
       <c r="AT31" t="n">
         <v>-0.4267660427148225</v>
       </c>
+      <c r="AU31" t="n">
+        <v>-0.4278147453267218</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4912,6 +5005,9 @@
       <c r="AT32" t="n">
         <v>0.5659116707363574</v>
       </c>
+      <c r="AU32" t="n">
+        <v>0.5659521248090907</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5052,6 +5148,9 @@
       <c r="AT33" t="n">
         <v>0.7763197891032182</v>
       </c>
+      <c r="AU33" t="n">
+        <v>0.7763263446187966</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5192,6 +5291,9 @@
       <c r="AT34" t="n">
         <v>-0.8465107854936957</v>
       </c>
+      <c r="AU34" t="n">
+        <v>-0.8474114722521313</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5332,6 +5434,9 @@
       <c r="AT35" t="n">
         <v>0.8318282786906421</v>
       </c>
+      <c r="AU35" t="n">
+        <v>0.8318773922983671</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5472,6 +5577,9 @@
       <c r="AT36" t="n">
         <v>0.800463909139295</v>
       </c>
+      <c r="AU36" t="n">
+        <v>0.8002342344067587</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5612,6 +5720,9 @@
       <c r="AT37" t="n">
         <v>0.7669839380419237</v>
       </c>
+      <c r="AU37" t="n">
+        <v>0.7667446986329561</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5752,6 +5863,9 @@
       <c r="AT38" t="n">
         <v>0.6644654873107342</v>
       </c>
+      <c r="AU38" t="n">
+        <v>0.6643588425476181</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5892,6 +6006,9 @@
       <c r="AT39" t="n">
         <v>0.6140486584502817</v>
       </c>
+      <c r="AU39" t="n">
+        <v>0.6138139298443954</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6032,6 +6149,9 @@
       <c r="AT40" t="n">
         <v>0.793574277405472</v>
       </c>
+      <c r="AU40" t="n">
+        <v>0.793672570582682</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6172,6 +6292,9 @@
       <c r="AT41" t="n">
         <v>0.5854558864403727</v>
       </c>
+      <c r="AU41" t="n">
+        <v>0.5853335106002471</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6312,6 +6435,9 @@
       <c r="AT42" t="n">
         <v>0.6555449576162743</v>
       </c>
+      <c r="AU42" t="n">
+        <v>0.6551399140220849</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6452,6 +6578,9 @@
       <c r="AT43" t="n">
         <v>0.692849949132753</v>
       </c>
+      <c r="AU43" t="n">
+        <v>0.6926989757084052</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6592,6 +6721,9 @@
       <c r="AT44" t="n">
         <v>0.7174568228834878</v>
       </c>
+      <c r="AU44" t="n">
+        <v>0.7172592806907547</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6732,6 +6864,9 @@
       <c r="AT45" t="n">
         <v>0.7354705247856004</v>
       </c>
+      <c r="AU45" t="n">
+        <v>0.7349077887291824</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6872,6 +7007,9 @@
       <c r="AT46" t="n">
         <v>-1.385152514081718</v>
       </c>
+      <c r="AU46" t="n">
+        <v>-1.387416751510598</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7012,6 +7150,9 @@
       <c r="AT47" t="n">
         <v>-1.081817669218241</v>
       </c>
+      <c r="AU47" t="n">
+        <v>-1.083728898493535</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7152,6 +7293,9 @@
       <c r="AT48" t="n">
         <v>-0.9441139137099684</v>
       </c>
+      <c r="AU48" t="n">
+        <v>-0.946212121917832</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7292,6 +7436,9 @@
       <c r="AT49" t="n">
         <v>-0.6988142672515112</v>
       </c>
+      <c r="AU49" t="n">
+        <v>-0.7005196826215695</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7432,6 +7579,9 @@
       <c r="AT50" t="n">
         <v>-0.1048175987916296</v>
       </c>
+      <c r="AU50" t="n">
+        <v>-0.1057433982848294</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7572,6 +7722,9 @@
       <c r="AT51" t="n">
         <v>-0.9130092738475778</v>
       </c>
+      <c r="AU51" t="n">
+        <v>-0.914881553213915</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -7712,6 +7865,9 @@
       <c r="AT52" t="n">
         <v>-0.9130092738475778</v>
       </c>
+      <c r="AU52" t="n">
+        <v>-0.914881553213915</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -7852,6 +8008,9 @@
       <c r="AT53" t="n">
         <v>-1.222381209056108</v>
       </c>
+      <c r="AU53" t="n">
+        <v>-1.224889971493907</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -7992,6 +8151,9 @@
       <c r="AT54" t="n">
         <v>-0.219993757885226</v>
       </c>
+      <c r="AU54" t="n">
+        <v>-0.2211694666489114</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8132,6 +8294,9 @@
       <c r="AT55" t="n">
         <v>-1.108146337821224</v>
       </c>
+      <c r="AU55" t="n">
+        <v>-1.110147783431955</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8272,6 +8437,9 @@
       <c r="AT56" t="n">
         <v>-0.971346135562894</v>
       </c>
+      <c r="AU56" t="n">
+        <v>-0.9727981848743763</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8412,6 +8580,9 @@
       <c r="AT57" t="n">
         <v>-1.049774363092847</v>
       </c>
+      <c r="AU57" t="n">
+        <v>-1.051239719959557</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8552,6 +8723,9 @@
       <c r="AT58" t="n">
         <v>-1.188462835344807</v>
       </c>
+      <c r="AU58" t="n">
+        <v>-1.189728813097865</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -8692,6 +8866,9 @@
       <c r="AT59" t="n">
         <v>-0.8667727543670007</v>
       </c>
+      <c r="AU59" t="n">
+        <v>-0.868292319172649</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -8832,6 +9009,9 @@
       <c r="AT60" t="n">
         <v>-0.4920336615944195</v>
       </c>
+      <c r="AU60" t="n">
+        <v>-0.4928418790778634</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -8972,6 +9152,9 @@
       <c r="AT61" t="n">
         <v>0.3666602209007468</v>
       </c>
+      <c r="AU61" t="n">
+        <v>0.3663129316816832</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9112,6 +9295,9 @@
       <c r="AT62" t="n">
         <v>-1.326099301502279</v>
       </c>
+      <c r="AU62" t="n">
+        <v>-1.327781703188983</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9252,6 +9438,9 @@
       <c r="AT63" t="n">
         <v>-0.6156680275992532</v>
       </c>
+      <c r="AU63" t="n">
+        <v>-0.6167580213046839</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9392,6 +9581,9 @@
       <c r="AT64" t="n">
         <v>-0.9472801940903013</v>
       </c>
+      <c r="AU64" t="n">
+        <v>-0.9491491751567372</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9532,6 +9724,9 @@
       <c r="AT65" t="n">
         <v>-0.08919536421951997</v>
       </c>
+      <c r="AU65" t="n">
+        <v>-0.08978781093463956</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -9672,6 +9867,9 @@
       <c r="AT66" t="n">
         <v>-0.8703781533333744</v>
       </c>
+      <c r="AU66" t="n">
+        <v>-0.8712773679614731</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -9811,6 +10009,9 @@
       </c>
       <c r="AT67" t="n">
         <v>-0.8523299220393911</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8529672627372157</v>
       </c>
     </row>
   </sheetData>
